--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="938">
   <si>
     <t>DATA</t>
   </si>
@@ -2963,6 +2963,9 @@
   </si>
   <si>
     <t>Master data table</t>
+  </si>
+  <si>
+    <t>ShowInGrid</t>
   </si>
 </sst>
 </file>
@@ -5718,13 +5721,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:H383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D232" sqref="D232:D302"/>
+      <selection pane="bottomRight" activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5732,12 +5735,13 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -5751,16 +5755,19 @@
         <v>156</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -5776,14 +5783,17 @@
       <c r="E2" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -5796,14 +5806,17 @@
       <c r="D3" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -5819,14 +5832,17 @@
       <c r="E4" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -5839,14 +5855,17 @@
       <c r="D5" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -5862,14 +5881,17 @@
       <c r="E6" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -5882,14 +5904,17 @@
       <c r="D7" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -5902,14 +5927,17 @@
       <c r="D8" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -5925,14 +5953,17 @@
       <c r="E9" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -5943,16 +5974,19 @@
         <v>386</v>
       </c>
       <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
         <v>387</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -5963,16 +5997,19 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
         <v>387</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -5988,14 +6025,17 @@
       <c r="E12" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -6011,14 +6051,17 @@
       <c r="E13" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -6031,14 +6074,17 @@
       <c r="D14" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -6054,14 +6100,17 @@
       <c r="E15" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -6074,14 +6123,17 @@
       <c r="D16" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -6097,14 +6149,17 @@
       <c r="E17" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -6117,14 +6172,17 @@
       <c r="D18" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -6140,14 +6198,17 @@
       <c r="E19" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -6163,14 +6224,17 @@
       <c r="E20" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -6186,14 +6250,17 @@
       <c r="E21" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -6209,14 +6276,17 @@
       <c r="E22" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -6232,14 +6302,17 @@
       <c r="E23" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -6249,8 +6322,11 @@
       <c r="C24" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -6260,8 +6336,11 @@
       <c r="C25" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>161</v>
       </c>
@@ -6277,14 +6356,17 @@
       <c r="E26" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>161</v>
       </c>
@@ -6297,14 +6379,17 @@
       <c r="D27" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -6320,14 +6405,17 @@
       <c r="E28" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -6343,14 +6431,17 @@
       <c r="E29" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -6366,14 +6457,17 @@
       <c r="E30" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:8" ht="30">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -6389,14 +6483,17 @@
       <c r="E31" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60">
+    <row r="32" spans="1:8" ht="60">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -6412,14 +6509,17 @@
       <c r="E32" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -6432,14 +6532,17 @@
       <c r="D33" t="s">
         <v>155</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -6452,14 +6555,17 @@
       <c r="D34" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -6472,14 +6578,17 @@
       <c r="D35" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -6492,14 +6601,17 @@
       <c r="D36" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:8" ht="30">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -6512,14 +6624,17 @@
       <c r="D37" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -6532,14 +6647,17 @@
       <c r="D38" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:8" ht="60">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -6552,14 +6670,17 @@
       <c r="D39" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -6575,14 +6696,17 @@
       <c r="E40" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -6595,14 +6719,17 @@
       <c r="D41" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105">
+    <row r="42" spans="1:8" ht="105">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -6618,14 +6745,17 @@
       <c r="E42" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -6638,14 +6768,17 @@
       <c r="D43" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -6661,14 +6794,17 @@
       <c r="E44" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -6681,14 +6817,17 @@
       <c r="D45" t="s">
         <v>155</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -6704,14 +6843,17 @@
       <c r="E46" t="s">
         <v>155</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -6727,14 +6869,17 @@
       <c r="E47" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -6747,14 +6892,17 @@
       <c r="D48" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -6767,14 +6915,17 @@
       <c r="D49" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>161</v>
       </c>
@@ -6787,14 +6938,17 @@
       <c r="D50" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -6807,14 +6961,17 @@
       <c r="D51" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="E51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -6827,14 +6984,17 @@
       <c r="D52" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="H52" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -6847,14 +7007,17 @@
       <c r="D53" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -6867,14 +7030,17 @@
       <c r="D54" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -6887,14 +7053,17 @@
       <c r="D55" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -6907,14 +7076,17 @@
       <c r="D56" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -6927,14 +7099,17 @@
       <c r="D57" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -6950,14 +7125,17 @@
       <c r="E58" t="s">
         <v>155</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -6970,14 +7148,17 @@
       <c r="D59" t="s">
         <v>155</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -6990,14 +7171,17 @@
       <c r="D60" t="s">
         <v>155</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30">
+    <row r="61" spans="1:8" ht="30">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -7010,14 +7194,17 @@
       <c r="D61" t="s">
         <v>155</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="E61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>161</v>
       </c>
@@ -7030,14 +7217,17 @@
       <c r="D62" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -7050,14 +7240,17 @@
       <c r="D63" t="s">
         <v>155</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="E63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -7070,14 +7263,17 @@
       <c r="D64" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="E64" t="s">
+        <v>155</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -7090,14 +7286,17 @@
       <c r="D65" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="E65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -7110,14 +7309,17 @@
       <c r="D66" t="s">
         <v>155</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="E66" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>161</v>
       </c>
@@ -7130,14 +7332,17 @@
       <c r="D67" t="s">
         <v>155</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="E67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -7150,14 +7355,17 @@
       <c r="D68" t="s">
         <v>155</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -7170,14 +7378,17 @@
       <c r="D69" t="s">
         <v>155</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -7190,14 +7401,17 @@
       <c r="D70" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="E70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -7210,14 +7424,17 @@
       <c r="D71" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -7233,14 +7450,17 @@
       <c r="E72" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -7256,14 +7476,17 @@
       <c r="E73" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -7279,14 +7502,17 @@
       <c r="E74" t="s">
         <v>155</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -7302,14 +7528,17 @@
       <c r="E75" t="s">
         <v>155</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -7325,14 +7554,17 @@
       <c r="E76" t="s">
         <v>155</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -7345,14 +7577,17 @@
       <c r="D77" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="E77" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -7365,14 +7600,17 @@
       <c r="D78" t="s">
         <v>155</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -7388,14 +7626,17 @@
       <c r="E79" t="s">
         <v>155</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" t="s">
+        <v>155</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -7411,14 +7652,17 @@
       <c r="E80" t="s">
         <v>155</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -7434,14 +7678,17 @@
       <c r="E81" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" t="s">
+        <v>155</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -7457,14 +7704,17 @@
       <c r="E82" t="s">
         <v>155</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" t="s">
+        <v>155</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -7480,14 +7730,17 @@
       <c r="E83" t="s">
         <v>155</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" t="s">
+        <v>155</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -7500,14 +7753,17 @@
       <c r="D84" t="s">
         <v>155</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="E84" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -7523,14 +7779,17 @@
       <c r="E85" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -7546,14 +7805,17 @@
       <c r="E86" t="s">
         <v>155</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" t="s">
+        <v>155</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="H86" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -7566,14 +7828,17 @@
       <c r="D87" t="s">
         <v>155</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="E87" t="s">
+        <v>155</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="45">
+    <row r="88" spans="1:8" ht="45">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -7589,14 +7854,17 @@
       <c r="E88" t="s">
         <v>155</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -7607,16 +7875,19 @@
         <v>41</v>
       </c>
       <c r="E89" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" t="s">
         <v>387</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -7629,14 +7900,17 @@
       <c r="D90" t="s">
         <v>155</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="E90" t="s">
+        <v>155</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -7649,14 +7923,17 @@
       <c r="D91" t="s">
         <v>155</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="E91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="45">
+    <row r="92" spans="1:8" ht="45">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -7672,14 +7949,17 @@
       <c r="E92" t="s">
         <v>155</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" t="s">
+        <v>155</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -7692,14 +7972,17 @@
       <c r="D93" t="s">
         <v>155</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="E93" t="s">
+        <v>155</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -7712,14 +7995,17 @@
       <c r="D94" t="s">
         <v>155</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -7735,14 +8021,17 @@
       <c r="E95" t="s">
         <v>155</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" t="s">
+        <v>155</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -7758,14 +8047,17 @@
       <c r="E96" t="s">
         <v>155</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -7778,14 +8070,17 @@
       <c r="D97" t="s">
         <v>155</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="E97" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>161</v>
       </c>
@@ -7801,14 +8096,17 @@
       <c r="E98" t="s">
         <v>155</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -7824,14 +8122,17 @@
       <c r="E99" t="s">
         <v>155</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" t="s">
+        <v>155</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -7847,14 +8148,17 @@
       <c r="E100" t="s">
         <v>155</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -7870,14 +8174,17 @@
       <c r="E101" t="s">
         <v>155</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" t="s">
+        <v>155</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -7893,14 +8200,17 @@
       <c r="E102" t="s">
         <v>155</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" t="s">
+        <v>155</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="H102" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30">
+    <row r="103" spans="1:8" ht="30">
       <c r="A103" t="s">
         <v>161</v>
       </c>
@@ -7913,14 +8223,17 @@
       <c r="D103" t="s">
         <v>155</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="E103" t="s">
+        <v>155</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="H103" s="7" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -7936,14 +8249,17 @@
       <c r="E104" t="s">
         <v>155</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" t="s">
+        <v>155</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -7959,14 +8275,17 @@
       <c r="E105" t="s">
         <v>155</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" t="s">
+        <v>155</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>161</v>
       </c>
@@ -7979,14 +8298,17 @@
       <c r="D106" t="s">
         <v>155</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="E106" t="s">
+        <v>155</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="H106" s="7" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -7999,14 +8321,17 @@
       <c r="D107" t="s">
         <v>155</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="E107" t="s">
+        <v>155</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="H107" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -8019,14 +8344,17 @@
       <c r="D108" t="s">
         <v>155</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="E108" t="s">
+        <v>155</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>161</v>
       </c>
@@ -8042,14 +8370,17 @@
       <c r="E109" t="s">
         <v>155</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" t="s">
+        <v>155</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>161</v>
       </c>
@@ -8062,14 +8393,17 @@
       <c r="D110" t="s">
         <v>155</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="E110" t="s">
+        <v>155</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>161</v>
       </c>
@@ -8082,14 +8416,17 @@
       <c r="D111" t="s">
         <v>155</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="E111" t="s">
+        <v>155</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -8099,8 +8436,11 @@
       <c r="C112" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="E112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -8110,8 +8450,11 @@
       <c r="C113" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="E113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -8127,14 +8470,17 @@
       <c r="E114" t="s">
         <v>155</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" t="s">
+        <v>155</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="H114" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -8150,14 +8496,17 @@
       <c r="E115" t="s">
         <v>155</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" t="s">
+        <v>155</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="H115" s="7" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -8173,14 +8522,17 @@
       <c r="E116" t="s">
         <v>155</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" t="s">
+        <v>155</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>161</v>
       </c>
@@ -8196,14 +8548,17 @@
       <c r="E117" t="s">
         <v>155</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" t="s">
+        <v>155</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>161</v>
       </c>
@@ -8219,14 +8574,17 @@
       <c r="E118" t="s">
         <v>155</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="H118" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>161</v>
       </c>
@@ -8239,14 +8597,17 @@
       <c r="D119" t="s">
         <v>155</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="E119" t="s">
+        <v>155</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30">
+    <row r="120" spans="1:8" ht="30">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -8262,14 +8623,17 @@
       <c r="E120" t="s">
         <v>155</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" t="s">
+        <v>155</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>161</v>
       </c>
@@ -8282,14 +8646,17 @@
       <c r="D121" t="s">
         <v>155</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="E121" t="s">
+        <v>155</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -8302,14 +8669,17 @@
       <c r="D122" t="s">
         <v>155</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="E122" t="s">
+        <v>155</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="H122" s="7" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>161</v>
       </c>
@@ -8322,14 +8692,17 @@
       <c r="D123" t="s">
         <v>155</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="E123" t="s">
+        <v>155</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="H123" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>161</v>
       </c>
@@ -8345,14 +8718,17 @@
       <c r="E124" t="s">
         <v>155</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" t="s">
+        <v>155</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>161</v>
       </c>
@@ -8368,14 +8744,17 @@
       <c r="E125" t="s">
         <v>155</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" t="s">
+        <v>155</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="H125" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>161</v>
       </c>
@@ -8391,14 +8770,17 @@
       <c r="E126" t="s">
         <v>155</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" t="s">
+        <v>155</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="H126" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>161</v>
       </c>
@@ -8414,14 +8796,17 @@
       <c r="E127" t="s">
         <v>155</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" t="s">
+        <v>155</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="H127" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -8434,14 +8819,17 @@
       <c r="D128" t="s">
         <v>155</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="E128" t="s">
+        <v>155</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="H128" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>161</v>
       </c>
@@ -8454,14 +8842,17 @@
       <c r="D129" t="s">
         <v>155</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="E129" t="s">
+        <v>155</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="H129" s="7" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -8477,14 +8868,17 @@
       <c r="E130" t="s">
         <v>155</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" t="s">
+        <v>155</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G130" s="7" t="s">
+      <c r="H130" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>161</v>
       </c>
@@ -8500,14 +8894,17 @@
       <c r="E131" t="s">
         <v>155</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" t="s">
+        <v>155</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G131" s="7" t="s">
+      <c r="H131" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>161</v>
       </c>
@@ -8520,14 +8917,17 @@
       <c r="D132" t="s">
         <v>155</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="E132" t="s">
+        <v>155</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="H132" s="7" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="30">
+    <row r="133" spans="1:8" ht="30">
       <c r="A133" t="s">
         <v>161</v>
       </c>
@@ -8540,14 +8940,17 @@
       <c r="D133" t="s">
         <v>155</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="E133" t="s">
+        <v>155</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="H133" s="7" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30">
+    <row r="134" spans="1:8" ht="30">
       <c r="A134" t="s">
         <v>161</v>
       </c>
@@ -8560,14 +8963,17 @@
       <c r="D134" t="s">
         <v>155</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="E134" t="s">
+        <v>155</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="H134" s="7" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>161</v>
       </c>
@@ -8580,14 +8986,17 @@
       <c r="D135" t="s">
         <v>155</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="E135" t="s">
+        <v>155</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="H135" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>161</v>
       </c>
@@ -8603,14 +9012,17 @@
       <c r="E136" t="s">
         <v>155</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" t="s">
+        <v>155</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="H136" s="7" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>161</v>
       </c>
@@ -8623,14 +9035,17 @@
       <c r="D137" t="s">
         <v>155</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="E137" t="s">
+        <v>155</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="G137" s="7" t="s">
+      <c r="H137" s="7" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>161</v>
       </c>
@@ -8643,14 +9058,17 @@
       <c r="D138" t="s">
         <v>155</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="E138" t="s">
+        <v>155</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="H138" s="7" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="30">
+    <row r="139" spans="1:8" ht="30">
       <c r="A139" t="s">
         <v>161</v>
       </c>
@@ -8666,14 +9084,17 @@
       <c r="E139" t="s">
         <v>155</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" t="s">
+        <v>155</v>
+      </c>
+      <c r="G139" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="H139" s="7" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -8689,14 +9110,17 @@
       <c r="E140" t="s">
         <v>155</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" t="s">
+        <v>155</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="H140" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -8709,14 +9133,17 @@
       <c r="D141" t="s">
         <v>155</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="E141" t="s">
+        <v>155</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G141" s="7" t="s">
+      <c r="H141" s="7" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -8729,14 +9156,17 @@
       <c r="D142" t="s">
         <v>155</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="E142" t="s">
+        <v>155</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="H142" s="7" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -8749,14 +9179,17 @@
       <c r="D143" t="s">
         <v>155</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="E143" t="s">
+        <v>155</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="H143" s="7" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -8766,11 +9199,14 @@
       <c r="C144" t="s">
         <v>581</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="E144" t="s">
+        <v>155</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -8786,14 +9222,17 @@
       <c r="E145" t="s">
         <v>155</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" t="s">
+        <v>155</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="H145" s="7" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -8809,14 +9248,17 @@
       <c r="E146" t="s">
         <v>155</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" t="s">
+        <v>155</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G146" s="7" t="s">
+      <c r="H146" s="7" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -8832,14 +9274,17 @@
       <c r="E147" t="s">
         <v>155</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" t="s">
+        <v>155</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G147" s="7" t="s">
+      <c r="H147" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -8855,14 +9300,17 @@
       <c r="E148" t="s">
         <v>155</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" t="s">
+        <v>155</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="G148" s="7" t="s">
+      <c r="H148" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -8878,14 +9326,17 @@
       <c r="E149" t="s">
         <v>155</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F149" t="s">
+        <v>155</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="G149" s="7" t="s">
+      <c r="H149" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -8901,14 +9352,17 @@
       <c r="E150" t="s">
         <v>155</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" t="s">
+        <v>155</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G150" s="7" t="s">
+      <c r="H150" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -8921,14 +9375,17 @@
       <c r="D151" t="s">
         <v>155</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="E151" t="s">
+        <v>155</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G151" s="7" t="s">
+      <c r="H151" s="7" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -8941,14 +9398,17 @@
       <c r="D152" t="s">
         <v>155</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="E152" t="s">
+        <v>155</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="G152" s="7" t="s">
+      <c r="H152" s="7" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -8964,14 +9424,17 @@
       <c r="E153" t="s">
         <v>155</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F153" t="s">
+        <v>155</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="H153" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -8984,14 +9447,17 @@
       <c r="D154" t="s">
         <v>155</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="E154" t="s">
+        <v>155</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="H154" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -9004,14 +9470,17 @@
       <c r="D155" t="s">
         <v>155</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="E155" t="s">
+        <v>155</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G155" s="7" t="s">
+      <c r="H155" s="7" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -9027,14 +9496,17 @@
       <c r="E156" t="s">
         <v>155</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="F156" t="s">
+        <v>155</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="H156" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30">
+    <row r="157" spans="1:8" ht="30">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -9047,14 +9519,17 @@
       <c r="D157" t="s">
         <v>155</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="E157" t="s">
+        <v>155</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="G157" s="7" t="s">
+      <c r="H157" s="7" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -9070,14 +9545,17 @@
       <c r="E158" t="s">
         <v>155</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" t="s">
+        <v>155</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="30">
+    <row r="159" spans="1:8" ht="30">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -9093,14 +9571,17 @@
       <c r="E159" t="s">
         <v>155</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F159" t="s">
+        <v>155</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="H159" s="7" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="30">
+    <row r="160" spans="1:8" ht="30">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -9113,14 +9594,17 @@
       <c r="D160" t="s">
         <v>155</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="E160" t="s">
+        <v>155</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="H160" s="7" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="30">
+    <row r="161" spans="1:8" ht="30">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -9133,14 +9617,17 @@
       <c r="D161" t="s">
         <v>155</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="E161" t="s">
+        <v>155</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="H161" s="7" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="30">
+    <row r="162" spans="1:8" ht="30">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -9153,14 +9640,17 @@
       <c r="D162" t="s">
         <v>155</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="E162" t="s">
+        <v>155</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="H162" s="7" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -9176,14 +9666,17 @@
       <c r="E163" t="s">
         <v>155</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F163" t="s">
+        <v>155</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="G163" s="7" t="s">
+      <c r="H163" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -9199,14 +9692,17 @@
       <c r="E164" t="s">
         <v>155</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" t="s">
+        <v>155</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="G164" s="7" t="s">
+      <c r="H164" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>161</v>
       </c>
@@ -9222,14 +9718,17 @@
       <c r="E165" t="s">
         <v>155</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="F165" t="s">
+        <v>155</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="H165" s="7" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -9245,14 +9744,17 @@
       <c r="E166" t="s">
         <v>155</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" t="s">
+        <v>155</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="G166" s="7" t="s">
+      <c r="H166" s="7" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -9265,14 +9767,17 @@
       <c r="D167" t="s">
         <v>155</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="E167" t="s">
+        <v>155</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="G167" s="7" t="s">
+      <c r="H167" s="7" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>161</v>
       </c>
@@ -9285,14 +9790,17 @@
       <c r="D168" t="s">
         <v>155</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="E168" t="s">
+        <v>155</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="G168" s="7" t="s">
+      <c r="H168" s="7" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>161</v>
       </c>
@@ -9305,14 +9813,17 @@
       <c r="D169" t="s">
         <v>155</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="E169" t="s">
+        <v>155</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -9328,14 +9839,17 @@
       <c r="E170" t="s">
         <v>155</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" t="s">
+        <v>155</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="H170" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>161</v>
       </c>
@@ -9348,14 +9862,17 @@
       <c r="D171" t="s">
         <v>155</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="E171" t="s">
+        <v>155</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="G171" s="7" t="s">
+      <c r="H171" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="30">
+    <row r="172" spans="1:8" ht="30">
       <c r="A172" t="s">
         <v>161</v>
       </c>
@@ -9371,14 +9888,17 @@
       <c r="E172" t="s">
         <v>155</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" t="s">
+        <v>155</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="H172" s="7" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -9394,14 +9914,17 @@
       <c r="E173" t="s">
         <v>155</v>
       </c>
-      <c r="F173" s="7" t="s">
+      <c r="F173" t="s">
+        <v>155</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="G173" s="7" t="s">
+      <c r="H173" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -9414,14 +9937,17 @@
       <c r="D174" t="s">
         <v>155</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="E174" t="s">
+        <v>155</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="H174" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="30">
+    <row r="175" spans="1:8" ht="30">
       <c r="A175" t="s">
         <v>161</v>
       </c>
@@ -9434,14 +9960,17 @@
       <c r="D175" t="s">
         <v>155</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="E175" t="s">
+        <v>155</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="G175" s="7" t="s">
+      <c r="H175" s="7" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="30">
+    <row r="176" spans="1:8" ht="30">
       <c r="A176" t="s">
         <v>161</v>
       </c>
@@ -9454,14 +9983,17 @@
       <c r="D176" t="s">
         <v>155</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="E176" t="s">
+        <v>155</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="H176" s="7" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>161</v>
       </c>
@@ -9477,14 +10009,17 @@
       <c r="E177" t="s">
         <v>155</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" t="s">
+        <v>155</v>
+      </c>
+      <c r="G177" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G177" s="7" t="s">
+      <c r="H177" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>161</v>
       </c>
@@ -9500,14 +10035,17 @@
       <c r="E178" t="s">
         <v>155</v>
       </c>
-      <c r="F178" s="7" t="s">
+      <c r="F178" t="s">
+        <v>155</v>
+      </c>
+      <c r="G178" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="G178" s="7" t="s">
+      <c r="H178" s="7" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>161</v>
       </c>
@@ -9520,14 +10058,17 @@
       <c r="D179" t="s">
         <v>155</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="E179" t="s">
+        <v>155</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="G179" s="7" t="s">
+      <c r="H179" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>161</v>
       </c>
@@ -9543,14 +10084,17 @@
       <c r="E180" t="s">
         <v>155</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F180" t="s">
+        <v>155</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G180" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>161</v>
       </c>
@@ -9566,14 +10110,17 @@
       <c r="E181" t="s">
         <v>155</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="F181" t="s">
+        <v>155</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="G181" s="7" t="s">
+      <c r="H181" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>161</v>
       </c>
@@ -9586,14 +10133,17 @@
       <c r="D182" t="s">
         <v>155</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="E182" t="s">
+        <v>155</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="H182" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>161</v>
       </c>
@@ -9603,11 +10153,14 @@
       <c r="C183" t="s">
         <v>634</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="E183" t="s">
+        <v>155</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>161</v>
       </c>
@@ -9617,11 +10170,14 @@
       <c r="C184" t="s">
         <v>635</v>
       </c>
-      <c r="F184" s="7" t="s">
+      <c r="E184" t="s">
+        <v>155</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>161</v>
       </c>
@@ -9637,14 +10193,17 @@
       <c r="E185" t="s">
         <v>155</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F185" t="s">
+        <v>155</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="G185" s="7" t="s">
+      <c r="H185" s="7" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>161</v>
       </c>
@@ -9657,14 +10216,17 @@
       <c r="D186" t="s">
         <v>155</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="E186" t="s">
+        <v>155</v>
+      </c>
+      <c r="G186" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="G186" s="7" t="s">
+      <c r="H186" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="60">
+    <row r="187" spans="1:8" ht="60">
       <c r="A187" t="s">
         <v>161</v>
       </c>
@@ -9677,14 +10239,17 @@
       <c r="D187" t="s">
         <v>155</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="E187" t="s">
+        <v>155</v>
+      </c>
+      <c r="G187" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="G187" s="7" t="s">
+      <c r="H187" s="7" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>161</v>
       </c>
@@ -9700,14 +10265,17 @@
       <c r="E188" t="s">
         <v>155</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F188" t="s">
+        <v>155</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="G188" s="7" t="s">
+      <c r="H188" s="7" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>161</v>
       </c>
@@ -9717,14 +10285,17 @@
       <c r="C189" t="s">
         <v>642</v>
       </c>
-      <c r="F189" s="7" t="s">
+      <c r="E189" t="s">
+        <v>155</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G189" s="7" t="s">
+      <c r="H189" s="7" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>161</v>
       </c>
@@ -9740,14 +10311,17 @@
       <c r="E190" t="s">
         <v>155</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="F190" t="s">
+        <v>155</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="G190" s="7" t="s">
+      <c r="H190" s="7" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>161</v>
       </c>
@@ -9760,14 +10334,17 @@
       <c r="D191" t="s">
         <v>155</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="E191" t="s">
+        <v>155</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="G191" s="7" t="s">
+      <c r="H191" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>161</v>
       </c>
@@ -9783,14 +10360,17 @@
       <c r="E192" t="s">
         <v>155</v>
       </c>
-      <c r="F192" s="7" t="s">
+      <c r="F192" t="s">
+        <v>155</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="G192" s="7" t="s">
+      <c r="H192" s="7" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>161</v>
       </c>
@@ -9806,14 +10386,17 @@
       <c r="E193" t="s">
         <v>155</v>
       </c>
-      <c r="F193" s="7" t="s">
+      <c r="F193" t="s">
+        <v>155</v>
+      </c>
+      <c r="G193" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G193" s="7" t="s">
+      <c r="H193" s="7" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>161</v>
       </c>
@@ -9829,14 +10412,17 @@
       <c r="E194" t="s">
         <v>155</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F194" t="s">
+        <v>155</v>
+      </c>
+      <c r="G194" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="G194" s="7" t="s">
+      <c r="H194" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="30">
+    <row r="195" spans="1:8" ht="30">
       <c r="A195" t="s">
         <v>161</v>
       </c>
@@ -9849,14 +10435,17 @@
       <c r="D195" t="s">
         <v>155</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="E195" t="s">
+        <v>155</v>
+      </c>
+      <c r="G195" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="G195" s="7" t="s">
+      <c r="H195" s="7" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="30">
+    <row r="196" spans="1:8" ht="30">
       <c r="A196" t="s">
         <v>161</v>
       </c>
@@ -9869,14 +10458,17 @@
       <c r="D196" t="s">
         <v>155</v>
       </c>
-      <c r="F196" s="7" t="s">
+      <c r="E196" t="s">
+        <v>155</v>
+      </c>
+      <c r="G196" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="G196" s="7" t="s">
+      <c r="H196" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>161</v>
       </c>
@@ -9892,14 +10484,17 @@
       <c r="E197" t="s">
         <v>155</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" t="s">
+        <v>155</v>
+      </c>
+      <c r="G197" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="G197" s="7" t="s">
+      <c r="H197" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>161</v>
       </c>
@@ -9915,14 +10510,17 @@
       <c r="E198" t="s">
         <v>155</v>
       </c>
-      <c r="F198" s="7" t="s">
+      <c r="F198" t="s">
+        <v>155</v>
+      </c>
+      <c r="G198" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G198" s="7" t="s">
+      <c r="H198" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>161</v>
       </c>
@@ -9938,14 +10536,17 @@
       <c r="E199" t="s">
         <v>155</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="F199" t="s">
+        <v>155</v>
+      </c>
+      <c r="G199" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="G199" s="7" t="s">
+      <c r="H199" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30">
+    <row r="200" spans="1:8" ht="30">
       <c r="A200" t="s">
         <v>161</v>
       </c>
@@ -9958,14 +10559,17 @@
       <c r="D200" t="s">
         <v>155</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="E200" t="s">
+        <v>155</v>
+      </c>
+      <c r="G200" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="G200" s="7" t="s">
+      <c r="H200" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -9981,14 +10585,17 @@
       <c r="E201" t="s">
         <v>155</v>
       </c>
-      <c r="F201" s="7" t="s">
+      <c r="F201" t="s">
+        <v>155</v>
+      </c>
+      <c r="G201" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="G201" s="7" t="s">
+      <c r="H201" s="7" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -10001,14 +10608,17 @@
       <c r="D202" t="s">
         <v>155</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="E202" t="s">
+        <v>155</v>
+      </c>
+      <c r="G202" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="G202" s="7" t="s">
+      <c r="H202" s="7" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -10021,14 +10631,17 @@
       <c r="D203" t="s">
         <v>155</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="E203" t="s">
+        <v>155</v>
+      </c>
+      <c r="G203" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="G203" s="7" t="s">
+      <c r="H203" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="45">
+    <row r="204" spans="1:8" ht="45">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -10041,14 +10654,17 @@
       <c r="D204" t="s">
         <v>155</v>
       </c>
-      <c r="F204" s="7" t="s">
+      <c r="E204" t="s">
+        <v>155</v>
+      </c>
+      <c r="G204" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="G204" s="7" t="s">
+      <c r="H204" s="7" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="45">
+    <row r="205" spans="1:8" ht="45">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -10061,14 +10677,17 @@
       <c r="D205" t="s">
         <v>155</v>
       </c>
-      <c r="F205" s="7" t="s">
+      <c r="E205" t="s">
+        <v>155</v>
+      </c>
+      <c r="G205" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="G205" s="7" t="s">
+      <c r="H205" s="7" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -10081,14 +10700,17 @@
       <c r="D206" t="s">
         <v>155</v>
       </c>
-      <c r="F206" s="7" t="s">
-        <v>667</v>
+      <c r="E206" t="s">
+        <v>155</v>
       </c>
       <c r="G206" s="7" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -10101,14 +10723,17 @@
       <c r="D207" t="s">
         <v>155</v>
       </c>
-      <c r="F207" s="7" t="s">
+      <c r="E207" t="s">
+        <v>155</v>
+      </c>
+      <c r="G207" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="G207" s="7" t="s">
+      <c r="H207" s="7" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -10121,14 +10746,17 @@
       <c r="D208" t="s">
         <v>155</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="E208" t="s">
+        <v>155</v>
+      </c>
+      <c r="G208" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="G208" s="7" t="s">
+      <c r="H208" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -10141,14 +10769,17 @@
       <c r="D209" t="s">
         <v>155</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="E209" t="s">
+        <v>155</v>
+      </c>
+      <c r="G209" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="G209" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -10161,14 +10792,17 @@
       <c r="D210" t="s">
         <v>155</v>
       </c>
-      <c r="F210" s="7" t="s">
+      <c r="E210" t="s">
+        <v>155</v>
+      </c>
+      <c r="G210" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="G210" s="7" t="s">
+      <c r="H210" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -10181,14 +10815,17 @@
       <c r="D211" t="s">
         <v>155</v>
       </c>
-      <c r="F211" s="7" t="s">
+      <c r="E211" t="s">
+        <v>155</v>
+      </c>
+      <c r="G211" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="G211" s="7" t="s">
+      <c r="H211" s="7" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -10201,14 +10838,17 @@
       <c r="D212" t="s">
         <v>155</v>
       </c>
-      <c r="F212" s="7" t="s">
+      <c r="E212" t="s">
+        <v>155</v>
+      </c>
+      <c r="G212" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="G212" s="7" t="s">
+      <c r="H212" s="7" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -10221,14 +10861,17 @@
       <c r="D213" t="s">
         <v>155</v>
       </c>
-      <c r="F213" s="7" t="s">
-        <v>678</v>
+      <c r="E213" t="s">
+        <v>155</v>
       </c>
       <c r="G213" s="7" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="30">
+      <c r="H213" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="30">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -10244,14 +10887,17 @@
       <c r="E214" t="s">
         <v>155</v>
       </c>
-      <c r="F214" s="7" t="s">
+      <c r="F214" t="s">
+        <v>155</v>
+      </c>
+      <c r="G214" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="G214" s="7" t="s">
+      <c r="H214" s="7" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -10267,14 +10913,17 @@
       <c r="E215" t="s">
         <v>155</v>
       </c>
-      <c r="F215" s="7" t="s">
+      <c r="F215" t="s">
+        <v>155</v>
+      </c>
+      <c r="G215" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="G215" s="7" t="s">
+      <c r="H215" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -10287,14 +10936,17 @@
       <c r="D216" t="s">
         <v>155</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="E216" t="s">
+        <v>155</v>
+      </c>
+      <c r="G216" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G216" s="7" t="s">
+      <c r="H216" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="30">
+    <row r="217" spans="1:8" ht="30">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -10307,14 +10959,14 @@
       <c r="D217" t="s">
         <v>155</v>
       </c>
-      <c r="F217" s="7" t="s">
+      <c r="G217" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="G217" s="7" t="s">
+      <c r="H217" s="7" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="45">
+    <row r="218" spans="1:8" ht="45">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -10327,14 +10979,14 @@
       <c r="D218" t="s">
         <v>155</v>
       </c>
-      <c r="F218" s="7" t="s">
+      <c r="G218" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="G218" s="7" t="s">
+      <c r="H218" s="7" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -10347,14 +10999,17 @@
       <c r="D219" t="s">
         <v>155</v>
       </c>
-      <c r="F219" s="7" t="s">
+      <c r="E219" t="s">
+        <v>155</v>
+      </c>
+      <c r="G219" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="G219" s="7" t="s">
+      <c r="H219" s="7" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -10370,14 +11025,17 @@
       <c r="E220" t="s">
         <v>155</v>
       </c>
-      <c r="F220" s="7" t="s">
+      <c r="F220" t="s">
+        <v>155</v>
+      </c>
+      <c r="G220" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="H220" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -10393,14 +11051,17 @@
       <c r="E221" t="s">
         <v>155</v>
       </c>
-      <c r="F221" s="7" t="s">
+      <c r="F221" t="s">
+        <v>155</v>
+      </c>
+      <c r="G221" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="G221" s="7" t="s">
+      <c r="H221" s="7" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="30">
+    <row r="222" spans="1:8" ht="30">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -10413,14 +11074,17 @@
       <c r="D222" t="s">
         <v>155</v>
       </c>
-      <c r="F222" s="7" t="s">
+      <c r="E222" t="s">
+        <v>155</v>
+      </c>
+      <c r="G222" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="G222" s="7" t="s">
+      <c r="H222" s="7" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -10436,14 +11100,17 @@
       <c r="E223" t="s">
         <v>155</v>
       </c>
-      <c r="F223" s="7" t="s">
+      <c r="F223" t="s">
+        <v>155</v>
+      </c>
+      <c r="G223" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="G223" s="7" t="s">
+      <c r="H223" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -10459,14 +11126,17 @@
       <c r="E224" t="s">
         <v>155</v>
       </c>
-      <c r="F224" s="7" t="s">
+      <c r="F224" t="s">
+        <v>155</v>
+      </c>
+      <c r="G224" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="G224" s="7" t="s">
+      <c r="H224" s="7" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -10482,14 +11152,17 @@
       <c r="E225" t="s">
         <v>155</v>
       </c>
-      <c r="F225" s="7" t="s">
+      <c r="F225" t="s">
+        <v>155</v>
+      </c>
+      <c r="G225" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="G225" s="7" t="s">
+      <c r="H225" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -10505,14 +11178,17 @@
       <c r="E226" t="s">
         <v>155</v>
       </c>
-      <c r="F226" s="7" t="s">
+      <c r="F226" t="s">
+        <v>155</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="G226" s="7" t="s">
+      <c r="H226" s="7" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -10528,14 +11204,17 @@
       <c r="E227" t="s">
         <v>155</v>
       </c>
-      <c r="F227" s="7" t="s">
+      <c r="F227" t="s">
+        <v>155</v>
+      </c>
+      <c r="G227" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="G227" s="7" t="s">
+      <c r="H227" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -10551,14 +11230,17 @@
       <c r="E228" t="s">
         <v>155</v>
       </c>
-      <c r="F228" s="7" t="s">
+      <c r="F228" t="s">
+        <v>155</v>
+      </c>
+      <c r="G228" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="G228" s="7" t="s">
+      <c r="H228" s="7" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -10574,14 +11256,17 @@
       <c r="E229" t="s">
         <v>155</v>
       </c>
-      <c r="F229" s="7" t="s">
+      <c r="F229" t="s">
+        <v>155</v>
+      </c>
+      <c r="G229" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="G229" s="7" t="s">
+      <c r="H229" s="7" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -10597,14 +11282,17 @@
       <c r="E230" t="s">
         <v>155</v>
       </c>
-      <c r="F230" s="7" t="s">
+      <c r="F230" t="s">
+        <v>155</v>
+      </c>
+      <c r="G230" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="G230" s="7" t="s">
+      <c r="H230" s="7" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -10620,14 +11308,17 @@
       <c r="E231" t="s">
         <v>155</v>
       </c>
-      <c r="F231" s="7" t="s">
+      <c r="F231" t="s">
+        <v>155</v>
+      </c>
+      <c r="G231" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G231" s="7" t="s">
+      <c r="H231" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -10640,14 +11331,17 @@
       <c r="D232" t="s">
         <v>155</v>
       </c>
-      <c r="F232" s="7" t="s">
+      <c r="E232" t="s">
+        <v>155</v>
+      </c>
+      <c r="G232" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G232" s="7" t="s">
+      <c r="H232" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="30">
+    <row r="233" spans="1:8" ht="30">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -10663,14 +11357,17 @@
       <c r="E233" t="s">
         <v>155</v>
       </c>
-      <c r="F233" s="7" t="s">
+      <c r="F233" t="s">
+        <v>155</v>
+      </c>
+      <c r="G233" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="G233" s="7" t="s">
+      <c r="H233" s="7" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -10686,14 +11383,17 @@
       <c r="E234" t="s">
         <v>155</v>
       </c>
-      <c r="F234" s="7" t="s">
+      <c r="F234" t="s">
+        <v>155</v>
+      </c>
+      <c r="G234" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="G234" s="7" t="s">
+      <c r="H234" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="30">
+    <row r="235" spans="1:8" ht="30">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -10709,14 +11409,17 @@
       <c r="E235" t="s">
         <v>155</v>
       </c>
-      <c r="F235" s="7" t="s">
+      <c r="F235" t="s">
+        <v>155</v>
+      </c>
+      <c r="G235" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="G235" s="7" t="s">
+      <c r="H235" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="30">
+    <row r="236" spans="1:8" ht="30">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -10729,14 +11432,17 @@
       <c r="D236" t="s">
         <v>155</v>
       </c>
-      <c r="F236" s="7" t="s">
+      <c r="E236" t="s">
+        <v>155</v>
+      </c>
+      <c r="G236" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="G236" s="7" t="s">
+      <c r="H236" s="7" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -10752,14 +11458,17 @@
       <c r="E237" t="s">
         <v>155</v>
       </c>
-      <c r="F237" s="7" t="s">
+      <c r="F237" t="s">
+        <v>155</v>
+      </c>
+      <c r="G237" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="G237" s="7" t="s">
+      <c r="H237" s="7" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -10772,14 +11481,17 @@
       <c r="D238" t="s">
         <v>155</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="E238" t="s">
+        <v>155</v>
+      </c>
+      <c r="G238" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="G238" s="7" t="s">
+      <c r="H238" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="30">
+    <row r="239" spans="1:8" ht="30">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -10792,14 +11504,17 @@
       <c r="D239" t="s">
         <v>155</v>
       </c>
-      <c r="F239" s="7" t="s">
+      <c r="E239" t="s">
+        <v>155</v>
+      </c>
+      <c r="G239" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="G239" s="7" t="s">
+      <c r="H239" s="7" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="30">
+    <row r="240" spans="1:8" ht="30">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -10815,14 +11530,17 @@
       <c r="E240" t="s">
         <v>155</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="F240" t="s">
+        <v>155</v>
+      </c>
+      <c r="G240" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="G240" s="7" t="s">
+      <c r="H240" s="7" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -10838,14 +11556,17 @@
       <c r="E241" t="s">
         <v>155</v>
       </c>
-      <c r="F241" s="7" t="s">
+      <c r="F241" t="s">
+        <v>155</v>
+      </c>
+      <c r="G241" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="G241" s="7" t="s">
+      <c r="H241" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="30">
+    <row r="242" spans="1:8" ht="30">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -10861,14 +11582,17 @@
       <c r="E242" t="s">
         <v>155</v>
       </c>
-      <c r="F242" s="7" t="s">
+      <c r="F242" t="s">
+        <v>155</v>
+      </c>
+      <c r="G242" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="G242" s="7" t="s">
+      <c r="H242" s="7" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -10881,14 +11605,17 @@
       <c r="D243" t="s">
         <v>155</v>
       </c>
-      <c r="F243" s="7" t="s">
+      <c r="E243" t="s">
+        <v>155</v>
+      </c>
+      <c r="G243" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="G243" s="7" t="s">
+      <c r="H243" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="30">
+    <row r="244" spans="1:8" ht="30">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -10901,14 +11628,17 @@
       <c r="D244" t="s">
         <v>155</v>
       </c>
-      <c r="F244" s="7" t="s">
+      <c r="E244" t="s">
+        <v>155</v>
+      </c>
+      <c r="G244" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="G244" s="7" t="s">
+      <c r="H244" s="7" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="30">
+    <row r="245" spans="1:8" ht="30">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -10921,14 +11651,17 @@
       <c r="D245" t="s">
         <v>155</v>
       </c>
-      <c r="F245" s="7" t="s">
+      <c r="E245" t="s">
+        <v>155</v>
+      </c>
+      <c r="G245" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="G245" s="7" t="s">
+      <c r="H245" s="7" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="30">
+    <row r="246" spans="1:8" ht="30">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -10941,14 +11674,17 @@
       <c r="D246" t="s">
         <v>155</v>
       </c>
-      <c r="F246" s="7" t="s">
+      <c r="E246" t="s">
+        <v>155</v>
+      </c>
+      <c r="G246" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="G246" s="7" t="s">
+      <c r="H246" s="7" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="30">
+    <row r="247" spans="1:8" ht="30">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -10961,14 +11697,17 @@
       <c r="D247" t="s">
         <v>155</v>
       </c>
-      <c r="F247" s="7" t="s">
+      <c r="E247" t="s">
+        <v>155</v>
+      </c>
+      <c r="G247" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="G247" s="7" t="s">
+      <c r="H247" s="7" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="30">
+    <row r="248" spans="1:8" ht="30">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -10981,14 +11720,17 @@
       <c r="D248" t="s">
         <v>155</v>
       </c>
-      <c r="F248" s="7" t="s">
+      <c r="E248" t="s">
+        <v>155</v>
+      </c>
+      <c r="G248" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="G248" s="7" t="s">
+      <c r="H248" s="7" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -11004,14 +11746,17 @@
       <c r="E249" t="s">
         <v>155</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F249" t="s">
+        <v>155</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="G249" s="7" t="s">
+      <c r="H249" s="7" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -11024,14 +11769,17 @@
       <c r="D250" t="s">
         <v>155</v>
       </c>
-      <c r="F250" s="7" t="s">
+      <c r="E250" t="s">
+        <v>155</v>
+      </c>
+      <c r="G250" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="G250" s="7" t="s">
+      <c r="H250" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="30">
+    <row r="251" spans="1:8" ht="30">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -11044,14 +11792,17 @@
       <c r="D251" t="s">
         <v>155</v>
       </c>
-      <c r="F251" s="7" t="s">
+      <c r="E251" t="s">
+        <v>155</v>
+      </c>
+      <c r="G251" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="G251" s="7" t="s">
+      <c r="H251" s="7" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="45">
+    <row r="252" spans="1:8" ht="45">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -11064,14 +11815,17 @@
       <c r="D252" t="s">
         <v>155</v>
       </c>
-      <c r="F252" s="7" t="s">
+      <c r="E252" t="s">
+        <v>155</v>
+      </c>
+      <c r="G252" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="G252" s="7" t="s">
+      <c r="H252" s="7" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="30">
+    <row r="253" spans="1:8" ht="30">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -11084,14 +11838,17 @@
       <c r="D253" t="s">
         <v>155</v>
       </c>
-      <c r="F253" s="7" t="s">
+      <c r="E253" t="s">
+        <v>155</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="G253" s="7" t="s">
+      <c r="H253" s="7" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="30">
+    <row r="254" spans="1:8" ht="30">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -11104,14 +11861,17 @@
       <c r="D254" t="s">
         <v>155</v>
       </c>
-      <c r="F254" s="7" t="s">
+      <c r="E254" t="s">
+        <v>155</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="G254" s="7" t="s">
+      <c r="H254" s="7" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="45">
+    <row r="255" spans="1:8" ht="45">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -11124,14 +11884,17 @@
       <c r="D255" t="s">
         <v>155</v>
       </c>
-      <c r="F255" s="7" t="s">
+      <c r="E255" t="s">
+        <v>155</v>
+      </c>
+      <c r="G255" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="G255" s="7" t="s">
+      <c r="H255" s="7" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -11144,14 +11907,17 @@
       <c r="D256" t="s">
         <v>155</v>
       </c>
-      <c r="F256" s="7" t="s">
+      <c r="E256" t="s">
+        <v>155</v>
+      </c>
+      <c r="G256" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="G256" s="7" t="s">
+      <c r="H256" s="7" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -11167,14 +11933,17 @@
       <c r="E257" t="s">
         <v>155</v>
       </c>
-      <c r="F257" s="7" t="s">
+      <c r="F257" t="s">
+        <v>155</v>
+      </c>
+      <c r="G257" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="G257" s="7" t="s">
+      <c r="H257" s="7" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -11187,14 +11956,17 @@
       <c r="D258" t="s">
         <v>155</v>
       </c>
-      <c r="F258" s="7" t="s">
+      <c r="E258" t="s">
+        <v>155</v>
+      </c>
+      <c r="G258" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="G258" s="7" t="s">
+      <c r="H258" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -11207,14 +11979,17 @@
       <c r="D259" t="s">
         <v>155</v>
       </c>
-      <c r="F259" s="7" t="s">
+      <c r="E259" t="s">
+        <v>155</v>
+      </c>
+      <c r="G259" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G259" s="7" t="s">
+      <c r="H259" s="7" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -11227,14 +12002,17 @@
       <c r="D260" t="s">
         <v>155</v>
       </c>
-      <c r="F260" s="7" t="s">
+      <c r="E260" t="s">
+        <v>155</v>
+      </c>
+      <c r="G260" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="G260" s="7" t="s">
+      <c r="H260" s="7" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -11250,14 +12028,17 @@
       <c r="E261" t="s">
         <v>155</v>
       </c>
-      <c r="F261" s="7" t="s">
+      <c r="F261" t="s">
+        <v>155</v>
+      </c>
+      <c r="G261" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G261" s="7" t="s">
+      <c r="H261" s="7" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -11273,14 +12054,17 @@
       <c r="E262" t="s">
         <v>155</v>
       </c>
-      <c r="F262" s="7" t="s">
+      <c r="F262" t="s">
+        <v>155</v>
+      </c>
+      <c r="G262" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="G262" s="7" t="s">
+      <c r="H262" s="7" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -11296,14 +12080,17 @@
       <c r="E263" t="s">
         <v>155</v>
       </c>
-      <c r="F263" s="7" t="s">
+      <c r="F263" t="s">
+        <v>155</v>
+      </c>
+      <c r="G263" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="G263" s="7" t="s">
+      <c r="H263" s="7" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -11316,14 +12103,17 @@
       <c r="D264" t="s">
         <v>155</v>
       </c>
-      <c r="F264" s="7" t="s">
+      <c r="E264" t="s">
+        <v>155</v>
+      </c>
+      <c r="G264" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="G264" s="7" t="s">
+      <c r="H264" s="7" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -11336,14 +12126,17 @@
       <c r="D265" t="s">
         <v>155</v>
       </c>
-      <c r="F265" s="7" t="s">
+      <c r="E265" t="s">
+        <v>155</v>
+      </c>
+      <c r="G265" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="G265" s="7" t="s">
+      <c r="H265" s="7" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -11356,14 +12149,17 @@
       <c r="D266" t="s">
         <v>155</v>
       </c>
-      <c r="F266" s="7" t="s">
-        <v>764</v>
+      <c r="E266" t="s">
+        <v>155</v>
       </c>
       <c r="G266" s="7" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -11376,14 +12172,17 @@
       <c r="D267" t="s">
         <v>155</v>
       </c>
-      <c r="F267" s="7" t="s">
-        <v>667</v>
+      <c r="E267" t="s">
+        <v>155</v>
       </c>
       <c r="G267" s="7" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -11396,14 +12195,17 @@
       <c r="D268" t="s">
         <v>155</v>
       </c>
-      <c r="F268" s="7" t="s">
-        <v>765</v>
+      <c r="E268" t="s">
+        <v>155</v>
       </c>
       <c r="G268" s="7" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -11416,14 +12218,17 @@
       <c r="D269" t="s">
         <v>155</v>
       </c>
-      <c r="F269" s="7" t="s">
+      <c r="E269" t="s">
+        <v>155</v>
+      </c>
+      <c r="G269" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="G269" s="7" t="s">
+      <c r="H269" s="7" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -11436,14 +12241,17 @@
       <c r="D270" t="s">
         <v>155</v>
       </c>
-      <c r="F270" s="7" t="s">
+      <c r="E270" t="s">
+        <v>155</v>
+      </c>
+      <c r="G270" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="G270" s="7" t="s">
+      <c r="H270" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -11456,14 +12264,17 @@
       <c r="D271" t="s">
         <v>155</v>
       </c>
-      <c r="F271" s="7" t="s">
+      <c r="E271" t="s">
+        <v>155</v>
+      </c>
+      <c r="G271" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="G271" s="7" t="s">
+      <c r="H271" s="7" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -11476,14 +12287,17 @@
       <c r="D272" t="s">
         <v>155</v>
       </c>
-      <c r="F272" s="7" t="s">
+      <c r="E272" t="s">
+        <v>155</v>
+      </c>
+      <c r="G272" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="G272" s="7" t="s">
+      <c r="H272" s="7" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -11496,14 +12310,17 @@
       <c r="D273" t="s">
         <v>155</v>
       </c>
-      <c r="F273" s="7" t="s">
+      <c r="E273" t="s">
+        <v>155</v>
+      </c>
+      <c r="G273" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="G273" s="7" t="s">
+      <c r="H273" s="7" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -11516,14 +12333,17 @@
       <c r="D274" t="s">
         <v>155</v>
       </c>
-      <c r="F274" s="7" t="s">
+      <c r="E274" t="s">
+        <v>155</v>
+      </c>
+      <c r="G274" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="G274" s="7" t="s">
+      <c r="H274" s="7" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -11536,14 +12356,17 @@
       <c r="D275" t="s">
         <v>155</v>
       </c>
-      <c r="F275" s="7" t="s">
-        <v>678</v>
+      <c r="E275" t="s">
+        <v>155</v>
       </c>
       <c r="G275" s="7" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -11556,14 +12379,17 @@
       <c r="D276" t="s">
         <v>155</v>
       </c>
-      <c r="F276" s="7" t="s">
+      <c r="E276" t="s">
+        <v>155</v>
+      </c>
+      <c r="G276" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="G276" s="7" t="s">
+      <c r="H276" s="7" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -11576,14 +12402,17 @@
       <c r="D277" t="s">
         <v>155</v>
       </c>
-      <c r="F277" s="7" t="s">
+      <c r="E277" t="s">
+        <v>155</v>
+      </c>
+      <c r="G277" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="G277" s="7" t="s">
+      <c r="H277" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -11599,14 +12428,17 @@
       <c r="E278" t="s">
         <v>155</v>
       </c>
-      <c r="F278" s="7" t="s">
+      <c r="F278" t="s">
+        <v>155</v>
+      </c>
+      <c r="G278" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="G278" s="7" t="s">
+      <c r="H278" s="7" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -11619,14 +12451,17 @@
       <c r="D279" t="s">
         <v>155</v>
       </c>
-      <c r="F279" s="7" t="s">
+      <c r="E279" t="s">
+        <v>155</v>
+      </c>
+      <c r="G279" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G279" s="7" t="s">
+      <c r="H279" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -11642,14 +12477,17 @@
       <c r="E280" t="s">
         <v>155</v>
       </c>
-      <c r="F280" s="7" t="s">
+      <c r="F280" t="s">
+        <v>155</v>
+      </c>
+      <c r="G280" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="G280" s="7" t="s">
+      <c r="H280" s="7" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -11665,14 +12503,17 @@
       <c r="E281" t="s">
         <v>155</v>
       </c>
-      <c r="F281" s="7" t="s">
+      <c r="F281" t="s">
+        <v>155</v>
+      </c>
+      <c r="G281" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="G281" s="7" t="s">
+      <c r="H281" s="7" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -11688,14 +12529,17 @@
       <c r="E282" t="s">
         <v>155</v>
       </c>
-      <c r="F282" s="7" t="s">
+      <c r="F282" t="s">
+        <v>155</v>
+      </c>
+      <c r="G282" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="G282" s="7" t="s">
+      <c r="H282" s="7" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -11711,14 +12555,17 @@
       <c r="E283" t="s">
         <v>155</v>
       </c>
-      <c r="F283" s="7" t="s">
+      <c r="F283" t="s">
+        <v>155</v>
+      </c>
+      <c r="G283" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="G283" s="7" t="s">
+      <c r="H283" s="7" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -11731,14 +12578,17 @@
       <c r="D284" t="s">
         <v>155</v>
       </c>
-      <c r="F284" s="7" t="s">
+      <c r="E284" t="s">
+        <v>155</v>
+      </c>
+      <c r="G284" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="G284" s="7" t="s">
+      <c r="H284" s="7" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -11754,14 +12604,17 @@
       <c r="E285" t="s">
         <v>155</v>
       </c>
-      <c r="F285" s="7" t="s">
+      <c r="F285" t="s">
+        <v>155</v>
+      </c>
+      <c r="G285" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G285" s="7" t="s">
+      <c r="H285" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -11774,14 +12627,17 @@
       <c r="D286" t="s">
         <v>155</v>
       </c>
-      <c r="F286" s="7" t="s">
+      <c r="E286" t="s">
+        <v>155</v>
+      </c>
+      <c r="G286" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="G286" s="7" t="s">
+      <c r="H286" s="7" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="30">
+    <row r="287" spans="1:8" ht="30">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -11797,14 +12653,17 @@
       <c r="E287" t="s">
         <v>155</v>
       </c>
-      <c r="F287" s="7" t="s">
+      <c r="F287" t="s">
+        <v>155</v>
+      </c>
+      <c r="G287" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="G287" s="7" t="s">
+      <c r="H287" s="7" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -11817,14 +12676,17 @@
       <c r="D288" t="s">
         <v>155</v>
       </c>
-      <c r="F288" s="7" t="s">
+      <c r="E288" t="s">
+        <v>155</v>
+      </c>
+      <c r="G288" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="G288" s="7" t="s">
+      <c r="H288" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -11837,14 +12699,17 @@
       <c r="D289" t="s">
         <v>155</v>
       </c>
-      <c r="F289" s="7" t="s">
+      <c r="E289" t="s">
+        <v>155</v>
+      </c>
+      <c r="G289" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="G289" s="7" t="s">
+      <c r="H289" s="7" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -11857,14 +12722,17 @@
       <c r="D290" t="s">
         <v>155</v>
       </c>
-      <c r="F290" s="7" t="s">
+      <c r="E290" t="s">
+        <v>155</v>
+      </c>
+      <c r="G290" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="G290" s="7" t="s">
+      <c r="H290" s="7" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -11880,14 +12748,17 @@
       <c r="E291" t="s">
         <v>155</v>
       </c>
-      <c r="F291" s="7" t="s">
+      <c r="F291" t="s">
+        <v>155</v>
+      </c>
+      <c r="G291" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="G291" s="7" t="s">
+      <c r="H291" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -11903,14 +12774,17 @@
       <c r="E292" t="s">
         <v>155</v>
       </c>
-      <c r="F292" s="7" t="s">
+      <c r="F292" t="s">
+        <v>155</v>
+      </c>
+      <c r="G292" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G292" s="7" t="s">
+      <c r="H292" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -11923,14 +12797,17 @@
       <c r="D293" t="s">
         <v>155</v>
       </c>
-      <c r="F293" s="7" t="s">
+      <c r="E293" t="s">
+        <v>155</v>
+      </c>
+      <c r="G293" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="G293" s="7" t="s">
+      <c r="H293" s="7" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -11946,14 +12823,17 @@
       <c r="E294" t="s">
         <v>155</v>
       </c>
-      <c r="F294" s="7" t="s">
+      <c r="F294" t="s">
+        <v>155</v>
+      </c>
+      <c r="G294" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="G294" s="7" t="s">
+      <c r="H294" s="7" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -11966,14 +12846,17 @@
       <c r="D295" t="s">
         <v>155</v>
       </c>
-      <c r="F295" s="7" t="s">
+      <c r="E295" t="s">
+        <v>155</v>
+      </c>
+      <c r="G295" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="G295" s="7" t="s">
+      <c r="H295" s="7" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -11989,14 +12872,17 @@
       <c r="E296" t="s">
         <v>155</v>
       </c>
-      <c r="F296" s="7" t="s">
+      <c r="F296" t="s">
+        <v>155</v>
+      </c>
+      <c r="G296" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="G296" s="7" t="s">
+      <c r="H296" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -12009,14 +12895,17 @@
       <c r="D297" t="s">
         <v>155</v>
       </c>
-      <c r="F297" s="7" t="s">
+      <c r="E297" t="s">
+        <v>155</v>
+      </c>
+      <c r="G297" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="G297" s="7" t="s">
+      <c r="H297" s="7" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>161</v>
       </c>
@@ -12029,14 +12918,17 @@
       <c r="D298" t="s">
         <v>155</v>
       </c>
-      <c r="F298" s="7" t="s">
+      <c r="E298" t="s">
+        <v>155</v>
+      </c>
+      <c r="G298" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="G298" s="7" t="s">
+      <c r="H298" s="7" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>161</v>
       </c>
@@ -12049,14 +12941,17 @@
       <c r="D299" t="s">
         <v>155</v>
       </c>
-      <c r="F299" s="7" t="s">
+      <c r="E299" t="s">
+        <v>155</v>
+      </c>
+      <c r="G299" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G299" s="7" t="s">
+      <c r="H299" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>161</v>
       </c>
@@ -12069,14 +12964,17 @@
       <c r="D300" t="s">
         <v>155</v>
       </c>
-      <c r="F300" s="7" t="s">
+      <c r="E300" t="s">
+        <v>155</v>
+      </c>
+      <c r="G300" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="G300" s="7" t="s">
+      <c r="H300" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>161</v>
       </c>
@@ -12089,14 +12987,17 @@
       <c r="D301" t="s">
         <v>155</v>
       </c>
-      <c r="F301" s="7" t="s">
+      <c r="E301" t="s">
+        <v>155</v>
+      </c>
+      <c r="G301" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G301" s="7" t="s">
+      <c r="H301" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>161</v>
       </c>
@@ -12109,10 +13010,13 @@
       <c r="D302" t="s">
         <v>155</v>
       </c>
-      <c r="F302" s="7" t="s">
+      <c r="E302" t="s">
+        <v>155</v>
+      </c>
+      <c r="G302" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="G302" s="7" t="s">
+      <c r="H302" s="7" t="s">
         <v>913</v>
       </c>
     </row>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -15,7 +15,7 @@
     <sheet name="web.Model{C}" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$380</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$382</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables{T}'!$A$1:$K$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'web.Model{C}'!$A$1:$C$380</definedName>
   </definedNames>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="944">
   <si>
     <t>DATA</t>
   </si>
@@ -2966,6 +2966,24 @@
   </si>
   <si>
     <t>ShowInGrid</t>
+  </si>
+  <si>
+    <t>FROM_DATE</t>
+  </si>
+  <si>
+    <t>TO_DATE</t>
+  </si>
+  <si>
+    <t>Von Datum</t>
+  </si>
+  <si>
+    <t>Bis Datum</t>
+  </si>
+  <si>
+    <t>From date</t>
+  </si>
+  <si>
+    <t>To date</t>
   </si>
 </sst>
 </file>
@@ -5721,19 +5739,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H383"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E219" sqref="E219"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
@@ -5821,10 +5839,10 @@
         <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>938</v>
       </c>
       <c r="D4" t="s">
         <v>155</v>
@@ -5836,10 +5854,10 @@
         <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>377</v>
+        <v>940</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>821</v>
+        <v>942</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5847,10 +5865,10 @@
         <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>939</v>
       </c>
       <c r="D5" t="s">
         <v>155</v>
@@ -5858,11 +5876,14 @@
       <c r="E5" t="s">
         <v>155</v>
       </c>
+      <c r="F5" t="s">
+        <v>155</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>378</v>
+        <v>941</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>662</v>
+        <v>943</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5870,10 +5891,10 @@
         <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
         <v>155</v>
@@ -5885,10 +5906,10 @@
         <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5896,10 +5917,10 @@
         <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>381</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>155</v>
@@ -5908,10 +5929,10 @@
         <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>823</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5922,7 +5943,7 @@
         <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D8" t="s">
         <v>155</v>
@@ -5930,11 +5951,14 @@
       <c r="E8" t="s">
         <v>155</v>
       </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5942,10 +5966,10 @@
         <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D9" t="s">
         <v>155</v>
@@ -5953,14 +5977,11 @@
       <c r="E9" t="s">
         <v>155</v>
       </c>
-      <c r="F9" t="s">
-        <v>155</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5968,22 +5989,22 @@
         <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>383</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
       </c>
       <c r="E10" t="s">
         <v>155</v>
       </c>
-      <c r="F10" t="s">
-        <v>387</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5994,19 +6015,22 @@
         <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>385</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
       </c>
       <c r="E11" t="s">
         <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>387</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>662</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6014,25 +6038,22 @@
         <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>390</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
+        <v>386</v>
       </c>
       <c r="E12" t="s">
         <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>178</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6040,25 +6061,22 @@
         <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>825</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6066,30 +6084,33 @@
         <v>161</v>
       </c>
       <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
         <v>179</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" t="s">
-        <v>183</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -6104,7 +6125,7 @@
         <v>155</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>825</v>
@@ -6115,7 +6136,7 @@
         <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -6127,7 +6148,7 @@
         <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>662</v>
@@ -6138,7 +6159,7 @@
         <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -6153,7 +6174,7 @@
         <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>825</v>
@@ -6164,7 +6185,7 @@
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -6176,21 +6197,21 @@
         <v>155</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" t="s">
         <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>155</v>
@@ -6202,10 +6223,10 @@
         <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6213,10 +6234,10 @@
         <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>155</v>
@@ -6224,14 +6245,11 @@
       <c r="E20" t="s">
         <v>155</v>
       </c>
-      <c r="F20" t="s">
-        <v>155</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>827</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6239,10 +6257,10 @@
         <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D21" t="s">
         <v>155</v>
@@ -6254,21 +6272,21 @@
         <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" t="s">
         <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D22" t="s">
         <v>155</v>
@@ -6280,10 +6298,10 @@
         <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6294,7 +6312,7 @@
         <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D23" t="s">
         <v>155</v>
@@ -6306,10 +6324,10 @@
         <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6320,10 +6338,22 @@
         <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
       </c>
       <c r="E24" t="s">
         <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6334,10 +6364,22 @@
         <v>192</v>
       </c>
       <c r="C25" t="s">
-        <v>409</v>
+        <v>406</v>
+      </c>
+      <c r="D25" t="s">
+        <v>155</v>
       </c>
       <c r="E25" t="s">
         <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6345,25 +6387,13 @@
         <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="E26" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6371,22 +6401,13 @@
         <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>155</v>
+        <v>409</v>
       </c>
       <c r="E27" t="s">
         <v>155</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6394,10 +6415,10 @@
         <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>411</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>155</v>
@@ -6412,7 +6433,7 @@
         <v>197</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>198</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6420,10 +6441,10 @@
         <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>411</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
         <v>155</v>
@@ -6431,14 +6452,11 @@
       <c r="E29" t="s">
         <v>155</v>
       </c>
-      <c r="F29" t="s">
-        <v>155</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>831</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6446,10 +6464,10 @@
         <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>411</v>
       </c>
       <c r="C30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D30" t="s">
         <v>155</v>
@@ -6461,21 +6479,21 @@
         <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>416</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D31" t="s">
         <v>155</v>
@@ -6487,13 +6505,13 @@
         <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="60">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -6501,7 +6519,7 @@
         <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D32" t="s">
         <v>155</v>
@@ -6513,13 +6531,13 @@
         <v>155</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -6527,7 +6545,7 @@
         <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D33" t="s">
         <v>155</v>
@@ -6535,14 +6553,17 @@
       <c r="E33" t="s">
         <v>155</v>
       </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
       <c r="G33" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -6550,7 +6571,7 @@
         <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D34" t="s">
         <v>155</v>
@@ -6558,11 +6579,14 @@
       <c r="E34" t="s">
         <v>155</v>
       </c>
+      <c r="F34" t="s">
+        <v>155</v>
+      </c>
       <c r="G34" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6573,7 +6597,7 @@
         <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D35" t="s">
         <v>155</v>
@@ -6582,10 +6606,10 @@
         <v>155</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>837</v>
+        <v>422</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6596,7 +6620,7 @@
         <v>202</v>
       </c>
       <c r="C36" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
@@ -6605,13 +6629,13 @@
         <v>155</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -6619,7 +6643,7 @@
         <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D37" t="s">
         <v>155</v>
@@ -6628,10 +6652,10 @@
         <v>155</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>429</v>
+        <v>837</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6642,7 +6666,7 @@
         <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D38" t="s">
         <v>155</v>
@@ -6651,13 +6675,13 @@
         <v>155</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="60">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -6665,7 +6689,7 @@
         <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D39" t="s">
         <v>155</v>
@@ -6674,10 +6698,10 @@
         <v>155</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6685,56 +6709,53 @@
         <v>161</v>
       </c>
       <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>430</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>432</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
         <v>205</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="105">
-      <c r="A42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" t="s">
-        <v>208</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -6749,7 +6770,7 @@
         <v>155</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>825</v>
@@ -6760,30 +6781,30 @@
         <v>161</v>
       </c>
       <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="105">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
         <v>208</v>
-      </c>
-      <c r="C43" t="s">
-        <v>437</v>
-      </c>
-      <c r="D43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" t="s">
-        <v>212</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -6798,7 +6819,7 @@
         <v>155</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>825</v>
@@ -6809,10 +6830,10 @@
         <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="D45" t="s">
         <v>155</v>
@@ -6821,10 +6842,10 @@
         <v>155</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>662</v>
+        <v>842</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6832,10 +6853,10 @@
         <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>155</v>
@@ -6847,10 +6868,10 @@
         <v>155</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6858,10 +6879,10 @@
         <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>443</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
         <v>155</v>
@@ -6869,14 +6890,11 @@
       <c r="E47" t="s">
         <v>155</v>
       </c>
-      <c r="F47" t="s">
-        <v>155</v>
-      </c>
       <c r="G47" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>844</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6887,7 +6905,7 @@
         <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
         <v>155</v>
@@ -6895,11 +6913,14 @@
       <c r="E48" t="s">
         <v>155</v>
       </c>
+      <c r="F48" t="s">
+        <v>155</v>
+      </c>
       <c r="G48" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6910,7 +6931,7 @@
         <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D49" t="s">
         <v>155</v>
@@ -6918,11 +6939,14 @@
       <c r="E49" t="s">
         <v>155</v>
       </c>
+      <c r="F49" t="s">
+        <v>155</v>
+      </c>
       <c r="G49" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6933,7 +6957,7 @@
         <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D50" t="s">
         <v>155</v>
@@ -6942,10 +6966,10 @@
         <v>155</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6956,7 +6980,7 @@
         <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D51" t="s">
         <v>155</v>
@@ -6965,10 +6989,10 @@
         <v>155</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6979,7 +7003,7 @@
         <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>449</v>
       </c>
       <c r="D52" t="s">
         <v>155</v>
@@ -6988,10 +7012,10 @@
         <v>155</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7002,7 +7026,7 @@
         <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>451</v>
       </c>
       <c r="D53" t="s">
         <v>155</v>
@@ -7011,10 +7035,10 @@
         <v>155</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>662</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7025,7 +7049,7 @@
         <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
         <v>155</v>
@@ -7034,10 +7058,10 @@
         <v>155</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7048,7 +7072,7 @@
         <v>215</v>
       </c>
       <c r="C55" t="s">
-        <v>457</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
         <v>155</v>
@@ -7057,10 +7081,10 @@
         <v>155</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>850</v>
+        <v>662</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7071,7 +7095,7 @@
         <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D56" t="s">
         <v>155</v>
@@ -7080,10 +7104,10 @@
         <v>155</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7094,7 +7118,7 @@
         <v>215</v>
       </c>
       <c r="C57" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D57" t="s">
         <v>155</v>
@@ -7103,10 +7127,10 @@
         <v>155</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7114,10 +7138,10 @@
         <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D58" t="s">
         <v>155</v>
@@ -7125,14 +7149,11 @@
       <c r="E58" t="s">
         <v>155</v>
       </c>
-      <c r="F58" t="s">
-        <v>155</v>
-      </c>
       <c r="G58" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7140,10 +7161,10 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D59" t="s">
         <v>155</v>
@@ -7152,10 +7173,10 @@
         <v>155</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7166,7 +7187,7 @@
         <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D60" t="s">
         <v>155</v>
@@ -7174,14 +7195,17 @@
       <c r="E60" t="s">
         <v>155</v>
       </c>
+      <c r="F60" t="s">
+        <v>155</v>
+      </c>
       <c r="G60" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -7189,7 +7213,7 @@
         <v>217</v>
       </c>
       <c r="C61" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D61" t="s">
         <v>155</v>
@@ -7198,10 +7222,10 @@
         <v>155</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7212,7 +7236,7 @@
         <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D62" t="s">
         <v>155</v>
@@ -7221,13 +7245,13 @@
         <v>155</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -7235,7 +7259,7 @@
         <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D63" t="s">
         <v>155</v>
@@ -7244,10 +7268,10 @@
         <v>155</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7258,7 +7282,7 @@
         <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D64" t="s">
         <v>155</v>
@@ -7267,10 +7291,10 @@
         <v>155</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7281,7 +7305,7 @@
         <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>473</v>
       </c>
       <c r="D65" t="s">
         <v>155</v>
@@ -7290,10 +7314,10 @@
         <v>155</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>825</v>
+        <v>858</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7304,7 +7328,7 @@
         <v>217</v>
       </c>
       <c r="C66" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D66" t="s">
         <v>155</v>
@@ -7313,10 +7337,10 @@
         <v>155</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>662</v>
+        <v>859</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7327,7 +7351,7 @@
         <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
         <v>155</v>
@@ -7336,10 +7360,10 @@
         <v>155</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7350,7 +7374,7 @@
         <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D68" t="s">
         <v>155</v>
@@ -7359,10 +7383,10 @@
         <v>155</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>861</v>
+        <v>662</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7373,7 +7397,7 @@
         <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D69" t="s">
         <v>155</v>
@@ -7382,10 +7406,10 @@
         <v>155</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7396,7 +7420,7 @@
         <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D70" t="s">
         <v>155</v>
@@ -7405,10 +7429,10 @@
         <v>155</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7419,7 +7443,7 @@
         <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D71" t="s">
         <v>155</v>
@@ -7428,10 +7452,10 @@
         <v>155</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7439,10 +7463,10 @@
         <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>490</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="D72" t="s">
         <v>155</v>
@@ -7450,14 +7474,11 @@
       <c r="E72" t="s">
         <v>155</v>
       </c>
-      <c r="F72" t="s">
-        <v>155</v>
-      </c>
       <c r="G72" s="7" t="s">
-        <v>218</v>
+        <v>487</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>180</v>
+        <v>863</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7465,10 +7486,10 @@
         <v>161</v>
       </c>
       <c r="B73" t="s">
-        <v>490</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="D73" t="s">
         <v>155</v>
@@ -7476,14 +7497,11 @@
       <c r="E73" t="s">
         <v>155</v>
       </c>
-      <c r="F73" t="s">
-        <v>155</v>
-      </c>
       <c r="G73" s="7" t="s">
-        <v>197</v>
+        <v>489</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>198</v>
+        <v>864</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7491,7 +7509,7 @@
         <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C74" t="s">
         <v>413</v>
@@ -7517,10 +7535,10 @@
         <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>412</v>
       </c>
       <c r="D75" t="s">
         <v>155</v>
@@ -7532,10 +7550,10 @@
         <v>155</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>865</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7543,10 +7561,10 @@
         <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>491</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="D76" t="s">
         <v>155</v>
@@ -7569,10 +7587,10 @@
         <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>491</v>
       </c>
       <c r="C77" t="s">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
         <v>155</v>
@@ -7580,11 +7598,14 @@
       <c r="E77" t="s">
         <v>155</v>
       </c>
+      <c r="F77" t="s">
+        <v>155</v>
+      </c>
       <c r="G77" s="7" t="s">
-        <v>493</v>
+        <v>223</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7595,7 +7616,7 @@
         <v>225</v>
       </c>
       <c r="C78" t="s">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -7603,11 +7624,14 @@
       <c r="E78" t="s">
         <v>155</v>
       </c>
+      <c r="F78" t="s">
+        <v>155</v>
+      </c>
       <c r="G78" s="7" t="s">
-        <v>495</v>
+        <v>218</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>867</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7615,10 +7639,10 @@
         <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>413</v>
+        <v>492</v>
       </c>
       <c r="D79" t="s">
         <v>155</v>
@@ -7626,14 +7650,11 @@
       <c r="E79" t="s">
         <v>155</v>
       </c>
-      <c r="F79" t="s">
-        <v>155</v>
-      </c>
       <c r="G79" s="7" t="s">
-        <v>218</v>
+        <v>493</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>180</v>
+        <v>866</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7641,10 +7662,10 @@
         <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D80" t="s">
         <v>155</v>
@@ -7652,14 +7673,11 @@
       <c r="E80" t="s">
         <v>155</v>
       </c>
-      <c r="F80" t="s">
-        <v>155</v>
-      </c>
       <c r="G80" s="7" t="s">
-        <v>229</v>
+        <v>495</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>230</v>
+        <v>867</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7667,7 +7685,7 @@
         <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C81" t="s">
         <v>413</v>
@@ -7693,10 +7711,10 @@
         <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C82" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D82" t="s">
         <v>155</v>
@@ -7708,10 +7726,10 @@
         <v>155</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7719,10 +7737,10 @@
         <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="D83" t="s">
         <v>155</v>
@@ -7734,10 +7752,10 @@
         <v>155</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>498</v>
+        <v>218</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>825</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7745,10 +7763,10 @@
         <v>161</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C84" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D84" t="s">
         <v>155</v>
@@ -7756,11 +7774,14 @@
       <c r="E84" t="s">
         <v>155</v>
       </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
       <c r="G84" s="7" t="s">
-        <v>500</v>
+        <v>233</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>868</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7768,10 +7789,10 @@
         <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
         <v>155</v>
@@ -7783,21 +7804,21 @@
         <v>155</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30">
       <c r="A86" t="s">
         <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C86" t="s">
-        <v>376</v>
+        <v>499</v>
       </c>
       <c r="D86" t="s">
         <v>155</v>
@@ -7805,14 +7826,11 @@
       <c r="E86" t="s">
         <v>155</v>
       </c>
-      <c r="F86" t="s">
-        <v>155</v>
-      </c>
       <c r="G86" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>821</v>
+        <v>868</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7820,7 +7838,7 @@
         <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -7831,22 +7849,25 @@
       <c r="E87" t="s">
         <v>155</v>
       </c>
+      <c r="F87" t="s">
+        <v>155</v>
+      </c>
       <c r="G87" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="45">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>376</v>
       </c>
       <c r="D88" t="s">
         <v>155</v>
@@ -7858,10 +7879,10 @@
         <v>155</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>662</v>
+        <v>821</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7869,25 +7890,25 @@
         <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>155</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
       </c>
-      <c r="F89" t="s">
-        <v>387</v>
-      </c>
       <c r="G89" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -7895,7 +7916,7 @@
         <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>506</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
         <v>155</v>
@@ -7903,11 +7924,14 @@
       <c r="E90" t="s">
         <v>155</v>
       </c>
+      <c r="F90" t="s">
+        <v>155</v>
+      </c>
       <c r="G90" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>869</v>
+        <v>662</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7918,30 +7942,30 @@
         <v>245</v>
       </c>
       <c r="C91" t="s">
-        <v>508</v>
-      </c>
-      <c r="D91" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
         <v>155</v>
       </c>
+      <c r="F91" t="s">
+        <v>387</v>
+      </c>
       <c r="G91" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="45">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C92" t="s">
-        <v>376</v>
+        <v>506</v>
       </c>
       <c r="D92" t="s">
         <v>155</v>
@@ -7949,14 +7973,11 @@
       <c r="E92" t="s">
         <v>155</v>
       </c>
-      <c r="F92" t="s">
-        <v>155</v>
-      </c>
       <c r="G92" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>821</v>
+        <v>869</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7964,10 +7985,10 @@
         <v>161</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>508</v>
       </c>
       <c r="D93" t="s">
         <v>155</v>
@@ -7976,13 +7997,13 @@
         <v>155</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -7990,7 +8011,7 @@
         <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>512</v>
+        <v>376</v>
       </c>
       <c r="D94" t="s">
         <v>155</v>
@@ -7998,11 +8019,14 @@
       <c r="E94" t="s">
         <v>155</v>
       </c>
+      <c r="F94" t="s">
+        <v>155</v>
+      </c>
       <c r="G94" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>871</v>
+        <v>821</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8010,10 +8034,10 @@
         <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>155</v>
@@ -8021,14 +8045,11 @@
       <c r="E95" t="s">
         <v>155</v>
       </c>
-      <c r="F95" t="s">
-        <v>155</v>
-      </c>
       <c r="G95" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>825</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8036,10 +8057,10 @@
         <v>161</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>512</v>
       </c>
       <c r="D96" t="s">
         <v>155</v>
@@ -8047,14 +8068,11 @@
       <c r="E96" t="s">
         <v>155</v>
       </c>
-      <c r="F96" t="s">
-        <v>155</v>
-      </c>
       <c r="G96" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>662</v>
+        <v>871</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8062,7 +8080,7 @@
         <v>161</v>
       </c>
       <c r="B97" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -8073,8 +8091,11 @@
       <c r="E97" t="s">
         <v>155</v>
       </c>
+      <c r="F97" t="s">
+        <v>155</v>
+      </c>
       <c r="G97" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>825</v>
@@ -8085,10 +8106,10 @@
         <v>161</v>
       </c>
       <c r="B98" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>155</v>
@@ -8100,10 +8121,10 @@
         <v>155</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>825</v>
+        <v>662</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8111,10 +8132,10 @@
         <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C99" t="s">
-        <v>518</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
         <v>155</v>
@@ -8122,14 +8143,11 @@
       <c r="E99" t="s">
         <v>155</v>
       </c>
-      <c r="F99" t="s">
-        <v>155</v>
-      </c>
       <c r="G99" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>872</v>
+        <v>825</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8140,7 +8158,7 @@
         <v>263</v>
       </c>
       <c r="C100" t="s">
-        <v>520</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
         <v>155</v>
@@ -8152,10 +8170,10 @@
         <v>155</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>190</v>
+        <v>517</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>191</v>
+        <v>825</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8163,10 +8181,10 @@
         <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>521</v>
+        <v>263</v>
       </c>
       <c r="C101" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D101" t="s">
         <v>155</v>
@@ -8178,10 +8196,10 @@
         <v>155</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>265</v>
+        <v>872</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8189,10 +8207,10 @@
         <v>161</v>
       </c>
       <c r="B102" t="s">
-        <v>521</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D102" t="s">
         <v>155</v>
@@ -8204,13 +8222,13 @@
         <v>155</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>525</v>
+        <v>190</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="30">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>161</v>
       </c>
@@ -8218,7 +8236,7 @@
         <v>521</v>
       </c>
       <c r="C103" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D103" t="s">
         <v>155</v>
@@ -8226,11 +8244,14 @@
       <c r="E103" t="s">
         <v>155</v>
       </c>
+      <c r="F103" t="s">
+        <v>155</v>
+      </c>
       <c r="G103" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>873</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8238,10 +8259,10 @@
         <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>521</v>
       </c>
       <c r="C104" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -8253,21 +8274,21 @@
         <v>155</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>391</v>
+        <v>525</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30">
       <c r="A105" t="s">
         <v>161</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>521</v>
       </c>
       <c r="C105" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D105" t="s">
         <v>155</v>
@@ -8275,14 +8296,11 @@
       <c r="E105" t="s">
         <v>155</v>
       </c>
-      <c r="F105" t="s">
-        <v>155</v>
-      </c>
       <c r="G105" s="7" t="s">
-        <v>274</v>
+        <v>527</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>275</v>
+        <v>873</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8290,10 +8308,10 @@
         <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C106" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D106" t="s">
         <v>155</v>
@@ -8301,11 +8319,14 @@
       <c r="E106" t="s">
         <v>155</v>
       </c>
+      <c r="F106" t="s">
+        <v>155</v>
+      </c>
       <c r="G106" s="7" t="s">
-        <v>531</v>
+        <v>391</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>874</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8316,7 +8337,7 @@
         <v>272</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>529</v>
       </c>
       <c r="D107" t="s">
         <v>155</v>
@@ -8324,11 +8345,14 @@
       <c r="E107" t="s">
         <v>155</v>
       </c>
+      <c r="F107" t="s">
+        <v>155</v>
+      </c>
       <c r="G107" s="7" t="s">
-        <v>532</v>
+        <v>274</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8339,7 +8363,7 @@
         <v>272</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>530</v>
       </c>
       <c r="D108" t="s">
         <v>155</v>
@@ -8348,10 +8372,10 @@
         <v>155</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>292</v>
+        <v>874</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8359,10 +8383,10 @@
         <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C109" t="s">
-        <v>534</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
         <v>155</v>
@@ -8370,14 +8394,11 @@
       <c r="E109" t="s">
         <v>155</v>
       </c>
-      <c r="F109" t="s">
-        <v>155</v>
-      </c>
       <c r="G109" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>875</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8385,10 +8406,10 @@
         <v>161</v>
       </c>
       <c r="B110" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D110" t="s">
         <v>155</v>
@@ -8397,10 +8418,10 @@
         <v>155</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>825</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8411,7 +8432,7 @@
         <v>276</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>534</v>
       </c>
       <c r="D111" t="s">
         <v>155</v>
@@ -8419,11 +8440,14 @@
       <c r="E111" t="s">
         <v>155</v>
       </c>
+      <c r="F111" t="s">
+        <v>155</v>
+      </c>
       <c r="G111" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>662</v>
+        <v>875</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8434,10 +8458,19 @@
         <v>276</v>
       </c>
       <c r="C112" t="s">
-        <v>538</v>
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>155</v>
       </c>
       <c r="E112" t="s">
         <v>155</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8448,10 +8481,19 @@
         <v>276</v>
       </c>
       <c r="C113" t="s">
-        <v>539</v>
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
       </c>
       <c r="E113" t="s">
         <v>155</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8459,25 +8501,13 @@
         <v>161</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C114" t="s">
-        <v>497</v>
-      </c>
-      <c r="D114" t="s">
-        <v>155</v>
+        <v>538</v>
       </c>
       <c r="E114" t="s">
         <v>155</v>
-      </c>
-      <c r="F114" t="s">
-        <v>155</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8485,25 +8515,13 @@
         <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
-        <v>541</v>
-      </c>
-      <c r="D115" t="s">
-        <v>155</v>
+        <v>539</v>
       </c>
       <c r="E115" t="s">
         <v>155</v>
-      </c>
-      <c r="F115" t="s">
-        <v>155</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8511,10 +8529,10 @@
         <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>543</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="D116" t="s">
         <v>155</v>
@@ -8526,10 +8544,10 @@
         <v>155</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>712</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8537,10 +8555,10 @@
         <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>543</v>
+        <v>278</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>541</v>
       </c>
       <c r="D117" t="s">
         <v>155</v>
@@ -8552,10 +8570,10 @@
         <v>155</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>302</v>
+        <v>808</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8563,10 +8581,10 @@
         <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>543</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>544</v>
       </c>
       <c r="D118" t="s">
         <v>155</v>
@@ -8578,10 +8596,10 @@
         <v>155</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>825</v>
+        <v>712</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8589,33 +8607,36 @@
         <v>161</v>
       </c>
       <c r="B119" t="s">
+        <v>543</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>155</v>
+      </c>
+      <c r="E119" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" t="s">
+        <v>155</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" t="s">
         <v>287</v>
       </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" t="s">
-        <v>155</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="30">
-      <c r="A120" t="s">
-        <v>161</v>
-      </c>
-      <c r="B120" t="s">
-        <v>290</v>
-      </c>
       <c r="C120" t="s">
-        <v>549</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
         <v>155</v>
@@ -8627,7 +8648,7 @@
         <v>155</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>825</v>
@@ -8638,7 +8659,7 @@
         <v>161</v>
       </c>
       <c r="B121" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C121" t="s">
         <v>9</v>
@@ -8650,13 +8671,13 @@
         <v>155</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" ht="30">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -8664,7 +8685,7 @@
         <v>290</v>
       </c>
       <c r="C122" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D122" t="s">
         <v>155</v>
@@ -8672,11 +8693,14 @@
       <c r="E122" t="s">
         <v>155</v>
       </c>
+      <c r="F122" t="s">
+        <v>155</v>
+      </c>
       <c r="G122" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>876</v>
+        <v>825</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8687,7 +8711,7 @@
         <v>290</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
         <v>155</v>
@@ -8696,10 +8720,10 @@
         <v>155</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>299</v>
+        <v>662</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8707,10 +8731,10 @@
         <v>161</v>
       </c>
       <c r="B124" t="s">
-        <v>555</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>552</v>
       </c>
       <c r="D124" t="s">
         <v>155</v>
@@ -8718,14 +8742,11 @@
       <c r="E124" t="s">
         <v>155</v>
       </c>
-      <c r="F124" t="s">
-        <v>155</v>
-      </c>
       <c r="G124" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>292</v>
+        <v>876</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8733,10 +8754,10 @@
         <v>161</v>
       </c>
       <c r="B125" t="s">
-        <v>555</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
-        <v>557</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
         <v>155</v>
@@ -8744,14 +8765,11 @@
       <c r="E125" t="s">
         <v>155</v>
       </c>
-      <c r="F125" t="s">
-        <v>155</v>
-      </c>
       <c r="G125" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8759,10 +8777,10 @@
         <v>161</v>
       </c>
       <c r="B126" t="s">
-        <v>297</v>
+        <v>555</v>
       </c>
       <c r="C126" t="s">
-        <v>415</v>
+        <v>55</v>
       </c>
       <c r="D126" t="s">
         <v>155</v>
@@ -8774,10 +8792,10 @@
         <v>155</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>416</v>
+        <v>556</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8785,10 +8803,10 @@
         <v>161</v>
       </c>
       <c r="B127" t="s">
-        <v>297</v>
+        <v>555</v>
       </c>
       <c r="C127" t="s">
-        <v>376</v>
+        <v>557</v>
       </c>
       <c r="D127" t="s">
         <v>155</v>
@@ -8800,10 +8818,10 @@
         <v>155</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>821</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8814,7 +8832,7 @@
         <v>297</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
         <v>155</v>
@@ -8822,11 +8840,14 @@
       <c r="E128" t="s">
         <v>155</v>
       </c>
+      <c r="F128" t="s">
+        <v>155</v>
+      </c>
       <c r="G128" s="7" t="s">
-        <v>559</v>
+        <v>416</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>825</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8837,7 +8858,7 @@
         <v>297</v>
       </c>
       <c r="C129" t="s">
-        <v>560</v>
+        <v>376</v>
       </c>
       <c r="D129" t="s">
         <v>155</v>
@@ -8845,11 +8866,14 @@
       <c r="E129" t="s">
         <v>155</v>
       </c>
+      <c r="F129" t="s">
+        <v>155</v>
+      </c>
       <c r="G129" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>877</v>
+        <v>821</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8857,7 +8881,7 @@
         <v>161</v>
       </c>
       <c r="B130" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -8868,11 +8892,8 @@
       <c r="E130" t="s">
         <v>155</v>
       </c>
-      <c r="F130" t="s">
-        <v>155</v>
-      </c>
       <c r="G130" s="7" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>825</v>
@@ -8883,10 +8904,10 @@
         <v>161</v>
       </c>
       <c r="B131" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C131" t="s">
-        <v>376</v>
+        <v>560</v>
       </c>
       <c r="D131" t="s">
         <v>155</v>
@@ -8894,14 +8915,11 @@
       <c r="E131" t="s">
         <v>155</v>
       </c>
-      <c r="F131" t="s">
-        <v>155</v>
-      </c>
       <c r="G131" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>821</v>
+        <v>877</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8912,7 +8930,7 @@
         <v>300</v>
       </c>
       <c r="C132" t="s">
-        <v>562</v>
+        <v>12</v>
       </c>
       <c r="D132" t="s">
         <v>155</v>
@@ -8920,14 +8938,17 @@
       <c r="E132" t="s">
         <v>155</v>
       </c>
+      <c r="F132" t="s">
+        <v>155</v>
+      </c>
       <c r="G132" s="7" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="30">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>161</v>
       </c>
@@ -8935,7 +8956,7 @@
         <v>300</v>
       </c>
       <c r="C133" t="s">
-        <v>564</v>
+        <v>376</v>
       </c>
       <c r="D133" t="s">
         <v>155</v>
@@ -8943,14 +8964,17 @@
       <c r="E133" t="s">
         <v>155</v>
       </c>
+      <c r="F133" t="s">
+        <v>155</v>
+      </c>
       <c r="G133" s="7" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="30">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>161</v>
       </c>
@@ -8958,7 +8982,7 @@
         <v>300</v>
       </c>
       <c r="C134" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D134" t="s">
         <v>155</v>
@@ -8967,13 +8991,13 @@
         <v>155</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30">
       <c r="A135" t="s">
         <v>161</v>
       </c>
@@ -8981,7 +9005,7 @@
         <v>300</v>
       </c>
       <c r="C135" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D135" t="s">
         <v>155</v>
@@ -8990,21 +9014,21 @@
         <v>155</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="30">
       <c r="A136" t="s">
         <v>161</v>
       </c>
       <c r="B136" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C136" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D136" t="s">
         <v>155</v>
@@ -9012,14 +9036,11 @@
       <c r="E136" t="s">
         <v>155</v>
       </c>
-      <c r="F136" t="s">
-        <v>155</v>
-      </c>
       <c r="G136" s="7" t="s">
-        <v>304</v>
+        <v>567</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9027,10 +9048,10 @@
         <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>568</v>
       </c>
       <c r="D137" t="s">
         <v>155</v>
@@ -9039,10 +9060,10 @@
         <v>155</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9053,7 +9074,7 @@
         <v>303</v>
       </c>
       <c r="C138" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D138" t="s">
         <v>155</v>
@@ -9061,22 +9082,25 @@
       <c r="E138" t="s">
         <v>155</v>
       </c>
+      <c r="F138" t="s">
+        <v>155</v>
+      </c>
       <c r="G138" s="7" t="s">
-        <v>573</v>
+        <v>304</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="30">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C139" t="s">
-        <v>574</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
         <v>155</v>
@@ -9084,14 +9108,11 @@
       <c r="E139" t="s">
         <v>155</v>
       </c>
-      <c r="F139" t="s">
-        <v>155</v>
-      </c>
       <c r="G139" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>883</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9099,10 +9120,10 @@
         <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>572</v>
       </c>
       <c r="D140" t="s">
         <v>155</v>
@@ -9110,25 +9131,22 @@
       <c r="E140" t="s">
         <v>155</v>
       </c>
-      <c r="F140" t="s">
-        <v>155</v>
-      </c>
       <c r="G140" s="7" t="s">
-        <v>310</v>
+        <v>573</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="30">
       <c r="A141" t="s">
         <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C141" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D141" t="s">
         <v>155</v>
@@ -9136,11 +9154,14 @@
       <c r="E141" t="s">
         <v>155</v>
       </c>
+      <c r="F141" t="s">
+        <v>155</v>
+      </c>
       <c r="G141" s="7" t="s">
-        <v>197</v>
+        <v>575</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9151,7 +9172,7 @@
         <v>309</v>
       </c>
       <c r="C142" t="s">
-        <v>577</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
         <v>155</v>
@@ -9159,11 +9180,14 @@
       <c r="E142" t="s">
         <v>155</v>
       </c>
+      <c r="F142" t="s">
+        <v>155</v>
+      </c>
       <c r="G142" s="7" t="s">
-        <v>578</v>
+        <v>310</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>885</v>
+        <v>662</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9174,7 +9198,7 @@
         <v>309</v>
       </c>
       <c r="C143" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D143" t="s">
         <v>155</v>
@@ -9183,10 +9207,10 @@
         <v>155</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>580</v>
+        <v>197</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9197,13 +9221,19 @@
         <v>309</v>
       </c>
       <c r="C144" t="s">
-        <v>581</v>
+        <v>577</v>
+      </c>
+      <c r="D144" t="s">
+        <v>155</v>
       </c>
       <c r="E144" t="s">
         <v>155</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9211,10 +9241,10 @@
         <v>161</v>
       </c>
       <c r="B145" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C145" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D145" t="s">
         <v>155</v>
@@ -9222,14 +9252,11 @@
       <c r="E145" t="s">
         <v>155</v>
       </c>
-      <c r="F145" t="s">
-        <v>155</v>
-      </c>
       <c r="G145" s="7" t="s">
-        <v>313</v>
+        <v>580</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9237,25 +9264,16 @@
         <v>161</v>
       </c>
       <c r="B146" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" t="s">
-        <v>155</v>
+        <v>581</v>
       </c>
       <c r="E146" t="s">
         <v>155</v>
       </c>
-      <c r="F146" t="s">
-        <v>155</v>
-      </c>
       <c r="G146" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>712</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9263,10 +9281,10 @@
         <v>161</v>
       </c>
       <c r="B147" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C147" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D147" t="s">
         <v>155</v>
@@ -9278,10 +9296,10 @@
         <v>155</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>586</v>
+        <v>313</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>271</v>
+        <v>887</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9289,10 +9307,10 @@
         <v>161</v>
       </c>
       <c r="B148" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C148" t="s">
-        <v>587</v>
+        <v>27</v>
       </c>
       <c r="D148" t="s">
         <v>155</v>
@@ -9304,10 +9322,10 @@
         <v>155</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>178</v>
+        <v>712</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9318,7 +9336,7 @@
         <v>315</v>
       </c>
       <c r="C149" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="D149" t="s">
         <v>155</v>
@@ -9330,10 +9348,10 @@
         <v>155</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9344,7 +9362,7 @@
         <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>587</v>
       </c>
       <c r="D150" t="s">
         <v>155</v>
@@ -9356,10 +9374,10 @@
         <v>155</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>298</v>
+        <v>588</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>299</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9370,7 +9388,7 @@
         <v>315</v>
       </c>
       <c r="C151" t="s">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="D151" t="s">
         <v>155</v>
@@ -9378,11 +9396,14 @@
       <c r="E151" t="s">
         <v>155</v>
       </c>
+      <c r="F151" t="s">
+        <v>155</v>
+      </c>
       <c r="G151" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>843</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9393,7 +9414,7 @@
         <v>315</v>
       </c>
       <c r="C152" t="s">
-        <v>592</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
         <v>155</v>
@@ -9401,11 +9422,14 @@
       <c r="E152" t="s">
         <v>155</v>
       </c>
+      <c r="F152" t="s">
+        <v>155</v>
+      </c>
       <c r="G152" s="7" t="s">
-        <v>593</v>
+        <v>298</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>888</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9413,10 +9437,10 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C153" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="D153" t="s">
         <v>155</v>
@@ -9424,14 +9448,11 @@
       <c r="E153" t="s">
         <v>155</v>
       </c>
-      <c r="F153" t="s">
-        <v>155</v>
-      </c>
       <c r="G153" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>271</v>
+        <v>843</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9439,10 +9460,10 @@
         <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>592</v>
       </c>
       <c r="D154" t="s">
         <v>155</v>
@@ -9451,10 +9472,10 @@
         <v>155</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>662</v>
+        <v>888</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9465,7 +9486,7 @@
         <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>592</v>
+        <v>528</v>
       </c>
       <c r="D155" t="s">
         <v>155</v>
@@ -9473,19 +9494,22 @@
       <c r="E155" t="s">
         <v>155</v>
       </c>
+      <c r="F155" t="s">
+        <v>155</v>
+      </c>
       <c r="G155" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="30">
       <c r="A156" t="s">
         <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C156" t="s">
         <v>9</v>
@@ -9496,25 +9520,22 @@
       <c r="E156" t="s">
         <v>155</v>
       </c>
-      <c r="F156" t="s">
-        <v>155</v>
-      </c>
       <c r="G156" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="30">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>161</v>
       </c>
       <c r="B157" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C157" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D157" t="s">
         <v>155</v>
@@ -9523,10 +9544,10 @@
         <v>155</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9534,10 +9555,10 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C158" t="s">
-        <v>600</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
         <v>155</v>
@@ -9549,7 +9570,7 @@
         <v>155</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>662</v>
@@ -9560,10 +9581,10 @@
         <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C159" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D159" t="s">
         <v>155</v>
@@ -9571,17 +9592,14 @@
       <c r="E159" t="s">
         <v>155</v>
       </c>
-      <c r="F159" t="s">
-        <v>155</v>
-      </c>
       <c r="G159" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="30">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -9589,7 +9607,7 @@
         <v>323</v>
       </c>
       <c r="C160" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D160" t="s">
         <v>155</v>
@@ -9597,11 +9615,14 @@
       <c r="E160" t="s">
         <v>155</v>
       </c>
+      <c r="F160" t="s">
+        <v>155</v>
+      </c>
       <c r="G160" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>889</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="30">
@@ -9612,7 +9633,7 @@
         <v>323</v>
       </c>
       <c r="C161" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D161" t="s">
         <v>155</v>
@@ -9620,11 +9641,14 @@
       <c r="E161" t="s">
         <v>155</v>
       </c>
+      <c r="F161" t="s">
+        <v>155</v>
+      </c>
       <c r="G161" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="30">
@@ -9635,71 +9659,65 @@
         <v>323</v>
       </c>
       <c r="C162" t="s">
+        <v>598</v>
+      </c>
+      <c r="D162" t="s">
+        <v>155</v>
+      </c>
+      <c r="E162" t="s">
+        <v>155</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="30">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" t="s">
+        <v>604</v>
+      </c>
+      <c r="D163" t="s">
+        <v>155</v>
+      </c>
+      <c r="E163" t="s">
+        <v>155</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="30">
+      <c r="A164" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" t="s">
         <v>606</v>
       </c>
-      <c r="D162" t="s">
-        <v>155</v>
-      </c>
-      <c r="E162" t="s">
-        <v>155</v>
-      </c>
-      <c r="G162" s="7" t="s">
+      <c r="D164" t="s">
+        <v>155</v>
+      </c>
+      <c r="E164" t="s">
+        <v>155</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="H162" s="7" t="s">
+      <c r="H164" s="7" t="s">
         <v>892</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>326</v>
-      </c>
-      <c r="C163" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" t="s">
-        <v>155</v>
-      </c>
-      <c r="E163" t="s">
-        <v>155</v>
-      </c>
-      <c r="F163" t="s">
-        <v>155</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" t="s">
-        <v>329</v>
-      </c>
-      <c r="C164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" t="s">
-        <v>155</v>
-      </c>
-      <c r="E164" t="s">
-        <v>155</v>
-      </c>
-      <c r="F164" t="s">
-        <v>155</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9707,10 +9725,10 @@
         <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>610</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
         <v>155</v>
@@ -9722,10 +9740,10 @@
         <v>155</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>893</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9733,10 +9751,10 @@
         <v>161</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C166" t="s">
-        <v>612</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
         <v>155</v>
@@ -9748,10 +9766,10 @@
         <v>155</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>894</v>
+        <v>662</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9762,7 +9780,7 @@
         <v>331</v>
       </c>
       <c r="C167" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D167" t="s">
         <v>155</v>
@@ -9770,11 +9788,14 @@
       <c r="E167" t="s">
         <v>155</v>
       </c>
+      <c r="F167" t="s">
+        <v>155</v>
+      </c>
       <c r="G167" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9785,7 +9806,7 @@
         <v>331</v>
       </c>
       <c r="C168" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D168" t="s">
         <v>155</v>
@@ -9793,14 +9814,17 @@
       <c r="E168" t="s">
         <v>155</v>
       </c>
+      <c r="F168" t="s">
+        <v>155</v>
+      </c>
       <c r="G168" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="30">
       <c r="A169" t="s">
         <v>161</v>
       </c>
@@ -9808,7 +9832,7 @@
         <v>331</v>
       </c>
       <c r="C169" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D169" t="s">
         <v>155</v>
@@ -9817,21 +9841,21 @@
         <v>155</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="30">
       <c r="A170" t="s">
         <v>161</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>616</v>
       </c>
       <c r="D170" t="s">
         <v>155</v>
@@ -9839,14 +9863,11 @@
       <c r="E170" t="s">
         <v>155</v>
       </c>
-      <c r="F170" t="s">
-        <v>155</v>
-      </c>
       <c r="G170" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>825</v>
+        <v>896</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9854,10 +9875,10 @@
         <v>161</v>
       </c>
       <c r="B171" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>618</v>
       </c>
       <c r="D171" t="s">
         <v>155</v>
@@ -9866,13 +9887,13 @@
         <v>155</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="30">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>161</v>
       </c>
@@ -9880,7 +9901,7 @@
         <v>334</v>
       </c>
       <c r="C172" t="s">
-        <v>622</v>
+        <v>12</v>
       </c>
       <c r="D172" t="s">
         <v>155</v>
@@ -9892,10 +9913,10 @@
         <v>155</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>898</v>
+        <v>825</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9903,10 +9924,10 @@
         <v>161</v>
       </c>
       <c r="B173" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
         <v>155</v>
@@ -9914,25 +9935,22 @@
       <c r="E173" t="s">
         <v>155</v>
       </c>
-      <c r="F173" t="s">
-        <v>155</v>
-      </c>
       <c r="G173" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="30">
       <c r="A174" t="s">
         <v>161</v>
       </c>
       <c r="B174" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>622</v>
       </c>
       <c r="D174" t="s">
         <v>155</v>
@@ -9940,14 +9958,17 @@
       <c r="E174" t="s">
         <v>155</v>
       </c>
+      <c r="F174" t="s">
+        <v>155</v>
+      </c>
       <c r="G174" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="30">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>161</v>
       </c>
@@ -9955,7 +9976,7 @@
         <v>338</v>
       </c>
       <c r="C175" t="s">
-        <v>626</v>
+        <v>12</v>
       </c>
       <c r="D175" t="s">
         <v>155</v>
@@ -9963,14 +9984,17 @@
       <c r="E175" t="s">
         <v>155</v>
       </c>
+      <c r="F175" t="s">
+        <v>155</v>
+      </c>
       <c r="G175" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="30">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>161</v>
       </c>
@@ -9978,71 +10002,65 @@
         <v>338</v>
       </c>
       <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" t="s">
+        <v>155</v>
+      </c>
+      <c r="E176" t="s">
+        <v>155</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="30">
+      <c r="A177" t="s">
+        <v>161</v>
+      </c>
+      <c r="B177" t="s">
+        <v>338</v>
+      </c>
+      <c r="C177" t="s">
+        <v>626</v>
+      </c>
+      <c r="D177" t="s">
+        <v>155</v>
+      </c>
+      <c r="E177" t="s">
+        <v>155</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="30">
+      <c r="A178" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" t="s">
         <v>628</v>
       </c>
-      <c r="D176" t="s">
-        <v>155</v>
-      </c>
-      <c r="E176" t="s">
-        <v>155</v>
-      </c>
-      <c r="G176" s="7" t="s">
+      <c r="D178" t="s">
+        <v>155</v>
+      </c>
+      <c r="E178" t="s">
+        <v>155</v>
+      </c>
+      <c r="G178" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H178" s="7" t="s">
         <v>900</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>161</v>
-      </c>
-      <c r="B177" t="s">
-        <v>340</v>
-      </c>
-      <c r="C177" t="s">
-        <v>415</v>
-      </c>
-      <c r="D177" t="s">
-        <v>155</v>
-      </c>
-      <c r="E177" t="s">
-        <v>155</v>
-      </c>
-      <c r="F177" t="s">
-        <v>155</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>161</v>
-      </c>
-      <c r="B178" t="s">
-        <v>340</v>
-      </c>
-      <c r="C178" t="s">
-        <v>376</v>
-      </c>
-      <c r="D178" t="s">
-        <v>155</v>
-      </c>
-      <c r="E178" t="s">
-        <v>155</v>
-      </c>
-      <c r="F178" t="s">
-        <v>155</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10053,71 +10071,71 @@
         <v>340</v>
       </c>
       <c r="C179" t="s">
+        <v>415</v>
+      </c>
+      <c r="D179" t="s">
+        <v>155</v>
+      </c>
+      <c r="E179" t="s">
+        <v>155</v>
+      </c>
+      <c r="F179" t="s">
+        <v>155</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="30">
+      <c r="A180" t="s">
+        <v>161</v>
+      </c>
+      <c r="B180" t="s">
+        <v>340</v>
+      </c>
+      <c r="C180" t="s">
+        <v>376</v>
+      </c>
+      <c r="D180" t="s">
+        <v>155</v>
+      </c>
+      <c r="E180" t="s">
+        <v>155</v>
+      </c>
+      <c r="F180" t="s">
+        <v>155</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="30">
+      <c r="A181" t="s">
+        <v>161</v>
+      </c>
+      <c r="B181" t="s">
+        <v>340</v>
+      </c>
+      <c r="C181" t="s">
         <v>9</v>
       </c>
-      <c r="D179" t="s">
-        <v>155</v>
-      </c>
-      <c r="E179" t="s">
-        <v>155</v>
-      </c>
-      <c r="G179" s="7" t="s">
+      <c r="D181" t="s">
+        <v>155</v>
+      </c>
+      <c r="E181" t="s">
+        <v>155</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H181" s="7" t="s">
         <v>662</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>161</v>
-      </c>
-      <c r="B180" t="s">
-        <v>343</v>
-      </c>
-      <c r="C180" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" t="s">
-        <v>155</v>
-      </c>
-      <c r="E180" t="s">
-        <v>155</v>
-      </c>
-      <c r="F180" t="s">
-        <v>155</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>161</v>
-      </c>
-      <c r="B181" t="s">
-        <v>343</v>
-      </c>
-      <c r="C181" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181" t="s">
-        <v>155</v>
-      </c>
-      <c r="E181" t="s">
-        <v>155</v>
-      </c>
-      <c r="F181" t="s">
-        <v>155</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10128,7 +10146,7 @@
         <v>343</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" t="s">
         <v>155</v>
@@ -10136,11 +10154,14 @@
       <c r="E182" t="s">
         <v>155</v>
       </c>
+      <c r="F182" t="s">
+        <v>155</v>
+      </c>
       <c r="G182" s="7" t="s">
-        <v>633</v>
+        <v>517</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>662</v>
+        <v>825</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10151,13 +10172,22 @@
         <v>343</v>
       </c>
       <c r="C183" t="s">
-        <v>634</v>
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>155</v>
       </c>
       <c r="E183" t="s">
         <v>155</v>
       </c>
+      <c r="F183" t="s">
+        <v>155</v>
+      </c>
       <c r="G183" s="7" t="s">
-        <v>387</v>
+        <v>632</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10168,13 +10198,19 @@
         <v>343</v>
       </c>
       <c r="C184" t="s">
-        <v>635</v>
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>155</v>
       </c>
       <c r="E184" t="s">
         <v>155</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>387</v>
+        <v>633</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10182,25 +10218,16 @@
         <v>161</v>
       </c>
       <c r="B185" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C185" t="s">
-        <v>636</v>
-      </c>
-      <c r="D185" t="s">
-        <v>155</v>
+        <v>634</v>
       </c>
       <c r="E185" t="s">
         <v>155</v>
       </c>
-      <c r="F185" t="s">
-        <v>155</v>
-      </c>
       <c r="G185" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>901</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10208,25 +10235,19 @@
         <v>161</v>
       </c>
       <c r="B186" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" t="s">
-        <v>155</v>
+        <v>635</v>
       </c>
       <c r="E186" t="s">
         <v>155</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="60">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="30">
       <c r="A187" t="s">
         <v>161</v>
       </c>
@@ -10234,7 +10255,7 @@
         <v>346</v>
       </c>
       <c r="C187" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D187" t="s">
         <v>155</v>
@@ -10242,11 +10263,14 @@
       <c r="E187" t="s">
         <v>155</v>
       </c>
+      <c r="F187" t="s">
+        <v>155</v>
+      </c>
       <c r="G187" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10254,10 +10278,10 @@
         <v>161</v>
       </c>
       <c r="B188" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
         <v>155</v>
@@ -10265,34 +10289,34 @@
       <c r="E188" t="s">
         <v>155</v>
       </c>
-      <c r="F188" t="s">
-        <v>155</v>
-      </c>
       <c r="G188" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="75">
       <c r="A189" t="s">
         <v>161</v>
       </c>
       <c r="B189" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C189" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="D189" t="s">
+        <v>155</v>
       </c>
       <c r="E189" t="s">
         <v>155</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>387</v>
+        <v>640</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10300,10 +10324,10 @@
         <v>161</v>
       </c>
       <c r="B190" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D190" t="s">
         <v>155</v>
@@ -10315,10 +10339,10 @@
         <v>155</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>825</v>
+        <v>712</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10326,22 +10350,19 @@
         <v>161</v>
       </c>
       <c r="B191" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" t="s">
-        <v>155</v>
+        <v>642</v>
       </c>
       <c r="E191" t="s">
         <v>155</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>644</v>
+        <v>387</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>662</v>
+        <v>903</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10349,10 +10370,10 @@
         <v>161</v>
       </c>
       <c r="B192" t="s">
-        <v>645</v>
+        <v>350</v>
       </c>
       <c r="C192" t="s">
-        <v>646</v>
+        <v>12</v>
       </c>
       <c r="D192" t="s">
         <v>155</v>
@@ -10364,10 +10385,10 @@
         <v>155</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>904</v>
+        <v>825</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10375,10 +10396,10 @@
         <v>161</v>
       </c>
       <c r="B193" t="s">
-        <v>645</v>
+        <v>350</v>
       </c>
       <c r="C193" t="s">
-        <v>648</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
         <v>155</v>
@@ -10386,14 +10407,11 @@
       <c r="E193" t="s">
         <v>155</v>
       </c>
-      <c r="F193" t="s">
-        <v>155</v>
-      </c>
       <c r="G193" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>905</v>
+        <v>662</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10401,10 +10419,10 @@
         <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>355</v>
+        <v>645</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>646</v>
       </c>
       <c r="D194" t="s">
         <v>155</v>
@@ -10416,21 +10434,21 @@
         <v>155</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="30">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>161</v>
       </c>
       <c r="B195" t="s">
-        <v>355</v>
+        <v>645</v>
       </c>
       <c r="C195" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D195" t="s">
         <v>155</v>
@@ -10438,11 +10456,14 @@
       <c r="E195" t="s">
         <v>155</v>
       </c>
+      <c r="F195" t="s">
+        <v>155</v>
+      </c>
       <c r="G195" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="30">
@@ -10453,71 +10474,68 @@
         <v>355</v>
       </c>
       <c r="C196" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>155</v>
+      </c>
+      <c r="E196" t="s">
+        <v>155</v>
+      </c>
+      <c r="F196" t="s">
+        <v>155</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="30">
+      <c r="A197" t="s">
+        <v>161</v>
+      </c>
+      <c r="B197" t="s">
+        <v>355</v>
+      </c>
+      <c r="C197" t="s">
+        <v>651</v>
+      </c>
+      <c r="D197" t="s">
+        <v>155</v>
+      </c>
+      <c r="E197" t="s">
+        <v>155</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="30">
+      <c r="A198" t="s">
+        <v>161</v>
+      </c>
+      <c r="B198" t="s">
+        <v>355</v>
+      </c>
+      <c r="C198" t="s">
         <v>653</v>
       </c>
-      <c r="D196" t="s">
-        <v>155</v>
-      </c>
-      <c r="E196" t="s">
-        <v>155</v>
-      </c>
-      <c r="G196" s="7" t="s">
+      <c r="D198" t="s">
+        <v>155</v>
+      </c>
+      <c r="E198" t="s">
+        <v>155</v>
+      </c>
+      <c r="G198" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="H196" s="7" t="s">
+      <c r="H198" s="7" t="s">
         <v>907</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
-        <v>161</v>
-      </c>
-      <c r="B197" t="s">
-        <v>358</v>
-      </c>
-      <c r="C197" t="s">
-        <v>520</v>
-      </c>
-      <c r="D197" t="s">
-        <v>155</v>
-      </c>
-      <c r="E197" t="s">
-        <v>155</v>
-      </c>
-      <c r="F197" t="s">
-        <v>155</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H197" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
-        <v>161</v>
-      </c>
-      <c r="B198" t="s">
-        <v>358</v>
-      </c>
-      <c r="C198" t="s">
-        <v>55</v>
-      </c>
-      <c r="D198" t="s">
-        <v>155</v>
-      </c>
-      <c r="E198" t="s">
-        <v>155</v>
-      </c>
-      <c r="F198" t="s">
-        <v>155</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H198" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10528,7 +10546,7 @@
         <v>358</v>
       </c>
       <c r="C199" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D199" t="s">
         <v>155</v>
@@ -10540,13 +10558,13 @@
         <v>155</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="30">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>161</v>
       </c>
@@ -10554,7 +10572,7 @@
         <v>358</v>
       </c>
       <c r="C200" t="s">
-        <v>655</v>
+        <v>55</v>
       </c>
       <c r="D200" t="s">
         <v>155</v>
@@ -10562,22 +10580,25 @@
       <c r="E200" t="s">
         <v>155</v>
       </c>
+      <c r="F200" t="s">
+        <v>155</v>
+      </c>
       <c r="G200" s="7" t="s">
-        <v>656</v>
+        <v>291</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="B201" t="s">
-        <v>33</v>
+        <v>358</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>524</v>
       </c>
       <c r="D201" t="s">
         <v>155</v>
@@ -10589,21 +10610,21 @@
         <v>155</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>657</v>
+        <v>525</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="30">
       <c r="A202" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
+        <v>358</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>655</v>
       </c>
       <c r="D202" t="s">
         <v>155</v>
@@ -10612,10 +10633,10 @@
         <v>155</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>660</v>
+        <v>360</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10626,7 +10647,7 @@
         <v>33</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D203" t="s">
         <v>155</v>
@@ -10634,14 +10655,17 @@
       <c r="E203" t="s">
         <v>155</v>
       </c>
+      <c r="F203" t="s">
+        <v>155</v>
+      </c>
       <c r="G203" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="45">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -10649,7 +10673,7 @@
         <v>33</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
         <v>155</v>
@@ -10658,13 +10682,13 @@
         <v>155</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="45">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -10672,7 +10696,7 @@
         <v>33</v>
       </c>
       <c r="C205" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
         <v>155</v>
@@ -10681,13 +10705,13 @@
         <v>155</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="45">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -10695,7 +10719,7 @@
         <v>33</v>
       </c>
       <c r="C206" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D206" t="s">
         <v>155</v>
@@ -10704,13 +10728,13 @@
         <v>155</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="45">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -10718,7 +10742,7 @@
         <v>33</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D207" t="s">
         <v>155</v>
@@ -10727,10 +10751,10 @@
         <v>155</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10741,7 +10765,7 @@
         <v>33</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D208" t="s">
         <v>155</v>
@@ -10750,10 +10774,10 @@
         <v>155</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10764,7 +10788,7 @@
         <v>33</v>
       </c>
       <c r="C209" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D209" t="s">
         <v>155</v>
@@ -10773,10 +10797,10 @@
         <v>155</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>571</v>
+        <v>668</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10787,7 +10811,7 @@
         <v>33</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D210" t="s">
         <v>155</v>
@@ -10796,10 +10820,10 @@
         <v>155</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>299</v>
+        <v>671</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10810,7 +10834,7 @@
         <v>33</v>
       </c>
       <c r="C211" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D211" t="s">
         <v>155</v>
@@ -10819,10 +10843,10 @@
         <v>155</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>674</v>
+        <v>571</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10833,7 +10857,7 @@
         <v>33</v>
       </c>
       <c r="C212" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
         <v>155</v>
@@ -10842,10 +10866,10 @@
         <v>155</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>677</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10856,7 +10880,7 @@
         <v>33</v>
       </c>
       <c r="C213" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D213" t="s">
         <v>155</v>
@@ -10865,21 +10889,21 @@
         <v>155</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="30">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C214" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D214" t="s">
         <v>155</v>
@@ -10887,14 +10911,11 @@
       <c r="E214" t="s">
         <v>155</v>
       </c>
-      <c r="F214" t="s">
-        <v>155</v>
-      </c>
       <c r="G214" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>908</v>
+        <v>677</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10902,10 +10923,10 @@
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D215" t="s">
         <v>155</v>
@@ -10913,25 +10934,22 @@
       <c r="E215" t="s">
         <v>155</v>
       </c>
-      <c r="F215" t="s">
-        <v>155</v>
-      </c>
       <c r="G215" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="30">
       <c r="A216" t="s">
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D216" t="s">
         <v>155</v>
@@ -10939,14 +10957,17 @@
       <c r="E216" t="s">
         <v>155</v>
       </c>
+      <c r="F216" t="s">
+        <v>155</v>
+      </c>
       <c r="G216" s="7" t="s">
-        <v>503</v>
+        <v>679</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="30">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -10954,19 +10975,25 @@
         <v>60</v>
       </c>
       <c r="C217" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D217" t="s">
         <v>155</v>
       </c>
+      <c r="E217" t="s">
+        <v>155</v>
+      </c>
+      <c r="F217" t="s">
+        <v>155</v>
+      </c>
       <c r="G217" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -10974,19 +11001,22 @@
         <v>60</v>
       </c>
       <c r="C218" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
         <v>155</v>
       </c>
+      <c r="E218" t="s">
+        <v>155</v>
+      </c>
       <c r="G218" s="7" t="s">
-        <v>683</v>
+        <v>503</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="30">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -10994,45 +11024,36 @@
         <v>60</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D219" t="s">
         <v>155</v>
       </c>
-      <c r="E219" t="s">
-        <v>155</v>
-      </c>
       <c r="G219" s="7" t="s">
-        <v>505</v>
+        <v>681</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="45">
       <c r="A220" t="s">
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>686</v>
+        <v>60</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D220" t="s">
         <v>155</v>
       </c>
-      <c r="E220" t="s">
-        <v>155</v>
-      </c>
-      <c r="F220" t="s">
-        <v>155</v>
-      </c>
       <c r="G220" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>105</v>
+        <v>684</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11040,10 +11061,10 @@
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>686</v>
+        <v>60</v>
       </c>
       <c r="C221" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D221" t="s">
         <v>155</v>
@@ -11051,17 +11072,14 @@
       <c r="E221" t="s">
         <v>155</v>
       </c>
-      <c r="F221" t="s">
-        <v>155</v>
-      </c>
       <c r="G221" s="7" t="s">
-        <v>688</v>
+        <v>505</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="30">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -11069,7 +11087,7 @@
         <v>686</v>
       </c>
       <c r="C222" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="D222" t="s">
         <v>155</v>
@@ -11077,11 +11095,14 @@
       <c r="E222" t="s">
         <v>155</v>
       </c>
+      <c r="F222" t="s">
+        <v>155</v>
+      </c>
       <c r="G222" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>691</v>
+        <v>105</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11089,10 +11110,10 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D223" t="s">
         <v>155</v>
@@ -11104,21 +11125,21 @@
         <v>155</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="30">
       <c r="A224" t="s">
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C224" t="s">
-        <v>693</v>
+        <v>78</v>
       </c>
       <c r="D224" t="s">
         <v>155</v>
@@ -11126,14 +11147,11 @@
       <c r="E224" t="s">
         <v>155</v>
       </c>
-      <c r="F224" t="s">
-        <v>155</v>
-      </c>
       <c r="G224" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11141,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C225" t="s">
         <v>11</v>
@@ -11167,10 +11185,10 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C226" t="s">
-        <v>84</v>
+        <v>693</v>
       </c>
       <c r="D226" t="s">
         <v>155</v>
@@ -11182,10 +11200,10 @@
         <v>155</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11193,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>67</v>
+        <v>696</v>
       </c>
       <c r="C227" t="s">
         <v>11</v>
@@ -11219,10 +11237,10 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>67</v>
+        <v>696</v>
       </c>
       <c r="C228" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D228" t="s">
         <v>155</v>
@@ -11234,10 +11252,10 @@
         <v>155</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11245,10 +11263,10 @@
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C229" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D229" t="s">
         <v>155</v>
@@ -11260,10 +11278,10 @@
         <v>155</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>702</v>
+        <v>105</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11271,10 +11289,10 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C230" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D230" t="s">
         <v>155</v>
@@ -11286,21 +11304,21 @@
         <v>155</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="30">
       <c r="A231" t="s">
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C231" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D231" t="s">
         <v>155</v>
@@ -11312,10 +11330,10 @@
         <v>155</v>
       </c>
       <c r="G231" s="7" t="s">
-        <v>517</v>
+        <v>701</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11323,10 +11341,10 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D232" t="s">
         <v>155</v>
@@ -11334,22 +11352,25 @@
       <c r="E232" t="s">
         <v>155</v>
       </c>
+      <c r="F232" t="s">
+        <v>155</v>
+      </c>
       <c r="G232" s="7" t="s">
-        <v>517</v>
+        <v>703</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="30">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>705</v>
+        <v>43</v>
       </c>
       <c r="C233" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D233" t="s">
         <v>155</v>
@@ -11361,10 +11382,10 @@
         <v>155</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>706</v>
+        <v>517</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>707</v>
+        <v>662</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11372,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>705</v>
+        <v>43</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
         <v>155</v>
@@ -11383,14 +11404,11 @@
       <c r="E234" t="s">
         <v>155</v>
       </c>
-      <c r="F234" t="s">
-        <v>155</v>
-      </c>
       <c r="G234" s="7" t="s">
-        <v>708</v>
+        <v>517</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>105</v>
+        <v>662</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="30">
@@ -11398,10 +11416,10 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>26</v>
+        <v>705</v>
       </c>
       <c r="C235" t="s">
-        <v>709</v>
+        <v>45</v>
       </c>
       <c r="D235" t="s">
         <v>155</v>
@@ -11413,21 +11431,21 @@
         <v>155</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="30">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>26</v>
+        <v>705</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D236" t="s">
         <v>155</v>
@@ -11435,22 +11453,25 @@
       <c r="E236" t="s">
         <v>155</v>
       </c>
+      <c r="F236" t="s">
+        <v>155</v>
+      </c>
       <c r="G236" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="30">
       <c r="A237" t="s">
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C237" t="s">
-        <v>12</v>
+        <v>709</v>
       </c>
       <c r="D237" t="s">
         <v>155</v>
@@ -11462,21 +11483,21 @@
         <v>155</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="30">
       <c r="A238" t="s">
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D238" t="s">
         <v>155</v>
@@ -11485,13 +11506,13 @@
         <v>155</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="30">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -11499,7 +11520,7 @@
         <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
         <v>155</v>
@@ -11507,22 +11528,25 @@
       <c r="E239" t="s">
         <v>155</v>
       </c>
+      <c r="F239" t="s">
+        <v>155</v>
+      </c>
       <c r="G239" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="30">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>718</v>
+        <v>85</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
         <v>155</v>
@@ -11530,25 +11554,22 @@
       <c r="E240" t="s">
         <v>155</v>
       </c>
-      <c r="F240" t="s">
-        <v>155</v>
-      </c>
       <c r="G240" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="30">
       <c r="A241" t="s">
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>718</v>
+        <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D241" t="s">
         <v>155</v>
@@ -11556,14 +11577,11 @@
       <c r="E241" t="s">
         <v>155</v>
       </c>
-      <c r="F241" t="s">
-        <v>155</v>
-      </c>
       <c r="G241" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>105</v>
+        <v>717</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="30">
@@ -11571,10 +11589,10 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>20</v>
+        <v>718</v>
       </c>
       <c r="C242" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D242" t="s">
         <v>155</v>
@@ -11586,10 +11604,10 @@
         <v>155</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11597,10 +11615,10 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>20</v>
+        <v>718</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D243" t="s">
         <v>155</v>
@@ -11608,11 +11626,14 @@
       <c r="E243" t="s">
         <v>155</v>
       </c>
+      <c r="F243" t="s">
+        <v>155</v>
+      </c>
       <c r="G243" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>662</v>
+        <v>105</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="30">
@@ -11623,7 +11644,7 @@
         <v>20</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
         <v>155</v>
@@ -11631,11 +11652,14 @@
       <c r="E244" t="s">
         <v>155</v>
       </c>
+      <c r="F244" t="s">
+        <v>155</v>
+      </c>
       <c r="G244" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="30">
@@ -11646,7 +11670,7 @@
         <v>20</v>
       </c>
       <c r="C245" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D245" t="s">
         <v>155</v>
@@ -11655,10 +11679,10 @@
         <v>155</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>728</v>
+        <v>662</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="30">
@@ -11669,22 +11693,19 @@
         <v>20</v>
       </c>
       <c r="C246" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D246" t="s">
         <v>155</v>
       </c>
-      <c r="E246" t="s">
-        <v>155</v>
-      </c>
       <c r="G246" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="30">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="45">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -11692,19 +11713,16 @@
         <v>20</v>
       </c>
       <c r="C247" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D247" t="s">
         <v>155</v>
       </c>
-      <c r="E247" t="s">
-        <v>155</v>
-      </c>
       <c r="G247" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="30">
@@ -11715,71 +11733,59 @@
         <v>20</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
         <v>155</v>
       </c>
-      <c r="E248" t="s">
-        <v>155</v>
-      </c>
       <c r="G248" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30">
       <c r="A249" t="s">
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C249" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D249" t="s">
         <v>155</v>
       </c>
-      <c r="E249" t="s">
-        <v>155</v>
-      </c>
-      <c r="F249" t="s">
-        <v>155</v>
-      </c>
       <c r="G249" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="30">
       <c r="A250" t="s">
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D250" t="s">
         <v>155</v>
       </c>
-      <c r="E250" t="s">
-        <v>155</v>
-      </c>
       <c r="G250" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="30">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -11787,7 +11793,7 @@
         <v>69</v>
       </c>
       <c r="C251" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D251" t="s">
         <v>155</v>
@@ -11795,14 +11801,17 @@
       <c r="E251" t="s">
         <v>155</v>
       </c>
+      <c r="F251" t="s">
+        <v>155</v>
+      </c>
       <c r="G251" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="45">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -11810,7 +11819,7 @@
         <v>69</v>
       </c>
       <c r="C252" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D252" t="s">
         <v>155</v>
@@ -11819,13 +11828,13 @@
         <v>155</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="30">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="45">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -11833,7 +11842,7 @@
         <v>69</v>
       </c>
       <c r="C253" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D253" t="s">
         <v>155</v>
@@ -11842,13 +11851,13 @@
         <v>155</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="30">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="45">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -11856,7 +11865,7 @@
         <v>69</v>
       </c>
       <c r="C254" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D254" t="s">
         <v>155</v>
@@ -11865,13 +11874,13 @@
         <v>155</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="45">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="30">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -11879,7 +11888,7 @@
         <v>69</v>
       </c>
       <c r="C255" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D255" t="s">
         <v>155</v>
@@ -11888,13 +11897,13 @@
         <v>155</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="30">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -11902,7 +11911,7 @@
         <v>69</v>
       </c>
       <c r="C256" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D256" t="s">
         <v>155</v>
@@ -11911,21 +11920,21 @@
         <v>155</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="60">
       <c r="A257" t="s">
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C257" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D257" t="s">
         <v>155</v>
@@ -11933,14 +11942,11 @@
       <c r="E257" t="s">
         <v>155</v>
       </c>
-      <c r="F257" t="s">
-        <v>155</v>
-      </c>
       <c r="G257" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -11948,10 +11954,10 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D258" t="s">
         <v>155</v>
@@ -11960,10 +11966,10 @@
         <v>155</v>
       </c>
       <c r="G258" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -11974,7 +11980,7 @@
         <v>54</v>
       </c>
       <c r="C259" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D259" t="s">
         <v>155</v>
@@ -11982,11 +11988,14 @@
       <c r="E259" t="s">
         <v>155</v>
       </c>
+      <c r="F259" t="s">
+        <v>155</v>
+      </c>
       <c r="G259" s="7" t="s">
-        <v>556</v>
+        <v>750</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11997,7 +12006,7 @@
         <v>54</v>
       </c>
       <c r="C260" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D260" t="s">
         <v>155</v>
@@ -12006,10 +12015,10 @@
         <v>155</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12017,10 +12026,10 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>755</v>
+        <v>54</v>
       </c>
       <c r="C261" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D261" t="s">
         <v>155</v>
@@ -12028,14 +12037,11 @@
       <c r="E261" t="s">
         <v>155</v>
       </c>
-      <c r="F261" t="s">
-        <v>155</v>
-      </c>
       <c r="G261" s="7" t="s">
-        <v>131</v>
+        <v>556</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12043,10 +12049,10 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>755</v>
+        <v>54</v>
       </c>
       <c r="C262" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D262" t="s">
         <v>155</v>
@@ -12054,14 +12060,11 @@
       <c r="E262" t="s">
         <v>155</v>
       </c>
-      <c r="F262" t="s">
-        <v>155</v>
-      </c>
       <c r="G262" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12069,10 +12072,10 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>755</v>
       </c>
       <c r="C263" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D263" t="s">
         <v>155</v>
@@ -12084,10 +12087,10 @@
         <v>155</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>758</v>
+        <v>131</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12095,10 +12098,10 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>755</v>
       </c>
       <c r="C264" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D264" t="s">
         <v>155</v>
@@ -12106,11 +12109,14 @@
       <c r="E264" t="s">
         <v>155</v>
       </c>
+      <c r="F264" t="s">
+        <v>155</v>
+      </c>
       <c r="G264" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>761</v>
+        <v>707</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12121,7 +12127,7 @@
         <v>46</v>
       </c>
       <c r="C265" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D265" t="s">
         <v>155</v>
@@ -12129,11 +12135,14 @@
       <c r="E265" t="s">
         <v>155</v>
       </c>
+      <c r="F265" t="s">
+        <v>155</v>
+      </c>
       <c r="G265" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12144,7 +12153,7 @@
         <v>46</v>
       </c>
       <c r="C266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D266" t="s">
         <v>155</v>
@@ -12153,10 +12162,10 @@
         <v>155</v>
       </c>
       <c r="G266" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12167,7 +12176,7 @@
         <v>46</v>
       </c>
       <c r="C267" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D267" t="s">
         <v>155</v>
@@ -12176,10 +12185,10 @@
         <v>155</v>
       </c>
       <c r="G267" s="7" t="s">
-        <v>667</v>
+        <v>762</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>667</v>
+        <v>763</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12190,7 +12199,7 @@
         <v>46</v>
       </c>
       <c r="C268" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D268" t="s">
         <v>155</v>
@@ -12199,10 +12208,10 @@
         <v>155</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12213,7 +12222,7 @@
         <v>46</v>
       </c>
       <c r="C269" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D269" t="s">
         <v>155</v>
@@ -12222,10 +12231,10 @@
         <v>155</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12236,7 +12245,7 @@
         <v>46</v>
       </c>
       <c r="C270" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D270" t="s">
         <v>155</v>
@@ -12245,10 +12254,10 @@
         <v>155</v>
       </c>
       <c r="G270" s="7" t="s">
-        <v>670</v>
+        <v>765</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12259,7 +12268,7 @@
         <v>46</v>
       </c>
       <c r="C271" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D271" t="s">
         <v>155</v>
@@ -12268,10 +12277,10 @@
         <v>155</v>
       </c>
       <c r="G271" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>766</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12282,7 +12291,7 @@
         <v>46</v>
       </c>
       <c r="C272" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D272" t="s">
         <v>155</v>
@@ -12291,10 +12300,10 @@
         <v>155</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>767</v>
+        <v>670</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>768</v>
+        <v>671</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12305,7 +12314,7 @@
         <v>46</v>
       </c>
       <c r="C273" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D273" t="s">
         <v>155</v>
@@ -12314,10 +12323,10 @@
         <v>155</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>571</v>
+        <v>670</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12328,7 +12337,7 @@
         <v>46</v>
       </c>
       <c r="C274" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D274" t="s">
         <v>155</v>
@@ -12337,10 +12346,10 @@
         <v>155</v>
       </c>
       <c r="G274" s="7" t="s">
-        <v>674</v>
+        <v>767</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>675</v>
+        <v>768</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12351,7 +12360,7 @@
         <v>46</v>
       </c>
       <c r="C275" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D275" t="s">
         <v>155</v>
@@ -12360,10 +12369,10 @@
         <v>155</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>678</v>
+        <v>571</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12374,7 +12383,7 @@
         <v>46</v>
       </c>
       <c r="C276" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D276" t="s">
         <v>155</v>
@@ -12383,10 +12392,10 @@
         <v>155</v>
       </c>
       <c r="G276" s="7" t="s">
-        <v>769</v>
+        <v>674</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>770</v>
+        <v>675</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12397,7 +12406,7 @@
         <v>46</v>
       </c>
       <c r="C277" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D277" t="s">
         <v>155</v>
@@ -12406,10 +12415,10 @@
         <v>155</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>299</v>
+        <v>678</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12417,10 +12426,10 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C278" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D278" t="s">
         <v>155</v>
@@ -12428,14 +12437,11 @@
       <c r="E278" t="s">
         <v>155</v>
       </c>
-      <c r="F278" t="s">
-        <v>155</v>
-      </c>
       <c r="G278" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12443,10 +12449,10 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C279" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D279" t="s">
         <v>155</v>
@@ -12455,10 +12461,10 @@
         <v>155</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>773</v>
+        <v>673</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>662</v>
+        <v>299</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12466,10 +12472,10 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>774</v>
+        <v>87</v>
       </c>
       <c r="C280" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D280" t="s">
         <v>155</v>
@@ -12481,7 +12487,7 @@
         <v>155</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H280" s="7" t="s">
         <v>772</v>
@@ -12492,10 +12498,10 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>774</v>
+        <v>87</v>
       </c>
       <c r="C281" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D281" t="s">
         <v>155</v>
@@ -12503,14 +12509,11 @@
       <c r="E281" t="s">
         <v>155</v>
       </c>
-      <c r="F281" t="s">
-        <v>155</v>
-      </c>
       <c r="G281" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>763</v>
+        <v>662</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12518,10 +12521,10 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>28</v>
+        <v>774</v>
       </c>
       <c r="C282" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D282" t="s">
         <v>155</v>
@@ -12533,10 +12536,10 @@
         <v>155</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12544,10 +12547,10 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>28</v>
+        <v>774</v>
       </c>
       <c r="C283" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D283" t="s">
         <v>155</v>
@@ -12559,10 +12562,10 @@
         <v>155</v>
       </c>
       <c r="G283" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H283" s="7" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12573,7 +12576,7 @@
         <v>28</v>
       </c>
       <c r="C284" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D284" t="s">
         <v>155</v>
@@ -12581,11 +12584,14 @@
       <c r="E284" t="s">
         <v>155</v>
       </c>
+      <c r="F284" t="s">
+        <v>155</v>
+      </c>
       <c r="G284" s="7" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H284" s="7" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12593,10 +12599,10 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C285" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D285" t="s">
         <v>155</v>
@@ -12608,10 +12614,10 @@
         <v>155</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>546</v>
+        <v>779</v>
       </c>
       <c r="H285" s="7" t="s">
-        <v>302</v>
+        <v>780</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12619,10 +12625,10 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C286" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D286" t="s">
         <v>155</v>
@@ -12631,21 +12637,21 @@
         <v>155</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H286" s="7" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="30">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C287" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D287" t="s">
         <v>155</v>
@@ -12657,10 +12663,10 @@
         <v>155</v>
       </c>
       <c r="G287" s="7" t="s">
-        <v>785</v>
+        <v>546</v>
       </c>
       <c r="H287" s="7" t="s">
-        <v>786</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12668,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C288" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D288" t="s">
         <v>155</v>
@@ -12680,13 +12686,13 @@
         <v>155</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H288" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="30">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -12694,7 +12700,7 @@
         <v>17</v>
       </c>
       <c r="C289" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D289" t="s">
         <v>155</v>
@@ -12702,11 +12708,14 @@
       <c r="E289" t="s">
         <v>155</v>
       </c>
+      <c r="F289" t="s">
+        <v>155</v>
+      </c>
       <c r="G289" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12717,7 +12726,7 @@
         <v>17</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D290" t="s">
         <v>155</v>
@@ -12726,10 +12735,10 @@
         <v>155</v>
       </c>
       <c r="G290" s="7" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>791</v>
+        <v>662</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12737,10 +12746,10 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D291" t="s">
         <v>155</v>
@@ -12748,14 +12757,11 @@
       <c r="E291" t="s">
         <v>155</v>
       </c>
-      <c r="F291" t="s">
-        <v>155</v>
-      </c>
       <c r="G291" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H291" s="7" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12763,10 +12769,10 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C292" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D292" t="s">
         <v>155</v>
@@ -12774,14 +12780,11 @@
       <c r="E292" t="s">
         <v>155</v>
       </c>
-      <c r="F292" t="s">
-        <v>155</v>
-      </c>
       <c r="G292" s="7" t="s">
-        <v>546</v>
+        <v>790</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12792,7 +12795,7 @@
         <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D293" t="s">
         <v>155</v>
@@ -12800,11 +12803,14 @@
       <c r="E293" t="s">
         <v>155</v>
       </c>
+      <c r="F293" t="s">
+        <v>155</v>
+      </c>
       <c r="G293" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -12812,10 +12818,10 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D294" t="s">
         <v>155</v>
@@ -12827,10 +12833,10 @@
         <v>155</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>797</v>
+        <v>546</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -12838,10 +12844,10 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D295" t="s">
         <v>155</v>
@@ -12850,10 +12856,10 @@
         <v>155</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -12861,10 +12867,10 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>799</v>
+        <v>58</v>
       </c>
       <c r="C296" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D296" t="s">
         <v>155</v>
@@ -12876,10 +12882,10 @@
         <v>155</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>136</v>
+        <v>793</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -12887,10 +12893,10 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>799</v>
+        <v>58</v>
       </c>
       <c r="C297" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D297" t="s">
         <v>155</v>
@@ -12899,21 +12905,21 @@
         <v>155</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>753</v>
+        <v>794</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="C298" t="s">
-        <v>818</v>
+        <v>64</v>
       </c>
       <c r="D298" t="s">
         <v>155</v>
@@ -12921,22 +12927,25 @@
       <c r="E298" t="s">
         <v>155</v>
       </c>
+      <c r="F298" t="s">
+        <v>155</v>
+      </c>
       <c r="G298" s="7" t="s">
-        <v>911</v>
+        <v>800</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>912</v>
+        <v>136</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="C299" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D299" t="s">
         <v>155</v>
@@ -12945,10 +12954,10 @@
         <v>155</v>
       </c>
       <c r="G299" s="7" t="s">
-        <v>503</v>
+        <v>801</v>
       </c>
       <c r="H299" s="7" t="s">
-        <v>662</v>
+        <v>753</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -12956,10 +12965,10 @@
         <v>161</v>
       </c>
       <c r="B300" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C300" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D300" t="s">
         <v>155</v>
@@ -12968,10 +12977,10 @@
         <v>155</v>
       </c>
       <c r="G300" s="7" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>91</v>
+        <v>912</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -12979,7 +12988,7 @@
         <v>161</v>
       </c>
       <c r="B301" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C301" t="s">
         <v>9</v>
@@ -13005,24 +13014,70 @@
         <v>815</v>
       </c>
       <c r="C302" t="s">
+        <v>816</v>
+      </c>
+      <c r="D302" t="s">
+        <v>155</v>
+      </c>
+      <c r="E302" t="s">
+        <v>155</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="H302" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" t="s">
+        <v>161</v>
+      </c>
+      <c r="B303" t="s">
+        <v>815</v>
+      </c>
+      <c r="C303" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" t="s">
+        <v>155</v>
+      </c>
+      <c r="E303" t="s">
+        <v>155</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H303" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>161</v>
+      </c>
+      <c r="B304" t="s">
+        <v>815</v>
+      </c>
+      <c r="C304" t="s">
         <v>817</v>
       </c>
-      <c r="D302" t="s">
-        <v>155</v>
-      </c>
-      <c r="E302" t="s">
-        <v>155</v>
-      </c>
-      <c r="G302" s="7" t="s">
+      <c r="D304" t="s">
+        <v>155</v>
+      </c>
+      <c r="E304" t="s">
+        <v>155</v>
+      </c>
+      <c r="G304" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="H302" s="7" t="s">
+      <c r="H304" s="7" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:C380">
+  <autoFilter ref="A1:C382">
     <filterColumn colId="2"/>
   </autoFilter>
   <sortState ref="A2:C393">

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="934">
   <si>
     <t>DATA</t>
   </si>
@@ -2185,9 +2185,6 @@
     <t>Indication whether additional condition exists</t>
   </si>
   <si>
-    <t>DRL_EXAM_CLASS_ID_REQUIERED</t>
-  </si>
-  <si>
     <t>Voraussetzungsklasse</t>
   </si>
   <si>
@@ -2927,6 +2924,36 @@
   </si>
   <si>
     <t>AU erforderlich</t>
+  </si>
+  <si>
+    <t>ShowInMenu</t>
+  </si>
+  <si>
+    <t>RelationShips</t>
+  </si>
+  <si>
+    <t>RelationShipsSelectors</t>
+  </si>
+  <si>
+    <t>requiredExamClasses,inclusiveExamClasses,restrictedClasses,examClassArgeMaps,examClassMaps</t>
+  </si>
+  <si>
+    <t>RelationShipsDe</t>
+  </si>
+  <si>
+    <t>RelationShipsEn</t>
+  </si>
+  <si>
+    <t>Voraussetzungsklassen,Inklusivklassen, Ausschlussklassen, ARGE-Klassenbezeichnungen, Alt-Klassen</t>
+  </si>
+  <si>
+    <t>Required classes,Inclusiv classes,Restricted classes,Arge class map,Old class to actual map</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/ExamClassRequiredClasses,DriverLicenceMasterData/ExamClassInclusiveClasses,DriverLicenceMasterData/ExamClassRestrictedClasses,DriverLicenceMasterData/ExamClassArgeMaps,DriverLicenceMasterData/ExamClassMaps</t>
+  </si>
+  <si>
+    <t>DRL_EXAM_CLASS_ID_REQUIRED</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3045,6 +3072,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3339,13 +3372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3362,10 +3395,14 @@
     <col min="10" max="10" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="66.5703125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="19" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -3382,7 +3419,7 @@
         <v>167</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>95</v>
@@ -3400,10 +3437,25 @@
         <v>375</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>782</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3419,8 +3471,11 @@
       <c r="K2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3436,8 +3491,11 @@
       <c r="K3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3456,8 +3514,11 @@
       <c r="K4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="90">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3476,8 +3537,23 @@
       <c r="K5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3502,8 +3578,10 @@
       <c r="K6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="P6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3528,8 +3606,10 @@
       <c r="K7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="P7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3554,8 +3634,10 @@
       <c r="K8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3580,8 +3662,10 @@
       <c r="K9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3606,8 +3690,10 @@
       <c r="K10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3626,8 +3712,11 @@
       <c r="K11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3742,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3669,8 +3758,11 @@
       <c r="K13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3689,8 +3781,11 @@
       <c r="K14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3811,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3732,8 +3827,11 @@
       <c r="K16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3752,8 +3850,11 @@
       <c r="K17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3880,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3795,8 +3896,11 @@
       <c r="K19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3926,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3841,8 +3945,11 @@
       <c r="K21" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3858,8 +3965,11 @@
       <c r="K22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3875,8 +3985,11 @@
       <c r="K23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +4015,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3921,8 +4034,11 @@
       <c r="K25" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3938,8 +4054,11 @@
       <c r="K26" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3958,8 +4077,11 @@
       <c r="K27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -3981,8 +4103,11 @@
       <c r="K28" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -4004,8 +4129,11 @@
       <c r="K29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -4036,8 +4164,11 @@
       <c r="K30" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -4068,8 +4199,11 @@
       <c r="K31" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -4100,8 +4234,11 @@
       <c r="K32" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -4132,8 +4269,11 @@
       <c r="K33" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -4161,8 +4301,11 @@
       <c r="K34" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="M34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -4184,8 +4327,11 @@
       <c r="K35" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="M35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -4207,8 +4353,11 @@
       <c r="K36" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="M36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -4236,8 +4385,11 @@
       <c r="K37" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -4256,8 +4408,11 @@
       <c r="K38" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -4285,8 +4440,11 @@
       <c r="K39" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="M39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -4308,8 +4466,11 @@
       <c r="K40" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="M40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -4328,8 +4489,11 @@
       <c r="K41" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="M41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -4348,8 +4512,11 @@
       <c r="K42" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -4363,7 +4530,7 @@
         <v>321</v>
       </c>
       <c r="I43" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J43" t="s">
         <v>332</v>
@@ -4371,8 +4538,11 @@
       <c r="K43" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="M43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -4394,8 +4564,11 @@
       <c r="K44" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="M44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -4414,8 +4587,11 @@
       <c r="K45" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="M45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -4434,8 +4610,11 @@
       <c r="K46" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="M46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -4463,8 +4642,11 @@
       <c r="K47" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="M47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -4483,8 +4665,11 @@
       <c r="K48" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="M48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -4503,8 +4688,11 @@
       <c r="K49" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="M49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>161</v>
       </c>
@@ -4523,8 +4711,11 @@
       <c r="K50" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="M50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -4546,8 +4737,11 @@
       <c r="K51" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="M51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -4569,8 +4763,11 @@
       <c r="K52" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="M52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -4592,8 +4789,11 @@
       <c r="K53" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="M53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -4615,8 +4815,11 @@
       <c r="K54" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="M54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -4638,8 +4841,11 @@
       <c r="K55" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="M55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -4658,8 +4864,11 @@
       <c r="K56" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="M56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -4681,8 +4890,11 @@
       <c r="K57" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="M57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -4701,8 +4913,11 @@
       <c r="K58" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="M58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -4716,7 +4931,7 @@
         <v>168</v>
       </c>
       <c r="E59" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J59" t="s">
         <v>177</v>
@@ -4724,8 +4939,11 @@
       <c r="K59" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="M59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -4747,8 +4965,11 @@
       <c r="K60" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="M60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -4773,8 +4994,11 @@
       <c r="K61" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="M61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>161</v>
       </c>
@@ -4793,8 +5017,11 @@
       <c r="K62" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="M62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -4813,8 +5040,11 @@
       <c r="K63" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="M63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -4836,8 +5066,11 @@
       <c r="K64" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -4859,13 +5092,16 @@
       <c r="K65" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C66" t="s">
         <v>159</v>
@@ -4874,21 +5110,24 @@
         <v>155</v>
       </c>
       <c r="J66" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K66" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L66" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>784</v>
+      </c>
+      <c r="M66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C67" t="s">
         <v>159</v>
@@ -4897,21 +5136,24 @@
         <v>155</v>
       </c>
       <c r="J67" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K67" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L67" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>785</v>
+      </c>
+      <c r="M67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C68" t="s">
         <v>159</v>
@@ -4920,16 +5162,19 @@
         <v>155</v>
       </c>
       <c r="J68" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K68" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L68" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -4951,8 +5196,11 @@
       <c r="K69" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -4966,7 +5214,7 @@
         <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J70" t="s">
         <v>169</v>
@@ -4974,8 +5222,11 @@
       <c r="K70" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -4989,7 +5240,7 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J71" t="s">
         <v>171</v>
@@ -4997,8 +5248,11 @@
       <c r="K71" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -5012,7 +5266,7 @@
         <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J72" t="s">
         <v>173</v>
@@ -5020,8 +5274,11 @@
       <c r="K72" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -5043,8 +5300,11 @@
       <c r="K73" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5066,8 +5326,11 @@
       <c r="K74" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -5098,8 +5361,11 @@
       <c r="K75" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -5121,8 +5387,11 @@
       <c r="K76" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -5136,7 +5405,7 @@
         <v>168</v>
       </c>
       <c r="E77" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J77" t="s">
         <v>175</v>
@@ -5144,8 +5413,11 @@
       <c r="K77" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -5170,8 +5442,11 @@
       <c r="K78" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5202,8 +5477,11 @@
       <c r="K79" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -5225,8 +5503,11 @@
       <c r="K80" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="M80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -5240,7 +5521,7 @@
         <v>168</v>
       </c>
       <c r="E81" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J81" t="s">
         <v>187</v>
@@ -5248,8 +5529,11 @@
       <c r="K81" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="M81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -5263,7 +5547,7 @@
         <v>168</v>
       </c>
       <c r="E82" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J82" t="s">
         <v>190</v>
@@ -5271,8 +5555,11 @@
       <c r="K82" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="M82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -5286,7 +5573,7 @@
         <v>168</v>
       </c>
       <c r="E83" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J83" t="s">
         <v>193</v>
@@ -5294,8 +5581,11 @@
       <c r="K83" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="M83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -5309,7 +5599,7 @@
         <v>168</v>
       </c>
       <c r="E84" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I84" t="s">
         <v>196</v>
@@ -5320,8 +5610,11 @@
       <c r="K84" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="M84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -5335,7 +5628,7 @@
         <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G85" t="s">
         <v>155</v>
@@ -5344,7 +5637,7 @@
         <v>195</v>
       </c>
       <c r="I85" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J85" t="s">
         <v>203</v>
@@ -5352,8 +5645,11 @@
       <c r="K85" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="M85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -5367,7 +5663,7 @@
         <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G86" t="s">
         <v>155</v>
@@ -5384,8 +5680,11 @@
       <c r="K86" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="M86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -5399,7 +5698,7 @@
         <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I87" t="s">
         <v>209</v>
@@ -5410,8 +5709,11 @@
       <c r="K87" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="M87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -5425,7 +5727,7 @@
         <v>168</v>
       </c>
       <c r="E88" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J88" t="s">
         <v>361</v>
@@ -5433,8 +5735,11 @@
       <c r="K88" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="M88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -5448,7 +5753,7 @@
         <v>168</v>
       </c>
       <c r="E89" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J89" t="s">
         <v>206</v>
@@ -5456,8 +5761,11 @@
       <c r="K89" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="M89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -5471,7 +5779,7 @@
         <v>168</v>
       </c>
       <c r="E90" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J90" t="s">
         <v>213</v>
@@ -5479,13 +5787,16 @@
       <c r="K90" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="M90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C91" t="s">
         <v>159</v>
@@ -5494,13 +5805,16 @@
         <v>155</v>
       </c>
       <c r="J91" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K91" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>912</v>
+      </c>
+      <c r="M91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -5522,8 +5836,11 @@
       <c r="K92" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="M92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -5545,8 +5862,11 @@
       <c r="K93" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="M93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -5571,8 +5891,11 @@
       <c r="K94" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="M94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -5594,8 +5917,11 @@
       <c r="K95" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="M95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -5617,8 +5943,11 @@
       <c r="K96" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="M96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -5649,13 +5978,16 @@
       <c r="K97" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="M97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>161</v>
       </c>
       <c r="B98" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C98" t="s">
         <v>159</v>
@@ -5664,10 +5996,13 @@
         <v>155</v>
       </c>
       <c r="J98" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K98" t="s">
-        <v>914</v>
+        <v>913</v>
+      </c>
+      <c r="M98" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5695,10 +6030,10 @@
   <dimension ref="A1:H554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5726,7 +6061,7 @@
         <v>156</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>157</v>
@@ -5758,10 +6093,10 @@
         <v>155</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5784,10 +6119,10 @@
         <v>155</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>758</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5807,10 +6142,10 @@
         <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>760</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5821,7 +6156,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D5" t="s">
         <v>155</v>
@@ -5833,10 +6168,10 @@
         <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5847,7 +6182,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D6" t="s">
         <v>155</v>
@@ -5859,10 +6194,10 @@
         <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6145,7 +6480,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D20" t="s">
         <v>155</v>
@@ -6157,10 +6492,10 @@
         <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6171,7 +6506,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D21" t="s">
         <v>155</v>
@@ -6183,10 +6518,10 @@
         <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30">
@@ -6212,7 +6547,7 @@
         <v>665</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6223,7 +6558,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D23" t="s">
         <v>155</v>
@@ -6235,10 +6570,10 @@
         <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6249,7 +6584,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D24" t="s">
         <v>155</v>
@@ -6261,10 +6596,10 @@
         <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6387,7 +6722,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D30" t="s">
         <v>155</v>
@@ -6399,10 +6734,10 @@
         <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6413,7 +6748,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D31" t="s">
         <v>155</v>
@@ -6425,10 +6760,10 @@
         <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6474,10 +6809,10 @@
         <v>155</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6488,7 +6823,7 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D34" t="s">
         <v>155</v>
@@ -6500,10 +6835,10 @@
         <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6514,7 +6849,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D35" t="s">
         <v>155</v>
@@ -6526,10 +6861,10 @@
         <v>155</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6612,7 +6947,7 @@
         <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D39" t="s">
         <v>155</v>
@@ -6624,10 +6959,10 @@
         <v>155</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6638,7 +6973,7 @@
         <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D40" t="s">
         <v>155</v>
@@ -6650,10 +6985,10 @@
         <v>155</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30">
@@ -6676,10 +7011,10 @@
         <v>155</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6699,10 +7034,10 @@
         <v>155</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6713,7 +7048,7 @@
         <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D43" t="s">
         <v>155</v>
@@ -6725,10 +7060,10 @@
         <v>155</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6739,7 +7074,7 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D44" t="s">
         <v>155</v>
@@ -6751,10 +7086,10 @@
         <v>155</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6788,22 +7123,22 @@
         <v>82</v>
       </c>
       <c r="C46" t="s">
+        <v>933</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="D46" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46" t="s">
-        <v>155</v>
-      </c>
-      <c r="F46" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6814,7 +7149,7 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D47" t="s">
         <v>155</v>
@@ -6826,10 +7161,10 @@
         <v>155</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6840,7 +7175,7 @@
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D48" t="s">
         <v>155</v>
@@ -6852,10 +7187,10 @@
         <v>155</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6901,10 +7236,10 @@
         <v>155</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6915,7 +7250,7 @@
         <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D51" t="s">
         <v>155</v>
@@ -6927,10 +7262,10 @@
         <v>155</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6941,7 +7276,7 @@
         <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D52" t="s">
         <v>155</v>
@@ -6953,10 +7288,10 @@
         <v>155</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6979,10 +7314,10 @@
         <v>155</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7002,7 +7337,7 @@
         <v>155</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>648</v>
@@ -7022,10 +7357,10 @@
         <v>155</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>698</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7036,7 +7371,7 @@
         <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D56" t="s">
         <v>155</v>
@@ -7048,10 +7383,10 @@
         <v>155</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7062,7 +7397,7 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D57" t="s">
         <v>155</v>
@@ -7074,10 +7409,10 @@
         <v>155</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30">
@@ -7097,10 +7432,10 @@
         <v>155</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7123,7 +7458,7 @@
         <v>155</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>105</v>
@@ -7137,7 +7472,7 @@
         <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D60" t="s">
         <v>155</v>
@@ -7149,10 +7484,10 @@
         <v>155</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7163,7 +7498,7 @@
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D61" t="s">
         <v>155</v>
@@ -7175,10 +7510,10 @@
         <v>155</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30">
@@ -7201,10 +7536,10 @@
         <v>155</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30">
@@ -7224,7 +7559,7 @@
         <v>155</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>648</v>
@@ -7244,10 +7579,10 @@
         <v>155</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="45">
@@ -7264,10 +7599,10 @@
         <v>155</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30">
@@ -7284,10 +7619,10 @@
         <v>155</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30">
@@ -7304,10 +7639,10 @@
         <v>155</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="30">
@@ -7324,10 +7659,10 @@
         <v>155</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7338,7 +7673,7 @@
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D69" t="s">
         <v>155</v>
@@ -7350,10 +7685,10 @@
         <v>155</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7364,7 +7699,7 @@
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D70" t="s">
         <v>155</v>
@@ -7376,10 +7711,10 @@
         <v>155</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7439,7 +7774,7 @@
         <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D73" t="s">
         <v>155</v>
@@ -7451,10 +7786,10 @@
         <v>155</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7465,7 +7800,7 @@
         <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D74" t="s">
         <v>155</v>
@@ -7477,10 +7812,10 @@
         <v>155</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30">
@@ -7500,10 +7835,10 @@
         <v>155</v>
       </c>
       <c r="G75" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7526,7 +7861,7 @@
         <v>155</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>105</v>
@@ -7540,7 +7875,7 @@
         <v>44</v>
       </c>
       <c r="C77" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D77" t="s">
         <v>155</v>
@@ -7552,10 +7887,10 @@
         <v>155</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7566,7 +7901,7 @@
         <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -7578,10 +7913,10 @@
         <v>155</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7601,10 +7936,10 @@
         <v>155</v>
       </c>
       <c r="G79" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7621,10 +7956,10 @@
         <v>155</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>740</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7641,10 +7976,10 @@
         <v>155</v>
       </c>
       <c r="G81" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>742</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7664,10 +7999,10 @@
         <v>155</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7704,10 +8039,10 @@
         <v>155</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7773,7 +8108,7 @@
         <v>656</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7790,10 +8125,10 @@
         <v>155</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7873,10 +8208,10 @@
         <v>155</v>
       </c>
       <c r="G92" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="H92" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7907,7 +8242,7 @@
         <v>46</v>
       </c>
       <c r="C94" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D94" t="s">
         <v>155</v>
@@ -7919,10 +8254,10 @@
         <v>155</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7933,7 +8268,7 @@
         <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D95" t="s">
         <v>155</v>
@@ -7945,10 +8280,10 @@
         <v>155</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7971,10 +8306,10 @@
         <v>155</v>
       </c>
       <c r="G96" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>731</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7994,7 +8329,7 @@
         <v>155</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>648</v>
@@ -8020,7 +8355,7 @@
         <v>543</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8040,7 +8375,7 @@
         <v>155</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>671</v>
@@ -8054,7 +8389,7 @@
         <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D100" t="s">
         <v>155</v>
@@ -8066,10 +8401,10 @@
         <v>155</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8080,7 +8415,7 @@
         <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D101" t="s">
         <v>155</v>
@@ -8092,10 +8427,10 @@
         <v>155</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8118,7 +8453,7 @@
         <v>131</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8141,10 +8476,10 @@
         <v>155</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8155,7 +8490,7 @@
         <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -8167,10 +8502,10 @@
         <v>155</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8181,7 +8516,7 @@
         <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D105" t="s">
         <v>155</v>
@@ -8193,10 +8528,10 @@
         <v>155</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8219,10 +8554,10 @@
         <v>155</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8242,10 +8577,10 @@
         <v>155</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8256,7 +8591,7 @@
         <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D108" t="s">
         <v>155</v>
@@ -8268,10 +8603,10 @@
         <v>155</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8282,7 +8617,7 @@
         <v>58</v>
       </c>
       <c r="C109" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D109" t="s">
         <v>155</v>
@@ -8294,10 +8629,10 @@
         <v>155</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8317,7 +8652,7 @@
         <v>155</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>136</v>
@@ -8340,10 +8675,10 @@
         <v>155</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8354,7 +8689,7 @@
         <v>63</v>
       </c>
       <c r="C112" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D112" t="s">
         <v>155</v>
@@ -8366,10 +8701,10 @@
         <v>155</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8380,7 +8715,7 @@
         <v>63</v>
       </c>
       <c r="C113" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D113" t="s">
         <v>155</v>
@@ -8392,10 +8727,10 @@
         <v>155</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8441,10 +8776,10 @@
         <v>155</v>
       </c>
       <c r="G115" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="H115" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8455,7 +8790,7 @@
         <v>65</v>
       </c>
       <c r="C116" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D116" t="s">
         <v>155</v>
@@ -8467,10 +8802,10 @@
         <v>155</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8481,7 +8816,7 @@
         <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D117" t="s">
         <v>155</v>
@@ -8493,10 +8828,10 @@
         <v>155</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8519,10 +8854,10 @@
         <v>155</v>
       </c>
       <c r="G118" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H118" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8542,7 +8877,7 @@
         <v>155</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>648</v>
@@ -8562,10 +8897,10 @@
         <v>155</v>
       </c>
       <c r="G120" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="H120" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="45">
@@ -8582,10 +8917,10 @@
         <v>155</v>
       </c>
       <c r="G121" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="H121" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30">
@@ -8602,10 +8937,10 @@
         <v>155</v>
       </c>
       <c r="G122" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="H122" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30">
@@ -8622,10 +8957,10 @@
         <v>155</v>
       </c>
       <c r="G123" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H123" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="60">
@@ -8642,10 +8977,10 @@
         <v>155</v>
       </c>
       <c r="G124" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="H124" s="7" t="s">
         <v>727</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8662,10 +8997,10 @@
         <v>155</v>
       </c>
       <c r="G125" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="H125" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8676,7 +9011,7 @@
         <v>69</v>
       </c>
       <c r="C126" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D126" t="s">
         <v>155</v>
@@ -8688,10 +9023,10 @@
         <v>155</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8702,7 +9037,7 @@
         <v>69</v>
       </c>
       <c r="C127" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D127" t="s">
         <v>155</v>
@@ -8714,10 +9049,10 @@
         <v>155</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8740,10 +9075,10 @@
         <v>155</v>
       </c>
       <c r="G128" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="H128" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8763,7 +9098,7 @@
         <v>155</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>648</v>
@@ -8777,7 +9112,7 @@
         <v>87</v>
       </c>
       <c r="C130" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D130" t="s">
         <v>155</v>
@@ -8789,10 +9124,10 @@
         <v>155</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8803,7 +9138,7 @@
         <v>87</v>
       </c>
       <c r="C131" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D131" t="s">
         <v>155</v>
@@ -8815,10 +9150,10 @@
         <v>155</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8838,10 +9173,10 @@
         <v>155</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8864,10 +9199,10 @@
         <v>155</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8878,7 +9213,7 @@
         <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D134" t="s">
         <v>155</v>
@@ -8890,10 +9225,10 @@
         <v>155</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8904,7 +9239,7 @@
         <v>89</v>
       </c>
       <c r="C135" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D135" t="s">
         <v>155</v>
@@ -8916,10 +9251,10 @@
         <v>155</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8942,10 +9277,10 @@
         <v>155</v>
       </c>
       <c r="G136" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="H136" s="7" t="s">
         <v>771</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8971,7 +9306,7 @@
         <v>534</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8991,10 +9326,10 @@
         <v>155</v>
       </c>
       <c r="G138" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="H138" s="7" t="s">
         <v>774</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9005,7 +9340,7 @@
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D139" t="s">
         <v>155</v>
@@ -9017,10 +9352,10 @@
         <v>155</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9031,7 +9366,7 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D140" t="s">
         <v>155</v>
@@ -9043,10 +9378,10 @@
         <v>155</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="30">
@@ -9069,10 +9404,10 @@
         <v>155</v>
       </c>
       <c r="G141" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="H141" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9092,7 +9427,7 @@
         <v>155</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>648</v>
@@ -9115,10 +9450,10 @@
         <v>155</v>
       </c>
       <c r="G143" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="H143" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9138,10 +9473,10 @@
         <v>155</v>
       </c>
       <c r="G144" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="H144" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9152,7 +9487,7 @@
         <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D145" t="s">
         <v>155</v>
@@ -9164,10 +9499,10 @@
         <v>155</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9178,7 +9513,7 @@
         <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D146" t="s">
         <v>155</v>
@@ -9190,10 +9525,10 @@
         <v>155</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="30">
@@ -9204,19 +9539,19 @@
         <v>26</v>
       </c>
       <c r="C147" t="s">
+        <v>690</v>
+      </c>
+      <c r="D147" t="s">
+        <v>155</v>
+      </c>
+      <c r="E147" t="s">
+        <v>155</v>
+      </c>
+      <c r="F147" t="s">
+        <v>155</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="D147" t="s">
-        <v>155</v>
-      </c>
-      <c r="E147" t="s">
-        <v>155</v>
-      </c>
-      <c r="F147" t="s">
-        <v>155</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>692</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>648</v>
@@ -9239,10 +9574,10 @@
         <v>155</v>
       </c>
       <c r="G148" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="H148" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9253,7 +9588,7 @@
         <v>26</v>
       </c>
       <c r="C149" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D149" t="s">
         <v>155</v>
@@ -9265,10 +9600,10 @@
         <v>155</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9279,7 +9614,7 @@
         <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D150" t="s">
         <v>155</v>
@@ -9291,10 +9626,10 @@
         <v>155</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="30">
@@ -9320,7 +9655,7 @@
         <v>389</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9354,7 +9689,7 @@
         <v>179</v>
       </c>
       <c r="C153" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D153" t="s">
         <v>155</v>
@@ -9366,10 +9701,10 @@
         <v>155</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9380,7 +9715,7 @@
         <v>179</v>
       </c>
       <c r="C154" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D154" t="s">
         <v>155</v>
@@ -9392,10 +9727,10 @@
         <v>155</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9421,7 +9756,7 @@
         <v>460</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9441,7 +9776,7 @@
         <v>462</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9461,7 +9796,7 @@
         <v>464</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="30">
@@ -9481,7 +9816,7 @@
         <v>466</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9501,7 +9836,7 @@
         <v>468</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9521,7 +9856,7 @@
         <v>470</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9541,7 +9876,7 @@
         <v>472</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9564,7 +9899,7 @@
         <v>473</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9610,7 +9945,7 @@
         <v>477</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9630,7 +9965,7 @@
         <v>479</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9650,7 +9985,7 @@
         <v>481</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9670,7 +10005,7 @@
         <v>483</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9690,7 +10025,7 @@
         <v>485</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9701,7 +10036,7 @@
         <v>217</v>
       </c>
       <c r="C169" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D169" t="s">
         <v>155</v>
@@ -9713,10 +10048,10 @@
         <v>155</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9727,7 +10062,7 @@
         <v>217</v>
       </c>
       <c r="C170" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D170" t="s">
         <v>155</v>
@@ -9739,10 +10074,10 @@
         <v>155</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9802,7 +10137,7 @@
         <v>219</v>
       </c>
       <c r="C173" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D173" t="s">
         <v>155</v>
@@ -9814,10 +10149,10 @@
         <v>155</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9828,7 +10163,7 @@
         <v>219</v>
       </c>
       <c r="C174" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D174" t="s">
         <v>155</v>
@@ -9840,10 +10175,10 @@
         <v>155</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9895,7 +10230,7 @@
         <v>223</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9906,7 +10241,7 @@
         <v>221</v>
       </c>
       <c r="C177" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D177" t="s">
         <v>155</v>
@@ -9918,10 +10253,10 @@
         <v>155</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9932,7 +10267,7 @@
         <v>221</v>
       </c>
       <c r="C178" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D178" t="s">
         <v>155</v>
@@ -9944,10 +10279,10 @@
         <v>155</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10007,7 +10342,7 @@
         <v>231</v>
       </c>
       <c r="C181" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D181" t="s">
         <v>155</v>
@@ -10019,10 +10354,10 @@
         <v>155</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10033,7 +10368,7 @@
         <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D182" t="s">
         <v>155</v>
@@ -10045,10 +10380,10 @@
         <v>155</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10108,7 +10443,7 @@
         <v>228</v>
       </c>
       <c r="C185" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D185" t="s">
         <v>155</v>
@@ -10120,10 +10455,10 @@
         <v>155</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10134,7 +10469,7 @@
         <v>228</v>
       </c>
       <c r="C186" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D186" t="s">
         <v>155</v>
@@ -10146,10 +10481,10 @@
         <v>155</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10195,7 +10530,7 @@
         <v>487</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10218,7 +10553,7 @@
         <v>489</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10229,7 +10564,7 @@
         <v>225</v>
       </c>
       <c r="C190" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D190" t="s">
         <v>155</v>
@@ -10241,10 +10576,10 @@
         <v>155</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10255,7 +10590,7 @@
         <v>225</v>
       </c>
       <c r="C191" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D191" t="s">
         <v>155</v>
@@ -10267,10 +10602,10 @@
         <v>155</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10296,7 +10631,7 @@
         <v>391</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10330,7 +10665,7 @@
         <v>183</v>
       </c>
       <c r="C194" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D194" t="s">
         <v>155</v>
@@ -10342,10 +10677,10 @@
         <v>155</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10356,7 +10691,7 @@
         <v>183</v>
       </c>
       <c r="C195" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D195" t="s">
         <v>155</v>
@@ -10368,10 +10703,10 @@
         <v>155</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10397,7 +10732,7 @@
         <v>313</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10423,7 +10758,7 @@
         <v>571</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10434,7 +10769,7 @@
         <v>312</v>
       </c>
       <c r="C198" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D198" t="s">
         <v>155</v>
@@ -10446,10 +10781,10 @@
         <v>155</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10460,7 +10795,7 @@
         <v>312</v>
       </c>
       <c r="C199" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D199" t="s">
         <v>155</v>
@@ -10472,10 +10807,10 @@
         <v>155</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10501,7 +10836,7 @@
         <v>533</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10538,7 +10873,7 @@
         <v>531</v>
       </c>
       <c r="C202" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D202" t="s">
         <v>155</v>
@@ -10550,10 +10885,10 @@
         <v>155</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10564,7 +10899,7 @@
         <v>531</v>
       </c>
       <c r="C203" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D203" t="s">
         <v>155</v>
@@ -10576,10 +10911,10 @@
         <v>155</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10628,7 +10963,7 @@
         <v>590</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30">
@@ -10651,7 +10986,7 @@
         <v>586</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="30">
@@ -10674,7 +11009,7 @@
         <v>592</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="30">
@@ -10697,7 +11032,7 @@
         <v>594</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10708,7 +11043,7 @@
         <v>323</v>
       </c>
       <c r="C209" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D209" t="s">
         <v>155</v>
@@ -10720,10 +11055,10 @@
         <v>155</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10734,7 +11069,7 @@
         <v>323</v>
       </c>
       <c r="C210" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D210" t="s">
         <v>155</v>
@@ -10746,10 +11081,10 @@
         <v>155</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10775,7 +11110,7 @@
         <v>492</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="30">
@@ -10798,7 +11133,7 @@
         <v>494</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10809,7 +11144,7 @@
         <v>235</v>
       </c>
       <c r="C213" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D213" t="s">
         <v>155</v>
@@ -10821,10 +11156,10 @@
         <v>155</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10835,7 +11170,7 @@
         <v>235</v>
       </c>
       <c r="C214" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D214" t="s">
         <v>155</v>
@@ -10847,10 +11182,10 @@
         <v>155</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10899,7 +11234,7 @@
         <v>586</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10910,7 +11245,7 @@
         <v>320</v>
       </c>
       <c r="C217" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D217" t="s">
         <v>155</v>
@@ -10922,10 +11257,10 @@
         <v>155</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10936,7 +11271,7 @@
         <v>320</v>
       </c>
       <c r="C218" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D218" t="s">
         <v>155</v>
@@ -10948,10 +11283,10 @@
         <v>155</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -10988,7 +11323,7 @@
         <v>329</v>
       </c>
       <c r="C220" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D220" t="s">
         <v>155</v>
@@ -11000,10 +11335,10 @@
         <v>155</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11014,7 +11349,7 @@
         <v>329</v>
       </c>
       <c r="C221" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D221" t="s">
         <v>155</v>
@@ -11026,10 +11361,10 @@
         <v>155</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11055,7 +11390,7 @@
         <v>598</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11081,7 +11416,7 @@
         <v>600</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="30">
@@ -11101,7 +11436,7 @@
         <v>602</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="30">
@@ -11121,7 +11456,7 @@
         <v>604</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11141,7 +11476,7 @@
         <v>606</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11152,7 +11487,7 @@
         <v>331</v>
       </c>
       <c r="C227" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D227" t="s">
         <v>155</v>
@@ -11164,10 +11499,10 @@
         <v>155</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11178,7 +11513,7 @@
         <v>331</v>
       </c>
       <c r="C228" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D228" t="s">
         <v>155</v>
@@ -11190,10 +11525,10 @@
         <v>155</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11219,7 +11554,7 @@
         <v>607</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11265,7 +11600,7 @@
         <v>610</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11276,7 +11611,7 @@
         <v>334</v>
       </c>
       <c r="C232" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D232" t="s">
         <v>155</v>
@@ -11288,10 +11623,10 @@
         <v>155</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11302,7 +11637,7 @@
         <v>334</v>
       </c>
       <c r="C233" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D233" t="s">
         <v>155</v>
@@ -11314,10 +11649,10 @@
         <v>155</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11343,7 +11678,7 @@
         <v>611</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11386,7 +11721,7 @@
         <v>614</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="30">
@@ -11406,7 +11741,7 @@
         <v>616</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11417,7 +11752,7 @@
         <v>338</v>
       </c>
       <c r="C238" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D238" t="s">
         <v>155</v>
@@ -11429,10 +11764,10 @@
         <v>155</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11443,7 +11778,7 @@
         <v>338</v>
       </c>
       <c r="C239" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D239" t="s">
         <v>155</v>
@@ -11455,10 +11790,10 @@
         <v>155</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11484,7 +11819,7 @@
         <v>633</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11510,7 +11845,7 @@
         <v>635</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11521,7 +11856,7 @@
         <v>353</v>
       </c>
       <c r="C242" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D242" t="s">
         <v>155</v>
@@ -11533,10 +11868,10 @@
         <v>155</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11547,7 +11882,7 @@
         <v>353</v>
       </c>
       <c r="C243" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D243" t="s">
         <v>155</v>
@@ -11559,10 +11894,10 @@
         <v>155</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11588,7 +11923,7 @@
         <v>630</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11622,7 +11957,7 @@
         <v>350</v>
       </c>
       <c r="C246" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D246" t="s">
         <v>155</v>
@@ -11634,10 +11969,10 @@
         <v>155</v>
       </c>
       <c r="G246" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11648,7 +11983,7 @@
         <v>350</v>
       </c>
       <c r="C247" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D247" t="s">
         <v>155</v>
@@ -11660,10 +11995,10 @@
         <v>155</v>
       </c>
       <c r="G247" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11689,7 +12024,7 @@
         <v>628</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11706,10 +12041,10 @@
         <v>155</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11720,7 +12055,7 @@
         <v>348</v>
       </c>
       <c r="C250" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D250" t="s">
         <v>155</v>
@@ -11732,10 +12067,10 @@
         <v>155</v>
       </c>
       <c r="G250" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11746,7 +12081,7 @@
         <v>348</v>
       </c>
       <c r="C251" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D251" t="s">
         <v>155</v>
@@ -11758,10 +12093,10 @@
         <v>155</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="30">
@@ -11807,7 +12142,7 @@
         <v>638</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="30">
@@ -11827,7 +12162,7 @@
         <v>640</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -11838,7 +12173,7 @@
         <v>355</v>
       </c>
       <c r="C255" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D255" t="s">
         <v>155</v>
@@ -11850,10 +12185,10 @@
         <v>155</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -11864,7 +12199,7 @@
         <v>355</v>
       </c>
       <c r="C256" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D256" t="s">
         <v>155</v>
@@ -11876,10 +12211,10 @@
         <v>155</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="30">
@@ -11905,7 +12240,7 @@
         <v>617</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="30">
@@ -11939,7 +12274,7 @@
         <v>340</v>
       </c>
       <c r="C259" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D259" t="s">
         <v>155</v>
@@ -11951,10 +12286,10 @@
         <v>155</v>
       </c>
       <c r="G259" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -11965,7 +12300,7 @@
         <v>340</v>
       </c>
       <c r="C260" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D260" t="s">
         <v>155</v>
@@ -11977,10 +12312,10 @@
         <v>155</v>
       </c>
       <c r="G260" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12017,7 +12352,7 @@
         <v>239</v>
       </c>
       <c r="C262" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D262" t="s">
         <v>155</v>
@@ -12029,10 +12364,10 @@
         <v>155</v>
       </c>
       <c r="G262" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12043,7 +12378,7 @@
         <v>239</v>
       </c>
       <c r="C263" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D263" t="s">
         <v>155</v>
@@ -12055,10 +12390,10 @@
         <v>155</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12084,7 +12419,7 @@
         <v>496</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12118,7 +12453,7 @@
         <v>242</v>
       </c>
       <c r="C266" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D266" t="s">
         <v>155</v>
@@ -12130,10 +12465,10 @@
         <v>155</v>
       </c>
       <c r="G266" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12144,7 +12479,7 @@
         <v>242</v>
       </c>
       <c r="C267" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D267" t="s">
         <v>155</v>
@@ -12156,10 +12491,10 @@
         <v>155</v>
       </c>
       <c r="G267" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12182,7 +12517,7 @@
         <v>155</v>
       </c>
       <c r="G268" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H268" s="7" t="s">
         <v>648</v>
@@ -12208,7 +12543,7 @@
         <v>500</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12231,7 +12566,7 @@
         <v>502</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12242,7 +12577,7 @@
         <v>245</v>
       </c>
       <c r="C271" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D271" t="s">
         <v>155</v>
@@ -12254,10 +12589,10 @@
         <v>155</v>
       </c>
       <c r="G271" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12268,7 +12603,7 @@
         <v>245</v>
       </c>
       <c r="C272" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D272" t="s">
         <v>155</v>
@@ -12280,10 +12615,10 @@
         <v>155</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12306,10 +12641,10 @@
         <v>155</v>
       </c>
       <c r="G273" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12349,10 +12684,10 @@
         <v>155</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12363,7 +12698,7 @@
         <v>248</v>
       </c>
       <c r="C276" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D276" t="s">
         <v>155</v>
@@ -12375,10 +12710,10 @@
         <v>155</v>
       </c>
       <c r="G276" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12389,7 +12724,7 @@
         <v>248</v>
       </c>
       <c r="C277" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D277" t="s">
         <v>155</v>
@@ -12401,10 +12736,10 @@
         <v>155</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12430,7 +12765,7 @@
         <v>505</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12441,7 +12776,7 @@
         <v>251</v>
       </c>
       <c r="C279" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D279" t="s">
         <v>155</v>
@@ -12453,10 +12788,10 @@
         <v>155</v>
       </c>
       <c r="G279" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12467,7 +12802,7 @@
         <v>251</v>
       </c>
       <c r="C280" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D280" t="s">
         <v>155</v>
@@ -12479,10 +12814,10 @@
         <v>155</v>
       </c>
       <c r="G280" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12508,7 +12843,7 @@
         <v>619</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12570,7 +12905,7 @@
         <v>343</v>
       </c>
       <c r="C285" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D285" t="s">
         <v>155</v>
@@ -12582,10 +12917,10 @@
         <v>155</v>
       </c>
       <c r="G285" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H285" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12596,7 +12931,7 @@
         <v>343</v>
       </c>
       <c r="C286" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D286" t="s">
         <v>155</v>
@@ -12608,10 +12943,10 @@
         <v>155</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H286" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12648,7 +12983,7 @@
         <v>254</v>
       </c>
       <c r="C288" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D288" t="s">
         <v>155</v>
@@ -12660,10 +12995,10 @@
         <v>155</v>
       </c>
       <c r="G288" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H288" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12674,7 +13009,7 @@
         <v>254</v>
       </c>
       <c r="C289" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D289" t="s">
         <v>155</v>
@@ -12686,10 +13021,10 @@
         <v>155</v>
       </c>
       <c r="G289" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12726,7 +13061,7 @@
         <v>326</v>
       </c>
       <c r="C291" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D291" t="s">
         <v>155</v>
@@ -12738,10 +13073,10 @@
         <v>155</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H291" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12752,7 +13087,7 @@
         <v>326</v>
       </c>
       <c r="C292" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D292" t="s">
         <v>155</v>
@@ -12764,10 +13099,10 @@
         <v>155</v>
       </c>
       <c r="G292" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12804,7 +13139,7 @@
         <v>166</v>
       </c>
       <c r="C294" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D294" t="s">
         <v>155</v>
@@ -12816,10 +13151,10 @@
         <v>155</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -12830,7 +13165,7 @@
         <v>166</v>
       </c>
       <c r="C295" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D295" t="s">
         <v>155</v>
@@ -12842,10 +13177,10 @@
         <v>155</v>
       </c>
       <c r="G295" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -12882,7 +13217,7 @@
         <v>269</v>
       </c>
       <c r="C297" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D297" t="s">
         <v>155</v>
@@ -12894,10 +13229,10 @@
         <v>155</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -12908,7 +13243,7 @@
         <v>269</v>
       </c>
       <c r="C298" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D298" t="s">
         <v>155</v>
@@ -12920,10 +13255,10 @@
         <v>155</v>
       </c>
       <c r="G298" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13050,7 +13385,7 @@
         <v>578</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13073,7 +13408,7 @@
         <v>580</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13084,7 +13419,7 @@
         <v>315</v>
       </c>
       <c r="C305" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D305" t="s">
         <v>155</v>
@@ -13096,10 +13431,10 @@
         <v>155</v>
       </c>
       <c r="G305" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13110,7 +13445,7 @@
         <v>315</v>
       </c>
       <c r="C306" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D306" t="s">
         <v>155</v>
@@ -13122,10 +13457,10 @@
         <v>155</v>
       </c>
       <c r="G306" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13234,7 +13569,7 @@
         <v>358</v>
       </c>
       <c r="C311" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D311" t="s">
         <v>155</v>
@@ -13246,10 +13581,10 @@
         <v>155</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13260,7 +13595,7 @@
         <v>358</v>
       </c>
       <c r="C312" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D312" t="s">
         <v>155</v>
@@ -13272,10 +13607,10 @@
         <v>155</v>
       </c>
       <c r="G312" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H312" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="30">
@@ -13301,7 +13636,7 @@
         <v>624</v>
       </c>
       <c r="H313" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13344,7 +13679,7 @@
         <v>627</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13355,7 +13690,7 @@
         <v>346</v>
       </c>
       <c r="C316" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D316" t="s">
         <v>155</v>
@@ -13367,10 +13702,10 @@
         <v>155</v>
       </c>
       <c r="G316" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13381,7 +13716,7 @@
         <v>346</v>
       </c>
       <c r="C317" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D317" t="s">
         <v>155</v>
@@ -13393,10 +13728,10 @@
         <v>155</v>
       </c>
       <c r="G317" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13468,7 +13803,7 @@
         <v>583</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13479,7 +13814,7 @@
         <v>318</v>
       </c>
       <c r="C321" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D321" t="s">
         <v>155</v>
@@ -13491,10 +13826,10 @@
         <v>155</v>
       </c>
       <c r="G321" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13505,7 +13840,7 @@
         <v>318</v>
       </c>
       <c r="C322" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D322" t="s">
         <v>155</v>
@@ -13517,10 +13852,10 @@
         <v>155</v>
       </c>
       <c r="G322" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13569,7 +13904,7 @@
         <v>197</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13592,7 +13927,7 @@
         <v>565</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13615,7 +13950,7 @@
         <v>567</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13643,7 +13978,7 @@
         <v>309</v>
       </c>
       <c r="C328" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D328" t="s">
         <v>155</v>
@@ -13655,10 +13990,10 @@
         <v>155</v>
       </c>
       <c r="G328" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13669,7 +14004,7 @@
         <v>309</v>
       </c>
       <c r="C329" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D329" t="s">
         <v>155</v>
@@ -13681,10 +14016,10 @@
         <v>155</v>
       </c>
       <c r="G329" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -13710,7 +14045,7 @@
         <v>377</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -13744,7 +14079,7 @@
         <v>162</v>
       </c>
       <c r="C332" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D332" t="s">
         <v>155</v>
@@ -13756,10 +14091,10 @@
         <v>155</v>
       </c>
       <c r="G332" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H332" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -13770,7 +14105,7 @@
         <v>162</v>
       </c>
       <c r="C333" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D333" t="s">
         <v>155</v>
@@ -13782,10 +14117,10 @@
         <v>155</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H333" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -13811,7 +14146,7 @@
         <v>377</v>
       </c>
       <c r="H334" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -13845,7 +14180,7 @@
         <v>163</v>
       </c>
       <c r="C336" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D336" t="s">
         <v>155</v>
@@ -13857,10 +14192,10 @@
         <v>155</v>
       </c>
       <c r="G336" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -13871,7 +14206,7 @@
         <v>163</v>
       </c>
       <c r="C337" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D337" t="s">
         <v>155</v>
@@ -13883,10 +14218,10 @@
         <v>155</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H337" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -13912,7 +14247,7 @@
         <v>380</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -13935,7 +14270,7 @@
         <v>382</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -13958,7 +14293,7 @@
         <v>384</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -13969,7 +14304,7 @@
         <v>164</v>
       </c>
       <c r="C341" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D341" t="s">
         <v>155</v>
@@ -13981,10 +14316,10 @@
         <v>155</v>
       </c>
       <c r="G341" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H341" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -13995,7 +14330,7 @@
         <v>164</v>
       </c>
       <c r="C342" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D342" t="s">
         <v>155</v>
@@ -14007,10 +14342,10 @@
         <v>155</v>
       </c>
       <c r="G342" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14036,7 +14371,7 @@
         <v>535</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14070,7 +14405,7 @@
         <v>287</v>
       </c>
       <c r="C345" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D345" t="s">
         <v>155</v>
@@ -14082,10 +14417,10 @@
         <v>155</v>
       </c>
       <c r="G345" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14096,7 +14431,7 @@
         <v>287</v>
       </c>
       <c r="C346" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D346" t="s">
         <v>155</v>
@@ -14108,10 +14443,10 @@
         <v>155</v>
       </c>
       <c r="G346" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="30">
@@ -14137,7 +14472,7 @@
         <v>538</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14180,7 +14515,7 @@
         <v>541</v>
       </c>
       <c r="H349" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14211,7 +14546,7 @@
         <v>290</v>
       </c>
       <c r="C351" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D351" t="s">
         <v>155</v>
@@ -14223,10 +14558,10 @@
         <v>155</v>
       </c>
       <c r="G351" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14237,7 +14572,7 @@
         <v>290</v>
       </c>
       <c r="C352" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D352" t="s">
         <v>155</v>
@@ -14249,10 +14584,10 @@
         <v>155</v>
       </c>
       <c r="G352" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14312,7 +14647,7 @@
         <v>293</v>
       </c>
       <c r="C355" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D355" t="s">
         <v>155</v>
@@ -14324,10 +14659,10 @@
         <v>155</v>
       </c>
       <c r="G355" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H355" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14338,7 +14673,7 @@
         <v>293</v>
       </c>
       <c r="C356" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D356" t="s">
         <v>155</v>
@@ -14350,10 +14685,10 @@
         <v>155</v>
       </c>
       <c r="G356" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H356" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="30">
@@ -14379,7 +14714,7 @@
         <v>562</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14390,7 +14725,7 @@
         <v>306</v>
       </c>
       <c r="C358" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D358" t="s">
         <v>155</v>
@@ -14402,10 +14737,10 @@
         <v>155</v>
       </c>
       <c r="G358" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14416,7 +14751,7 @@
         <v>306</v>
       </c>
       <c r="C359" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D359" t="s">
         <v>155</v>
@@ -14428,10 +14763,10 @@
         <v>155</v>
       </c>
       <c r="G359" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14457,7 +14792,7 @@
         <v>377</v>
       </c>
       <c r="H360" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14468,7 +14803,7 @@
         <v>165</v>
       </c>
       <c r="C361" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D361" t="s">
         <v>155</v>
@@ -14480,10 +14815,10 @@
         <v>155</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14494,7 +14829,7 @@
         <v>165</v>
       </c>
       <c r="C362" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D362" t="s">
         <v>155</v>
@@ -14506,10 +14841,10 @@
         <v>155</v>
       </c>
       <c r="G362" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H362" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14535,7 +14870,7 @@
         <v>508</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14561,7 +14896,7 @@
         <v>510</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -14598,7 +14933,7 @@
         <v>263</v>
       </c>
       <c r="C366" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D366" t="s">
         <v>155</v>
@@ -14610,10 +14945,10 @@
         <v>155</v>
       </c>
       <c r="G366" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14624,7 +14959,7 @@
         <v>263</v>
       </c>
       <c r="C367" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D367" t="s">
         <v>155</v>
@@ -14636,10 +14971,10 @@
         <v>155</v>
       </c>
       <c r="G367" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -14711,7 +15046,7 @@
         <v>517</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -14722,7 +15057,7 @@
         <v>266</v>
       </c>
       <c r="C371" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D371" t="s">
         <v>155</v>
@@ -14734,10 +15069,10 @@
         <v>155</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -14748,7 +15083,7 @@
         <v>266</v>
       </c>
       <c r="C372" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D372" t="s">
         <v>155</v>
@@ -14760,10 +15095,10 @@
         <v>155</v>
       </c>
       <c r="G372" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H372" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -14786,7 +15121,7 @@
         <v>507</v>
       </c>
       <c r="H373" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -14797,7 +15132,7 @@
         <v>260</v>
       </c>
       <c r="C374" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D374" t="s">
         <v>155</v>
@@ -14809,10 +15144,10 @@
         <v>155</v>
       </c>
       <c r="G374" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -14823,7 +15158,7 @@
         <v>260</v>
       </c>
       <c r="C375" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D375" t="s">
         <v>155</v>
@@ -14835,10 +15170,10 @@
         <v>155</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H375" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="30">
@@ -14864,7 +15199,7 @@
         <v>393</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -14898,7 +15233,7 @@
         <v>186</v>
       </c>
       <c r="C378" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D378" t="s">
         <v>155</v>
@@ -14910,10 +15245,10 @@
         <v>155</v>
       </c>
       <c r="G378" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H378" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -14924,7 +15259,7 @@
         <v>186</v>
       </c>
       <c r="C379" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D379" t="s">
         <v>155</v>
@@ -14936,10 +15271,10 @@
         <v>155</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H379" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -14965,7 +15300,7 @@
         <v>396</v>
       </c>
       <c r="H380" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="30">
@@ -14991,7 +15326,7 @@
         <v>398</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15002,7 +15337,7 @@
         <v>189</v>
       </c>
       <c r="C382" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D382" t="s">
         <v>155</v>
@@ -15014,10 +15349,10 @@
         <v>155</v>
       </c>
       <c r="G382" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H382" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15028,7 +15363,7 @@
         <v>189</v>
       </c>
       <c r="C383" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D383" t="s">
         <v>155</v>
@@ -15040,10 +15375,10 @@
         <v>155</v>
       </c>
       <c r="G383" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H383" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15069,7 +15404,7 @@
         <v>400</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15095,7 +15430,7 @@
         <v>402</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15121,7 +15456,7 @@
         <v>404</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15160,7 +15495,7 @@
         <v>192</v>
       </c>
       <c r="C389" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D389" t="s">
         <v>155</v>
@@ -15172,10 +15507,10 @@
         <v>155</v>
       </c>
       <c r="G389" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15186,7 +15521,7 @@
         <v>192</v>
       </c>
       <c r="C390" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D390" t="s">
         <v>155</v>
@@ -15198,10 +15533,10 @@
         <v>155</v>
       </c>
       <c r="G390" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15227,7 +15562,7 @@
         <v>197</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15261,7 +15596,7 @@
         <v>195</v>
       </c>
       <c r="C393" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D393" t="s">
         <v>155</v>
@@ -15273,10 +15608,10 @@
         <v>155</v>
       </c>
       <c r="G393" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H393" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15287,7 +15622,7 @@
         <v>195</v>
       </c>
       <c r="C394" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D394" t="s">
         <v>155</v>
@@ -15299,10 +15634,10 @@
         <v>155</v>
       </c>
       <c r="G394" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15354,7 +15689,7 @@
         <v>414</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="60">
@@ -15380,7 +15715,7 @@
         <v>416</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15403,7 +15738,7 @@
         <v>418</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15426,7 +15761,7 @@
         <v>420</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15446,10 +15781,10 @@
         <v>155</v>
       </c>
       <c r="G400" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15472,7 +15807,7 @@
         <v>423</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="45">
@@ -15495,7 +15830,7 @@
         <v>425</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15518,7 +15853,7 @@
         <v>427</v>
       </c>
       <c r="H403" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="60">
@@ -15541,7 +15876,7 @@
         <v>429</v>
       </c>
       <c r="H404" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15552,7 +15887,7 @@
         <v>202</v>
       </c>
       <c r="C405" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D405" t="s">
         <v>155</v>
@@ -15564,10 +15899,10 @@
         <v>155</v>
       </c>
       <c r="G405" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15578,7 +15913,7 @@
         <v>202</v>
       </c>
       <c r="C406" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D406" t="s">
         <v>155</v>
@@ -15590,10 +15925,10 @@
         <v>155</v>
       </c>
       <c r="G406" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -15642,7 +15977,7 @@
         <v>410</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -15653,7 +15988,7 @@
         <v>199</v>
       </c>
       <c r="C409" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D409" t="s">
         <v>155</v>
@@ -15665,10 +16000,10 @@
         <v>155</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -15679,7 +16014,7 @@
         <v>199</v>
       </c>
       <c r="C410" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D410" t="s">
         <v>155</v>
@@ -15691,10 +16026,10 @@
         <v>155</v>
       </c>
       <c r="G410" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="105">
@@ -15720,7 +16055,7 @@
         <v>432</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -15743,7 +16078,7 @@
         <v>434</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -15754,7 +16089,7 @@
         <v>208</v>
       </c>
       <c r="C413" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D413" t="s">
         <v>155</v>
@@ -15766,10 +16101,10 @@
         <v>155</v>
       </c>
       <c r="G413" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -15780,7 +16115,7 @@
         <v>208</v>
       </c>
       <c r="C414" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D414" t="s">
         <v>155</v>
@@ -15792,10 +16127,10 @@
         <v>155</v>
       </c>
       <c r="G414" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -15815,7 +16150,7 @@
         <v>438</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -15841,7 +16176,7 @@
         <v>440</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -15861,7 +16196,7 @@
         <v>442</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -15881,7 +16216,7 @@
         <v>444</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -15901,7 +16236,7 @@
         <v>446</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -15921,7 +16256,7 @@
         <v>448</v>
       </c>
       <c r="H420" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -15944,7 +16279,7 @@
         <v>449</v>
       </c>
       <c r="H421" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -15987,7 +16322,7 @@
         <v>452</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16007,7 +16342,7 @@
         <v>454</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16027,7 +16362,7 @@
         <v>456</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16047,7 +16382,7 @@
         <v>458</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16058,7 +16393,7 @@
         <v>215</v>
       </c>
       <c r="C427" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D427" t="s">
         <v>155</v>
@@ -16070,10 +16405,10 @@
         <v>155</v>
       </c>
       <c r="G427" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16084,7 +16419,7 @@
         <v>215</v>
       </c>
       <c r="C428" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D428" t="s">
         <v>155</v>
@@ -16096,10 +16431,10 @@
         <v>155</v>
       </c>
       <c r="G428" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16125,7 +16460,7 @@
         <v>430</v>
       </c>
       <c r="H429" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16159,7 +16494,7 @@
         <v>205</v>
       </c>
       <c r="C431" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D431" t="s">
         <v>155</v>
@@ -16171,10 +16506,10 @@
         <v>155</v>
       </c>
       <c r="G431" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H431" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16185,7 +16520,7 @@
         <v>205</v>
       </c>
       <c r="C432" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D432" t="s">
         <v>155</v>
@@ -16197,10 +16532,10 @@
         <v>155</v>
       </c>
       <c r="G432" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16226,7 +16561,7 @@
         <v>435</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16260,7 +16595,7 @@
         <v>212</v>
       </c>
       <c r="C435" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D435" t="s">
         <v>155</v>
@@ -16272,10 +16607,10 @@
         <v>155</v>
       </c>
       <c r="G435" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H435" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16286,7 +16621,7 @@
         <v>212</v>
       </c>
       <c r="C436" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D436" t="s">
         <v>155</v>
@@ -16298,10 +16633,10 @@
         <v>155</v>
       </c>
       <c r="G436" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H436" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16309,11 +16644,11 @@
         <v>161</v>
       </c>
       <c r="B437" t="s">
+        <v>792</v>
+      </c>
+      <c r="C437" t="s">
         <v>793</v>
       </c>
-      <c r="C437" t="s">
-        <v>794</v>
-      </c>
       <c r="D437" t="s">
         <v>155</v>
       </c>
@@ -16321,7 +16656,7 @@
         <v>155</v>
       </c>
       <c r="G437" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H437" s="7" t="s">
         <v>91</v>
@@ -16332,7 +16667,7 @@
         <v>161</v>
       </c>
       <c r="B438" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C438" t="s">
         <v>9</v>
@@ -16355,10 +16690,10 @@
         <v>161</v>
       </c>
       <c r="B439" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C439" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D439" t="s">
         <v>155</v>
@@ -16367,10 +16702,10 @@
         <v>155</v>
       </c>
       <c r="G439" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16396,7 +16731,7 @@
         <v>542</v>
       </c>
       <c r="H440" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16419,7 +16754,7 @@
         <v>546</v>
       </c>
       <c r="H441" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -16442,7 +16777,7 @@
         <v>548</v>
       </c>
       <c r="H442" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16453,7 +16788,7 @@
         <v>297</v>
       </c>
       <c r="C443" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D443" t="s">
         <v>155</v>
@@ -16465,10 +16800,10 @@
         <v>155</v>
       </c>
       <c r="G443" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H443" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16479,7 +16814,7 @@
         <v>297</v>
       </c>
       <c r="C444" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D444" t="s">
         <v>155</v>
@@ -16491,10 +16826,10 @@
         <v>155</v>
       </c>
       <c r="G444" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -16520,7 +16855,7 @@
         <v>534</v>
       </c>
       <c r="H445" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -16543,7 +16878,7 @@
         <v>550</v>
       </c>
       <c r="H446" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="447" spans="1:8" ht="30">
@@ -16563,7 +16898,7 @@
         <v>552</v>
       </c>
       <c r="H447" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="30">
@@ -16583,7 +16918,7 @@
         <v>554</v>
       </c>
       <c r="H448" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -16617,7 +16952,7 @@
         <v>300</v>
       </c>
       <c r="C450" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D450" t="s">
         <v>155</v>
@@ -16629,10 +16964,10 @@
         <v>155</v>
       </c>
       <c r="G450" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H450" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -16643,7 +16978,7 @@
         <v>300</v>
       </c>
       <c r="C451" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D451" t="s">
         <v>155</v>
@@ -16655,10 +16990,10 @@
         <v>155</v>
       </c>
       <c r="G451" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H451" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -16707,7 +17042,7 @@
         <v>521</v>
       </c>
       <c r="H453" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -16758,7 +17093,7 @@
         <v>272</v>
       </c>
       <c r="C456" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D456" t="s">
         <v>155</v>
@@ -16770,10 +17105,10 @@
         <v>155</v>
       </c>
       <c r="G456" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H456" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -16784,7 +17119,7 @@
         <v>272</v>
       </c>
       <c r="C457" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D457" t="s">
         <v>155</v>
@@ -16796,10 +17131,10 @@
         <v>155</v>
       </c>
       <c r="G457" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H457" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -16825,7 +17160,7 @@
         <v>304</v>
       </c>
       <c r="H458" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -16871,7 +17206,7 @@
         <v>560</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -16882,7 +17217,7 @@
         <v>303</v>
       </c>
       <c r="C461" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D461" t="s">
         <v>155</v>
@@ -16894,10 +17229,10 @@
         <v>155</v>
       </c>
       <c r="G461" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -16908,7 +17243,7 @@
         <v>303</v>
       </c>
       <c r="C462" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D462" t="s">
         <v>155</v>
@@ -16920,10 +17255,10 @@
         <v>155</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H462" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -16946,7 +17281,7 @@
         <v>525</v>
       </c>
       <c r="H463" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -16969,7 +17304,7 @@
         <v>526</v>
       </c>
       <c r="H464" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17003,7 +17338,7 @@
         <v>276</v>
       </c>
       <c r="C466" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D466" t="s">
         <v>155</v>
@@ -17015,10 +17350,10 @@
         <v>155</v>
       </c>
       <c r="G466" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H466" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -17029,7 +17364,7 @@
         <v>276</v>
       </c>
       <c r="C467" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D467" t="s">
         <v>155</v>
@@ -17041,10 +17376,10 @@
         <v>155</v>
       </c>
       <c r="G467" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H467" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -17093,7 +17428,7 @@
         <v>530</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -17104,7 +17439,7 @@
         <v>278</v>
       </c>
       <c r="C470" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D470" t="s">
         <v>155</v>
@@ -17116,10 +17451,10 @@
         <v>155</v>
       </c>
       <c r="G470" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H470" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -17130,7 +17465,7 @@
         <v>278</v>
       </c>
       <c r="C471" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D471" t="s">
         <v>155</v>
@@ -17142,10 +17477,10 @@
         <v>155</v>
       </c>
       <c r="G471" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H471" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -17153,10 +17488,10 @@
         <v>161</v>
       </c>
       <c r="B472" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C472" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D472" t="s">
         <v>155</v>
@@ -17165,10 +17500,10 @@
         <v>155</v>
       </c>
       <c r="G472" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="H472" s="7" t="s">
         <v>889</v>
-      </c>
-      <c r="H472" s="7" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -17176,7 +17511,7 @@
         <v>161</v>
       </c>
       <c r="B473" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C473" t="s">
         <v>9</v>
@@ -17233,7 +17568,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -17241,7 +17576,7 @@
         <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2" t="s">
         <v>155</v>
@@ -17281,16 +17616,16 @@
         <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -17298,7 +17633,7 @@
         <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C2" t="s">
         <v>155</v>
@@ -17309,7 +17644,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C3" t="s">
         <v>155</v>
@@ -17320,7 +17655,7 @@
         <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C4" t="s">
         <v>155</v>
@@ -17331,7 +17666,7 @@
         <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C5" t="s">
         <v>155</v>
@@ -17342,7 +17677,7 @@
         <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C6" t="s">
         <v>155</v>
@@ -17381,10 +17716,10 @@
         <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -17392,13 +17727,13 @@
         <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17406,13 +17741,13 @@
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C3" t="s">
         <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17420,13 +17755,13 @@
         <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17434,13 +17769,13 @@
         <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C5" t="s">
+        <v>900</v>
+      </c>
+      <c r="D5" t="s">
         <v>901</v>
-      </c>
-      <c r="D5" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -17448,13 +17783,13 @@
         <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C6" t="s">
+        <v>902</v>
+      </c>
+      <c r="D6" t="s">
         <v>903</v>
-      </c>
-      <c r="D6" t="s">
-        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -17494,13 +17829,13 @@
         <v>92</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>898</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="383" ht="16.5" customHeight="1"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$551</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables{T}'!$A$1:$K$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables{T}'!$A$1:$L$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'web.Model{C}'!$A$1:$C$380</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I85" authorId="0">
+    <comment ref="J85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="950">
   <si>
     <t>DATA</t>
   </si>
@@ -2954,6 +2954,54 @@
   </si>
   <si>
     <t>DRL_EXAM_CLASS_ID_REQUIRED</t>
+  </si>
+  <si>
+    <t>RelationFieldName</t>
+  </si>
+  <si>
+    <t>examClassId</t>
+  </si>
+  <si>
+    <t>examClassIdOld</t>
+  </si>
+  <si>
+    <t>examConstraintId</t>
+  </si>
+  <si>
+    <t>examRecognitionTypeId</t>
+  </si>
+  <si>
+    <t>examStationId</t>
+  </si>
+  <si>
+    <t>holidayId</t>
+  </si>
+  <si>
+    <t>meetingPointId</t>
+  </si>
+  <si>
+    <t>ViewCollection</t>
+  </si>
+  <si>
+    <t>TitleFieldName</t>
+  </si>
+  <si>
+    <t>ProgrammName</t>
+  </si>
+  <si>
+    <t>ExamNameArge</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>OldAbbr</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
@@ -3372,13 +3420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3390,19 +3438,21 @@
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="66.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="19" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="66.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19" style="7" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -3425,37 +3475,43 @@
         <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="S1" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3465,17 +3521,20 @@
       <c r="C2" t="s">
         <v>159</v>
       </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
       <c r="K2" t="s">
         <v>97</v>
       </c>
-      <c r="M2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3485,17 +3544,20 @@
       <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>98</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>99</v>
       </c>
-      <c r="M3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="N3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3505,20 +3567,20 @@
       <c r="C4" t="s">
         <v>159</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>101</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>102</v>
       </c>
-      <c r="M4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="90">
+      <c r="N4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="90">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3528,32 +3590,35 @@
       <c r="C5" t="s">
         <v>159</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>103</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>104</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>105</v>
       </c>
-      <c r="M5" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3567,21 +3632,27 @@
         <v>155</v>
       </c>
       <c r="H6" t="s">
+        <v>935</v>
+      </c>
+      <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>103</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>107</v>
       </c>
-      <c r="P6"/>
       <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6"/>
+      <c r="S6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3595,21 +3666,24 @@
         <v>155</v>
       </c>
       <c r="H7" t="s">
+        <v>935</v>
+      </c>
+      <c r="I7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>103</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>108</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>109</v>
       </c>
-      <c r="P7"/>
       <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3623,21 +3697,24 @@
         <v>155</v>
       </c>
       <c r="H8" t="s">
+        <v>936</v>
+      </c>
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>110</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>111</v>
       </c>
-      <c r="P8"/>
       <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3651,21 +3728,24 @@
         <v>155</v>
       </c>
       <c r="H9" t="s">
+        <v>935</v>
+      </c>
+      <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>113</v>
       </c>
-      <c r="P9"/>
       <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3679,21 +3759,24 @@
         <v>155</v>
       </c>
       <c r="H10" t="s">
+        <v>935</v>
+      </c>
+      <c r="I10" t="s">
         <v>60</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>103</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>114</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>115</v>
       </c>
-      <c r="P10"/>
       <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3703,20 +3786,20 @@
       <c r="C11" t="s">
         <v>159</v>
       </c>
-      <c r="G11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>116</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>117</v>
       </c>
-      <c r="M11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="N11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3730,19 +3813,22 @@
         <v>155</v>
       </c>
       <c r="H12" t="s">
+        <v>937</v>
+      </c>
+      <c r="I12" t="s">
         <v>85</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>118</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>119</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3752,17 +3838,20 @@
       <c r="C13" t="s">
         <v>159</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>121</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>122</v>
       </c>
-      <c r="M13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="N13" t="s">
+        <v>155</v>
+      </c>
+      <c r="S13" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3772,20 +3861,20 @@
       <c r="C14" t="s">
         <v>159</v>
       </c>
-      <c r="G14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>123</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>124</v>
       </c>
-      <c r="M14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="S14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3799,19 +3888,22 @@
         <v>155</v>
       </c>
       <c r="H15" t="s">
+        <v>938</v>
+      </c>
+      <c r="I15" t="s">
         <v>43</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>125</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>126</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3821,17 +3913,20 @@
       <c r="C16" t="s">
         <v>159</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>128</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>129</v>
       </c>
-      <c r="M16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="S16" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3841,20 +3936,23 @@
       <c r="C17" t="s">
         <v>159</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>130</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>131</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>132</v>
       </c>
-      <c r="M17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="S17" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3868,19 +3966,22 @@
         <v>155</v>
       </c>
       <c r="H18" t="s">
+        <v>939</v>
+      </c>
+      <c r="I18" t="s">
         <v>54</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>125</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>133</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3890,17 +3991,20 @@
       <c r="C19" t="s">
         <v>159</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>135</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>136</v>
       </c>
-      <c r="M19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="S19" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3914,19 +4018,22 @@
         <v>155</v>
       </c>
       <c r="H20" t="s">
+        <v>940</v>
+      </c>
+      <c r="I20" t="s">
         <v>58</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>130</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>137</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3936,20 +4043,23 @@
       <c r="C21" t="s">
         <v>159</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>139</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>140</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>141</v>
       </c>
-      <c r="M21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>155</v>
+      </c>
+      <c r="S21" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3959,17 +4069,20 @@
       <c r="C22" t="s">
         <v>159</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>142</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>143</v>
       </c>
-      <c r="M22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S22" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3979,17 +4092,20 @@
       <c r="C23" t="s">
         <v>159</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>144</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>145</v>
       </c>
-      <c r="M23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S23" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4003,19 +4119,22 @@
         <v>155</v>
       </c>
       <c r="H24" t="s">
+        <v>941</v>
+      </c>
+      <c r="I24" t="s">
         <v>87</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>146</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>147</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4025,20 +4144,23 @@
       <c r="C25" t="s">
         <v>159</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>139</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>149</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>150</v>
       </c>
-      <c r="M25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>155</v>
+      </c>
+      <c r="S25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4048,17 +4170,20 @@
       <c r="C26" t="s">
         <v>159</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>151</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>152</v>
       </c>
-      <c r="M26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>155</v>
+      </c>
+      <c r="S26" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4068,20 +4193,20 @@
       <c r="C27" t="s">
         <v>159</v>
       </c>
-      <c r="G27" t="s">
-        <v>155</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>153</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>154</v>
       </c>
-      <c r="M27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>155</v>
+      </c>
+      <c r="S27" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -4097,17 +4222,17 @@
       <c r="E28" t="s">
         <v>180</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>181</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>182</v>
       </c>
-      <c r="M28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -4123,17 +4248,17 @@
       <c r="E29" t="s">
         <v>180</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>218</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>180</v>
       </c>
-      <c r="M29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -4152,23 +4277,23 @@
       <c r="G30" t="s">
         <v>155</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>217</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>220</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>197</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>198</v>
       </c>
-      <c r="M30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -4187,23 +4312,23 @@
       <c r="G31" t="s">
         <v>155</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>217</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>222</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>223</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>224</v>
       </c>
-      <c r="M31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -4222,23 +4347,23 @@
       <c r="G32" t="s">
         <v>155</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>217</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>232</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>233</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>234</v>
       </c>
-      <c r="M32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>161</v>
       </c>
@@ -4257,23 +4382,23 @@
       <c r="G33" t="s">
         <v>155</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>217</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>196</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>229</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>230</v>
       </c>
-      <c r="M33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>161</v>
       </c>
@@ -4292,20 +4417,20 @@
       <c r="G34" t="s">
         <v>155</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>217</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>226</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>227</v>
       </c>
-      <c r="M34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -4321,17 +4446,17 @@
       <c r="E35" t="s">
         <v>180</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>184</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>185</v>
       </c>
-      <c r="M35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -4347,17 +4472,17 @@
       <c r="E36" t="s">
         <v>273</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>313</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>314</v>
       </c>
-      <c r="M36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -4373,23 +4498,23 @@
       <c r="G37" t="s">
         <v>155</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>320</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>324</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>364</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>325</v>
       </c>
-      <c r="M37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -4402,17 +4527,17 @@
       <c r="D38" t="s">
         <v>321</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>283</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>284</v>
       </c>
-      <c r="M38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -4428,23 +4553,23 @@
       <c r="G39" t="s">
         <v>155</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>282</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>139</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>362</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>286</v>
       </c>
-      <c r="M39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -4460,17 +4585,17 @@
       <c r="E40" t="s">
         <v>236</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>237</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>238</v>
       </c>
-      <c r="M40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -4483,17 +4608,17 @@
       <c r="D41" t="s">
         <v>321</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>363</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>322</v>
       </c>
-      <c r="M41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -4506,17 +4631,17 @@
       <c r="D42" t="s">
         <v>321</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>365</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>330</v>
       </c>
-      <c r="M42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -4529,20 +4654,20 @@
       <c r="D43" t="s">
         <v>321</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>891</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>332</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>333</v>
       </c>
-      <c r="M43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -4555,20 +4680,20 @@
       <c r="D44" t="s">
         <v>321</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>335</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>336</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>337</v>
       </c>
-      <c r="M44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -4581,17 +4706,17 @@
       <c r="D45" t="s">
         <v>321</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>366</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>339</v>
       </c>
-      <c r="M45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -4604,17 +4729,17 @@
       <c r="D46" t="s">
         <v>321</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>351</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>352</v>
       </c>
-      <c r="M46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -4630,23 +4755,23 @@
       <c r="G47" t="s">
         <v>155</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>350</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>373</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>369</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>354</v>
       </c>
-      <c r="M47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -4659,17 +4784,17 @@
       <c r="D48" t="s">
         <v>321</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>368</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>349</v>
       </c>
-      <c r="M48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -4682,17 +4807,17 @@
       <c r="D49" t="s">
         <v>321</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>356</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>357</v>
       </c>
-      <c r="M49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>161</v>
       </c>
@@ -4705,17 +4830,17 @@
       <c r="D50" t="s">
         <v>321</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>341</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>342</v>
       </c>
-      <c r="M50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -4731,17 +4856,17 @@
       <c r="E51" t="s">
         <v>236</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>240</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>241</v>
       </c>
-      <c r="M51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -4757,17 +4882,17 @@
       <c r="E52" t="s">
         <v>236</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>243</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>244</v>
       </c>
-      <c r="M52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -4783,17 +4908,17 @@
       <c r="E53" t="s">
         <v>236</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>246</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>247</v>
       </c>
-      <c r="M53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -4809,17 +4934,17 @@
       <c r="E54" t="s">
         <v>236</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>249</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>250</v>
       </c>
-      <c r="M54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -4835,17 +4960,17 @@
       <c r="E55" t="s">
         <v>236</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>252</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>253</v>
       </c>
-      <c r="M55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -4858,17 +4983,17 @@
       <c r="D56" t="s">
         <v>321</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>344</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>345</v>
       </c>
-      <c r="M56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -4884,17 +5009,17 @@
       <c r="E57" t="s">
         <v>236</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>255</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>256</v>
       </c>
-      <c r="M57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -4907,17 +5032,17 @@
       <c r="D58" t="s">
         <v>321</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>327</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>328</v>
       </c>
-      <c r="M58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -4933,17 +5058,17 @@
       <c r="E59" t="s">
         <v>796</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>177</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>178</v>
       </c>
-      <c r="M59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -4959,17 +5084,17 @@
       <c r="E60" t="s">
         <v>236</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>270</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>271</v>
       </c>
-      <c r="M60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -4985,20 +5110,20 @@
       <c r="E61" t="s">
         <v>273</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>372</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>316</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>317</v>
       </c>
-      <c r="M61" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>161</v>
       </c>
@@ -5011,17 +5136,17 @@
       <c r="D62" t="s">
         <v>321</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>359</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>360</v>
       </c>
-      <c r="M62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -5034,17 +5159,17 @@
       <c r="D63" t="s">
         <v>321</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>367</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>347</v>
       </c>
-      <c r="M63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -5060,17 +5185,17 @@
       <c r="E64" t="s">
         <v>273</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>319</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>271</v>
       </c>
-      <c r="M64" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -5086,17 +5211,17 @@
       <c r="E65" t="s">
         <v>273</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>310</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>311</v>
       </c>
-      <c r="M65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -5109,20 +5234,20 @@
       <c r="F66" t="s">
         <v>155</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>904</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>909</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>784</v>
       </c>
-      <c r="M66" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>161</v>
       </c>
@@ -5135,20 +5260,20 @@
       <c r="F67" t="s">
         <v>155</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>905</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>910</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>785</v>
       </c>
-      <c r="M67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -5161,20 +5286,20 @@
       <c r="F68" t="s">
         <v>155</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>906</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>911</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>234</v>
       </c>
-      <c r="M68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -5190,17 +5315,17 @@
       <c r="E69" t="s">
         <v>236</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>258</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>259</v>
       </c>
-      <c r="M69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -5216,17 +5341,17 @@
       <c r="E70" t="s">
         <v>796</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>169</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>170</v>
       </c>
-      <c r="M70" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -5242,17 +5367,17 @@
       <c r="E71" t="s">
         <v>796</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>171</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>172</v>
       </c>
-      <c r="M71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -5268,17 +5393,17 @@
       <c r="E72" t="s">
         <v>796</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>173</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>174</v>
       </c>
-      <c r="M72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -5294,17 +5419,17 @@
       <c r="E73" t="s">
         <v>273</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>288</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>289</v>
       </c>
-      <c r="M73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -5320,17 +5445,17 @@
       <c r="E74" t="s">
         <v>273</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>291</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>292</v>
       </c>
-      <c r="M74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -5349,23 +5474,23 @@
       <c r="G75" t="s">
         <v>155</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>290</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>294</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>295</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>296</v>
       </c>
-      <c r="M75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -5381,17 +5506,17 @@
       <c r="E76" t="s">
         <v>273</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>307</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>308</v>
       </c>
-      <c r="M76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -5407,17 +5532,17 @@
       <c r="E77" t="s">
         <v>796</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>175</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>176</v>
       </c>
-      <c r="M77" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -5433,20 +5558,20 @@
       <c r="E78" t="s">
         <v>236</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>370</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>264</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>265</v>
       </c>
-      <c r="M78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5465,23 +5590,23 @@
       <c r="G79" t="s">
         <v>155</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>263</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>370</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>267</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>268</v>
       </c>
-      <c r="M79" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -5497,17 +5622,17 @@
       <c r="E80" t="s">
         <v>236</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>261</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>262</v>
       </c>
-      <c r="M80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -5523,17 +5648,17 @@
       <c r="E81" t="s">
         <v>797</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>187</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>188</v>
       </c>
-      <c r="M81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -5549,17 +5674,17 @@
       <c r="E82" t="s">
         <v>797</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>190</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>191</v>
       </c>
-      <c r="M82" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -5575,17 +5700,17 @@
       <c r="E83" t="s">
         <v>797</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>193</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>194</v>
       </c>
-      <c r="M83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -5601,20 +5726,20 @@
       <c r="E84" t="s">
         <v>797</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>196</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>197</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>198</v>
       </c>
-      <c r="M84" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -5633,23 +5758,23 @@
       <c r="G85" t="s">
         <v>155</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>195</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>892</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>203</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>204</v>
       </c>
-      <c r="M85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -5668,23 +5793,23 @@
       <c r="G86" t="s">
         <v>155</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>195</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>196</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>200</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>201</v>
       </c>
-      <c r="M86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -5700,20 +5825,20 @@
       <c r="E87" t="s">
         <v>797</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>209</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>210</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>211</v>
       </c>
-      <c r="M87" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -5729,17 +5854,17 @@
       <c r="E88" t="s">
         <v>797</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>361</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>216</v>
       </c>
-      <c r="M88" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -5755,17 +5880,17 @@
       <c r="E89" t="s">
         <v>797</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>206</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>207</v>
       </c>
-      <c r="M89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -5781,17 +5906,17 @@
       <c r="E90" t="s">
         <v>797</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>213</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>214</v>
       </c>
-      <c r="M90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -5804,17 +5929,17 @@
       <c r="F91" t="s">
         <v>155</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>908</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>912</v>
       </c>
-      <c r="M91" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -5830,17 +5955,17 @@
       <c r="E92" t="s">
         <v>273</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>298</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>299</v>
       </c>
-      <c r="M92" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -5856,17 +5981,17 @@
       <c r="E93" t="s">
         <v>273</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>301</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>302</v>
       </c>
-      <c r="M93" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -5882,20 +6007,20 @@
       <c r="E94" t="s">
         <v>273</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>371</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>274</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>275</v>
       </c>
-      <c r="M94" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -5911,17 +6036,17 @@
       <c r="E95" t="s">
         <v>273</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>304</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>305</v>
       </c>
-      <c r="M95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -5937,17 +6062,17 @@
       <c r="E96" t="s">
         <v>273</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>277</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>234</v>
       </c>
-      <c r="M96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -5966,23 +6091,23 @@
       <c r="G97" t="s">
         <v>155</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>276</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>279</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>280</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>281</v>
       </c>
-      <c r="M97" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>161</v>
       </c>
@@ -5995,23 +6120,24 @@
       <c r="F98" t="s">
         <v>155</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>907</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>913</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K98">
+  <autoFilter ref="A1:L98">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
+    <filterColumn colId="7"/>
     <sortState ref="A2:K98">
       <sortCondition ref="C1:C98"/>
     </sortState>
@@ -6027,13 +6153,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H554"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6045,9 +6171,10 @@
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="37.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -6072,8 +6199,11 @@
       <c r="H1" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6099,7 +6229,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6125,7 +6255,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6148,7 +6278,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6174,7 +6304,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6200,7 +6330,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6226,7 +6356,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6249,7 +6379,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -6272,7 +6402,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45">
+    <row r="10" spans="1:9" ht="45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -6292,7 +6422,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6312,7 +6442,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -6332,7 +6462,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -6352,7 +6482,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -6372,7 +6502,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -6392,7 +6522,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -6789,7 +6919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -6814,8 +6944,11 @@
       <c r="H33" s="7" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -6841,7 +6974,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -6867,7 +7000,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -6890,7 +7023,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -6915,8 +7048,11 @@
       <c r="H37" s="7" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="30">
+      <c r="I37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -6939,7 +7075,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -6965,7 +7101,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -6991,7 +7127,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -7016,8 +7152,11 @@
       <c r="H41" s="7" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -7040,7 +7179,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -7066,7 +7205,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -7092,7 +7231,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -7115,7 +7254,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -7140,8 +7279,11 @@
       <c r="H46" s="7" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -7167,7 +7309,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -7193,7 +7335,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -7216,7 +7358,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -7241,8 +7383,11 @@
       <c r="H50" s="7" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -7268,7 +7413,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -7294,7 +7439,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -7320,7 +7465,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -7343,7 +7488,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -7363,7 +7508,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -7389,7 +7534,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -7415,7 +7560,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -7438,7 +7583,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -7464,7 +7609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -7490,7 +7635,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -7516,7 +7661,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -7542,7 +7687,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -7565,7 +7710,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" t="s">
         <v>0</v>
       </c>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="953">
   <si>
     <t>DATA</t>
   </si>
@@ -3002,6 +3002,15 @@
   </si>
   <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>legalBasises</t>
+  </si>
+  <si>
+    <t>assignationTypes</t>
+  </si>
+  <si>
+    <t>assignationTypes,legalBasises</t>
   </si>
 </sst>
 </file>
@@ -3422,11 +3431,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4069,6 +4078,9 @@
       <c r="C22" t="s">
         <v>159</v>
       </c>
+      <c r="J22" t="s">
+        <v>952</v>
+      </c>
       <c r="K22" t="s">
         <v>142</v>
       </c>
@@ -6155,11 +6167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8852,7 +8864,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -8878,7 +8890,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -8904,7 +8916,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8939,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -8953,7 +8965,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -8979,7 +8991,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -9005,7 +9017,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -9028,7 +9040,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="45">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -9048,7 +9060,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="45">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -9061,14 +9073,20 @@
       <c r="D121" t="s">
         <v>155</v>
       </c>
+      <c r="F121" t="s">
+        <v>155</v>
+      </c>
       <c r="G121" s="7" t="s">
         <v>720</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="30">
+      <c r="I121" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -9088,7 +9106,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -9108,7 +9126,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="60">
+    <row r="124" spans="1:9" ht="60">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -9127,8 +9145,11 @@
       <c r="H124" s="7" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -9148,7 +9169,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -9174,7 +9195,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -9200,7 +9221,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>0</v>
       </c>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="953">
   <si>
     <t>DATA</t>
   </si>
@@ -2971,49 +2971,46 @@
     <t>Prüfleistungsergebnis</t>
   </si>
   <si>
-    <t>ExamClass</t>
-  </si>
-  <si>
-    <t>ExamConstraint</t>
-  </si>
-  <si>
-    <t>DriverSchool</t>
-  </si>
-  <si>
-    <t>ExamRecognitionType</t>
-  </si>
-  <si>
-    <t>FederalState</t>
-  </si>
-  <si>
-    <t>SysLanguage</t>
-  </si>
-  <si>
-    <t>AssignationType,LegalBasis</t>
-  </si>
-  <si>
-    <t>OrganizationalUnit</t>
-  </si>
-  <si>
-    <t>OrgCostCenter</t>
-  </si>
-  <si>
-    <t>OrgOrganizationalUnits</t>
-  </si>
-  <si>
-    <t>SysRole</t>
-  </si>
-  <si>
-    <t>EmpEmployee</t>
-  </si>
-  <si>
-    <t>InsInspectionStep</t>
-  </si>
-  <si>
-    <t>LegalBasis</t>
-  </si>
-  <si>
-    <t>AssignationType</t>
+    <t>examClass</t>
+  </si>
+  <si>
+    <t>assignationType</t>
+  </si>
+  <si>
+    <t>legalBasis</t>
+  </si>
+  <si>
+    <t>sysLanguage</t>
+  </si>
+  <si>
+    <t>examConstraint</t>
+  </si>
+  <si>
+    <t>examRecognitionType</t>
+  </si>
+  <si>
+    <t>federalState</t>
+  </si>
+  <si>
+    <t>driverSchool</t>
+  </si>
+  <si>
+    <t>assignationType,legalBasis</t>
+  </si>
+  <si>
+    <t>orgOrganizationalUnit</t>
+  </si>
+  <si>
+    <t>orgCostCenter</t>
+  </si>
+  <si>
+    <t>sysRole</t>
+  </si>
+  <si>
+    <t>empEmployee</t>
+  </si>
+  <si>
+    <t>insInspectionStep</t>
   </si>
 </sst>
 </file>
@@ -3434,11 +3431,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3580,7 +3577,7 @@
         <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="K4" t="s">
         <v>100</v>
@@ -3831,7 +3828,7 @@
         <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="K12" t="s">
         <v>116</v>
@@ -3906,7 +3903,7 @@
         <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="K15" t="s">
         <v>121</v>
@@ -3949,7 +3946,7 @@
         <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="K17" t="s">
         <v>125</v>
@@ -3984,7 +3981,7 @@
         <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="K18" t="s">
         <v>127</v>
@@ -4036,7 +4033,7 @@
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="K20" t="s">
         <v>131</v>
@@ -4056,7 +4053,7 @@
         <v>151</v>
       </c>
       <c r="J21" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="K21" t="s">
         <v>133</v>
@@ -4082,7 +4079,7 @@
         <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="K22" t="s">
         <v>135</v>
@@ -4140,7 +4137,7 @@
         <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K24" t="s">
         <v>139</v>
@@ -4160,7 +4157,7 @@
         <v>151</v>
       </c>
       <c r="J25" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="K25" t="s">
         <v>141</v>
@@ -4296,7 +4293,7 @@
         <v>209</v>
       </c>
       <c r="J30" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="K30" t="s">
         <v>189</v>
@@ -4366,7 +4363,7 @@
         <v>209</v>
       </c>
       <c r="J32" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="K32" t="s">
         <v>222</v>
@@ -4401,7 +4398,7 @@
         <v>209</v>
       </c>
       <c r="J33" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="K33" t="s">
         <v>219</v>
@@ -4517,7 +4514,7 @@
         <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K37" t="s">
         <v>352</v>
@@ -4572,7 +4569,7 @@
         <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="K39" t="s">
         <v>350</v>
@@ -6173,11 +6170,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I122" sqref="I122"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9089,7 +9086,7 @@
         <v>709</v>
       </c>
       <c r="I121" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="30">
@@ -9152,7 +9149,7 @@
         <v>715</v>
       </c>
       <c r="I124" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -9481,7 +9478,7 @@
         <v>760</v>
       </c>
       <c r="I137" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="138" spans="1:9">

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4409" uniqueCount="954">
   <si>
     <t>DATA</t>
   </si>
@@ -3011,6 +3011,9 @@
   </si>
   <si>
     <t>insInspectionStep</t>
+  </si>
+  <si>
+    <t>GenerateViewCollection</t>
   </si>
 </sst>
 </file>
@@ -3429,13 +3432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3459,9 +3462,10 @@
     <col min="17" max="17" width="21.85546875" style="7" customWidth="1"/>
     <col min="18" max="18" width="19" style="7" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -3519,8 +3523,11 @@
       <c r="S1" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="10" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3550,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3596,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="90">
+    <row r="5" spans="1:20" ht="90">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3626,8 +3633,11 @@
       <c r="S5" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3692,7 +3702,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +3733,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3754,7 +3764,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3785,7 +3795,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3808,7 +3818,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3837,7 +3847,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3860,7 +3870,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +3893,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3912,7 +3922,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3935,7 +3945,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3961,7 +3971,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3990,7 +4000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4023,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +4078,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4093,8 +4103,11 @@
       <c r="S22" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4130,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4146,7 +4159,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4172,7 +4185,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4195,7 +4208,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4218,7 +4231,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -4244,7 +4257,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -4270,7 +4283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -4305,7 +4318,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -4340,7 +4353,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -5644,7 +5657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -5670,7 +5683,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -5696,7 +5709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -5722,7 +5735,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -5751,7 +5764,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -5786,7 +5799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -5821,7 +5834,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -5850,7 +5863,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -5876,7 +5889,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -5902,7 +5915,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -5928,7 +5941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -5951,7 +5964,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -5977,7 +5990,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -6005,8 +6018,11 @@
       <c r="S93" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -6035,7 +6051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -6061,7 +6077,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>153</v>
       </c>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4409" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4501" uniqueCount="986">
   <si>
     <t>DATA</t>
   </si>
@@ -3014,13 +3014,109 @@
   </si>
   <si>
     <t>GenerateViewCollection</t>
+  </si>
+  <si>
+    <t>ORG_ORGANIZATIONAL_UNIT</t>
+  </si>
+  <si>
+    <t>ORG_NUMBER</t>
+  </si>
+  <si>
+    <t>ABBR</t>
+  </si>
+  <si>
+    <t>LOCATION_ABBR</t>
+  </si>
+  <si>
+    <t>SYS_LOCATION_ID</t>
+  </si>
+  <si>
+    <t>ORG_TYPE_ID</t>
+  </si>
+  <si>
+    <t>EMAIL_FROM</t>
+  </si>
+  <si>
+    <t>EMAIL_TO</t>
+  </si>
+  <si>
+    <t>IS_EGDOK_PRINT_ALWAYS</t>
+  </si>
+  <si>
+    <t>OE-Nummer</t>
+  </si>
+  <si>
+    <t>Org Number</t>
+  </si>
+  <si>
+    <t>OE-Bezeichnung</t>
+  </si>
+  <si>
+    <t>OE-Kürzel</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Angabe, ob EGDok-Dokumente für diese OE auch bei negativem Ergebnis gedruckt werden können</t>
+  </si>
+  <si>
+    <t>Location abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OE-Typ </t>
+  </si>
+  <si>
+    <t>Org type</t>
+  </si>
+  <si>
+    <t>Email from</t>
+  </si>
+  <si>
+    <t>Email to</t>
+  </si>
+  <si>
+    <t>Email von</t>
+  </si>
+  <si>
+    <t>Email bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standortcode </t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>EGDok print always</t>
+  </si>
+  <si>
+    <t>Standortcode-Kürzel</t>
+  </si>
+  <si>
+    <t>SysLocation</t>
+  </si>
+  <si>
+    <t>OrgType</t>
+  </si>
+  <si>
+    <t>OrgAccountingArea</t>
+  </si>
+  <si>
+    <t>OrgAccountingArea,OrgType,SysLocation</t>
+  </si>
+  <si>
+    <t>Organisationseinheit</t>
+  </si>
+  <si>
+    <t>Organizational unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3053,6 +3149,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3115,7 +3219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3137,6 +3241,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3432,13 +3540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6161,6 +6269,35 @@
         <v>147</v>
       </c>
     </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" t="s">
+        <v>954</v>
+      </c>
+      <c r="C99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D99" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99" t="s">
+        <v>785</v>
+      </c>
+      <c r="J99" t="s">
+        <v>983</v>
+      </c>
+      <c r="K99" t="s">
+        <v>984</v>
+      </c>
+      <c r="L99" t="s">
+        <v>985</v>
+      </c>
+      <c r="N99" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L98">
     <filterColumn colId="1"/>
@@ -6187,10 +6324,10 @@
   <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G467" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="I478" sqref="I478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17495,7 +17632,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:9">
       <c r="A465" t="s">
         <v>153</v>
       </c>
@@ -17518,7 +17655,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:9">
       <c r="A466" t="s">
         <v>153</v>
       </c>
@@ -17544,7 +17681,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:9">
       <c r="A467" t="s">
         <v>153</v>
       </c>
@@ -17570,7 +17707,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:9">
       <c r="A468" t="s">
         <v>153</v>
       </c>
@@ -17593,7 +17730,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:9">
       <c r="A469" t="s">
         <v>153</v>
       </c>
@@ -17619,7 +17756,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:9">
       <c r="A470" t="s">
         <v>153</v>
       </c>
@@ -17645,7 +17782,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:9">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -17671,7 +17808,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:9">
       <c r="A472" t="s">
         <v>153</v>
       </c>
@@ -17694,7 +17831,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:9">
       <c r="A473" t="s">
         <v>153</v>
       </c>
@@ -17715,6 +17852,279 @@
       </c>
       <c r="H473" s="7" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="15.75">
+      <c r="A474" t="s">
+        <v>153</v>
+      </c>
+      <c r="B474" t="s">
+        <v>954</v>
+      </c>
+      <c r="C474" t="s">
+        <v>955</v>
+      </c>
+      <c r="D474" t="s">
+        <v>147</v>
+      </c>
+      <c r="E474" t="s">
+        <v>147</v>
+      </c>
+      <c r="F474" t="s">
+        <v>147</v>
+      </c>
+      <c r="G474" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="H474" s="7" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="15.75">
+      <c r="A475" t="s">
+        <v>153</v>
+      </c>
+      <c r="B475" t="s">
+        <v>954</v>
+      </c>
+      <c r="C475" t="s">
+        <v>12</v>
+      </c>
+      <c r="D475" t="s">
+        <v>147</v>
+      </c>
+      <c r="G475" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="H475" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="15.75">
+      <c r="A476" t="s">
+        <v>153</v>
+      </c>
+      <c r="B476" t="s">
+        <v>954</v>
+      </c>
+      <c r="C476" t="s">
+        <v>956</v>
+      </c>
+      <c r="D476" t="s">
+        <v>147</v>
+      </c>
+      <c r="G476" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="H476" s="7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>153</v>
+      </c>
+      <c r="B477" t="s">
+        <v>954</v>
+      </c>
+      <c r="C477" t="s">
+        <v>957</v>
+      </c>
+      <c r="D477" t="s">
+        <v>147</v>
+      </c>
+      <c r="G477" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="H477" s="7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="15.75">
+      <c r="A478" t="s">
+        <v>153</v>
+      </c>
+      <c r="B478" t="s">
+        <v>954</v>
+      </c>
+      <c r="C478" t="s">
+        <v>958</v>
+      </c>
+      <c r="D478" t="s">
+        <v>147</v>
+      </c>
+      <c r="G478" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="H478" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="I478" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="15.75">
+      <c r="A479" t="s">
+        <v>153</v>
+      </c>
+      <c r="B479" t="s">
+        <v>954</v>
+      </c>
+      <c r="C479" t="s">
+        <v>959</v>
+      </c>
+      <c r="D479" t="s">
+        <v>147</v>
+      </c>
+      <c r="F479" t="s">
+        <v>147</v>
+      </c>
+      <c r="G479" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="H479" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="I479" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>153</v>
+      </c>
+      <c r="B480" t="s">
+        <v>954</v>
+      </c>
+      <c r="C480" t="s">
+        <v>960</v>
+      </c>
+      <c r="D480" t="s">
+        <v>147</v>
+      </c>
+      <c r="G480" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="H480" s="7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>153</v>
+      </c>
+      <c r="B481" t="s">
+        <v>954</v>
+      </c>
+      <c r="C481" t="s">
+        <v>961</v>
+      </c>
+      <c r="D481" t="s">
+        <v>147</v>
+      </c>
+      <c r="G481" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="H481" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="47.25">
+      <c r="A482" t="s">
+        <v>153</v>
+      </c>
+      <c r="B482" t="s">
+        <v>954</v>
+      </c>
+      <c r="C482" t="s">
+        <v>962</v>
+      </c>
+      <c r="D482" t="s">
+        <v>147</v>
+      </c>
+      <c r="F482" t="s">
+        <v>147</v>
+      </c>
+      <c r="G482" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="H482" s="7" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="15.75">
+      <c r="A483" t="s">
+        <v>153</v>
+      </c>
+      <c r="B483" t="s">
+        <v>954</v>
+      </c>
+      <c r="C483" t="s">
+        <v>499</v>
+      </c>
+      <c r="D483" t="s">
+        <v>147</v>
+      </c>
+      <c r="G483" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H483" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I483" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>153</v>
+      </c>
+      <c r="B484" t="s">
+        <v>954</v>
+      </c>
+      <c r="C484" t="s">
+        <v>903</v>
+      </c>
+      <c r="D484" t="s">
+        <v>147</v>
+      </c>
+      <c r="E484" t="s">
+        <v>147</v>
+      </c>
+      <c r="F484" t="s">
+        <v>147</v>
+      </c>
+      <c r="G484" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H484" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>153</v>
+      </c>
+      <c r="B485" t="s">
+        <v>954</v>
+      </c>
+      <c r="C485" t="s">
+        <v>904</v>
+      </c>
+      <c r="D485" t="s">
+        <v>147</v>
+      </c>
+      <c r="E485" t="s">
+        <v>147</v>
+      </c>
+      <c r="F485" t="s">
+        <v>147</v>
+      </c>
+      <c r="G485" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="H485" s="7" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="554" ht="16.5" customHeight="1"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="1013">
   <si>
     <t>DATA</t>
   </si>
@@ -3137,6 +3137,60 @@
   </si>
   <si>
     <t>OrdFederalState</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/ExamConstraintExamClasses</t>
+  </si>
+  <si>
+    <t>examClasses</t>
+  </si>
+  <si>
+    <t>Klassen</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>OrdFederalState,ExamRecognitionType</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/ExamStationExamRecognitionTypes</t>
+  </si>
+  <si>
+    <t>examRecognitionTypes</t>
+  </si>
+  <si>
+    <t>Anerkennungen</t>
+  </si>
+  <si>
+    <t>Recognitions</t>
+  </si>
+  <si>
+    <t>examRecognitionType</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/ExamRecognitionTypeExamClasses</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/MeetingPointOrganizationalUnits</t>
+  </si>
+  <si>
+    <t>Org. units</t>
+  </si>
+  <si>
+    <t>organizationalUnits</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/HolidayOrdFederalStates</t>
+  </si>
+  <si>
+    <t>federalStates</t>
+  </si>
+  <si>
+    <t>Bundesländer</t>
+  </si>
+  <si>
+    <t>Federalstates</t>
   </si>
 </sst>
 </file>
@@ -3569,11 +3623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3940,6 +3994,9 @@
       <c r="C11" t="s">
         <v>151</v>
       </c>
+      <c r="J11" t="s">
+        <v>991</v>
+      </c>
       <c r="K11" t="s">
         <v>114</v>
       </c>
@@ -3948,6 +4005,18 @@
       </c>
       <c r="N11" t="s">
         <v>147</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="P11" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>998</v>
       </c>
       <c r="S11" t="s">
         <v>789</v>
@@ -4015,6 +4084,9 @@
       <c r="C14" t="s">
         <v>151</v>
       </c>
+      <c r="J14" t="s">
+        <v>991</v>
+      </c>
       <c r="K14" t="s">
         <v>119</v>
       </c>
@@ -4024,8 +4096,23 @@
       <c r="N14" t="s">
         <v>147</v>
       </c>
+      <c r="O14" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P14" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>998</v>
+      </c>
       <c r="S14" t="s">
         <v>789</v>
+      </c>
+      <c r="T14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -4048,7 +4135,7 @@
         <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K15" t="s">
         <v>121</v>
@@ -4094,7 +4181,7 @@
         <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="K17" t="s">
         <v>125</v>
@@ -4104,6 +4191,18 @@
       </c>
       <c r="N17" t="s">
         <v>147</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>1003</v>
       </c>
       <c r="S17" t="s">
         <v>934</v>
@@ -4148,6 +4247,9 @@
       <c r="C19" t="s">
         <v>151</v>
       </c>
+      <c r="J19" t="s">
+        <v>994</v>
+      </c>
       <c r="K19" t="s">
         <v>129</v>
       </c>
@@ -4156,6 +4258,18 @@
       </c>
       <c r="N19" t="s">
         <v>147</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>1012</v>
       </c>
       <c r="S19" t="s">
         <v>789</v>
@@ -4255,6 +4369,9 @@
       <c r="C23" t="s">
         <v>151</v>
       </c>
+      <c r="J23" t="s">
+        <v>988</v>
+      </c>
       <c r="K23" t="s">
         <v>137</v>
       </c>
@@ -4263,6 +4380,18 @@
       </c>
       <c r="N23" t="s">
         <v>147</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>213</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>1007</v>
       </c>
       <c r="S23" t="s">
         <v>789</v>
@@ -6392,11 +6521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G96" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I115" sqref="I115"/>
+      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7845,6 +7974,9 @@
       <c r="H59" s="7" t="s">
         <v>103</v>
       </c>
+      <c r="I59" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
@@ -7967,7 +8099,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45">
+    <row r="65" spans="1:9" ht="45">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -7987,7 +8119,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -8007,7 +8139,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -8027,7 +8159,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="30">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -8047,7 +8179,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -8073,7 +8205,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -8099,7 +8231,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -8125,7 +8257,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -8148,7 +8280,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -8174,7 +8306,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -8200,7 +8332,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -8223,7 +8355,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -8248,8 +8380,11 @@
       <c r="H76" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -8275,7 +8410,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -8301,7 +8436,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -8324,7 +8459,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -8872,6 +9007,9 @@
       <c r="H103" s="7" t="s">
         <v>675</v>
       </c>
+      <c r="I103" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
@@ -9071,6 +9209,9 @@
       <c r="H111" s="7" t="s">
         <v>720</v>
       </c>
+      <c r="I111" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
@@ -9606,6 +9747,9 @@
       </c>
       <c r="H133" s="7" t="s">
         <v>729</v>
+      </c>
+      <c r="I133" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="134" spans="1:9">

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="1062">
   <si>
     <t>DATA</t>
   </si>
@@ -3191,6 +3191,153 @@
   </si>
   <si>
     <t>Federalstates</t>
+  </si>
+  <si>
+    <t>INS_CORE_DATA_PRODUCT</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>PRODUCT_NUMBER</t>
+  </si>
+  <si>
+    <t>IS_NEXT_INSPECTION_PRODUCT</t>
+  </si>
+  <si>
+    <t>IS_PROVISION_COST_MAY_BE_CALCULATED</t>
+  </si>
+  <si>
+    <t>PRICE_REPORT_REQUIRED</t>
+  </si>
+  <si>
+    <t>INS_PRODUCT_TYPE_ID</t>
+  </si>
+  <si>
+    <t>INS_PRODUCT_MATERIAL_GROUP_ID</t>
+  </si>
+  <si>
+    <t>INS_PRODUCT_CLASS_ID</t>
+  </si>
+  <si>
+    <t>INS_CORE_DATA_PRODUCT_GROUP_ID</t>
+  </si>
+  <si>
+    <t>IS_INGENER</t>
+  </si>
+  <si>
+    <t>IS_PRODUCTIVE</t>
+  </si>
+  <si>
+    <t>IS_KM_GELD</t>
+  </si>
+  <si>
+    <t>IS_OTHER_MATERIAL</t>
+  </si>
+  <si>
+    <t>IS_TRIP</t>
+  </si>
+  <si>
+    <t>REUSAGE_TYPE</t>
+  </si>
+  <si>
+    <t>OLD_PRODUCT_NUMBER</t>
+  </si>
+  <si>
+    <t>Produktnummer</t>
+  </si>
+  <si>
+    <t>Product number</t>
+  </si>
+  <si>
+    <t>Angabe, ob Produkt eine Nachprüfung ist</t>
+  </si>
+  <si>
+    <t>Is next inspection product</t>
+  </si>
+  <si>
+    <t>Angabe, ob für Produkt Gestellungskosten verrechnet werden können</t>
+  </si>
+  <si>
+    <t>Is provision cost may be calculated</t>
+  </si>
+  <si>
+    <t>Price report required</t>
+  </si>
+  <si>
+    <t>Zahlungsbericht erforderlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkttyp </t>
+  </si>
+  <si>
+    <t>Gewichtsklasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objekttyp  </t>
+  </si>
+  <si>
+    <t>Materialgruppe</t>
+  </si>
+  <si>
+    <t>Material group</t>
+  </si>
+  <si>
+    <t>Produktklasse</t>
+  </si>
+  <si>
+    <t>Product class</t>
+  </si>
+  <si>
+    <t>Arbeitswert/Zeitdauer</t>
+  </si>
+  <si>
+    <t>Angabe, ob Produkt eine Ingenieursleistung ist</t>
+  </si>
+  <si>
+    <t>Is ingeneur</t>
+  </si>
+  <si>
+    <t>Angabe, ob Produkt eine Produktivleistung ist („0“ = Aufwandserfassung unproduktiv, „1“ = Produktiv (TP), „2“ = Aufwandserfassung produktiv)</t>
+  </si>
+  <si>
+    <t>Is productive</t>
+  </si>
+  <si>
+    <t>Angabe, ob Produkt eine Kilometergeld-Leistung für den Verkauf an Kunden ist</t>
+  </si>
+  <si>
+    <t>Is KM Geld</t>
+  </si>
+  <si>
+    <t>Angabe, ob Produkt eine besondere Leistung ist</t>
+  </si>
+  <si>
+    <t>Is other material</t>
+  </si>
+  <si>
+    <t>Produkt ist Reisezeitprodukt für Aufwandsrückmeldung</t>
+  </si>
+  <si>
+    <t>Is trip</t>
+  </si>
+  <si>
+    <t>Angabe, ob Produkt mehrfach in einem Auftrag erbracht werden kann („0“ = Anzahl immer 1, „1“ = Mehrfach ganzzahlig, „2“ = Mehrfach (&gt;0) mit 2 Nachkommastellen</t>
+  </si>
+  <si>
+    <t>Reusage type</t>
+  </si>
+  <si>
+    <t>Steuerkennzeichen</t>
+  </si>
+  <si>
+    <t>Alte VF97-Produktnummer</t>
+  </si>
+  <si>
+    <t>Old product number</t>
+  </si>
+  <si>
+    <t>Configuration</t>
   </si>
 </sst>
 </file>
@@ -3621,13 +3768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5521,7 +5668,7 @@
         <v>767</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>1061</v>
       </c>
       <c r="F66" t="s">
         <v>147</v>
@@ -5547,7 +5694,7 @@
         <v>768</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>1061</v>
       </c>
       <c r="F67" t="s">
         <v>147</v>
@@ -5573,7 +5720,7 @@
         <v>766</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>1061</v>
       </c>
       <c r="F68" t="s">
         <v>147</v>
@@ -6237,7 +6384,7 @@
         <v>779</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>1061</v>
       </c>
       <c r="F91" t="s">
         <v>147</v>
@@ -6446,7 +6593,7 @@
         <v>778</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>1061</v>
       </c>
       <c r="F98" t="s">
         <v>147</v>
@@ -6493,6 +6640,32 @@
         <v>789</v>
       </c>
       <c r="T99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" t="s">
+        <v>160</v>
+      </c>
+      <c r="E100" t="s">
+        <v>225</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L100" t="s">
+        <v>225</v>
+      </c>
+      <c r="N100" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6522,10 +6695,10 @@
   <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D496" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
+      <selection pane="bottomRight" activeCell="H504" sqref="H504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18107,7 +18280,7 @@
       <c r="F474" t="s">
         <v>147</v>
       </c>
-      <c r="G474" s="12" t="s">
+      <c r="G474" s="13" t="s">
         <v>957</v>
       </c>
       <c r="H474" s="7" t="s">
@@ -18127,7 +18300,7 @@
       <c r="D475" t="s">
         <v>147</v>
       </c>
-      <c r="G475" s="12" t="s">
+      <c r="G475" s="13" t="s">
         <v>959</v>
       </c>
       <c r="H475" s="7" t="s">
@@ -18147,7 +18320,7 @@
       <c r="D476" t="s">
         <v>147</v>
       </c>
-      <c r="G476" s="12" t="s">
+      <c r="G476" s="13" t="s">
         <v>960</v>
       </c>
       <c r="H476" s="7" t="s">
@@ -18187,7 +18360,7 @@
       <c r="D478" t="s">
         <v>147</v>
       </c>
-      <c r="G478" s="12" t="s">
+      <c r="G478" s="13" t="s">
         <v>970</v>
       </c>
       <c r="H478" s="7" t="s">
@@ -18213,7 +18386,7 @@
       <c r="F479" t="s">
         <v>147</v>
       </c>
-      <c r="G479" s="12" t="s">
+      <c r="G479" s="13" t="s">
         <v>964</v>
       </c>
       <c r="H479" s="7" t="s">
@@ -18296,7 +18469,7 @@
       <c r="D483" t="s">
         <v>147</v>
       </c>
-      <c r="G483" s="12" t="s">
+      <c r="G483" s="13" t="s">
         <v>182</v>
       </c>
       <c r="H483" s="7" t="s">
@@ -18355,6 +18528,433 @@
         <v>905</v>
       </c>
       <c r="H485" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="15.75">
+      <c r="A486" t="s">
+        <v>153</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D486" t="s">
+        <v>147</v>
+      </c>
+      <c r="E486" t="s">
+        <v>147</v>
+      </c>
+      <c r="F486" t="s">
+        <v>147</v>
+      </c>
+      <c r="G486" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H486" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="31.5">
+      <c r="A487" t="s">
+        <v>153</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D487" t="s">
+        <v>147</v>
+      </c>
+      <c r="G487" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H487" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="47.25">
+      <c r="A488" t="s">
+        <v>153</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D488" t="s">
+        <v>147</v>
+      </c>
+      <c r="G488" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H488" s="7" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>153</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D489" t="s">
+        <v>147</v>
+      </c>
+      <c r="G489" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H489" s="7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="15.75">
+      <c r="A490" t="s">
+        <v>153</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D490" t="s">
+        <v>147</v>
+      </c>
+      <c r="F490" t="s">
+        <v>147</v>
+      </c>
+      <c r="G490" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H490" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="15.75">
+      <c r="A491" t="s">
+        <v>153</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C491" t="s">
+        <v>586</v>
+      </c>
+      <c r="D491" t="s">
+        <v>147</v>
+      </c>
+      <c r="G491" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H491" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="15.75">
+      <c r="A492" t="s">
+        <v>153</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C492" t="s">
+        <v>584</v>
+      </c>
+      <c r="D492" t="s">
+        <v>147</v>
+      </c>
+      <c r="G492" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H492" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="15.75">
+      <c r="A493" t="s">
+        <v>153</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D493" t="s">
+        <v>147</v>
+      </c>
+      <c r="G493" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H493" s="7" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="15.75">
+      <c r="A494" t="s">
+        <v>153</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D494" t="s">
+        <v>147</v>
+      </c>
+      <c r="G494" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H494" s="7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="15.75">
+      <c r="A495" t="s">
+        <v>153</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D495" t="s">
+        <v>147</v>
+      </c>
+      <c r="G495" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H495" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="30">
+      <c r="A496" t="s">
+        <v>153</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D496" t="s">
+        <v>147</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H496" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" ht="75">
+      <c r="A497" t="s">
+        <v>153</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D497" t="s">
+        <v>147</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H497" s="7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" ht="30">
+      <c r="A498" t="s">
+        <v>153</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D498" t="s">
+        <v>147</v>
+      </c>
+      <c r="G498" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H498" s="7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" ht="30">
+      <c r="A499" t="s">
+        <v>153</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D499" t="s">
+        <v>147</v>
+      </c>
+      <c r="G499" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H499" s="7" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="30">
+      <c r="A500" t="s">
+        <v>153</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D500" t="s">
+        <v>147</v>
+      </c>
+      <c r="G500" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H500" s="7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" ht="75">
+      <c r="A501" t="s">
+        <v>153</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D501" t="s">
+        <v>147</v>
+      </c>
+      <c r="F501" t="s">
+        <v>147</v>
+      </c>
+      <c r="G501" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H501" s="7" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502" t="s">
+        <v>153</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C502" t="s">
+        <v>559</v>
+      </c>
+      <c r="D502" t="s">
+        <v>147</v>
+      </c>
+      <c r="G502" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H502" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503" t="s">
+        <v>153</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D503" t="s">
+        <v>147</v>
+      </c>
+      <c r="E503" t="s">
+        <v>147</v>
+      </c>
+      <c r="G503" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H503" s="7" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" t="s">
+        <v>153</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C504" t="s">
+        <v>902</v>
+      </c>
+      <c r="D504" t="s">
+        <v>147</v>
+      </c>
+      <c r="E504" t="s">
+        <v>147</v>
+      </c>
+      <c r="F504" t="s">
+        <v>147</v>
+      </c>
+      <c r="G504" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H504" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="A505" t="s">
+        <v>153</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C505" t="s">
+        <v>903</v>
+      </c>
+      <c r="D505" t="s">
+        <v>147</v>
+      </c>
+      <c r="E505" t="s">
+        <v>147</v>
+      </c>
+      <c r="F505" t="s">
+        <v>147</v>
+      </c>
+      <c r="G505" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H505" s="7" t="s">
         <v>907</v>
       </c>
     </row>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="1078">
   <si>
     <t>DATA</t>
   </si>
@@ -3338,6 +3338,54 @@
   </si>
   <si>
     <t>Configuration</t>
+  </si>
+  <si>
+    <t>INS_CORE_DATA_PRODUCT_LOCALIZATION</t>
+  </si>
+  <si>
+    <t>insCoreDataProductId</t>
+  </si>
+  <si>
+    <t>Lokalisierung</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>CommonMasterData/Product/InsCoreDataProductLocalizations</t>
+  </si>
+  <si>
+    <t>localizations</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>Bescreibung</t>
+  </si>
+  <si>
+    <t>sysRoleId</t>
+  </si>
+  <si>
+    <t>orgCostCenterId</t>
+  </si>
+  <si>
+    <t>ordRecognitionId</t>
+  </si>
+  <si>
+    <t>ordFederalStateId</t>
+  </si>
+  <si>
+    <t>insPfpInspectionTypeId</t>
+  </si>
+  <si>
+    <t>insAvailableTextId</t>
+  </si>
+  <si>
+    <t>insInspectionStepId</t>
+  </si>
+  <si>
+    <t>empEmployeeId</t>
   </si>
 </sst>
 </file>
@@ -3768,13 +3816,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4716,6 +4764,9 @@
       <c r="G30" t="s">
         <v>147</v>
       </c>
+      <c r="H30" t="s">
+        <v>1077</v>
+      </c>
       <c r="I30" t="s">
         <v>209</v>
       </c>
@@ -4751,6 +4802,9 @@
       <c r="G31" t="s">
         <v>147</v>
       </c>
+      <c r="H31" t="s">
+        <v>1077</v>
+      </c>
       <c r="I31" t="s">
         <v>209</v>
       </c>
@@ -4786,6 +4840,9 @@
       <c r="G32" t="s">
         <v>147</v>
       </c>
+      <c r="H32" t="s">
+        <v>1077</v>
+      </c>
       <c r="I32" t="s">
         <v>209</v>
       </c>
@@ -4821,6 +4878,9 @@
       <c r="G33" t="s">
         <v>147</v>
       </c>
+      <c r="H33" t="s">
+        <v>1077</v>
+      </c>
       <c r="I33" t="s">
         <v>209</v>
       </c>
@@ -4856,6 +4916,9 @@
       <c r="G34" t="s">
         <v>147</v>
       </c>
+      <c r="H34" t="s">
+        <v>1077</v>
+      </c>
       <c r="I34" t="s">
         <v>209</v>
       </c>
@@ -4937,6 +5000,9 @@
       <c r="G37" t="s">
         <v>147</v>
       </c>
+      <c r="H37" t="s">
+        <v>1076</v>
+      </c>
       <c r="I37" t="s">
         <v>309</v>
       </c>
@@ -4992,6 +5058,9 @@
       <c r="G39" t="s">
         <v>147</v>
       </c>
+      <c r="H39" t="s">
+        <v>1075</v>
+      </c>
       <c r="I39" t="s">
         <v>271</v>
       </c>
@@ -5194,6 +5263,9 @@
       <c r="G47" t="s">
         <v>147</v>
       </c>
+      <c r="H47" t="s">
+        <v>1074</v>
+      </c>
       <c r="I47" t="s">
         <v>338</v>
       </c>
@@ -5922,6 +5994,9 @@
       <c r="G75" t="s">
         <v>147</v>
       </c>
+      <c r="H75" t="s">
+        <v>1073</v>
+      </c>
       <c r="I75" t="s">
         <v>279</v>
       </c>
@@ -6038,6 +6113,9 @@
       <c r="G79" t="s">
         <v>147</v>
       </c>
+      <c r="H79" t="s">
+        <v>1072</v>
+      </c>
       <c r="I79" t="s">
         <v>252</v>
       </c>
@@ -6212,6 +6290,9 @@
       <c r="G85" t="s">
         <v>147</v>
       </c>
+      <c r="H85" t="s">
+        <v>1071</v>
+      </c>
       <c r="I85" t="s">
         <v>187</v>
       </c>
@@ -6247,6 +6328,9 @@
       <c r="G86" t="s">
         <v>147</v>
       </c>
+      <c r="H86" t="s">
+        <v>1071</v>
+      </c>
       <c r="I86" t="s">
         <v>187</v>
       </c>
@@ -6569,6 +6653,9 @@
       <c r="G97" t="s">
         <v>147</v>
       </c>
+      <c r="H97" t="s">
+        <v>1070</v>
+      </c>
       <c r="I97" t="s">
         <v>265</v>
       </c>
@@ -6659,6 +6746,9 @@
       <c r="E100" t="s">
         <v>225</v>
       </c>
+      <c r="J100" t="s">
+        <v>989</v>
+      </c>
       <c r="K100" t="s">
         <v>1014</v>
       </c>
@@ -6667,6 +6757,53 @@
       </c>
       <c r="N100" t="s">
         <v>147</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P100" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R100" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C101" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" t="s">
+        <v>160</v>
+      </c>
+      <c r="E101" t="s">
+        <v>225</v>
+      </c>
+      <c r="G101" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J101" t="s">
+        <v>989</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -6695,10 +6832,10 @@
   <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D496" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H499" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H504" sqref="H504"/>
+      <selection pane="bottomRight" activeCell="I507" sqref="I507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18760,7 +18897,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="75">
+    <row r="497" spans="1:9" ht="75">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -18780,7 +18917,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="30">
+    <row r="498" spans="1:9" ht="30">
       <c r="A498" t="s">
         <v>153</v>
       </c>
@@ -18800,7 +18937,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="30">
+    <row r="499" spans="1:9" ht="30">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -18820,7 +18957,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="30">
+    <row r="500" spans="1:9" ht="30">
       <c r="A500" t="s">
         <v>153</v>
       </c>
@@ -18840,7 +18977,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="75">
+    <row r="501" spans="1:9" ht="75">
       <c r="A501" t="s">
         <v>153</v>
       </c>
@@ -18863,7 +19000,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:9">
       <c r="A502" t="s">
         <v>153</v>
       </c>
@@ -18883,7 +19020,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:9">
       <c r="A503" t="s">
         <v>153</v>
       </c>
@@ -18906,7 +19043,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:9">
       <c r="A504" t="s">
         <v>153</v>
       </c>
@@ -18932,7 +19069,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:9">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -18955,6 +19092,159 @@
         <v>905</v>
       </c>
       <c r="H505" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>153</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C506" t="s">
+        <v>398</v>
+      </c>
+      <c r="D506" t="s">
+        <v>147</v>
+      </c>
+      <c r="F506" t="s">
+        <v>147</v>
+      </c>
+      <c r="G506" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H506" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>153</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C507" t="s">
+        <v>7</v>
+      </c>
+      <c r="D507" t="s">
+        <v>147</v>
+      </c>
+      <c r="E507" t="s">
+        <v>147</v>
+      </c>
+      <c r="F507" t="s">
+        <v>147</v>
+      </c>
+      <c r="G507" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H507" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I507" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>153</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D508" t="s">
+        <v>147</v>
+      </c>
+      <c r="E508" t="s">
+        <v>147</v>
+      </c>
+      <c r="F508" t="s">
+        <v>147</v>
+      </c>
+      <c r="G508" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H508" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>153</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C509" t="s">
+        <v>9</v>
+      </c>
+      <c r="D509" t="s">
+        <v>147</v>
+      </c>
+      <c r="E509" t="s">
+        <v>147</v>
+      </c>
+      <c r="G509" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H509" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>153</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C510" t="s">
+        <v>902</v>
+      </c>
+      <c r="D510" t="s">
+        <v>147</v>
+      </c>
+      <c r="E510" t="s">
+        <v>147</v>
+      </c>
+      <c r="F510" t="s">
+        <v>147</v>
+      </c>
+      <c r="G510" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H510" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>153</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C511" t="s">
+        <v>903</v>
+      </c>
+      <c r="D511" t="s">
+        <v>147</v>
+      </c>
+      <c r="E511" t="s">
+        <v>147</v>
+      </c>
+      <c r="F511" t="s">
+        <v>147</v>
+      </c>
+      <c r="G511" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H511" s="7" t="s">
         <v>907</v>
       </c>
     </row>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="1179">
   <si>
     <t>DATA</t>
   </si>
@@ -3386,6 +3386,309 @@
   </si>
   <si>
     <t>empEmployeeId</t>
+  </si>
+  <si>
+    <t>DRL_CORE_DATA_PRODUCT</t>
+  </si>
+  <si>
+    <t>DRL_CORE_DATA_PRODUCT_LOCALIZATION</t>
+  </si>
+  <si>
+    <t>DRL_CORE_DATA_PRODUCT_CLASS_BASIS_RSP</t>
+  </si>
+  <si>
+    <t>DRL_DRIVER_SCHOOL</t>
+  </si>
+  <si>
+    <t>DRL_DRIVER_SCHOOL_EXAM_RECOGNITION_TYPE_RSP</t>
+  </si>
+  <si>
+    <t>DRL_DRIVER_SCHOOL_INFO_RSP</t>
+  </si>
+  <si>
+    <t>DRL_COMMUNITY_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>ExamClass,LegalBasis</t>
+  </si>
+  <si>
+    <t>SysLanguage,ExamClass,LegalBasis</t>
+  </si>
+  <si>
+    <t>FE-Produkt</t>
+  </si>
+  <si>
+    <t>FE-Product</t>
+  </si>
+  <si>
+    <t>Rechtsgrund/Klasse</t>
+  </si>
+  <si>
+    <t>Legal basis/class</t>
+  </si>
+  <si>
+    <t>Fahrschule</t>
+  </si>
+  <si>
+    <t>Driverschool</t>
+  </si>
+  <si>
+    <t>Fahrschule Information</t>
+  </si>
+  <si>
+    <t>Anerkennung der Fahrschule</t>
+  </si>
+  <si>
+    <t>Driverschool recognition</t>
+  </si>
+  <si>
+    <t>Mitglied der Fahrschulgemeinschaft</t>
+  </si>
+  <si>
+    <t>Community participant</t>
+  </si>
+  <si>
+    <t>localizations,classBasisRsp</t>
+  </si>
+  <si>
+    <t>Lokalisierung,Rechtsgrund/Klasse</t>
+  </si>
+  <si>
+    <t>Localization,Legalbasis/class</t>
+  </si>
+  <si>
+    <t>examRecognitions,driverSchoolInfo</t>
+  </si>
+  <si>
+    <t>Anerkennung,Information</t>
+  </si>
+  <si>
+    <t>Recognition/Info</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>Mitglieder</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>POINT_AMOUNT</t>
+  </si>
+  <si>
+    <t>MIN_AGE</t>
+  </si>
+  <si>
+    <t>MAX_AGE</t>
+  </si>
+  <si>
+    <t>EXAM_TYPE</t>
+  </si>
+  <si>
+    <t>PRIOR_TIME_IN_MONTHS</t>
+  </si>
+  <si>
+    <t>EXPIRATION_IN_MONTH</t>
+  </si>
+  <si>
+    <t>REPEAT_TIME_IN_DAYS</t>
+  </si>
+  <si>
+    <t>TRAINING_CERT_FLAG</t>
+  </si>
+  <si>
+    <t>RESULT_FLAG</t>
+  </si>
+  <si>
+    <t>MULTIPLY_FLAG</t>
+  </si>
+  <si>
+    <t>IS_MOFA_PRINT</t>
+  </si>
+  <si>
+    <t>IS_ADDITIONAL_PRODUCT</t>
+  </si>
+  <si>
+    <t>IS_PREPAYMENT_REQUIRED</t>
+  </si>
+  <si>
+    <t>FE_PRODUCT_NUMBER</t>
+  </si>
+  <si>
+    <t>REPEAT_TIME_IN_DAYS_REDUCED</t>
+  </si>
+  <si>
+    <t>Anzahl der Punkte des Produkts</t>
+  </si>
+  <si>
+    <t>Point amount</t>
+  </si>
+  <si>
+    <t>Mindestalter des Bewerbers</t>
+  </si>
+  <si>
+    <t>Min age</t>
+  </si>
+  <si>
+    <t>Max age</t>
+  </si>
+  <si>
+    <t>Höchstalter des Bewerbers</t>
+  </si>
+  <si>
+    <t>Prüfungsart</t>
+  </si>
+  <si>
+    <t>Vorzeitige Prüfung in Monaten</t>
+  </si>
+  <si>
+    <t>Verfallsfrist der Leistung in Monaten</t>
+  </si>
+  <si>
+    <t>Ausbildungsbescheinigung notwendig</t>
+  </si>
+  <si>
+    <t>Ergebnis notwendig</t>
+  </si>
+  <si>
+    <t>Leistung mehrfach möglich</t>
+  </si>
+  <si>
+    <t>Zusatzleistung</t>
+  </si>
+  <si>
+    <t>Mofaprüfbescheinigung</t>
+  </si>
+  <si>
+    <t>Vorzahlung erforderlich</t>
+  </si>
+  <si>
+    <t>Pflicht Produkt</t>
+  </si>
+  <si>
+    <t>FE-Produktnummer</t>
+  </si>
+  <si>
+    <t>Wiederholungsfrist in Tagen</t>
+  </si>
+  <si>
+    <t>abgekürzte Wiederholungsfrist in Tagen</t>
+  </si>
+  <si>
+    <t>Exam type</t>
+  </si>
+  <si>
+    <t>Prior time in month</t>
+  </si>
+  <si>
+    <t>Expiration in month</t>
+  </si>
+  <si>
+    <t>Repeat time in days</t>
+  </si>
+  <si>
+    <t>Training certificate required</t>
+  </si>
+  <si>
+    <t>Result required</t>
+  </si>
+  <si>
+    <t>Can be multiple</t>
+  </si>
+  <si>
+    <t>Is Mofa print product</t>
+  </si>
+  <si>
+    <t>Is additional product</t>
+  </si>
+  <si>
+    <t>Prepayment required</t>
+  </si>
+  <si>
+    <t>FE product number</t>
+  </si>
+  <si>
+    <t>Reduced repeat time in days</t>
+  </si>
+  <si>
+    <t>DRL_CORE_DATA_PRODUCT_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klasse </t>
+  </si>
+  <si>
+    <t>DRL_LEGAL_BASIS_ID</t>
+  </si>
+  <si>
+    <t>Legalbasis</t>
+  </si>
+  <si>
+    <t>DRIVER_SCHOOL_NUMBER</t>
+  </si>
+  <si>
+    <t>ORD_CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>Driverschool number</t>
+  </si>
+  <si>
+    <t>Kunde</t>
+  </si>
+  <si>
+    <t>Fahrschulnummer</t>
+  </si>
+  <si>
+    <t>DRL_SCHOOL_INFO_ID</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>DRL_DRIVER_SCHOOL_ID_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>DRL_DRIVER_SCHOOL_ID_LEAD</t>
+  </si>
+  <si>
+    <t>führende Fahrschule</t>
+  </si>
+  <si>
+    <t>Driverschool lead</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Mitglied Fahrschule</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/DriverSchoolExamRecognitionTypes,DriverLicenceMasterData/DriverSchoolInfos</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/CoreDataProductLocalizations,DriverLicenceMasterData/CoreDataProductClassBases</t>
+  </si>
+  <si>
+    <t>coreDataProductId</t>
+  </si>
+  <si>
+    <t>driverSchoolId</t>
+  </si>
+  <si>
+    <t>driverSchoolIdLead</t>
+  </si>
+  <si>
+    <t>ExamRecognitionType,SchoolInfo</t>
+  </si>
+  <si>
+    <t>SchoolInfo</t>
+  </si>
+  <si>
+    <t>schoolInfo</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/CommunityParticipants</t>
   </si>
 </sst>
 </file>
@@ -3816,13 +4119,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J101" sqref="J101"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3979,6 +4282,18 @@
       <c r="N4" t="s">
         <v>147</v>
       </c>
+      <c r="O4" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>1106</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="90">
       <c r="A5" t="s">
@@ -4669,6 +4984,9 @@
       <c r="S26" t="s">
         <v>789</v>
       </c>
+      <c r="T26" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
@@ -4692,6 +5010,9 @@
       <c r="S27" t="s">
         <v>680</v>
       </c>
+      <c r="T27" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
@@ -6804,6 +7125,218 @@
       </c>
       <c r="L101" t="s">
         <v>1065</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="30">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C102" t="s">
+        <v>151</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N102" t="s">
+        <v>147</v>
+      </c>
+      <c r="O102" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q102" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R102" s="7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C103" t="s">
+        <v>151</v>
+      </c>
+      <c r="G103" t="s">
+        <v>147</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J103" t="s">
+        <v>989</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="15.75">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C104" t="s">
+        <v>151</v>
+      </c>
+      <c r="G104" t="s">
+        <v>147</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="30">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C105" t="s">
+        <v>151</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N105" t="s">
+        <v>147</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R105" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C106" t="s">
+        <v>151</v>
+      </c>
+      <c r="G106" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J106" t="s">
+        <v>990</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C107" t="s">
+        <v>151</v>
+      </c>
+      <c r="G107" t="s">
+        <v>147</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C108" t="s">
+        <v>151</v>
+      </c>
+      <c r="G108" t="s">
+        <v>147</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I108" t="s">
+        <v>42</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L108" t="s">
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -6829,13 +7362,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I554"/>
+  <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H499" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G542" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I507" sqref="I507"/>
+      <selection pane="bottomRight" activeCell="I553" sqref="I553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19248,7 +19781,1147 @@
         <v>907</v>
       </c>
     </row>
-    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>0</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C512" t="s">
+        <v>398</v>
+      </c>
+      <c r="D512" t="s">
+        <v>147</v>
+      </c>
+      <c r="F512" t="s">
+        <v>147</v>
+      </c>
+      <c r="G512" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H512" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" t="s">
+        <v>0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G513" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H513" s="7" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" ht="15.75">
+      <c r="A514" t="s">
+        <v>0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D514" t="s">
+        <v>147</v>
+      </c>
+      <c r="F514" t="s">
+        <v>147</v>
+      </c>
+      <c r="G514" s="12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H514" s="7" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" ht="15.75">
+      <c r="A515" t="s">
+        <v>0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D515" t="s">
+        <v>147</v>
+      </c>
+      <c r="G515" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H515" s="7" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" ht="15.75">
+      <c r="A516" t="s">
+        <v>0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D516" t="s">
+        <v>147</v>
+      </c>
+      <c r="F516" t="s">
+        <v>147</v>
+      </c>
+      <c r="G516" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H516" s="7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" ht="15.75">
+      <c r="A517" t="s">
+        <v>0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D517" t="s">
+        <v>147</v>
+      </c>
+      <c r="F517" t="s">
+        <v>147</v>
+      </c>
+      <c r="G517" s="12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H517" s="7" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" ht="15.75">
+      <c r="A518" t="s">
+        <v>0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D518" t="s">
+        <v>147</v>
+      </c>
+      <c r="F518" t="s">
+        <v>147</v>
+      </c>
+      <c r="G518" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H518" s="7" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" ht="15.75">
+      <c r="A519" t="s">
+        <v>0</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D519" t="s">
+        <v>147</v>
+      </c>
+      <c r="F519" t="s">
+        <v>147</v>
+      </c>
+      <c r="G519" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H519" s="7" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" ht="15.75">
+      <c r="A520" t="s">
+        <v>0</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D520" t="s">
+        <v>147</v>
+      </c>
+      <c r="G520" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H520" s="7" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" ht="15.75">
+      <c r="A521" t="s">
+        <v>0</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D521" t="s">
+        <v>147</v>
+      </c>
+      <c r="G521" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H521" s="7" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" ht="15.75">
+      <c r="A522" t="s">
+        <v>0</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D522" t="s">
+        <v>147</v>
+      </c>
+      <c r="G522" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H522" s="7" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523" t="s">
+        <v>0</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D523" t="s">
+        <v>147</v>
+      </c>
+      <c r="G523" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H523" s="7" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524" t="s">
+        <v>0</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D524" t="s">
+        <v>147</v>
+      </c>
+      <c r="G524" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H524" s="7" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" t="s">
+        <v>0</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D525" t="s">
+        <v>147</v>
+      </c>
+      <c r="G525" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H525" s="7" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526" t="s">
+        <v>0</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C526" t="s">
+        <v>576</v>
+      </c>
+      <c r="D526" t="s">
+        <v>147</v>
+      </c>
+      <c r="G526" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H526" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" t="s">
+        <v>0</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D527" t="s">
+        <v>147</v>
+      </c>
+      <c r="E527" t="s">
+        <v>147</v>
+      </c>
+      <c r="F527" t="s">
+        <v>147</v>
+      </c>
+      <c r="G527" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H527" s="7" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" t="s">
+        <v>0</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D528" t="s">
+        <v>147</v>
+      </c>
+      <c r="F528" t="s">
+        <v>147</v>
+      </c>
+      <c r="G528" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H528" s="7" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>0</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C529" t="s">
+        <v>902</v>
+      </c>
+      <c r="D529" t="s">
+        <v>147</v>
+      </c>
+      <c r="E529" t="s">
+        <v>147</v>
+      </c>
+      <c r="F529" t="s">
+        <v>147</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H529" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" t="s">
+        <v>0</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C530" t="s">
+        <v>903</v>
+      </c>
+      <c r="D530" t="s">
+        <v>147</v>
+      </c>
+      <c r="E530" t="s">
+        <v>147</v>
+      </c>
+      <c r="F530" t="s">
+        <v>147</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H530" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" t="s">
+        <v>0</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D531" t="s">
+        <v>147</v>
+      </c>
+      <c r="F531" t="s">
+        <v>147</v>
+      </c>
+      <c r="G531" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H531" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>0</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C532" t="s">
+        <v>7</v>
+      </c>
+      <c r="D532" t="s">
+        <v>147</v>
+      </c>
+      <c r="E532" t="s">
+        <v>147</v>
+      </c>
+      <c r="F532" t="s">
+        <v>147</v>
+      </c>
+      <c r="G532" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H532" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I532" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" t="s">
+        <v>0</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D533" t="s">
+        <v>147</v>
+      </c>
+      <c r="E533" t="s">
+        <v>147</v>
+      </c>
+      <c r="F533" t="s">
+        <v>147</v>
+      </c>
+      <c r="G533" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H533" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" t="s">
+        <v>0</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C534" t="s">
+        <v>9</v>
+      </c>
+      <c r="D534" t="s">
+        <v>147</v>
+      </c>
+      <c r="E534" t="s">
+        <v>147</v>
+      </c>
+      <c r="G534" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H534" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" t="s">
+        <v>0</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C535" t="s">
+        <v>902</v>
+      </c>
+      <c r="D535" t="s">
+        <v>147</v>
+      </c>
+      <c r="E535" t="s">
+        <v>147</v>
+      </c>
+      <c r="F535" t="s">
+        <v>147</v>
+      </c>
+      <c r="G535" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H535" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" t="s">
+        <v>0</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C536" t="s">
+        <v>903</v>
+      </c>
+      <c r="D536" t="s">
+        <v>147</v>
+      </c>
+      <c r="E536" t="s">
+        <v>147</v>
+      </c>
+      <c r="F536" t="s">
+        <v>147</v>
+      </c>
+      <c r="G536" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H536" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" ht="15.75">
+      <c r="A537" t="s">
+        <v>0</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C537" t="s">
+        <v>11</v>
+      </c>
+      <c r="D537" t="s">
+        <v>147</v>
+      </c>
+      <c r="E537" t="s">
+        <v>147</v>
+      </c>
+      <c r="F537" t="s">
+        <v>147</v>
+      </c>
+      <c r="G537" s="12" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H537" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I537" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" t="s">
+        <v>0</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D538" t="s">
+        <v>147</v>
+      </c>
+      <c r="F538" t="s">
+        <v>147</v>
+      </c>
+      <c r="G538" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H538" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" t="s">
+        <v>0</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D539" t="s">
+        <v>147</v>
+      </c>
+      <c r="E539" t="s">
+        <v>147</v>
+      </c>
+      <c r="F539" t="s">
+        <v>147</v>
+      </c>
+      <c r="G539" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H539" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I539" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" t="s">
+        <v>0</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C540" t="s">
+        <v>41</v>
+      </c>
+      <c r="D540" t="s">
+        <v>147</v>
+      </c>
+      <c r="E540" t="s">
+        <v>147</v>
+      </c>
+      <c r="F540" t="s">
+        <v>147</v>
+      </c>
+      <c r="G540" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H540" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" t="s">
+        <v>0</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C541" t="s">
+        <v>902</v>
+      </c>
+      <c r="D541" t="s">
+        <v>147</v>
+      </c>
+      <c r="E541" t="s">
+        <v>147</v>
+      </c>
+      <c r="F541" t="s">
+        <v>147</v>
+      </c>
+      <c r="G541" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H541" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" t="s">
+        <v>0</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C542" t="s">
+        <v>903</v>
+      </c>
+      <c r="D542" t="s">
+        <v>147</v>
+      </c>
+      <c r="E542" t="s">
+        <v>147</v>
+      </c>
+      <c r="F542" t="s">
+        <v>147</v>
+      </c>
+      <c r="G542" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H542" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" t="s">
+        <v>0</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D543" t="s">
+        <v>147</v>
+      </c>
+      <c r="E543" t="s">
+        <v>147</v>
+      </c>
+      <c r="F543" t="s">
+        <v>147</v>
+      </c>
+      <c r="G543" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H543" s="7" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" t="s">
+        <v>0</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D544" t="s">
+        <v>147</v>
+      </c>
+      <c r="E544" t="s">
+        <v>147</v>
+      </c>
+      <c r="F544" t="s">
+        <v>147</v>
+      </c>
+      <c r="G544" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H544" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>0</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C545" t="s">
+        <v>902</v>
+      </c>
+      <c r="D545" t="s">
+        <v>147</v>
+      </c>
+      <c r="E545" t="s">
+        <v>147</v>
+      </c>
+      <c r="F545" t="s">
+        <v>147</v>
+      </c>
+      <c r="G545" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H545" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C546" t="s">
+        <v>903</v>
+      </c>
+      <c r="D546" t="s">
+        <v>147</v>
+      </c>
+      <c r="E546" t="s">
+        <v>147</v>
+      </c>
+      <c r="F546" t="s">
+        <v>147</v>
+      </c>
+      <c r="G546" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H546" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" t="s">
+        <v>0</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C547" t="s">
+        <v>4</v>
+      </c>
+      <c r="D547" t="s">
+        <v>147</v>
+      </c>
+      <c r="F547" t="s">
+        <v>147</v>
+      </c>
+      <c r="G547" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H547" s="7" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" t="s">
+        <v>0</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C548" t="s">
+        <v>45</v>
+      </c>
+      <c r="D548" t="s">
+        <v>147</v>
+      </c>
+      <c r="E548" t="s">
+        <v>147</v>
+      </c>
+      <c r="F548" t="s">
+        <v>147</v>
+      </c>
+      <c r="G548" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H548" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I548" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" t="s">
+        <v>0</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C549" t="s">
+        <v>902</v>
+      </c>
+      <c r="D549" t="s">
+        <v>147</v>
+      </c>
+      <c r="E549" t="s">
+        <v>147</v>
+      </c>
+      <c r="F549" t="s">
+        <v>147</v>
+      </c>
+      <c r="G549" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H549" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" t="s">
+        <v>0</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C550" t="s">
+        <v>903</v>
+      </c>
+      <c r="D550" t="s">
+        <v>147</v>
+      </c>
+      <c r="E550" t="s">
+        <v>147</v>
+      </c>
+      <c r="F550" t="s">
+        <v>147</v>
+      </c>
+      <c r="G550" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H550" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" t="s">
+        <v>0</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C551" t="s">
+        <v>4</v>
+      </c>
+      <c r="D551" t="s">
+        <v>147</v>
+      </c>
+      <c r="F551" t="s">
+        <v>147</v>
+      </c>
+      <c r="G551" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H551" s="7" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" t="s">
+        <v>0</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D552" t="s">
+        <v>147</v>
+      </c>
+      <c r="E552" t="s">
+        <v>147</v>
+      </c>
+      <c r="F552" t="s">
+        <v>147</v>
+      </c>
+      <c r="G552" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H552" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I552" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" t="s">
+        <v>0</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C553" t="s">
+        <v>902</v>
+      </c>
+      <c r="D553" t="s">
+        <v>147</v>
+      </c>
+      <c r="E553" t="s">
+        <v>147</v>
+      </c>
+      <c r="F553" t="s">
+        <v>147</v>
+      </c>
+      <c r="G553" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H553" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A554" t="s">
+        <v>0</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C554" t="s">
+        <v>903</v>
+      </c>
+      <c r="D554" t="s">
+        <v>147</v>
+      </c>
+      <c r="E554" t="s">
+        <v>147</v>
+      </c>
+      <c r="F554" t="s">
+        <v>147</v>
+      </c>
+      <c r="G554" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H554" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" t="s">
+        <v>0</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D555" t="s">
+        <v>147</v>
+      </c>
+      <c r="F555" t="s">
+        <v>147</v>
+      </c>
+      <c r="G555" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H555" s="7" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" t="s">
+        <v>0</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D556" t="s">
+        <v>147</v>
+      </c>
+      <c r="E556" t="s">
+        <v>147</v>
+      </c>
+      <c r="F556" t="s">
+        <v>147</v>
+      </c>
+      <c r="G556" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H556" s="7" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" t="s">
+        <v>0</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C557" t="s">
+        <v>902</v>
+      </c>
+      <c r="D557" t="s">
+        <v>147</v>
+      </c>
+      <c r="E557" t="s">
+        <v>147</v>
+      </c>
+      <c r="F557" t="s">
+        <v>147</v>
+      </c>
+      <c r="G557" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H557" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" t="s">
+        <v>0</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C558" t="s">
+        <v>903</v>
+      </c>
+      <c r="D558" t="s">
+        <v>147</v>
+      </c>
+      <c r="E558" t="s">
+        <v>147</v>
+      </c>
+      <c r="F558" t="s">
+        <v>147</v>
+      </c>
+      <c r="G558" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H558" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C551">
     <filterColumn colId="2"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="1179">
   <si>
     <t>DATA</t>
   </si>
@@ -4121,11 +4121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="K101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="A102" sqref="A102:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7365,10 +7365,10 @@
   <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G542" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I553" sqref="I553"/>
+      <selection pane="bottomRight" activeCell="A531" sqref="A531:XFD531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20982,13 +20982,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21072,6 +21072,17 @@
         <v>779</v>
       </c>
       <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E7" t="s">
         <v>147</v>
       </c>
     </row>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="1180">
   <si>
     <t>DATA</t>
   </si>
@@ -3689,6 +3689,9 @@
   </si>
   <si>
     <t>DriverLicenceMasterData/CommunityParticipants</t>
+  </si>
+  <si>
+    <t>ShowExtraFields</t>
   </si>
 </sst>
 </file>
@@ -3798,7 +3801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3824,6 +3827,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4119,13 +4125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T108"/>
+  <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A102" sqref="A102:B102"/>
+      <selection pane="bottomRight" activeCell="A100" sqref="A100:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4152,7 +4158,7 @@
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -4174,7 +4180,7 @@
       <c r="G1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>921</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -4213,8 +4219,11 @@
       <c r="T1" s="10" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="10" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4246,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4260,7 +4269,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4295,7 +4304,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="90">
+    <row r="5" spans="1:21" ht="90">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4336,7 +4345,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +4410,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4432,7 +4441,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4472,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4494,7 +4503,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +4541,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4561,7 +4570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4584,7 +4593,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -6955,7 +6964,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -6993,7 +7002,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -7016,7 +7025,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -7051,7 +7060,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -7091,8 +7100,11 @@
       <c r="R100" s="7" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="U100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -7127,7 +7139,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="30">
+    <row r="102" spans="1:21" ht="30">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -7161,8 +7173,11 @@
       <c r="R102" s="7" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="U102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -7191,7 +7206,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.75">
+    <row r="104" spans="1:21" ht="15.75">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -7220,7 +7235,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="30">
+    <row r="105" spans="1:21" ht="30">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7255,7 +7270,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -7284,7 +7299,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -7313,7 +7328,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -7368,7 +7383,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A531" sqref="A531:XFD531"/>
+      <selection pane="bottomRight" activeCell="E528" sqref="E528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20107,9 +20122,6 @@
         <v>1120</v>
       </c>
       <c r="D527" t="s">
-        <v>147</v>
-      </c>
-      <c r="E527" t="s">
         <v>147</v>
       </c>
       <c r="F527" t="s">
@@ -20982,13 +20994,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21083,6 +21095,17 @@
         <v>1078</v>
       </c>
       <c r="E7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E8" t="s">
         <v>147</v>
       </c>
     </row>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5200" uniqueCount="1187">
   <si>
     <t>DATA</t>
   </si>
@@ -3412,9 +3412,6 @@
     <t>ExamClass,LegalBasis</t>
   </si>
   <si>
-    <t>SysLanguage,ExamClass,LegalBasis</t>
-  </si>
-  <si>
     <t>FE-Produkt</t>
   </si>
   <si>
@@ -3692,6 +3689,30 @@
   </si>
   <si>
     <t>ShowExtraFields</t>
+  </si>
+  <si>
+    <t>examType</t>
+  </si>
+  <si>
+    <t>SysLanguage,ExamClass,LegalBasis,ExamType</t>
+  </si>
+  <si>
+    <t>SelectProduct</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>CustomView</t>
+  </si>
+  <si>
+    <t>CustomViewBindingProperty</t>
+  </si>
+  <si>
+    <t>CustomDataBindingProperty</t>
+  </si>
+  <si>
+    <t>insCoreDataProductName</t>
   </si>
 </sst>
 </file>
@@ -4128,10 +4149,10 @@
   <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A100" sqref="A100:B100"/>
+      <selection pane="bottomRight" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4220,7 +4241,7 @@
         <v>947</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -4292,16 +4313,16 @@
         <v>147</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="P4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>1105</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="90">
@@ -7150,28 +7171,28 @@
         <v>151</v>
       </c>
       <c r="J102" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K102" t="s">
         <v>1086</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>1087</v>
       </c>
-      <c r="L102" t="s">
-        <v>1088</v>
-      </c>
       <c r="N102" t="s">
         <v>147</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="P102" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Q102" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="Q102" s="7" t="s">
+      <c r="R102" s="7" t="s">
         <v>1099</v>
-      </c>
-      <c r="R102" s="7" t="s">
-        <v>1100</v>
       </c>
       <c r="U102" t="s">
         <v>147</v>
@@ -7191,7 +7212,7 @@
         <v>147</v>
       </c>
       <c r="H103" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I103" t="s">
         <v>1078</v>
@@ -7220,7 +7241,7 @@
         <v>147</v>
       </c>
       <c r="H104" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I104" t="s">
         <v>1078</v>
@@ -7229,10 +7250,10 @@
         <v>1085</v>
       </c>
       <c r="K104" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L104" t="s">
         <v>1089</v>
-      </c>
-      <c r="L104" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="30">
@@ -7246,28 +7267,28 @@
         <v>151</v>
       </c>
       <c r="J105" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K105" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L105" t="s">
         <v>1091</v>
       </c>
-      <c r="L105" t="s">
-        <v>1092</v>
-      </c>
       <c r="N105" t="s">
         <v>147</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="P105" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q105" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="Q105" s="7" t="s">
+      <c r="R105" s="7" t="s">
         <v>1102</v>
-      </c>
-      <c r="R105" s="7" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7284,7 +7305,7 @@
         <v>147</v>
       </c>
       <c r="H106" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I106" t="s">
         <v>1081</v>
@@ -7293,10 +7314,10 @@
         <v>990</v>
       </c>
       <c r="K106" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L106" t="s">
         <v>1094</v>
-      </c>
-      <c r="L106" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -7313,16 +7334,16 @@
         <v>147</v>
       </c>
       <c r="H107" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I107" t="s">
         <v>1081</v>
       </c>
       <c r="J107" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K107" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="L107" t="s">
         <v>146</v>
@@ -7342,16 +7363,16 @@
         <v>147</v>
       </c>
       <c r="H108" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I108" t="s">
         <v>42</v>
       </c>
       <c r="K108" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L108" t="s">
         <v>1096</v>
-      </c>
-      <c r="L108" t="s">
-        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -7377,13 +7398,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:L558"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D521" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E528" sqref="E528"/>
+      <selection pane="bottomRight" activeCell="L514" sqref="L514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7396,9 +7417,12 @@
     <col min="7" max="7" width="37.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="29.7109375" style="7" customWidth="1"/>
     <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -7426,8 +7450,17 @@
       <c r="I1" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7453,7 +7486,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7479,7 +7512,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7502,7 +7535,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7528,7 +7561,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7554,7 +7587,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7580,7 +7613,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -7603,7 +7636,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7626,7 +7659,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45">
+    <row r="10" spans="1:12" ht="45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7646,7 +7679,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:12" ht="45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7666,7 +7699,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7686,7 +7719,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7706,7 +7739,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7726,7 +7759,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7746,7 +7779,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -19445,7 +19478,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="75">
+    <row r="497" spans="1:12" ht="75">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -19465,7 +19498,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="30">
+    <row r="498" spans="1:12" ht="30">
       <c r="A498" t="s">
         <v>153</v>
       </c>
@@ -19485,7 +19518,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="30">
+    <row r="499" spans="1:12" ht="30">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -19505,7 +19538,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="30">
+    <row r="500" spans="1:12" ht="30">
       <c r="A500" t="s">
         <v>153</v>
       </c>
@@ -19525,7 +19558,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="75">
+    <row r="501" spans="1:12" ht="75">
       <c r="A501" t="s">
         <v>153</v>
       </c>
@@ -19548,7 +19581,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:12">
       <c r="A502" t="s">
         <v>153</v>
       </c>
@@ -19568,7 +19601,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:12">
       <c r="A503" t="s">
         <v>153</v>
       </c>
@@ -19591,7 +19624,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:12">
       <c r="A504" t="s">
         <v>153</v>
       </c>
@@ -19617,7 +19650,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:12">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -19643,7 +19676,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:12">
       <c r="A506" t="s">
         <v>153</v>
       </c>
@@ -19666,7 +19699,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:12">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -19695,7 +19728,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:12">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -19721,7 +19754,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:12">
       <c r="A509" t="s">
         <v>153</v>
       </c>
@@ -19744,7 +19777,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:12">
       <c r="A510" t="s">
         <v>153</v>
       </c>
@@ -19770,7 +19803,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:12">
       <c r="A511" t="s">
         <v>153</v>
       </c>
@@ -19796,7 +19829,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:12">
       <c r="A512" t="s">
         <v>0</v>
       </c>
@@ -19818,8 +19851,17 @@
       <c r="H512" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="513" spans="1:8">
+      <c r="J512" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K512" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L512" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
       <c r="A513" t="s">
         <v>0</v>
       </c>
@@ -19827,16 +19869,16 @@
         <v>1078</v>
       </c>
       <c r="C513" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G513" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H513" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="H513" s="7" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" ht="15.75">
+    </row>
+    <row r="514" spans="1:9" ht="15.75">
       <c r="A514" t="s">
         <v>0</v>
       </c>
@@ -19844,7 +19886,7 @@
         <v>1078</v>
       </c>
       <c r="C514" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D514" t="s">
         <v>147</v>
@@ -19853,13 +19895,13 @@
         <v>147</v>
       </c>
       <c r="G514" s="12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H514" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="H514" s="7" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8" ht="15.75">
+    </row>
+    <row r="515" spans="1:9" ht="15.75">
       <c r="A515" t="s">
         <v>0</v>
       </c>
@@ -19867,19 +19909,19 @@
         <v>1078</v>
       </c>
       <c r="C515" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D515" t="s">
         <v>147</v>
       </c>
       <c r="G515" s="12" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H515" s="7" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" ht="15.75">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="15.75">
       <c r="A516" t="s">
         <v>0</v>
       </c>
@@ -19887,7 +19929,7 @@
         <v>1078</v>
       </c>
       <c r="C516" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D516" t="s">
         <v>147</v>
@@ -19896,13 +19938,16 @@
         <v>147</v>
       </c>
       <c r="G516" s="12" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H516" s="7" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8" ht="15.75">
+        <v>1140</v>
+      </c>
+      <c r="I516" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="15.75">
       <c r="A517" t="s">
         <v>0</v>
       </c>
@@ -19910,7 +19955,7 @@
         <v>1078</v>
       </c>
       <c r="C517" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D517" t="s">
         <v>147</v>
@@ -19919,13 +19964,13 @@
         <v>147</v>
       </c>
       <c r="G517" s="12" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H517" s="7" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" ht="15.75">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="15.75">
       <c r="A518" t="s">
         <v>0</v>
       </c>
@@ -19933,7 +19978,7 @@
         <v>1078</v>
       </c>
       <c r="C518" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D518" t="s">
         <v>147</v>
@@ -19942,13 +19987,13 @@
         <v>147</v>
       </c>
       <c r="G518" s="12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8" ht="15.75">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="15.75">
       <c r="A519" t="s">
         <v>0</v>
       </c>
@@ -19956,7 +20001,7 @@
         <v>1078</v>
       </c>
       <c r="C519" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D519" t="s">
         <v>147</v>
@@ -19965,13 +20010,13 @@
         <v>147</v>
       </c>
       <c r="G519" s="12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H519" s="7" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8" ht="15.75">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="15.75">
       <c r="A520" t="s">
         <v>0</v>
       </c>
@@ -19979,19 +20024,19 @@
         <v>1078</v>
       </c>
       <c r="C520" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D520" t="s">
         <v>147</v>
       </c>
       <c r="G520" s="12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H520" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8" ht="15.75">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="15.75">
       <c r="A521" t="s">
         <v>0</v>
       </c>
@@ -19999,19 +20044,19 @@
         <v>1078</v>
       </c>
       <c r="C521" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D521" t="s">
         <v>147</v>
       </c>
       <c r="G521" s="12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H521" s="7" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8" ht="15.75">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="15.75">
       <c r="A522" t="s">
         <v>0</v>
       </c>
@@ -20019,19 +20064,19 @@
         <v>1078</v>
       </c>
       <c r="C522" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D522" t="s">
         <v>147</v>
       </c>
       <c r="G522" s="12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H522" s="7" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
       <c r="A523" t="s">
         <v>0</v>
       </c>
@@ -20039,19 +20084,19 @@
         <v>1078</v>
       </c>
       <c r="C523" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D523" t="s">
         <v>147</v>
       </c>
       <c r="G523" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H523" s="7" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
       <c r="A524" t="s">
         <v>0</v>
       </c>
@@ -20059,19 +20104,19 @@
         <v>1078</v>
       </c>
       <c r="C524" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D524" t="s">
         <v>147</v>
       </c>
       <c r="G524" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H524" s="7" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
       <c r="A525" t="s">
         <v>0</v>
       </c>
@@ -20079,19 +20124,19 @@
         <v>1078</v>
       </c>
       <c r="C525" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D525" t="s">
         <v>147</v>
       </c>
       <c r="G525" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H525" s="7" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
       <c r="A526" t="s">
         <v>0</v>
       </c>
@@ -20105,13 +20150,13 @@
         <v>147</v>
       </c>
       <c r="G526" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H526" s="7" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:9">
       <c r="A527" t="s">
         <v>0</v>
       </c>
@@ -20119,7 +20164,7 @@
         <v>1078</v>
       </c>
       <c r="C527" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D527" t="s">
         <v>147</v>
@@ -20128,13 +20173,13 @@
         <v>147</v>
       </c>
       <c r="G527" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H527" s="7" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
       <c r="A528" t="s">
         <v>0</v>
       </c>
@@ -20142,7 +20187,7 @@
         <v>1078</v>
       </c>
       <c r="C528" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D528" t="s">
         <v>147</v>
@@ -20151,10 +20196,10 @@
         <v>147</v>
       </c>
       <c r="G528" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H528" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -20217,7 +20262,7 @@
         <v>1079</v>
       </c>
       <c r="C531" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D531" t="s">
         <v>147</v>
@@ -20382,7 +20427,7 @@
         <v>147</v>
       </c>
       <c r="G537" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H537" s="7" t="s">
         <v>103</v>
@@ -20399,7 +20444,7 @@
         <v>1080</v>
       </c>
       <c r="C538" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D538" t="s">
         <v>147</v>
@@ -20422,7 +20467,7 @@
         <v>1080</v>
       </c>
       <c r="C539" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D539" t="s">
         <v>147</v>
@@ -20437,7 +20482,7 @@
         <v>135</v>
       </c>
       <c r="H539" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I539" t="s">
         <v>940</v>
@@ -20529,7 +20574,7 @@
         <v>1081</v>
       </c>
       <c r="C543" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D543" t="s">
         <v>147</v>
@@ -20541,10 +20586,10 @@
         <v>147</v>
       </c>
       <c r="G543" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="544" spans="1:9">
@@ -20555,7 +20600,7 @@
         <v>1081</v>
       </c>
       <c r="C544" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D544" t="s">
         <v>147</v>
@@ -20567,7 +20612,7 @@
         <v>147</v>
       </c>
       <c r="G544" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H544" s="7" t="s">
         <v>783</v>
@@ -20642,10 +20687,10 @@
         <v>147</v>
       </c>
       <c r="G547" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H547" s="7" t="s">
         <v>1091</v>
-      </c>
-      <c r="H547" s="7" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -20746,10 +20791,10 @@
         <v>147</v>
       </c>
       <c r="G551" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H551" s="7" t="s">
         <v>1091</v>
-      </c>
-      <c r="H551" s="7" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="552" spans="1:9">
@@ -20760,7 +20805,7 @@
         <v>1083</v>
       </c>
       <c r="C552" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D552" t="s">
         <v>147</v>
@@ -20775,10 +20820,10 @@
         <v>421</v>
       </c>
       <c r="H552" s="7" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I552" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="553" spans="1:9">
@@ -20841,7 +20886,7 @@
         <v>1084</v>
       </c>
       <c r="C555" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D555" t="s">
         <v>147</v>
@@ -20850,10 +20895,10 @@
         <v>147</v>
       </c>
       <c r="G555" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H555" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="556" spans="1:9">
@@ -20864,22 +20909,22 @@
         <v>1084</v>
       </c>
       <c r="C556" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D556" t="s">
+        <v>147</v>
+      </c>
+      <c r="E556" t="s">
+        <v>147</v>
+      </c>
+      <c r="F556" t="s">
+        <v>147</v>
+      </c>
+      <c r="G556" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="D556" t="s">
-        <v>147</v>
-      </c>
-      <c r="E556" t="s">
-        <v>147</v>
-      </c>
-      <c r="F556" t="s">
-        <v>147</v>
-      </c>
-      <c r="G556" s="7" t="s">
+      <c r="H556" s="7" t="s">
         <v>1166</v>
-      </c>
-      <c r="H556" s="7" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -20996,7 +21041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5200" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="1187">
   <si>
     <t>DATA</t>
   </si>
@@ -4149,10 +4149,10 @@
   <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J104" sqref="J104"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4277,6 +4277,9 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
+      <c r="J3" t="s">
+        <v>983</v>
+      </c>
       <c r="K3" t="s">
         <v>98</v>
       </c>
@@ -7401,10 +7404,10 @@
   <dimension ref="A1:L558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I506" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L514" sqref="L514"/>
+      <selection pane="bottomRight" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7422,7 +7425,7 @@
     <col min="12" max="12" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -7629,6 +7632,9 @@
       <c r="E8" t="s">
         <v>147</v>
       </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>632</v>
       </c>
@@ -7692,6 +7698,9 @@
       <c r="D11" t="s">
         <v>147</v>
       </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>638</v>
       </c>
@@ -7798,6 +7807,9 @@
       <c r="H16" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="I16" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
@@ -8031,6 +8043,9 @@
       <c r="E26" t="s">
         <v>147</v>
       </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
       <c r="G26" s="7" t="s">
         <v>484</v>
       </c>
@@ -8738,6 +8753,9 @@
       <c r="E54" t="s">
         <v>147</v>
       </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
       <c r="G54" s="7" t="s">
         <v>683</v>
       </c>
@@ -8758,6 +8776,9 @@
       <c r="D55" t="s">
         <v>147</v>
       </c>
+      <c r="F55" t="s">
+        <v>147</v>
+      </c>
       <c r="G55" s="7" t="s">
         <v>684</v>
       </c>
@@ -9164,6 +9185,9 @@
       <c r="E72" t="s">
         <v>147</v>
       </c>
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
       <c r="G72" s="7" t="s">
         <v>495</v>
       </c>
@@ -9363,6 +9387,9 @@
       <c r="D80" t="s">
         <v>147</v>
       </c>
+      <c r="F80" t="s">
+        <v>147</v>
+      </c>
       <c r="G80" s="7" t="s">
         <v>726</v>
       </c>
@@ -9383,6 +9410,9 @@
       <c r="D81" t="s">
         <v>147</v>
       </c>
+      <c r="F81" t="s">
+        <v>147</v>
+      </c>
       <c r="G81" s="7" t="s">
         <v>728</v>
       </c>
@@ -9638,6 +9668,9 @@
       <c r="D93" t="s">
         <v>147</v>
       </c>
+      <c r="F93" t="s">
+        <v>147</v>
+      </c>
       <c r="G93" s="7" t="s">
         <v>646</v>
       </c>
@@ -10201,6 +10234,9 @@
       <c r="E115" t="s">
         <v>147</v>
       </c>
+      <c r="F115" t="s">
+        <v>147</v>
+      </c>
       <c r="G115" s="7" t="s">
         <v>748</v>
       </c>
@@ -10302,6 +10338,9 @@
       <c r="E119" t="s">
         <v>147</v>
       </c>
+      <c r="F119" t="s">
+        <v>147</v>
+      </c>
       <c r="G119" s="7" t="s">
         <v>704</v>
       </c>
@@ -10368,6 +10407,9 @@
       <c r="D122" t="s">
         <v>147</v>
       </c>
+      <c r="F122" t="s">
+        <v>147</v>
+      </c>
       <c r="G122" s="7" t="s">
         <v>709</v>
       </c>
@@ -10388,6 +10430,9 @@
       <c r="D123" t="s">
         <v>147</v>
       </c>
+      <c r="F123" t="s">
+        <v>147</v>
+      </c>
       <c r="G123" s="7" t="s">
         <v>711</v>
       </c>
@@ -10431,6 +10476,9 @@
       <c r="D125" t="s">
         <v>147</v>
       </c>
+      <c r="F125" t="s">
+        <v>147</v>
+      </c>
       <c r="G125" s="7" t="s">
         <v>715</v>
       </c>
@@ -10532,6 +10580,9 @@
       <c r="E129" t="s">
         <v>147</v>
       </c>
+      <c r="F129" t="s">
+        <v>147</v>
+      </c>
       <c r="G129" s="7" t="s">
         <v>739</v>
       </c>
@@ -10766,6 +10817,9 @@
       <c r="E138" t="s">
         <v>147</v>
       </c>
+      <c r="F138" t="s">
+        <v>147</v>
+      </c>
       <c r="G138" s="7" t="s">
         <v>760</v>
       </c>
@@ -10865,6 +10919,9 @@
         <v>147</v>
       </c>
       <c r="E142" t="s">
+        <v>147</v>
+      </c>
+      <c r="F142" t="s">
         <v>147</v>
       </c>
       <c r="G142" s="7" t="s">

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5204" uniqueCount="1188">
   <si>
     <t>DATA</t>
   </si>
@@ -3713,13 +3713,16 @@
   </si>
   <si>
     <t>insCoreDataProductName</t>
+  </si>
+  <si>
+    <t>IsBusinessKey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3854,17 +3857,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3902,7 +3910,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3936,6 +3944,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3970,9 +3979,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4145,41 +4155,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="66.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="66.5546875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" style="7" customWidth="1"/>
     <col min="18" max="18" width="19" style="7" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4277,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4277,9 +4287,6 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="J3" t="s">
-        <v>983</v>
-      </c>
       <c r="K3" t="s">
         <v>98</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4328,7 +4335,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="90">
+    <row r="5" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4369,7 +4376,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4410,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4441,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4465,7 +4472,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4496,7 +4503,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +4534,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4565,7 +4572,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4594,7 +4601,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4617,7 +4624,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4658,7 +4665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +4694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4758,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4780,7 +4787,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4818,7 +4825,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +4854,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4873,7 +4880,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4902,7 +4909,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4940,7 +4947,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4969,7 +4976,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +5002,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5047,7 +5054,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -5099,7 +5106,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -5137,7 +5144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -5175,7 +5182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -5213,7 +5220,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5251,7 +5258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5286,7 +5293,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -5312,7 +5319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -5338,7 +5345,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -5373,7 +5380,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -5396,7 +5403,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -5431,7 +5438,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -5457,7 +5464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -5480,7 +5487,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -5503,7 +5510,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -5529,7 +5536,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -5555,7 +5562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -5578,7 +5585,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>153</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -5636,7 +5643,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -5659,7 +5666,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -5682,7 +5689,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -5705,7 +5712,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -5731,7 +5738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -5757,7 +5764,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -5783,7 +5790,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -5809,7 +5816,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5835,7 +5842,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5858,7 +5865,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -5907,7 +5914,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -5933,7 +5940,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -5959,7 +5966,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -5988,7 +5995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -6034,7 +6041,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -6060,7 +6067,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -6086,7 +6093,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -6112,7 +6119,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -6138,7 +6145,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -6190,7 +6197,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -6216,7 +6223,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -6242,7 +6249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -6268,7 +6275,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -6294,7 +6301,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6329,7 +6336,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -6367,7 +6374,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -6393,7 +6400,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6419,7 +6426,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -6448,7 +6455,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -6486,7 +6493,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -6512,7 +6519,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -6538,7 +6545,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -6570,7 +6577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -6596,7 +6603,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -6625,7 +6632,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6663,7 +6670,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -6730,7 +6737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -6756,7 +6763,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -6782,7 +6789,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -6814,7 +6821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -6837,7 +6844,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -6869,7 +6876,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -6901,7 +6908,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -6936,7 +6943,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -6962,7 +6969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -6988,7 +6995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -7026,7 +7033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -7049,7 +7056,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -7084,7 +7091,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -7128,7 +7135,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -7163,7 +7170,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="30">
+    <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -7201,7 +7208,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -7230,7 +7237,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15.75">
+    <row r="104" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -7259,7 +7266,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="30">
+    <row r="105" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7294,7 +7301,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -7323,7 +7330,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -7352,7 +7359,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -7380,12 +7387,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L98">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="7"/>
     <sortState ref="A2:K98">
       <sortCondition ref="C1:C98"/>
     </sortState>
@@ -7400,32 +7401,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L558"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F118" sqref="F118"/>
+      <selection pane="bottomRight" activeCell="M158" sqref="M158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -7462,8 +7463,11 @@
       <c r="L1" s="10" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7489,7 +7493,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7538,7 +7542,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7564,7 +7568,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7590,7 +7594,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -7632,9 +7636,6 @@
       <c r="E8" t="s">
         <v>147</v>
       </c>
-      <c r="F8" t="s">
-        <v>147</v>
-      </c>
       <c r="G8" s="7" t="s">
         <v>632</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45">
+    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7698,9 +7699,6 @@
       <c r="D11" t="s">
         <v>147</v>
       </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
       <c r="G11" s="7" t="s">
         <v>638</v>
       </c>
@@ -7708,7 +7706,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7728,7 +7726,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7748,7 +7746,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7768,7 +7766,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7788,7 +7786,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7807,11 +7805,8 @@
       <c r="H16" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I16" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +7826,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -7851,7 +7846,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7871,7 +7866,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -7897,7 +7892,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -7923,7 +7918,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -7949,7 +7944,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -7975,7 +7970,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8001,7 +7996,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8027,7 +8022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8043,9 +8038,6 @@
       <c r="E26" t="s">
         <v>147</v>
       </c>
-      <c r="F26" t="s">
-        <v>147</v>
-      </c>
       <c r="G26" s="7" t="s">
         <v>484</v>
       </c>
@@ -8053,7 +8045,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8073,7 +8065,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -8093,7 +8085,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8116,7 +8108,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -8142,7 +8134,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -8168,7 +8160,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -8191,7 +8183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -8220,7 +8212,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -8246,7 +8238,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -8272,7 +8264,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -8295,7 +8287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -8324,7 +8316,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -8347,7 +8339,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -8373,7 +8365,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -8399,7 +8391,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -8428,7 +8420,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -8451,7 +8443,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -8477,7 +8469,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -8503,7 +8495,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -8526,7 +8518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -8555,7 +8547,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -8581,7 +8573,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -8607,7 +8599,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -8630,7 +8622,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -8659,7 +8651,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -8685,7 +8677,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -8711,7 +8703,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -8737,7 +8729,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -8753,9 +8745,6 @@
       <c r="E54" t="s">
         <v>147</v>
       </c>
-      <c r="F54" t="s">
-        <v>147</v>
-      </c>
       <c r="G54" s="7" t="s">
         <v>683</v>
       </c>
@@ -8763,7 +8752,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8776,9 +8765,6 @@
       <c r="D55" t="s">
         <v>147</v>
       </c>
-      <c r="F55" t="s">
-        <v>147</v>
-      </c>
       <c r="G55" s="7" t="s">
         <v>684</v>
       </c>
@@ -8786,7 +8772,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -8812,7 +8798,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -8838,7 +8824,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -8861,7 +8847,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -8890,7 +8876,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -8916,7 +8902,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -8942,7 +8928,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -8968,7 +8954,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -8991,7 +8977,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -9011,7 +8997,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="45">
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9031,7 +9017,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -9051,7 +9037,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -9071,7 +9057,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -9091,7 +9077,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -9117,7 +9103,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -9143,7 +9129,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -9169,7 +9155,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -9185,9 +9171,6 @@
       <c r="E72" t="s">
         <v>147</v>
       </c>
-      <c r="F72" t="s">
-        <v>147</v>
-      </c>
       <c r="G72" s="7" t="s">
         <v>495</v>
       </c>
@@ -9195,7 +9178,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -9221,7 +9204,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -9247,7 +9230,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -9270,7 +9253,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -9299,7 +9282,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -9325,7 +9308,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -9351,7 +9334,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -9374,7 +9357,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -9387,9 +9370,6 @@
       <c r="D80" t="s">
         <v>147</v>
       </c>
-      <c r="F80" t="s">
-        <v>147</v>
-      </c>
       <c r="G80" s="7" t="s">
         <v>726</v>
       </c>
@@ -9397,7 +9377,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -9410,9 +9390,6 @@
       <c r="D81" t="s">
         <v>147</v>
       </c>
-      <c r="F81" t="s">
-        <v>147</v>
-      </c>
       <c r="G81" s="7" t="s">
         <v>728</v>
       </c>
@@ -9423,7 +9400,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -9446,7 +9423,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -9466,7 +9443,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -9486,7 +9463,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -9509,7 +9486,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -9532,7 +9509,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -9552,7 +9529,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -9572,7 +9549,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -9595,7 +9572,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -9615,7 +9592,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -9635,7 +9612,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -9655,7 +9632,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -9668,9 +9645,6 @@
       <c r="D93" t="s">
         <v>147</v>
       </c>
-      <c r="F93" t="s">
-        <v>147</v>
-      </c>
       <c r="G93" s="7" t="s">
         <v>646</v>
       </c>
@@ -9681,7 +9655,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -9707,7 +9681,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -9733,7 +9707,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -9759,7 +9733,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -9782,7 +9756,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -9808,7 +9782,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -9831,7 +9805,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -9857,7 +9831,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -9883,7 +9857,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -9906,7 +9880,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -9935,7 +9909,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -9961,7 +9935,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -9987,7 +9961,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -10013,7 +9987,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -10036,7 +10010,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -10062,7 +10036,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -10088,7 +10062,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -10111,7 +10085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -10137,7 +10111,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -10163,7 +10137,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -10189,7 +10163,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -10218,7 +10192,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -10234,9 +10208,6 @@
       <c r="E115" t="s">
         <v>147</v>
       </c>
-      <c r="F115" t="s">
-        <v>147</v>
-      </c>
       <c r="G115" s="7" t="s">
         <v>748</v>
       </c>
@@ -10244,7 +10215,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -10270,7 +10241,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -10296,7 +10267,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -10322,7 +10293,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -10338,9 +10309,6 @@
       <c r="E119" t="s">
         <v>147</v>
       </c>
-      <c r="F119" t="s">
-        <v>147</v>
-      </c>
       <c r="G119" s="7" t="s">
         <v>704</v>
       </c>
@@ -10348,7 +10316,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="45">
+    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -10368,7 +10336,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="45">
+    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -10394,7 +10362,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="30">
+    <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -10407,9 +10375,6 @@
       <c r="D122" t="s">
         <v>147</v>
       </c>
-      <c r="F122" t="s">
-        <v>147</v>
-      </c>
       <c r="G122" s="7" t="s">
         <v>709</v>
       </c>
@@ -10417,7 +10382,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="30">
+    <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -10430,9 +10395,6 @@
       <c r="D123" t="s">
         <v>147</v>
       </c>
-      <c r="F123" t="s">
-        <v>147</v>
-      </c>
       <c r="G123" s="7" t="s">
         <v>711</v>
       </c>
@@ -10440,7 +10402,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="60">
+    <row r="124" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -10463,7 +10425,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -10476,9 +10438,6 @@
       <c r="D125" t="s">
         <v>147</v>
       </c>
-      <c r="F125" t="s">
-        <v>147</v>
-      </c>
       <c r="G125" s="7" t="s">
         <v>715</v>
       </c>
@@ -10486,7 +10445,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -10512,7 +10471,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -10538,7 +10497,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -10564,7 +10523,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -10580,9 +10539,6 @@
       <c r="E129" t="s">
         <v>147</v>
       </c>
-      <c r="F129" t="s">
-        <v>147</v>
-      </c>
       <c r="G129" s="7" t="s">
         <v>739</v>
       </c>
@@ -10590,7 +10546,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -10616,7 +10572,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -10642,7 +10598,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -10665,7 +10621,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -10694,7 +10650,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -10720,7 +10676,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -10746,7 +10702,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -10772,7 +10728,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -10801,7 +10757,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -10817,9 +10773,6 @@
       <c r="E138" t="s">
         <v>147</v>
       </c>
-      <c r="F138" t="s">
-        <v>147</v>
-      </c>
       <c r="G138" s="7" t="s">
         <v>760</v>
       </c>
@@ -10827,7 +10780,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -10853,7 +10806,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -10879,7 +10832,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -10905,7 +10858,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -10921,9 +10874,6 @@
       <c r="E142" t="s">
         <v>147</v>
       </c>
-      <c r="F142" t="s">
-        <v>147</v>
-      </c>
       <c r="G142" s="7" t="s">
         <v>752</v>
       </c>
@@ -10931,7 +10881,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -10954,7 +10904,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -10977,7 +10927,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -11003,7 +10953,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -11029,7 +10979,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="30">
+    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -11055,7 +11005,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="30">
+    <row r="148" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -11078,7 +11028,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -11104,7 +11054,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -11130,7 +11080,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="30">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -11156,7 +11106,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -11179,7 +11129,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -11205,7 +11155,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11231,7 +11181,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -11256,8 +11206,11 @@
       <c r="H155" s="7" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="M155" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -11277,7 +11230,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -11297,7 +11250,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="30">
+    <row r="158" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -11317,7 +11270,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -11337,7 +11290,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -11357,7 +11310,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -11377,7 +11330,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -11400,7 +11353,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>153</v>
       </c>
@@ -11423,7 +11376,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>153</v>
       </c>
@@ -11446,7 +11399,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -11466,7 +11419,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>153</v>
       </c>
@@ -11486,7 +11439,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -11506,7 +11459,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -11526,7 +11479,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>153</v>
       </c>
@@ -11552,7 +11505,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>153</v>
       </c>
@@ -11578,7 +11531,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -11601,7 +11554,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>153</v>
       </c>
@@ -11627,7 +11580,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>153</v>
       </c>
@@ -11653,7 +11606,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>153</v>
       </c>
@@ -11679,7 +11632,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>153</v>
       </c>
@@ -11705,7 +11658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>153</v>
       </c>
@@ -11731,7 +11684,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>153</v>
       </c>
@@ -11757,7 +11710,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -11783,7 +11736,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>153</v>
       </c>
@@ -11806,7 +11759,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>153</v>
       </c>
@@ -11832,7 +11785,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -11858,7 +11811,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>153</v>
       </c>
@@ -11884,7 +11837,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>153</v>
       </c>
@@ -11907,7 +11860,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>153</v>
       </c>
@@ -11933,7 +11886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>153</v>
       </c>
@@ -11959,7 +11912,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>153</v>
       </c>
@@ -11985,7 +11938,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>153</v>
       </c>
@@ -12008,7 +11961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>153</v>
       </c>
@@ -12031,7 +11984,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>153</v>
       </c>
@@ -12054,7 +12007,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>153</v>
       </c>
@@ -12080,7 +12033,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>153</v>
       </c>
@@ -12106,7 +12059,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>153</v>
       </c>
@@ -12132,7 +12085,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>153</v>
       </c>
@@ -12155,7 +12108,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>153</v>
       </c>
@@ -12181,7 +12134,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -12207,7 +12160,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>153</v>
       </c>
@@ -12233,7 +12186,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -12259,7 +12212,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>153</v>
       </c>
@@ -12285,7 +12238,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>153</v>
       </c>
@@ -12311,7 +12264,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>153</v>
       </c>
@@ -12337,7 +12290,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>153</v>
       </c>
@@ -12363,7 +12316,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>153</v>
       </c>
@@ -12389,7 +12342,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>153</v>
       </c>
@@ -12415,7 +12368,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>153</v>
       </c>
@@ -12438,7 +12391,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="30">
+    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>153</v>
       </c>
@@ -12464,7 +12417,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="30">
+    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>153</v>
       </c>
@@ -12487,7 +12440,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="30">
+    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>153</v>
       </c>
@@ -12510,7 +12463,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="30">
+    <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>153</v>
       </c>
@@ -12533,7 +12486,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>153</v>
       </c>
@@ -12559,7 +12512,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>153</v>
       </c>
@@ -12585,7 +12538,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>153</v>
       </c>
@@ -12611,7 +12564,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="30">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>153</v>
       </c>
@@ -12634,7 +12587,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>153</v>
       </c>
@@ -12660,7 +12613,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>153</v>
       </c>
@@ -12686,7 +12639,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -12712,7 +12665,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="30">
+    <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -12735,7 +12688,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>153</v>
       </c>
@@ -12761,7 +12714,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>153</v>
       </c>
@@ -12787,7 +12740,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>153</v>
       </c>
@@ -12813,7 +12766,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>153</v>
       </c>
@@ -12839,7 +12792,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>153</v>
       </c>
@@ -12865,7 +12818,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>153</v>
       </c>
@@ -12891,7 +12844,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>153</v>
       </c>
@@ -12917,7 +12870,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="30">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>153</v>
       </c>
@@ -12937,7 +12890,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="30">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>153</v>
       </c>
@@ -12957,7 +12910,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>153</v>
       </c>
@@ -12977,7 +12930,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>153</v>
       </c>
@@ -13003,7 +12956,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>153</v>
       </c>
@@ -13029,7 +12982,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>153</v>
       </c>
@@ -13055,7 +13008,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>153</v>
       </c>
@@ -13078,7 +13031,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="30">
+    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>153</v>
       </c>
@@ -13101,7 +13054,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>153</v>
       </c>
@@ -13127,7 +13080,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>153</v>
       </c>
@@ -13153,7 +13106,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>153</v>
       </c>
@@ -13179,7 +13132,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>153</v>
       </c>
@@ -13202,7 +13155,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30">
+    <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>153</v>
       </c>
@@ -13222,7 +13175,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="30">
+    <row r="237" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>153</v>
       </c>
@@ -13242,7 +13195,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>153</v>
       </c>
@@ -13268,7 +13221,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>153</v>
       </c>
@@ -13294,7 +13247,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>153</v>
       </c>
@@ -13320,7 +13273,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>153</v>
       </c>
@@ -13346,7 +13299,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>153</v>
       </c>
@@ -13372,7 +13325,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>153</v>
       </c>
@@ -13398,7 +13351,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>153</v>
       </c>
@@ -13424,7 +13377,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>153</v>
       </c>
@@ -13447,7 +13400,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>153</v>
       </c>
@@ -13473,7 +13426,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>153</v>
       </c>
@@ -13499,7 +13452,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>153</v>
       </c>
@@ -13525,7 +13478,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>153</v>
       </c>
@@ -13545,7 +13498,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>153</v>
       </c>
@@ -13571,7 +13524,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>153</v>
       </c>
@@ -13597,7 +13550,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="30">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>153</v>
       </c>
@@ -13623,7 +13576,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="30">
+    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>153</v>
       </c>
@@ -13643,7 +13596,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="30">
+    <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>153</v>
       </c>
@@ -13663,7 +13616,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>153</v>
       </c>
@@ -13689,7 +13642,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>153</v>
       </c>
@@ -13715,7 +13668,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="30">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>153</v>
       </c>
@@ -13741,7 +13694,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="30">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>153</v>
       </c>
@@ -13764,7 +13717,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>153</v>
       </c>
@@ -13790,7 +13743,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>153</v>
       </c>
@@ -13816,7 +13769,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>153</v>
       </c>
@@ -13842,7 +13795,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>153</v>
       </c>
@@ -13868,7 +13821,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>153</v>
       </c>
@@ -13894,7 +13847,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>153</v>
       </c>
@@ -13920,7 +13873,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>153</v>
       </c>
@@ -13943,7 +13896,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>153</v>
       </c>
@@ -13969,7 +13922,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>153</v>
       </c>
@@ -13995,7 +13948,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>153</v>
       </c>
@@ -14021,7 +13974,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>153</v>
       </c>
@@ -14044,7 +13997,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>153</v>
       </c>
@@ -14067,7 +14020,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>153</v>
       </c>
@@ -14093,7 +14046,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>153</v>
       </c>
@@ -14119,7 +14072,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>153</v>
       </c>
@@ -14145,7 +14098,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -14168,7 +14121,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>153</v>
       </c>
@@ -14188,7 +14141,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>153</v>
       </c>
@@ -14214,7 +14167,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>153</v>
       </c>
@@ -14240,7 +14193,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>153</v>
       </c>
@@ -14266,7 +14219,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>153</v>
       </c>
@@ -14292,7 +14245,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>153</v>
       </c>
@@ -14318,7 +14271,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>153</v>
       </c>
@@ -14344,7 +14297,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>153</v>
       </c>
@@ -14367,7 +14320,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>153</v>
       </c>
@@ -14381,7 +14334,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>153</v>
       </c>
@@ -14395,7 +14348,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>153</v>
       </c>
@@ -14421,7 +14374,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>153</v>
       </c>
@@ -14447,7 +14400,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>153</v>
       </c>
@@ -14473,7 +14426,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>153</v>
       </c>
@@ -14499,7 +14452,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>153</v>
       </c>
@@ -14525,7 +14478,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>153</v>
       </c>
@@ -14551,7 +14504,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>153</v>
       </c>
@@ -14577,7 +14530,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>153</v>
       </c>
@@ -14603,7 +14556,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>153</v>
       </c>
@@ -14629,7 +14582,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>153</v>
       </c>
@@ -14655,7 +14608,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>153</v>
       </c>
@@ -14681,7 +14634,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>153</v>
       </c>
@@ -14707,7 +14660,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>153</v>
       </c>
@@ -14733,7 +14686,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>153</v>
       </c>
@@ -14759,7 +14712,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>153</v>
       </c>
@@ -14785,7 +14738,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>153</v>
       </c>
@@ -14811,7 +14764,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>153</v>
       </c>
@@ -14837,7 +14790,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>153</v>
       </c>
@@ -14863,7 +14816,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>153</v>
       </c>
@@ -14886,7 +14839,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>153</v>
       </c>
@@ -14909,7 +14862,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>153</v>
       </c>
@@ -14935,7 +14888,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>153</v>
       </c>
@@ -14961,7 +14914,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>153</v>
       </c>
@@ -14987,7 +14940,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>153</v>
       </c>
@@ -15013,7 +14966,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>153</v>
       </c>
@@ -15039,7 +14992,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="30">
+    <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>153</v>
       </c>
@@ -15059,7 +15012,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>153</v>
       </c>
@@ -15085,7 +15038,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>153</v>
       </c>
@@ -15111,7 +15064,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="30">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>153</v>
       </c>
@@ -15137,7 +15090,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>153</v>
       </c>
@@ -15160,7 +15113,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="75">
+    <row r="315" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>153</v>
       </c>
@@ -15180,7 +15133,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>153</v>
       </c>
@@ -15206,7 +15159,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>153</v>
       </c>
@@ -15232,7 +15185,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>153</v>
       </c>
@@ -15258,7 +15211,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="30">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>153</v>
       </c>
@@ -15281,7 +15234,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>153</v>
       </c>
@@ -15304,7 +15257,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>153</v>
       </c>
@@ -15330,7 +15283,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>153</v>
       </c>
@@ -15356,7 +15309,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>153</v>
       </c>
@@ -15382,7 +15335,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>153</v>
       </c>
@@ -15405,7 +15358,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>153</v>
       </c>
@@ -15428,7 +15381,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>153</v>
       </c>
@@ -15451,7 +15404,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>153</v>
       </c>
@@ -15468,7 +15421,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>153</v>
       </c>
@@ -15494,7 +15447,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>153</v>
       </c>
@@ -15520,7 +15473,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>153</v>
       </c>
@@ -15546,7 +15499,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>153</v>
       </c>
@@ -15569,7 +15522,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>153</v>
       </c>
@@ -15595,7 +15548,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>153</v>
       </c>
@@ -15621,7 +15574,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>153</v>
       </c>
@@ -15647,7 +15600,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>153</v>
       </c>
@@ -15670,7 +15623,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>153</v>
       </c>
@@ -15696,7 +15649,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -15722,7 +15675,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>153</v>
       </c>
@@ -15748,7 +15701,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -15771,7 +15724,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -15794,7 +15747,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>153</v>
       </c>
@@ -15820,7 +15773,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>153</v>
       </c>
@@ -15846,7 +15799,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>153</v>
       </c>
@@ -15872,7 +15825,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>153</v>
       </c>
@@ -15895,7 +15848,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>153</v>
       </c>
@@ -15921,7 +15874,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>153</v>
       </c>
@@ -15947,7 +15900,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -15973,7 +15926,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>153</v>
       </c>
@@ -15996,7 +15949,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>153</v>
       </c>
@@ -16016,7 +15969,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>153</v>
       </c>
@@ -16039,7 +15992,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>153</v>
       </c>
@@ -16065,7 +16018,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>153</v>
       </c>
@@ -16091,7 +16044,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>153</v>
       </c>
@@ -16114,7 +16067,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>153</v>
       </c>
@@ -16140,7 +16093,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>153</v>
       </c>
@@ -16166,7 +16119,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>153</v>
       </c>
@@ -16192,7 +16145,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="30">
+    <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>153</v>
       </c>
@@ -16218,7 +16171,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>153</v>
       </c>
@@ -16244,7 +16197,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>153</v>
       </c>
@@ -16270,7 +16223,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>153</v>
       </c>
@@ -16296,7 +16249,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>153</v>
       </c>
@@ -16322,7 +16275,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>153</v>
       </c>
@@ -16348,7 +16301,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>153</v>
       </c>
@@ -16374,7 +16327,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>153</v>
       </c>
@@ -16400,7 +16353,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>153</v>
       </c>
@@ -16426,7 +16379,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>153</v>
       </c>
@@ -16452,7 +16405,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>153</v>
       </c>
@@ -16478,7 +16431,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>153</v>
       </c>
@@ -16501,7 +16454,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>153</v>
       </c>
@@ -16527,7 +16480,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="30">
+    <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>153</v>
       </c>
@@ -16550,7 +16503,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>153</v>
       </c>
@@ -16576,7 +16529,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>153</v>
       </c>
@@ -16602,7 +16555,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>153</v>
       </c>
@@ -16625,7 +16578,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>153</v>
       </c>
@@ -16651,7 +16604,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>153</v>
       </c>
@@ -16677,7 +16630,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="30">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>153</v>
       </c>
@@ -16703,7 +16656,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>153</v>
       </c>
@@ -16726,7 +16679,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>153</v>
       </c>
@@ -16752,7 +16705,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>153</v>
       </c>
@@ -16778,7 +16731,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>153</v>
       </c>
@@ -16804,7 +16757,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="30">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>153</v>
       </c>
@@ -16830,7 +16783,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>153</v>
       </c>
@@ -16856,7 +16809,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>153</v>
       </c>
@@ -16882,7 +16835,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>153</v>
       </c>
@@ -16908,7 +16861,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>153</v>
       </c>
@@ -16934,7 +16887,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>153</v>
       </c>
@@ -16960,7 +16913,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>153</v>
       </c>
@@ -16974,7 +16927,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>153</v>
       </c>
@@ -16988,7 +16941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>153</v>
       </c>
@@ -17014,7 +16967,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>153</v>
       </c>
@@ -17040,7 +16993,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>153</v>
       </c>
@@ -17066,7 +17019,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>153</v>
       </c>
@@ -17089,7 +17042,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>153</v>
       </c>
@@ -17115,7 +17068,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>153</v>
       </c>
@@ -17141,7 +17094,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>153</v>
       </c>
@@ -17167,7 +17120,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="30">
+    <row r="396" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>153</v>
       </c>
@@ -17193,7 +17146,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="60">
+    <row r="397" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>153</v>
       </c>
@@ -17219,7 +17172,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>153</v>
       </c>
@@ -17242,7 +17195,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>153</v>
       </c>
@@ -17265,7 +17218,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>153</v>
       </c>
@@ -17288,7 +17241,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>153</v>
       </c>
@@ -17311,7 +17264,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="45">
+    <row r="402" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>153</v>
       </c>
@@ -17334,7 +17287,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>153</v>
       </c>
@@ -17357,7 +17310,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="60">
+    <row r="404" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>153</v>
       </c>
@@ -17380,7 +17333,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>153</v>
       </c>
@@ -17406,7 +17359,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>153</v>
       </c>
@@ -17432,7 +17385,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>153</v>
       </c>
@@ -17455,7 +17408,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>153</v>
       </c>
@@ -17481,7 +17434,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>153</v>
       </c>
@@ -17507,7 +17460,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>153</v>
       </c>
@@ -17533,7 +17486,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="105">
+    <row r="411" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>153</v>
       </c>
@@ -17559,7 +17512,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>153</v>
       </c>
@@ -17582,7 +17535,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>153</v>
       </c>
@@ -17608,7 +17561,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>153</v>
       </c>
@@ -17634,7 +17587,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>153</v>
       </c>
@@ -17654,7 +17607,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>153</v>
       </c>
@@ -17680,7 +17633,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>153</v>
       </c>
@@ -17700,7 +17653,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>153</v>
       </c>
@@ -17720,7 +17673,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>153</v>
       </c>
@@ -17740,7 +17693,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>153</v>
       </c>
@@ -17760,7 +17713,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>153</v>
       </c>
@@ -17783,7 +17736,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>153</v>
       </c>
@@ -17806,7 +17759,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>153</v>
       </c>
@@ -17826,7 +17779,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>153</v>
       </c>
@@ -17846,7 +17799,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>153</v>
       </c>
@@ -17866,7 +17819,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>153</v>
       </c>
@@ -17886,7 +17839,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>153</v>
       </c>
@@ -17912,7 +17865,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>153</v>
       </c>
@@ -17938,7 +17891,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>153</v>
       </c>
@@ -17964,7 +17917,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>153</v>
       </c>
@@ -17987,7 +17940,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>153</v>
       </c>
@@ -18013,7 +17966,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>153</v>
       </c>
@@ -18039,7 +17992,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>153</v>
       </c>
@@ -18065,7 +18018,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>153</v>
       </c>
@@ -18088,7 +18041,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>153</v>
       </c>
@@ -18114,7 +18067,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>153</v>
       </c>
@@ -18140,7 +18093,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>153</v>
       </c>
@@ -18163,7 +18116,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>153</v>
       </c>
@@ -18186,7 +18139,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>153</v>
       </c>
@@ -18209,7 +18162,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>153</v>
       </c>
@@ -18235,7 +18188,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>153</v>
       </c>
@@ -18258,7 +18211,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>153</v>
       </c>
@@ -18281,7 +18234,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>153</v>
       </c>
@@ -18307,7 +18260,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>153</v>
       </c>
@@ -18333,7 +18286,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>153</v>
       </c>
@@ -18359,7 +18312,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>153</v>
       </c>
@@ -18382,7 +18335,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="30">
+    <row r="447" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>153</v>
       </c>
@@ -18402,7 +18355,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="30">
+    <row r="448" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>153</v>
       </c>
@@ -18422,7 +18375,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>153</v>
       </c>
@@ -18445,7 +18398,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>153</v>
       </c>
@@ -18471,7 +18424,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>153</v>
       </c>
@@ -18497,7 +18450,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>153</v>
       </c>
@@ -18523,7 +18476,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>153</v>
       </c>
@@ -18546,7 +18499,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>153</v>
       </c>
@@ -18569,7 +18522,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>153</v>
       </c>
@@ -18592,7 +18545,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>153</v>
       </c>
@@ -18618,7 +18571,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>153</v>
       </c>
@@ -18644,7 +18597,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>153</v>
       </c>
@@ -18670,7 +18623,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>153</v>
       </c>
@@ -18693,7 +18646,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>153</v>
       </c>
@@ -18716,7 +18669,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>153</v>
       </c>
@@ -18742,7 +18695,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>153</v>
       </c>
@@ -18768,7 +18721,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>153</v>
       </c>
@@ -18791,7 +18744,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>153</v>
       </c>
@@ -18814,7 +18767,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>153</v>
       </c>
@@ -18837,7 +18790,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>153</v>
       </c>
@@ -18863,7 +18816,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>153</v>
       </c>
@@ -18889,7 +18842,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>153</v>
       </c>
@@ -18912,7 +18865,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>153</v>
       </c>
@@ -18938,7 +18891,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>153</v>
       </c>
@@ -18964,7 +18917,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -18990,7 +18943,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>153</v>
       </c>
@@ -19013,7 +18966,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>153</v>
       </c>
@@ -19036,7 +18989,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="15.75">
+    <row r="474" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>153</v>
       </c>
@@ -19062,7 +19015,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="15.75">
+    <row r="475" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>153</v>
       </c>
@@ -19082,7 +19035,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="15.75">
+    <row r="476" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>153</v>
       </c>
@@ -19102,7 +19055,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>153</v>
       </c>
@@ -19122,7 +19075,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="15.75">
+    <row r="478" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>153</v>
       </c>
@@ -19145,7 +19098,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="15.75">
+    <row r="479" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>153</v>
       </c>
@@ -19171,7 +19124,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>153</v>
       </c>
@@ -19191,7 +19144,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>153</v>
       </c>
@@ -19211,7 +19164,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="47.25">
+    <row r="482" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>153</v>
       </c>
@@ -19231,7 +19184,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="15.75">
+    <row r="483" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>153</v>
       </c>
@@ -19254,7 +19207,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>153</v>
       </c>
@@ -19280,7 +19233,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>153</v>
       </c>
@@ -19306,7 +19259,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="15.75">
+    <row r="486" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>153</v>
       </c>
@@ -19332,7 +19285,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="31.5">
+    <row r="487" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>153</v>
       </c>
@@ -19352,7 +19305,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="47.25">
+    <row r="488" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>153</v>
       </c>
@@ -19372,7 +19325,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>153</v>
       </c>
@@ -19392,7 +19345,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="15.75">
+    <row r="490" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>153</v>
       </c>
@@ -19415,7 +19368,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="15.75">
+    <row r="491" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>153</v>
       </c>
@@ -19435,7 +19388,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="15.75">
+    <row r="492" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>153</v>
       </c>
@@ -19455,7 +19408,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="15.75">
+    <row r="493" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>153</v>
       </c>
@@ -19475,7 +19428,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="15.75">
+    <row r="494" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>153</v>
       </c>
@@ -19495,7 +19448,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="15.75">
+    <row r="495" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>153</v>
       </c>
@@ -19515,7 +19468,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="30">
+    <row r="496" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>153</v>
       </c>
@@ -19535,7 +19488,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="497" spans="1:12" ht="75">
+    <row r="497" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -19555,7 +19508,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="498" spans="1:12" ht="30">
+    <row r="498" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>153</v>
       </c>
@@ -19575,7 +19528,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="30">
+    <row r="499" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -19595,7 +19548,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="500" spans="1:12" ht="30">
+    <row r="500" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>153</v>
       </c>
@@ -19615,7 +19568,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="75">
+    <row r="501" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>153</v>
       </c>
@@ -19638,7 +19591,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>153</v>
       </c>
@@ -19658,7 +19611,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>153</v>
       </c>
@@ -19681,7 +19634,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>153</v>
       </c>
@@ -19707,7 +19660,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -19733,7 +19686,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>153</v>
       </c>
@@ -19755,8 +19708,11 @@
       <c r="H506" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="507" spans="1:12">
+      <c r="M506" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -19785,7 +19741,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -19811,7 +19767,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>153</v>
       </c>
@@ -19834,7 +19790,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>153</v>
       </c>
@@ -19860,7 +19816,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>153</v>
       </c>
@@ -19886,7 +19842,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>0</v>
       </c>
@@ -19917,8 +19873,11 @@
       <c r="L512" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="513" spans="1:9">
+      <c r="M512" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>0</v>
       </c>
@@ -19935,7 +19894,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="15.75">
+    <row r="514" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>0</v>
       </c>
@@ -19958,7 +19917,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="15.75">
+    <row r="515" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>0</v>
       </c>
@@ -19978,7 +19937,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="15.75">
+    <row r="516" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>0</v>
       </c>
@@ -20004,7 +19963,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="15.75">
+    <row r="517" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>0</v>
       </c>
@@ -20027,7 +19986,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="15.75">
+    <row r="518" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>0</v>
       </c>
@@ -20050,7 +20009,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="15.75">
+    <row r="519" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>0</v>
       </c>
@@ -20073,7 +20032,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="15.75">
+    <row r="520" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>0</v>
       </c>
@@ -20093,7 +20052,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="15.75">
+    <row r="521" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>0</v>
       </c>
@@ -20113,7 +20072,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="15.75">
+    <row r="522" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>0</v>
       </c>
@@ -20133,7 +20092,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>0</v>
       </c>
@@ -20153,7 +20112,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>0</v>
       </c>
@@ -20173,7 +20132,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>0</v>
       </c>
@@ -20193,7 +20152,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>0</v>
       </c>
@@ -20213,7 +20172,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>0</v>
       </c>
@@ -20236,7 +20195,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>0</v>
       </c>
@@ -20259,7 +20218,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>0</v>
       </c>
@@ -20285,7 +20244,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>0</v>
       </c>
@@ -20311,7 +20270,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -20334,7 +20293,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -20363,7 +20322,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -20389,7 +20348,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -20412,7 +20371,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -20438,7 +20397,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>0</v>
       </c>
@@ -20464,7 +20423,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="15.75">
+    <row r="537" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -20493,7 +20452,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>0</v>
       </c>
@@ -20516,7 +20475,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -20545,7 +20504,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -20571,7 +20530,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -20597,7 +20556,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -20623,7 +20582,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -20649,7 +20608,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -20675,7 +20634,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -20701,7 +20660,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -20727,7 +20686,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -20750,7 +20709,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>0</v>
       </c>
@@ -20779,7 +20738,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>0</v>
       </c>
@@ -20805,7 +20764,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>0</v>
       </c>
@@ -20831,7 +20790,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>0</v>
       </c>
@@ -20854,7 +20813,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>0</v>
       </c>
@@ -20883,7 +20842,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>0</v>
       </c>
@@ -20909,7 +20868,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="16.5" customHeight="1">
+    <row r="554" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>0</v>
       </c>
@@ -20935,7 +20894,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>0</v>
       </c>
@@ -20958,7 +20917,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -20984,7 +20943,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>0</v>
       </c>
@@ -21010,7 +20969,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>0</v>
       </c>
@@ -21037,9 +20996,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C551">
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="A1:C551"/>
   <sortState ref="A2:H552">
     <sortCondition ref="B2:B552"/>
   </sortState>
@@ -21049,7 +21006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21059,14 +21016,14 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21077,7 +21034,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21095,7 +21052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21105,16 +21062,16 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21134,7 +21091,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21145,7 +21102,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -21156,7 +21113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -21167,7 +21124,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -21178,7 +21135,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -21189,7 +21146,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -21200,7 +21157,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -21218,7 +21175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21228,15 +21185,15 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21250,7 +21207,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21264,7 +21221,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -21278,7 +21235,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -21292,7 +21249,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -21306,7 +21263,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -21326,7 +21283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21336,17 +21293,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -21366,11 +21323,9 @@
         <v>885</v>
       </c>
     </row>
-    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:C380">
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="A1:C380"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5204" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1188">
   <si>
     <t>DATA</t>
   </si>
@@ -4159,10 +4159,10 @@
   <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J104" sqref="J104"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4287,6 +4287,9 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
+      <c r="J3" t="s">
+        <v>983</v>
+      </c>
       <c r="K3" t="s">
         <v>98</v>
       </c>
@@ -7405,10 +7408,10 @@
   <dimension ref="A1:M558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M158" sqref="M158"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7636,6 +7639,9 @@
       <c r="E8" t="s">
         <v>147</v>
       </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>632</v>
       </c>
@@ -7699,6 +7705,9 @@
       <c r="D11" t="s">
         <v>147</v>
       </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>638</v>
       </c>
@@ -7805,6 +7814,9 @@
       <c r="H16" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="I16" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8038,6 +8050,9 @@
       <c r="E26" t="s">
         <v>147</v>
       </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
       <c r="G26" s="7" t="s">
         <v>484</v>
       </c>
@@ -8745,6 +8760,9 @@
       <c r="E54" t="s">
         <v>147</v>
       </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
       <c r="G54" s="7" t="s">
         <v>683</v>
       </c>
@@ -8765,6 +8783,9 @@
       <c r="D55" t="s">
         <v>147</v>
       </c>
+      <c r="F55" t="s">
+        <v>147</v>
+      </c>
       <c r="G55" s="7" t="s">
         <v>684</v>
       </c>
@@ -9171,6 +9192,9 @@
       <c r="E72" t="s">
         <v>147</v>
       </c>
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
       <c r="G72" s="7" t="s">
         <v>495</v>
       </c>
@@ -9370,6 +9394,9 @@
       <c r="D80" t="s">
         <v>147</v>
       </c>
+      <c r="F80" t="s">
+        <v>147</v>
+      </c>
       <c r="G80" s="7" t="s">
         <v>726</v>
       </c>
@@ -9390,6 +9417,9 @@
       <c r="D81" t="s">
         <v>147</v>
       </c>
+      <c r="F81" t="s">
+        <v>147</v>
+      </c>
       <c r="G81" s="7" t="s">
         <v>728</v>
       </c>
@@ -9645,6 +9675,9 @@
       <c r="D93" t="s">
         <v>147</v>
       </c>
+      <c r="F93" t="s">
+        <v>147</v>
+      </c>
       <c r="G93" s="7" t="s">
         <v>646</v>
       </c>
@@ -10208,6 +10241,9 @@
       <c r="E115" t="s">
         <v>147</v>
       </c>
+      <c r="F115" t="s">
+        <v>147</v>
+      </c>
       <c r="G115" s="7" t="s">
         <v>748</v>
       </c>
@@ -10309,6 +10345,9 @@
       <c r="E119" t="s">
         <v>147</v>
       </c>
+      <c r="F119" t="s">
+        <v>147</v>
+      </c>
       <c r="G119" s="7" t="s">
         <v>704</v>
       </c>
@@ -10375,6 +10414,9 @@
       <c r="D122" t="s">
         <v>147</v>
       </c>
+      <c r="F122" t="s">
+        <v>147</v>
+      </c>
       <c r="G122" s="7" t="s">
         <v>709</v>
       </c>
@@ -10395,6 +10437,9 @@
       <c r="D123" t="s">
         <v>147</v>
       </c>
+      <c r="F123" t="s">
+        <v>147</v>
+      </c>
       <c r="G123" s="7" t="s">
         <v>711</v>
       </c>
@@ -10438,6 +10483,9 @@
       <c r="D125" t="s">
         <v>147</v>
       </c>
+      <c r="F125" t="s">
+        <v>147</v>
+      </c>
       <c r="G125" s="7" t="s">
         <v>715</v>
       </c>
@@ -10539,6 +10587,9 @@
       <c r="E129" t="s">
         <v>147</v>
       </c>
+      <c r="F129" t="s">
+        <v>147</v>
+      </c>
       <c r="G129" s="7" t="s">
         <v>739</v>
       </c>
@@ -10773,6 +10824,9 @@
       <c r="E138" t="s">
         <v>147</v>
       </c>
+      <c r="F138" t="s">
+        <v>147</v>
+      </c>
       <c r="G138" s="7" t="s">
         <v>760</v>
       </c>
@@ -10874,6 +10928,9 @@
       <c r="E142" t="s">
         <v>147</v>
       </c>
+      <c r="F142" t="s">
+        <v>147</v>
+      </c>
       <c r="G142" s="7" t="s">
         <v>752</v>
       </c>
@@ -10927,7 +10984,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -10953,7 +11010,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -10979,7 +11036,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11062,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -11028,7 +11085,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -11054,7 +11111,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -11080,7 +11137,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -11106,7 +11163,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -11129,7 +11186,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -11155,7 +11212,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11181,7 +11238,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -11206,11 +11263,8 @@
       <c r="H155" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="M155" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -11230,7 +11284,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -11250,7 +11304,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -11270,7 +11324,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -11290,7 +11344,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -19488,7 +19542,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -19508,7 +19562,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>153</v>
       </c>
@@ -19528,7 +19582,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -19548,7 +19602,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="500" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>153</v>
       </c>
@@ -19568,7 +19622,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="501" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>153</v>
       </c>
@@ -19591,7 +19645,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>153</v>
       </c>
@@ -19611,7 +19665,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>153</v>
       </c>
@@ -19634,7 +19688,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>153</v>
       </c>
@@ -19660,7 +19714,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -19686,7 +19740,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>153</v>
       </c>
@@ -19708,11 +19762,8 @@
       <c r="H506" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M506" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -19741,7 +19792,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -19767,7 +19818,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>153</v>
       </c>
@@ -19790,7 +19841,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>153</v>
       </c>
@@ -19816,7 +19867,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>153</v>
       </c>
@@ -19842,7 +19893,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>0</v>
       </c>
@@ -19872,9 +19923,6 @@
       </c>
       <c r="L512" t="s">
         <v>1186</v>
-      </c>
-      <c r="M512" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.3">

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="1190">
   <si>
     <t>DATA</t>
   </si>
@@ -2896,24 +2896,12 @@
     <t>RelationShipsSelectors</t>
   </si>
   <si>
-    <t>requiredExamClasses,inclusiveExamClasses,restrictedClasses,examClassArgeMaps,examClassMaps</t>
-  </si>
-  <si>
     <t>RelationShipsDe</t>
   </si>
   <si>
     <t>RelationShipsEn</t>
   </si>
   <si>
-    <t>Voraussetzungsklassen,Inklusivklassen, Ausschlussklassen, ARGE-Klassenbezeichnungen, Alt-Klassen</t>
-  </si>
-  <si>
-    <t>Required classes,Inclusiv classes,Restricted classes,Arge class map,Old class to actual map</t>
-  </si>
-  <si>
-    <t>DriverLicenceMasterData/ExamClassRequiredClasses,DriverLicenceMasterData/ExamClassInclusiveClasses,DriverLicenceMasterData/ExamClassRestrictedClasses,DriverLicenceMasterData/ExamClassArgeMaps,DriverLicenceMasterData/ExamClassMaps</t>
-  </si>
-  <si>
     <t>DRL_EXAM_CLASS_ID_REQUIRED</t>
   </si>
   <si>
@@ -3716,13 +3704,31 @@
   </si>
   <si>
     <t>IsBusinessKey</t>
+  </si>
+  <si>
+    <t>DriverLicenceMasterData/ExamClassRequiredClasses,DriverLicenceMasterData/ExamClassInclusiveClasses,DriverLicenceMasterData/ExamClassRestrictedClasses,DriverLicenceMasterData/ExamClassArgeMaps,DriverLicenceMasterData/ExamClassMaps,DriverLicenceMasterData/ExamClassCoreDataProducts</t>
+  </si>
+  <si>
+    <t>requiredExamClasses,inclusiveExamClasses,restrictedClasses,examClassArgeMaps,examClassMaps,examClassCoreDataProducts</t>
+  </si>
+  <si>
+    <t>Voraussetzungsklassen,Inklusivklassen, Ausschlussklassen, ARGE-Klassenbezeichnungen, Alt-Klassen,Produkte</t>
+  </si>
+  <si>
+    <t>Required classes,Inclusiv classes,Restricted classes,Arge class map,Old class to actual map,Products</t>
+  </si>
+  <si>
+    <t>ExamClass,LegalBasis,CoreDataProduct</t>
+  </si>
+  <si>
+    <t>ProductName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3857,7 +3863,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3870,9 +3876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3910,7 +3916,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3944,7 +3950,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3979,10 +3984,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4155,41 +4159,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Q95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="T103" sqref="T103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="66.5546875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="66.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="7" customWidth="1"/>
     <col min="18" max="18" width="19" style="7" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -4212,7 +4216,7 @@
         <v>95</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>96</v>
@@ -4239,22 +4243,22 @@
         <v>913</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>916</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4274,10 +4278,10 @@
         <v>147</v>
       </c>
       <c r="S2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4288,7 +4292,7 @@
         <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="K3" t="s">
         <v>98</v>
@@ -4303,7 +4307,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4318,7 @@
         <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="K4" t="s">
         <v>100</v>
@@ -4326,19 +4330,19 @@
         <v>147</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P4" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="105">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>151</v>
       </c>
       <c r="J5" t="s">
-        <v>991</v>
+        <v>1188</v>
       </c>
       <c r="K5" t="s">
         <v>102</v>
@@ -4361,16 +4365,16 @@
         <v>147</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>919</v>
+        <v>1184</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>914</v>
+        <v>1185</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>917</v>
+        <v>1186</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>918</v>
+        <v>1187</v>
       </c>
       <c r="S5" t="s">
         <v>789</v>
@@ -4379,7 +4383,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4393,13 +4397,13 @@
         <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="I6" t="s">
         <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K6" t="s">
         <v>104</v>
@@ -4410,10 +4414,10 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4427,13 +4431,13 @@
         <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="I7" t="s">
         <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K7" t="s">
         <v>106</v>
@@ -4444,7 +4448,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4458,13 +4462,13 @@
         <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="I8" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K8" t="s">
         <v>108</v>
@@ -4475,7 +4479,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4489,13 +4493,13 @@
         <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="I9" t="s">
         <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K9" t="s">
         <v>110</v>
@@ -4506,7 +4510,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4520,13 +4524,13 @@
         <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K10" t="s">
         <v>112</v>
@@ -4537,7 +4541,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4548,7 +4552,7 @@
         <v>151</v>
       </c>
       <c r="J11" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K11" t="s">
         <v>114</v>
@@ -4560,22 +4564,22 @@
         <v>147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="P11" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="S11" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4589,13 +4593,13 @@
         <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="I12" t="s">
         <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K12" t="s">
         <v>116</v>
@@ -4604,7 +4608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="L13" t="s">
         <v>118</v>
@@ -4627,7 +4631,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K14" t="s">
         <v>119</v>
@@ -4650,16 +4654,16 @@
         <v>147</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="P14" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="S14" t="s">
         <v>789</v>
@@ -4668,7 +4672,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4682,13 +4686,13 @@
         <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="I15" t="s">
         <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="K15" t="s">
         <v>121</v>
@@ -4697,7 +4701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4708,7 +4712,7 @@
         <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="K16" t="s">
         <v>123</v>
@@ -4720,10 +4724,10 @@
         <v>147</v>
       </c>
       <c r="S16" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4738,7 @@
         <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="K17" t="s">
         <v>125</v>
@@ -4746,22 +4750,22 @@
         <v>147</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="P17" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="S17" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4775,13 +4779,13 @@
         <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="I18" t="s">
         <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="K18" t="s">
         <v>127</v>
@@ -4790,7 +4794,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4805,7 @@
         <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="K19" t="s">
         <v>129</v>
@@ -4813,22 +4817,22 @@
         <v>147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="P19" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="S19" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4842,13 +4846,13 @@
         <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="I20" t="s">
         <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="K20" t="s">
         <v>131</v>
@@ -4857,7 +4861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>151</v>
       </c>
       <c r="J21" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="K21" t="s">
         <v>133</v>
@@ -4880,10 +4884,10 @@
         <v>147</v>
       </c>
       <c r="S21" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>151</v>
       </c>
       <c r="J22" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="K22" t="s">
         <v>135</v>
@@ -4912,7 +4916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>151</v>
       </c>
       <c r="J23" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="K23" t="s">
         <v>137</v>
@@ -4935,22 +4939,22 @@
         <v>147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="P23" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="Q23" t="s">
         <v>213</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="S23" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -4964,13 +4968,13 @@
         <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="I24" t="s">
         <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="K24" t="s">
         <v>139</v>
@@ -4979,7 +4983,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>151</v>
       </c>
       <c r="J25" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="K25" t="s">
         <v>141</v>
@@ -5002,10 +5006,10 @@
         <v>147</v>
       </c>
       <c r="S25" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5031,7 +5035,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -5129,13 +5133,13 @@
         <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I30" t="s">
         <v>209</v>
       </c>
       <c r="J30" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="K30" t="s">
         <v>189</v>
@@ -5147,7 +5151,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -5167,13 +5171,13 @@
         <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I31" t="s">
         <v>209</v>
       </c>
       <c r="J31" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="K31" t="s">
         <v>213</v>
@@ -5185,7 +5189,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -5205,13 +5209,13 @@
         <v>147</v>
       </c>
       <c r="H32" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I32" t="s">
         <v>209</v>
       </c>
       <c r="J32" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="K32" t="s">
         <v>222</v>
@@ -5223,7 +5227,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5243,13 +5247,13 @@
         <v>147</v>
       </c>
       <c r="H33" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I33" t="s">
         <v>209</v>
       </c>
       <c r="J33" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="K33" t="s">
         <v>219</v>
@@ -5261,7 +5265,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>147</v>
       </c>
       <c r="H34" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I34" t="s">
         <v>209</v>
@@ -5296,7 +5300,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -5322,7 +5326,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -5365,13 +5369,13 @@
         <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="I37" t="s">
         <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="K37" t="s">
         <v>352</v>
@@ -5383,7 +5387,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -5406,7 +5410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -5423,13 +5427,13 @@
         <v>147</v>
       </c>
       <c r="H39" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I39" t="s">
         <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="K39" t="s">
         <v>350</v>
@@ -5441,7 +5445,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -5490,7 +5494,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -5513,7 +5517,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -5588,7 +5592,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>153</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>147</v>
       </c>
       <c r="H47" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I47" t="s">
         <v>338</v>
@@ -5646,7 +5650,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -5692,7 +5696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -5767,7 +5771,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -5943,7 +5947,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -6044,7 +6048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>767</v>
       </c>
       <c r="C66" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F66" t="s">
         <v>147</v>
@@ -6122,7 +6126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>768</v>
       </c>
       <c r="C67" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F67" t="s">
         <v>147</v>
@@ -6148,7 +6152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>766</v>
       </c>
       <c r="C68" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F68" t="s">
         <v>147</v>
@@ -6174,7 +6178,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -6252,7 +6256,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>262</v>
       </c>
       <c r="J74" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="K74" t="s">
         <v>280</v>
@@ -6333,13 +6337,13 @@
         <v>147</v>
       </c>
       <c r="S74" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="T74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -6359,7 +6363,7 @@
         <v>147</v>
       </c>
       <c r="H75" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I75" t="s">
         <v>279</v>
@@ -6377,7 +6381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -6403,7 +6407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -6458,7 +6462,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -6478,7 +6482,7 @@
         <v>147</v>
       </c>
       <c r="H79" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="I79" t="s">
         <v>252</v>
@@ -6496,7 +6500,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -6522,7 +6526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -6548,7 +6552,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -6574,13 +6578,13 @@
         <v>147</v>
       </c>
       <c r="S82" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="T82" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -6635,7 +6639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6655,7 +6659,7 @@
         <v>147</v>
       </c>
       <c r="H85" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="I85" t="s">
         <v>187</v>
@@ -6673,7 +6677,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -6693,7 +6697,7 @@
         <v>147</v>
       </c>
       <c r="H86" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="I86" t="s">
         <v>187</v>
@@ -6711,7 +6715,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -6766,7 +6770,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>779</v>
       </c>
       <c r="C91" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F91" t="s">
         <v>147</v>
@@ -6847,7 +6851,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -6879,7 +6883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -6928,7 +6932,7 @@
         <v>262</v>
       </c>
       <c r="J94" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="K94" t="s">
         <v>263</v>
@@ -6940,13 +6944,13 @@
         <v>147</v>
       </c>
       <c r="S94" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="T94" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -6972,7 +6976,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -7018,7 +7022,7 @@
         <v>147</v>
       </c>
       <c r="H97" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="I97" t="s">
         <v>265</v>
@@ -7036,7 +7040,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -7044,7 +7048,7 @@
         <v>778</v>
       </c>
       <c r="C98" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F98" t="s">
         <v>147</v>
@@ -7059,12 +7063,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C99" t="s">
         <v>152</v>
@@ -7076,13 +7080,13 @@
         <v>784</v>
       </c>
       <c r="J99" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="K99" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="L99" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="N99" t="s">
         <v>147</v>
@@ -7094,12 +7098,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
         <v>153</v>
       </c>
       <c r="B100" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C100" t="s">
         <v>152</v>
@@ -7111,10 +7115,10 @@
         <v>225</v>
       </c>
       <c r="J100" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="K100" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L100" t="s">
         <v>225</v>
@@ -7123,27 +7127,27 @@
         <v>147</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="P100" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="U100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>153</v>
       </c>
       <c r="B101" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C101" t="s">
         <v>152</v>
@@ -7158,65 +7162,71 @@
         <v>147</v>
       </c>
       <c r="H101" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="I101" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J101" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="K101" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="L101" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="30">
       <c r="A102" t="s">
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C102" t="s">
         <v>151</v>
       </c>
       <c r="J102" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="K102" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="L102" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="N102" t="s">
         <v>147</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="P102" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="R102" s="7" t="s">
-        <v>1099</v>
+        <v>1095</v>
+      </c>
+      <c r="S102" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T102" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="U102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C103" t="s">
         <v>151</v>
@@ -7225,27 +7235,27 @@
         <v>147</v>
       </c>
       <c r="H103" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="I103" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="J103" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="K103" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="L103" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="15.75">
       <c r="A104" t="s">
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C104" t="s">
         <v>151</v>
@@ -7254,62 +7264,62 @@
         <v>147</v>
       </c>
       <c r="H104" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="I104" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="J104" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L104" t="s">
         <v>1085</v>
       </c>
-      <c r="K104" s="12" t="s">
-        <v>1088</v>
-      </c>
-      <c r="L104" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:21" ht="30">
       <c r="A105" t="s">
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C105" t="s">
         <v>151</v>
       </c>
       <c r="J105" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="K105" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="L105" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="N105" t="s">
         <v>147</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="P105" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="R105" s="7" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C106" t="s">
         <v>151</v>
@@ -7318,27 +7328,27 @@
         <v>147</v>
       </c>
       <c r="H106" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="I106" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="J106" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="K106" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="L106" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C107" t="s">
         <v>151</v>
@@ -7347,27 +7357,27 @@
         <v>147</v>
       </c>
       <c r="H107" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="I107" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="J107" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="K107" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="L107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C108" t="s">
         <v>151</v>
@@ -7376,16 +7386,16 @@
         <v>147</v>
       </c>
       <c r="H108" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="I108" t="s">
         <v>42</v>
       </c>
       <c r="K108" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="L108" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -7404,32 +7414,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -7455,22 +7465,22 @@
         <v>362</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>1185</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7496,7 +7506,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7522,7 +7532,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7545,7 +7555,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7571,7 +7581,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7597,7 +7607,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7623,7 +7633,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -7649,7 +7659,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7672,7 +7682,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7692,7 +7702,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7715,7 +7725,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7735,7 +7745,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7755,7 +7765,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7775,7 +7785,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7795,7 +7805,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7815,10 +7825,10 @@
         <v>288</v>
       </c>
       <c r="I16" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -7838,7 +7848,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -7858,7 +7868,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7878,7 +7888,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -7904,7 +7914,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -7930,7 +7940,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -7956,7 +7966,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -7982,7 +7992,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8008,7 +8018,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8034,7 +8044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8060,7 +8070,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8080,7 +8090,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -8100,7 +8110,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8123,7 +8133,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -8149,7 +8159,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -8175,7 +8185,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -8198,7 +8208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -8224,10 +8234,10 @@
         <v>669</v>
       </c>
       <c r="I33" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -8253,7 +8263,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -8279,7 +8289,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -8302,7 +8312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -8328,10 +8338,10 @@
         <v>661</v>
       </c>
       <c r="I37" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -8354,7 +8364,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8390,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8416,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -8432,10 +8442,10 @@
         <v>671</v>
       </c>
       <c r="I41" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -8458,7 +8468,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -8484,7 +8494,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -8510,7 +8520,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -8533,7 +8543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -8541,7 +8551,7 @@
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D46" t="s">
         <v>147</v>
@@ -8559,10 +8569,10 @@
         <v>665</v>
       </c>
       <c r="I46" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -8588,7 +8598,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -8614,7 +8624,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -8637,7 +8647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -8663,10 +8673,10 @@
         <v>667</v>
       </c>
       <c r="I50" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -8692,7 +8702,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -8718,7 +8728,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -8744,7 +8754,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -8770,7 +8780,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8793,7 +8803,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8829,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -8845,7 +8855,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -8868,7 +8878,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -8894,10 +8904,10 @@
         <v>103</v>
       </c>
       <c r="I59" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -8923,7 +8933,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -8949,7 +8959,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -8975,7 +8985,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -8998,7 +9008,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -9018,7 +9028,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="45">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9038,7 +9048,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -9058,7 +9068,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -9078,7 +9088,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -9098,7 +9108,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -9124,7 +9134,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -9150,7 +9160,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -9176,7 +9186,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -9202,7 +9212,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -9228,7 +9238,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -9254,7 +9264,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -9277,7 +9287,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -9303,10 +9313,10 @@
         <v>103</v>
       </c>
       <c r="I76" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -9332,7 +9342,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -9358,7 +9368,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -9381,7 +9391,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -9404,7 +9414,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -9427,10 +9437,10 @@
         <v>729</v>
       </c>
       <c r="I81" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -9453,7 +9463,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -9473,7 +9483,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -9493,7 +9503,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -9516,7 +9526,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -9539,7 +9549,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -9559,7 +9569,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -9579,7 +9589,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -9602,7 +9612,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -9622,7 +9632,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -9642,7 +9652,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -9662,7 +9672,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -9685,10 +9695,10 @@
         <v>288</v>
       </c>
       <c r="I93" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -9714,7 +9724,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -9740,7 +9750,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -9766,7 +9776,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -9789,7 +9799,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -9812,10 +9822,10 @@
         <v>720</v>
       </c>
       <c r="I98" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -9838,7 +9848,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -9890,7 +9900,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -9913,7 +9923,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -9939,10 +9949,10 @@
         <v>675</v>
       </c>
       <c r="I103" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -9968,7 +9978,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -9994,7 +10004,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -10020,7 +10030,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -10043,7 +10053,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -10069,7 +10079,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -10095,7 +10105,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -10118,7 +10128,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -10141,10 +10151,10 @@
         <v>720</v>
       </c>
       <c r="I111" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -10170,7 +10180,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -10196,7 +10206,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -10222,10 +10232,10 @@
         <v>291</v>
       </c>
       <c r="I114" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -10251,7 +10261,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -10277,7 +10287,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -10303,7 +10313,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -10329,7 +10339,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -10355,7 +10365,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -10375,7 +10385,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -10398,10 +10408,10 @@
         <v>708</v>
       </c>
       <c r="I121" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -10424,7 +10434,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -10447,7 +10457,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="60">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -10467,10 +10477,10 @@
         <v>714</v>
       </c>
       <c r="I124" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -10493,7 +10503,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -10519,7 +10529,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -10545,7 +10555,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -10571,7 +10581,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -10597,7 +10607,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -10623,7 +10633,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -10649,7 +10659,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -10672,7 +10682,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -10698,10 +10708,10 @@
         <v>729</v>
       </c>
       <c r="I133" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -10727,7 +10737,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -10753,7 +10763,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -10779,7 +10789,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -10805,10 +10815,10 @@
         <v>759</v>
       </c>
       <c r="I137" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -10834,7 +10844,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -10860,7 +10870,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -10886,7 +10896,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -10912,7 +10922,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -10938,7 +10948,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -10961,7 +10971,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -10984,7 +10994,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -11010,7 +11020,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -11036,7 +11046,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="30">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -11062,7 +11072,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="30">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -11085,7 +11095,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -11111,7 +11121,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -11137,7 +11147,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="30">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -11163,7 +11173,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -11186,7 +11196,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -11212,7 +11222,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11238,7 +11248,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -11264,7 +11274,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -11284,7 +11294,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -11304,7 +11314,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="30">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -11324,7 +11334,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -11344,7 +11354,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -11364,7 +11374,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -11384,7 +11394,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -11407,7 +11417,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>153</v>
       </c>
@@ -11430,7 +11440,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>153</v>
       </c>
@@ -11453,7 +11463,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -11473,7 +11483,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>153</v>
       </c>
@@ -11493,7 +11503,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -11513,7 +11523,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -11533,7 +11543,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>153</v>
       </c>
@@ -11559,7 +11569,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>153</v>
       </c>
@@ -11585,7 +11595,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -11608,7 +11618,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>153</v>
       </c>
@@ -11634,7 +11644,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>153</v>
       </c>
@@ -11660,7 +11670,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>153</v>
       </c>
@@ -11686,7 +11696,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>153</v>
       </c>
@@ -11712,7 +11722,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>153</v>
       </c>
@@ -11738,7 +11748,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>153</v>
       </c>
@@ -11764,7 +11774,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -11790,7 +11800,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>153</v>
       </c>
@@ -11813,7 +11823,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>153</v>
       </c>
@@ -11839,7 +11849,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -11865,7 +11875,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>153</v>
       </c>
@@ -11891,7 +11901,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>153</v>
       </c>
@@ -11914,7 +11924,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>153</v>
       </c>
@@ -11940,7 +11950,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>153</v>
       </c>
@@ -11966,7 +11976,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>153</v>
       </c>
@@ -11992,7 +12002,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>153</v>
       </c>
@@ -12015,7 +12025,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>153</v>
       </c>
@@ -12038,7 +12048,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>153</v>
       </c>
@@ -12061,7 +12071,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>153</v>
       </c>
@@ -12087,7 +12097,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>153</v>
       </c>
@@ -12113,7 +12123,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>153</v>
       </c>
@@ -12139,7 +12149,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>153</v>
       </c>
@@ -12162,7 +12172,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>153</v>
       </c>
@@ -12188,7 +12198,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -12214,7 +12224,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>153</v>
       </c>
@@ -12240,7 +12250,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -12266,7 +12276,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>153</v>
       </c>
@@ -12292,7 +12302,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>153</v>
       </c>
@@ -12318,7 +12328,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>153</v>
       </c>
@@ -12344,7 +12354,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>153</v>
       </c>
@@ -12370,7 +12380,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>153</v>
       </c>
@@ -12396,7 +12406,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>153</v>
       </c>
@@ -12422,7 +12432,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>153</v>
       </c>
@@ -12445,7 +12455,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="30">
       <c r="A205" t="s">
         <v>153</v>
       </c>
@@ -12471,7 +12481,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="30">
       <c r="A206" t="s">
         <v>153</v>
       </c>
@@ -12494,7 +12504,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="30">
       <c r="A207" t="s">
         <v>153</v>
       </c>
@@ -12517,7 +12527,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="30">
       <c r="A208" t="s">
         <v>153</v>
       </c>
@@ -12540,7 +12550,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>153</v>
       </c>
@@ -12566,7 +12576,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>153</v>
       </c>
@@ -12592,7 +12602,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>153</v>
       </c>
@@ -12618,7 +12628,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="30">
       <c r="A212" t="s">
         <v>153</v>
       </c>
@@ -12641,7 +12651,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>153</v>
       </c>
@@ -12667,7 +12677,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>153</v>
       </c>
@@ -12693,7 +12703,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -12719,7 +12729,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="30">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -12742,7 +12752,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>153</v>
       </c>
@@ -12768,7 +12778,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>153</v>
       </c>
@@ -12794,7 +12804,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>153</v>
       </c>
@@ -12820,7 +12830,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>153</v>
       </c>
@@ -12846,7 +12856,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>153</v>
       </c>
@@ -12872,7 +12882,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>153</v>
       </c>
@@ -12898,7 +12908,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>153</v>
       </c>
@@ -12924,7 +12934,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="30">
       <c r="A224" t="s">
         <v>153</v>
       </c>
@@ -12944,7 +12954,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="30">
       <c r="A225" t="s">
         <v>153</v>
       </c>
@@ -12964,7 +12974,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>153</v>
       </c>
@@ -12984,7 +12994,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>153</v>
       </c>
@@ -13010,7 +13020,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>153</v>
       </c>
@@ -13036,7 +13046,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>153</v>
       </c>
@@ -13062,7 +13072,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>153</v>
       </c>
@@ -13085,7 +13095,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="30">
       <c r="A231" t="s">
         <v>153</v>
       </c>
@@ -13108,7 +13118,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>153</v>
       </c>
@@ -13134,7 +13144,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>153</v>
       </c>
@@ -13160,7 +13170,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>153</v>
       </c>
@@ -13186,7 +13196,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>153</v>
       </c>
@@ -13209,7 +13219,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="30">
       <c r="A236" t="s">
         <v>153</v>
       </c>
@@ -13229,7 +13239,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="30">
       <c r="A237" t="s">
         <v>153</v>
       </c>
@@ -13249,7 +13259,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>153</v>
       </c>
@@ -13275,7 +13285,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>153</v>
       </c>
@@ -13301,7 +13311,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>153</v>
       </c>
@@ -13327,7 +13337,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>153</v>
       </c>
@@ -13353,7 +13363,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>153</v>
       </c>
@@ -13379,7 +13389,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>153</v>
       </c>
@@ -13405,7 +13415,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>153</v>
       </c>
@@ -13431,7 +13441,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>153</v>
       </c>
@@ -13454,7 +13464,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>153</v>
       </c>
@@ -13480,7 +13490,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>153</v>
       </c>
@@ -13506,7 +13516,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>153</v>
       </c>
@@ -13532,7 +13542,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>153</v>
       </c>
@@ -13552,7 +13562,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>153</v>
       </c>
@@ -13578,7 +13588,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>153</v>
       </c>
@@ -13604,7 +13614,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="30">
       <c r="A252" t="s">
         <v>153</v>
       </c>
@@ -13630,7 +13640,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="30">
       <c r="A253" t="s">
         <v>153</v>
       </c>
@@ -13650,7 +13660,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="30">
       <c r="A254" t="s">
         <v>153</v>
       </c>
@@ -13670,7 +13680,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>153</v>
       </c>
@@ -13696,7 +13706,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>153</v>
       </c>
@@ -13722,7 +13732,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="30">
       <c r="A257" t="s">
         <v>153</v>
       </c>
@@ -13748,7 +13758,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="30">
       <c r="A258" t="s">
         <v>153</v>
       </c>
@@ -13771,7 +13781,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>153</v>
       </c>
@@ -13797,7 +13807,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>153</v>
       </c>
@@ -13823,7 +13833,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>153</v>
       </c>
@@ -13849,7 +13859,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>153</v>
       </c>
@@ -13875,7 +13885,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>153</v>
       </c>
@@ -13901,7 +13911,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>153</v>
       </c>
@@ -13927,7 +13937,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>153</v>
       </c>
@@ -13950,7 +13960,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>153</v>
       </c>
@@ -13976,7 +13986,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>153</v>
       </c>
@@ -14002,7 +14012,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>153</v>
       </c>
@@ -14028,7 +14038,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>153</v>
       </c>
@@ -14051,7 +14061,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>153</v>
       </c>
@@ -14074,7 +14084,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>153</v>
       </c>
@@ -14100,7 +14110,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>153</v>
       </c>
@@ -14126,7 +14136,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>153</v>
       </c>
@@ -14152,7 +14162,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -14175,7 +14185,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>153</v>
       </c>
@@ -14195,7 +14205,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>153</v>
       </c>
@@ -14221,7 +14231,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>153</v>
       </c>
@@ -14247,7 +14257,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>153</v>
       </c>
@@ -14273,7 +14283,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>153</v>
       </c>
@@ -14299,7 +14309,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>153</v>
       </c>
@@ -14325,7 +14335,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>153</v>
       </c>
@@ -14351,7 +14361,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>153</v>
       </c>
@@ -14374,7 +14384,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>153</v>
       </c>
@@ -14388,7 +14398,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>153</v>
       </c>
@@ -14402,7 +14412,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>153</v>
       </c>
@@ -14428,7 +14438,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>153</v>
       </c>
@@ -14454,7 +14464,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>153</v>
       </c>
@@ -14480,7 +14490,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>153</v>
       </c>
@@ -14506,7 +14516,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>153</v>
       </c>
@@ -14532,7 +14542,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>153</v>
       </c>
@@ -14558,7 +14568,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>153</v>
       </c>
@@ -14584,7 +14594,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>153</v>
       </c>
@@ -14610,7 +14620,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>153</v>
       </c>
@@ -14636,7 +14646,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>153</v>
       </c>
@@ -14662,7 +14672,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>153</v>
       </c>
@@ -14688,7 +14698,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>153</v>
       </c>
@@ -14714,7 +14724,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>153</v>
       </c>
@@ -14740,7 +14750,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>153</v>
       </c>
@@ -14766,7 +14776,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>153</v>
       </c>
@@ -14792,7 +14802,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>153</v>
       </c>
@@ -14818,7 +14828,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>153</v>
       </c>
@@ -14844,7 +14854,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>153</v>
       </c>
@@ -14870,7 +14880,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>153</v>
       </c>
@@ -14893,7 +14903,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>153</v>
       </c>
@@ -14916,7 +14926,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>153</v>
       </c>
@@ -14942,7 +14952,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>153</v>
       </c>
@@ -14968,7 +14978,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>153</v>
       </c>
@@ -14994,7 +15004,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>153</v>
       </c>
@@ -15020,7 +15030,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>153</v>
       </c>
@@ -15046,7 +15056,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="30">
       <c r="A310" t="s">
         <v>153</v>
       </c>
@@ -15066,7 +15076,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>153</v>
       </c>
@@ -15092,7 +15102,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>153</v>
       </c>
@@ -15118,7 +15128,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="30">
       <c r="A313" t="s">
         <v>153</v>
       </c>
@@ -15144,7 +15154,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>153</v>
       </c>
@@ -15167,7 +15177,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="75">
       <c r="A315" t="s">
         <v>153</v>
       </c>
@@ -15187,7 +15197,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>153</v>
       </c>
@@ -15213,7 +15223,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>153</v>
       </c>
@@ -15239,7 +15249,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>153</v>
       </c>
@@ -15265,7 +15275,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="30">
       <c r="A319" t="s">
         <v>153</v>
       </c>
@@ -15288,7 +15298,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>153</v>
       </c>
@@ -15311,7 +15321,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>153</v>
       </c>
@@ -15337,7 +15347,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>153</v>
       </c>
@@ -15363,7 +15373,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>153</v>
       </c>
@@ -15389,7 +15399,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>153</v>
       </c>
@@ -15412,7 +15422,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>153</v>
       </c>
@@ -15435,7 +15445,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>153</v>
       </c>
@@ -15458,7 +15468,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>153</v>
       </c>
@@ -15475,7 +15485,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>153</v>
       </c>
@@ -15501,7 +15511,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>153</v>
       </c>
@@ -15527,7 +15537,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>153</v>
       </c>
@@ -15553,7 +15563,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>153</v>
       </c>
@@ -15576,7 +15586,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>153</v>
       </c>
@@ -15602,7 +15612,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>153</v>
       </c>
@@ -15628,7 +15638,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>153</v>
       </c>
@@ -15654,7 +15664,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>153</v>
       </c>
@@ -15677,7 +15687,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>153</v>
       </c>
@@ -15703,7 +15713,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -15729,7 +15739,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
         <v>153</v>
       </c>
@@ -15755,7 +15765,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -15778,7 +15788,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -15801,7 +15811,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9">
       <c r="A341" t="s">
         <v>153</v>
       </c>
@@ -15827,7 +15837,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
         <v>153</v>
       </c>
@@ -15853,7 +15863,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
         <v>153</v>
       </c>
@@ -15879,7 +15889,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9">
       <c r="A344" t="s">
         <v>153</v>
       </c>
@@ -15902,7 +15912,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
         <v>153</v>
       </c>
@@ -15928,7 +15938,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
         <v>153</v>
       </c>
@@ -15954,7 +15964,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -15980,7 +15990,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
         <v>153</v>
       </c>
@@ -16003,7 +16013,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
         <v>153</v>
       </c>
@@ -16023,7 +16033,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9">
       <c r="A350" t="s">
         <v>153</v>
       </c>
@@ -16043,10 +16053,10 @@
         <v>288</v>
       </c>
       <c r="I350" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
       <c r="A351" t="s">
         <v>153</v>
       </c>
@@ -16072,7 +16082,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
         <v>153</v>
       </c>
@@ -16098,7 +16108,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>153</v>
       </c>
@@ -16121,7 +16131,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>153</v>
       </c>
@@ -16147,7 +16157,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>153</v>
       </c>
@@ -16173,7 +16183,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8">
       <c r="A356" t="s">
         <v>153</v>
       </c>
@@ -16199,7 +16209,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="30">
       <c r="A357" t="s">
         <v>153</v>
       </c>
@@ -16225,7 +16235,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8">
       <c r="A358" t="s">
         <v>153</v>
       </c>
@@ -16251,7 +16261,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8">
       <c r="A359" t="s">
         <v>153</v>
       </c>
@@ -16277,7 +16287,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8">
       <c r="A360" t="s">
         <v>153</v>
       </c>
@@ -16303,7 +16313,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8">
       <c r="A361" t="s">
         <v>153</v>
       </c>
@@ -16329,7 +16339,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8">
       <c r="A362" t="s">
         <v>153</v>
       </c>
@@ -16355,7 +16365,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8">
       <c r="A363" t="s">
         <v>153</v>
       </c>
@@ -16381,7 +16391,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8">
       <c r="A364" t="s">
         <v>153</v>
       </c>
@@ -16407,7 +16417,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8">
       <c r="A365" t="s">
         <v>153</v>
       </c>
@@ -16433,7 +16443,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8">
       <c r="A366" t="s">
         <v>153</v>
       </c>
@@ -16459,7 +16469,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8">
       <c r="A367" t="s">
         <v>153</v>
       </c>
@@ -16485,7 +16495,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8">
       <c r="A368" t="s">
         <v>153</v>
       </c>
@@ -16508,7 +16518,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8">
       <c r="A369" t="s">
         <v>153</v>
       </c>
@@ -16534,7 +16544,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="30">
       <c r="A370" t="s">
         <v>153</v>
       </c>
@@ -16557,7 +16567,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>153</v>
       </c>
@@ -16583,7 +16593,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>153</v>
       </c>
@@ -16609,7 +16619,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>153</v>
       </c>
@@ -16632,7 +16642,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8">
       <c r="A374" t="s">
         <v>153</v>
       </c>
@@ -16658,7 +16668,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>153</v>
       </c>
@@ -16684,7 +16694,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" ht="30">
       <c r="A376" t="s">
         <v>153</v>
       </c>
@@ -16710,7 +16720,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>153</v>
       </c>
@@ -16733,7 +16743,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>153</v>
       </c>
@@ -16759,7 +16769,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>153</v>
       </c>
@@ -16785,7 +16795,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>153</v>
       </c>
@@ -16811,7 +16821,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" ht="30">
       <c r="A381" t="s">
         <v>153</v>
       </c>
@@ -16837,7 +16847,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>153</v>
       </c>
@@ -16863,7 +16873,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>153</v>
       </c>
@@ -16889,7 +16899,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>153</v>
       </c>
@@ -16915,7 +16925,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8">
       <c r="A385" t="s">
         <v>153</v>
       </c>
@@ -16941,7 +16951,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
         <v>153</v>
       </c>
@@ -16967,7 +16977,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8">
       <c r="A387" t="s">
         <v>153</v>
       </c>
@@ -16981,7 +16991,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>153</v>
       </c>
@@ -16995,7 +17005,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
         <v>153</v>
       </c>
@@ -17021,7 +17031,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>153</v>
       </c>
@@ -17047,7 +17057,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>153</v>
       </c>
@@ -17073,7 +17083,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
         <v>153</v>
       </c>
@@ -17096,7 +17106,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
         <v>153</v>
       </c>
@@ -17122,7 +17132,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>153</v>
       </c>
@@ -17148,7 +17158,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
         <v>153</v>
       </c>
@@ -17174,7 +17184,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" ht="30">
       <c r="A396" t="s">
         <v>153</v>
       </c>
@@ -17200,7 +17210,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" ht="60">
       <c r="A397" t="s">
         <v>153</v>
       </c>
@@ -17226,7 +17236,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8">
       <c r="A398" t="s">
         <v>153</v>
       </c>
@@ -17249,7 +17259,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8">
       <c r="A399" t="s">
         <v>153</v>
       </c>
@@ -17272,7 +17282,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8">
       <c r="A400" t="s">
         <v>153</v>
       </c>
@@ -17295,7 +17305,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8">
       <c r="A401" t="s">
         <v>153</v>
       </c>
@@ -17318,7 +17328,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" ht="45">
       <c r="A402" t="s">
         <v>153</v>
       </c>
@@ -17341,7 +17351,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8">
       <c r="A403" t="s">
         <v>153</v>
       </c>
@@ -17364,7 +17374,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" ht="60">
       <c r="A404" t="s">
         <v>153</v>
       </c>
@@ -17387,7 +17397,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8">
       <c r="A405" t="s">
         <v>153</v>
       </c>
@@ -17413,7 +17423,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8">
       <c r="A406" t="s">
         <v>153</v>
       </c>
@@ -17439,7 +17449,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8">
       <c r="A407" t="s">
         <v>153</v>
       </c>
@@ -17462,7 +17472,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8">
       <c r="A408" t="s">
         <v>153</v>
       </c>
@@ -17488,7 +17498,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8">
       <c r="A409" t="s">
         <v>153</v>
       </c>
@@ -17514,7 +17524,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8">
       <c r="A410" t="s">
         <v>153</v>
       </c>
@@ -17540,7 +17550,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="105">
       <c r="A411" t="s">
         <v>153</v>
       </c>
@@ -17566,7 +17576,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8">
       <c r="A412" t="s">
         <v>153</v>
       </c>
@@ -17589,7 +17599,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8">
       <c r="A413" t="s">
         <v>153</v>
       </c>
@@ -17615,7 +17625,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8">
       <c r="A414" t="s">
         <v>153</v>
       </c>
@@ -17641,7 +17651,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8">
       <c r="A415" t="s">
         <v>153</v>
       </c>
@@ -17661,7 +17671,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8">
       <c r="A416" t="s">
         <v>153</v>
       </c>
@@ -17687,7 +17697,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8">
       <c r="A417" t="s">
         <v>153</v>
       </c>
@@ -17707,7 +17717,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8">
       <c r="A418" t="s">
         <v>153</v>
       </c>
@@ -17727,7 +17737,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8">
       <c r="A419" t="s">
         <v>153</v>
       </c>
@@ -17747,7 +17757,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8">
       <c r="A420" t="s">
         <v>153</v>
       </c>
@@ -17767,7 +17777,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8">
       <c r="A421" t="s">
         <v>153</v>
       </c>
@@ -17790,7 +17800,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8">
       <c r="A422" t="s">
         <v>153</v>
       </c>
@@ -17813,7 +17823,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8">
       <c r="A423" t="s">
         <v>153</v>
       </c>
@@ -17833,7 +17843,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8">
       <c r="A424" t="s">
         <v>153</v>
       </c>
@@ -17853,7 +17863,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8">
       <c r="A425" t="s">
         <v>153</v>
       </c>
@@ -17873,7 +17883,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8">
       <c r="A426" t="s">
         <v>153</v>
       </c>
@@ -17893,7 +17903,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8">
       <c r="A427" t="s">
         <v>153</v>
       </c>
@@ -17919,7 +17929,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8">
       <c r="A428" t="s">
         <v>153</v>
       </c>
@@ -17945,7 +17955,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8">
       <c r="A429" t="s">
         <v>153</v>
       </c>
@@ -17971,7 +17981,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8">
       <c r="A430" t="s">
         <v>153</v>
       </c>
@@ -17994,7 +18004,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8">
       <c r="A431" t="s">
         <v>153</v>
       </c>
@@ -18020,7 +18030,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8">
       <c r="A432" t="s">
         <v>153</v>
       </c>
@@ -18046,7 +18056,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8">
       <c r="A433" t="s">
         <v>153</v>
       </c>
@@ -18072,7 +18082,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8">
       <c r="A434" t="s">
         <v>153</v>
       </c>
@@ -18095,7 +18105,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8">
       <c r="A435" t="s">
         <v>153</v>
       </c>
@@ -18121,7 +18131,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8">
       <c r="A436" t="s">
         <v>153</v>
       </c>
@@ -18147,7 +18157,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8">
       <c r="A437" t="s">
         <v>153</v>
       </c>
@@ -18170,7 +18180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8">
       <c r="A438" t="s">
         <v>153</v>
       </c>
@@ -18193,7 +18203,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8">
       <c r="A439" t="s">
         <v>153</v>
       </c>
@@ -18216,7 +18226,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8">
       <c r="A440" t="s">
         <v>153</v>
       </c>
@@ -18242,7 +18252,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8">
       <c r="A441" t="s">
         <v>153</v>
       </c>
@@ -18265,7 +18275,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8">
       <c r="A442" t="s">
         <v>153</v>
       </c>
@@ -18288,7 +18298,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8">
       <c r="A443" t="s">
         <v>153</v>
       </c>
@@ -18314,7 +18324,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8">
       <c r="A444" t="s">
         <v>153</v>
       </c>
@@ -18340,7 +18350,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8">
       <c r="A445" t="s">
         <v>153</v>
       </c>
@@ -18366,7 +18376,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8">
       <c r="A446" t="s">
         <v>153</v>
       </c>
@@ -18389,7 +18399,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" ht="30">
       <c r="A447" t="s">
         <v>153</v>
       </c>
@@ -18409,7 +18419,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" ht="30">
       <c r="A448" t="s">
         <v>153</v>
       </c>
@@ -18429,7 +18439,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9">
       <c r="A449" t="s">
         <v>153</v>
       </c>
@@ -18452,7 +18462,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9">
       <c r="A450" t="s">
         <v>153</v>
       </c>
@@ -18478,7 +18488,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9">
       <c r="A451" t="s">
         <v>153</v>
       </c>
@@ -18504,7 +18514,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9">
       <c r="A452" t="s">
         <v>153</v>
       </c>
@@ -18530,7 +18540,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9">
       <c r="A453" t="s">
         <v>153</v>
       </c>
@@ -18553,7 +18563,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9">
       <c r="A454" t="s">
         <v>153</v>
       </c>
@@ -18573,10 +18583,10 @@
         <v>288</v>
       </c>
       <c r="I454" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
       <c r="A455" t="s">
         <v>153</v>
       </c>
@@ -18596,10 +18606,10 @@
         <v>281</v>
       </c>
       <c r="I455" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
       <c r="A456" t="s">
         <v>153</v>
       </c>
@@ -18625,7 +18635,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9">
       <c r="A457" t="s">
         <v>153</v>
       </c>
@@ -18651,7 +18661,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9">
       <c r="A458" t="s">
         <v>153</v>
       </c>
@@ -18677,7 +18687,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9">
       <c r="A459" t="s">
         <v>153</v>
       </c>
@@ -18700,7 +18710,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9">
       <c r="A460" t="s">
         <v>153</v>
       </c>
@@ -18723,7 +18733,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9">
       <c r="A461" t="s">
         <v>153</v>
       </c>
@@ -18749,7 +18759,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9">
       <c r="A462" t="s">
         <v>153</v>
       </c>
@@ -18775,7 +18785,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9">
       <c r="A463" t="s">
         <v>153</v>
       </c>
@@ -18798,7 +18808,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9">
       <c r="A464" t="s">
         <v>153</v>
       </c>
@@ -18821,7 +18831,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9">
       <c r="A465" t="s">
         <v>153</v>
       </c>
@@ -18844,7 +18854,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9">
       <c r="A466" t="s">
         <v>153</v>
       </c>
@@ -18870,7 +18880,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9">
       <c r="A467" t="s">
         <v>153</v>
       </c>
@@ -18896,7 +18906,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9">
       <c r="A468" t="s">
         <v>153</v>
       </c>
@@ -18919,7 +18929,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9">
       <c r="A469" t="s">
         <v>153</v>
       </c>
@@ -18945,7 +18955,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9">
       <c r="A470" t="s">
         <v>153</v>
       </c>
@@ -18971,7 +18981,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -18997,7 +19007,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9">
       <c r="A472" t="s">
         <v>153</v>
       </c>
@@ -19020,7 +19030,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9">
       <c r="A473" t="s">
         <v>153</v>
       </c>
@@ -19043,15 +19053,15 @@
         <v>635</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" ht="15.75">
       <c r="A474" t="s">
         <v>153</v>
       </c>
       <c r="B474" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C474" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D474" t="s">
         <v>147</v>
@@ -19063,18 +19073,18 @@
         <v>147</v>
       </c>
       <c r="G474" s="13" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="H474" s="7" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="15.75">
       <c r="A475" t="s">
         <v>153</v>
       </c>
       <c r="B475" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C475" t="s">
         <v>12</v>
@@ -19083,167 +19093,167 @@
         <v>147</v>
       </c>
       <c r="G475" s="13" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="H475" s="7" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" ht="15.75">
       <c r="A476" t="s">
         <v>153</v>
       </c>
       <c r="B476" t="s">
+        <v>944</v>
+      </c>
+      <c r="C476" t="s">
+        <v>946</v>
+      </c>
+      <c r="D476" t="s">
+        <v>147</v>
+      </c>
+      <c r="G476" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="H476" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>153</v>
+      </c>
+      <c r="B477" t="s">
+        <v>944</v>
+      </c>
+      <c r="C477" t="s">
+        <v>947</v>
+      </c>
+      <c r="D477" t="s">
+        <v>147</v>
+      </c>
+      <c r="G477" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="H477" s="7" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="15.75">
+      <c r="A478" t="s">
+        <v>153</v>
+      </c>
+      <c r="B478" t="s">
+        <v>944</v>
+      </c>
+      <c r="C478" t="s">
         <v>948</v>
       </c>
-      <c r="C476" t="s">
+      <c r="D478" t="s">
+        <v>147</v>
+      </c>
+      <c r="G478" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="H478" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="I478" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="15.75">
+      <c r="A479" t="s">
+        <v>153</v>
+      </c>
+      <c r="B479" t="s">
+        <v>944</v>
+      </c>
+      <c r="C479" t="s">
+        <v>949</v>
+      </c>
+      <c r="D479" t="s">
+        <v>147</v>
+      </c>
+      <c r="F479" t="s">
+        <v>147</v>
+      </c>
+      <c r="G479" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="H479" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="I479" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>153</v>
+      </c>
+      <c r="B480" t="s">
+        <v>944</v>
+      </c>
+      <c r="C480" t="s">
         <v>950</v>
       </c>
-      <c r="D476" t="s">
-        <v>147</v>
-      </c>
-      <c r="G476" s="13" t="s">
-        <v>960</v>
-      </c>
-      <c r="H476" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
-        <v>153</v>
-      </c>
-      <c r="B477" t="s">
-        <v>948</v>
-      </c>
-      <c r="C477" t="s">
+      <c r="D480" t="s">
+        <v>147</v>
+      </c>
+      <c r="G480" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="H480" s="7" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>153</v>
+      </c>
+      <c r="B481" t="s">
+        <v>944</v>
+      </c>
+      <c r="C481" t="s">
         <v>951</v>
       </c>
-      <c r="D477" t="s">
-        <v>147</v>
-      </c>
-      <c r="G477" s="7" t="s">
-        <v>973</v>
-      </c>
-      <c r="H477" s="7" t="s">
+      <c r="D481" t="s">
+        <v>147</v>
+      </c>
+      <c r="G481" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="H481" s="7" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
-        <v>153</v>
-      </c>
-      <c r="B478" t="s">
-        <v>948</v>
-      </c>
-      <c r="C478" t="s">
+    <row r="482" spans="1:9" ht="47.25">
+      <c r="A482" t="s">
+        <v>153</v>
+      </c>
+      <c r="B482" t="s">
+        <v>944</v>
+      </c>
+      <c r="C482" t="s">
         <v>952</v>
       </c>
-      <c r="D478" t="s">
-        <v>147</v>
-      </c>
-      <c r="G478" s="13" t="s">
-        <v>970</v>
-      </c>
-      <c r="H478" s="7" t="s">
-        <v>971</v>
-      </c>
-      <c r="I478" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
-        <v>153</v>
-      </c>
-      <c r="B479" t="s">
-        <v>948</v>
-      </c>
-      <c r="C479" t="s">
-        <v>953</v>
-      </c>
-      <c r="D479" t="s">
-        <v>147</v>
-      </c>
-      <c r="F479" t="s">
-        <v>147</v>
-      </c>
-      <c r="G479" s="13" t="s">
-        <v>964</v>
-      </c>
-      <c r="H479" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="I479" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
-        <v>153</v>
-      </c>
-      <c r="B480" t="s">
-        <v>948</v>
-      </c>
-      <c r="C480" t="s">
-        <v>954</v>
-      </c>
-      <c r="D480" t="s">
-        <v>147</v>
-      </c>
-      <c r="G480" s="7" t="s">
+      <c r="D482" t="s">
+        <v>147</v>
+      </c>
+      <c r="G482" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="H482" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="H480" s="7" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>153</v>
-      </c>
-      <c r="B481" t="s">
-        <v>948</v>
-      </c>
-      <c r="C481" t="s">
-        <v>955</v>
-      </c>
-      <c r="D481" t="s">
-        <v>147</v>
-      </c>
-      <c r="G481" s="7" t="s">
-        <v>969</v>
-      </c>
-      <c r="H481" s="7" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
-        <v>153</v>
-      </c>
-      <c r="B482" t="s">
-        <v>948</v>
-      </c>
-      <c r="C482" t="s">
-        <v>956</v>
-      </c>
-      <c r="D482" t="s">
-        <v>147</v>
-      </c>
-      <c r="G482" s="13" t="s">
-        <v>962</v>
-      </c>
-      <c r="H482" s="7" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:9" ht="15.75">
       <c r="A483" t="s">
         <v>153</v>
       </c>
       <c r="B483" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C483" t="s">
         <v>498</v>
@@ -19258,15 +19268,15 @@
         <v>183</v>
       </c>
       <c r="I483" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
       <c r="A484" t="s">
         <v>153</v>
       </c>
       <c r="B484" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C484" t="s">
         <v>902</v>
@@ -19287,12 +19297,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9">
       <c r="A485" t="s">
         <v>153</v>
       </c>
       <c r="B485" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C485" t="s">
         <v>903</v>
@@ -19313,121 +19323,121 @@
         <v>907</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" ht="15.75">
       <c r="A486" t="s">
         <v>153</v>
       </c>
       <c r="B486" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D486" t="s">
+        <v>147</v>
+      </c>
+      <c r="E486" t="s">
+        <v>147</v>
+      </c>
+      <c r="F486" t="s">
+        <v>147</v>
+      </c>
+      <c r="G486" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H486" s="7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="31.5">
+      <c r="A487" t="s">
+        <v>153</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D487" t="s">
+        <v>147</v>
+      </c>
+      <c r="G487" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H487" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="47.25">
+      <c r="A488" t="s">
+        <v>153</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C488" t="s">
         <v>1013</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D488" t="s">
+        <v>147</v>
+      </c>
+      <c r="G488" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H488" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>153</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D489" t="s">
+        <v>147</v>
+      </c>
+      <c r="G489" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H489" s="7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="15.75">
+      <c r="A490" t="s">
+        <v>153</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C490" t="s">
         <v>1015</v>
       </c>
-      <c r="D486" t="s">
-        <v>147</v>
-      </c>
-      <c r="E486" t="s">
-        <v>147</v>
-      </c>
-      <c r="F486" t="s">
-        <v>147</v>
-      </c>
-      <c r="G486" s="13" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H486" s="7" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
-        <v>153</v>
-      </c>
-      <c r="B487" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C487" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D487" t="s">
-        <v>147</v>
-      </c>
-      <c r="G487" s="13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H487" s="7" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
-        <v>153</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C488" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D488" t="s">
-        <v>147</v>
-      </c>
-      <c r="G488" s="13" t="s">
+      <c r="D490" t="s">
+        <v>147</v>
+      </c>
+      <c r="F490" t="s">
+        <v>147</v>
+      </c>
+      <c r="G490" s="12" t="s">
         <v>1034</v>
-      </c>
-      <c r="H488" s="7" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
-        <v>153</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C489" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D489" t="s">
-        <v>147</v>
-      </c>
-      <c r="G489" s="7" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H489" s="7" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
-        <v>153</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D490" t="s">
-        <v>147</v>
-      </c>
-      <c r="F490" t="s">
-        <v>147</v>
-      </c>
-      <c r="G490" s="12" t="s">
-        <v>1038</v>
       </c>
       <c r="H490" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" ht="15.75">
       <c r="A491" t="s">
         <v>153</v>
       </c>
       <c r="B491" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C491" t="s">
         <v>586</v>
@@ -19436,18 +19446,18 @@
         <v>147</v>
       </c>
       <c r="G491" s="12" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="H491" s="7" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" ht="15.75">
       <c r="A492" t="s">
         <v>153</v>
       </c>
       <c r="B492" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C492" t="s">
         <v>584</v>
@@ -19456,201 +19466,201 @@
         <v>147</v>
       </c>
       <c r="G492" s="12" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="H492" s="7" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" ht="15.75">
       <c r="A493" t="s">
         <v>153</v>
       </c>
       <c r="B493" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C493" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D493" t="s">
         <v>147</v>
       </c>
       <c r="G493" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H493" s="7" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="15.75">
+      <c r="A494" t="s">
+        <v>153</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D494" t="s">
+        <v>147</v>
+      </c>
+      <c r="G494" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H494" s="7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="15.75">
+      <c r="A495" t="s">
+        <v>153</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D495" t="s">
+        <v>147</v>
+      </c>
+      <c r="G495" s="12" t="s">
         <v>1041</v>
-      </c>
-      <c r="H493" s="7" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
-        <v>153</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C494" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D494" t="s">
-        <v>147</v>
-      </c>
-      <c r="G494" s="12" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H494" s="7" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
-        <v>153</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D495" t="s">
-        <v>147</v>
-      </c>
-      <c r="G495" s="12" t="s">
-        <v>1045</v>
       </c>
       <c r="H495" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" ht="30">
       <c r="A496" t="s">
         <v>153</v>
       </c>
       <c r="B496" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C496" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D496" t="s">
+        <v>147</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H496" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" ht="75">
+      <c r="A497" t="s">
+        <v>153</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D497" t="s">
+        <v>147</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H497" s="7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" ht="30">
+      <c r="A498" t="s">
+        <v>153</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D498" t="s">
+        <v>147</v>
+      </c>
+      <c r="G498" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H498" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" ht="30">
+      <c r="A499" t="s">
+        <v>153</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D499" t="s">
+        <v>147</v>
+      </c>
+      <c r="G499" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H499" s="7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" ht="30">
+      <c r="A500" t="s">
+        <v>153</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C500" t="s">
         <v>1023</v>
       </c>
-      <c r="D496" t="s">
-        <v>147</v>
-      </c>
-      <c r="G496" s="7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H496" s="7" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="497" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>153</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C497" t="s">
+      <c r="D500" t="s">
+        <v>147</v>
+      </c>
+      <c r="G500" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H500" s="7" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" ht="75">
+      <c r="A501" t="s">
+        <v>153</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C501" t="s">
         <v>1024</v>
       </c>
-      <c r="D497" t="s">
-        <v>147</v>
-      </c>
-      <c r="G497" s="7" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H497" s="7" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="498" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
-        <v>153</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D498" t="s">
-        <v>147</v>
-      </c>
-      <c r="G498" s="7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H498" s="7" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="499" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>153</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D499" t="s">
-        <v>147</v>
-      </c>
-      <c r="G499" s="7" t="s">
+      <c r="D501" t="s">
+        <v>147</v>
+      </c>
+      <c r="F501" t="s">
+        <v>147</v>
+      </c>
+      <c r="G501" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="H499" s="7" t="s">
+      <c r="H501" s="7" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="500" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
-        <v>153</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D500" t="s">
-        <v>147</v>
-      </c>
-      <c r="G500" s="7" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H500" s="7" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="501" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
-        <v>153</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D501" t="s">
-        <v>147</v>
-      </c>
-      <c r="F501" t="s">
-        <v>147</v>
-      </c>
-      <c r="G501" s="7" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H501" s="7" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12">
       <c r="A502" t="s">
         <v>153</v>
       </c>
       <c r="B502" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C502" t="s">
         <v>559</v>
@@ -19659,21 +19669,21 @@
         <v>147</v>
       </c>
       <c r="G502" s="7" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="H502" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12">
       <c r="A503" t="s">
         <v>153</v>
       </c>
       <c r="B503" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C503" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D503" t="s">
         <v>147</v>
@@ -19682,18 +19692,18 @@
         <v>147</v>
       </c>
       <c r="G503" s="7" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="H503" s="7" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12">
       <c r="A504" t="s">
         <v>153</v>
       </c>
       <c r="B504" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C504" t="s">
         <v>902</v>
@@ -19714,12 +19724,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12">
       <c r="A505" t="s">
         <v>153</v>
       </c>
       <c r="B505" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C505" t="s">
         <v>903</v>
@@ -19740,12 +19750,12 @@
         <v>907</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12">
       <c r="A506" t="s">
         <v>153</v>
       </c>
       <c r="B506" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C506" t="s">
         <v>398</v>
@@ -19757,18 +19767,18 @@
         <v>147</v>
       </c>
       <c r="G506" s="7" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H506" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12">
       <c r="A507" t="s">
         <v>153</v>
       </c>
       <c r="B507" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C507" t="s">
         <v>7</v>
@@ -19789,18 +19799,18 @@
         <v>291</v>
       </c>
       <c r="I507" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12">
       <c r="A508" t="s">
         <v>153</v>
       </c>
       <c r="B508" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C508" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D508" t="s">
         <v>147</v>
@@ -19818,12 +19828,12 @@
         <v>789</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12">
       <c r="A509" t="s">
         <v>153</v>
       </c>
       <c r="B509" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C509" t="s">
         <v>9</v>
@@ -19835,18 +19845,18 @@
         <v>147</v>
       </c>
       <c r="G509" s="7" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="H509" s="7" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12">
       <c r="A510" t="s">
         <v>153</v>
       </c>
       <c r="B510" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C510" t="s">
         <v>902</v>
@@ -19867,12 +19877,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12">
       <c r="A511" t="s">
         <v>153</v>
       </c>
       <c r="B511" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C511" t="s">
         <v>903</v>
@@ -19893,12 +19903,12 @@
         <v>907</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12">
       <c r="A512" t="s">
         <v>0</v>
       </c>
       <c r="B512" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C512" t="s">
         <v>398</v>
@@ -19910,302 +19920,302 @@
         <v>147</v>
       </c>
       <c r="G512" s="7" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H512" s="7" t="s">
         <v>225</v>
       </c>
       <c r="J512" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="K512" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L512" t="s">
         <v>1182</v>
       </c>
-      <c r="L512" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="513" spans="1:9">
       <c r="A513" t="s">
         <v>0</v>
       </c>
       <c r="B513" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C513" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G513" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H513" s="7" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="15.75">
+      <c r="A514" t="s">
+        <v>0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D514" t="s">
+        <v>147</v>
+      </c>
+      <c r="F514" t="s">
+        <v>147</v>
+      </c>
+      <c r="G514" s="12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H514" s="7" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="15.75">
+      <c r="A515" t="s">
+        <v>0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D515" t="s">
+        <v>147</v>
+      </c>
+      <c r="G515" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H515" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="15.75">
+      <c r="A516" t="s">
+        <v>0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D516" t="s">
+        <v>147</v>
+      </c>
+      <c r="F516" t="s">
+        <v>147</v>
+      </c>
+      <c r="G516" s="12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H516" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I516" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="15.75">
+      <c r="A517" t="s">
+        <v>0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C517" t="s">
         <v>1106</v>
       </c>
-      <c r="G513" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H513" s="7" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
-        <v>0</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C514" t="s">
+      <c r="D517" t="s">
+        <v>147</v>
+      </c>
+      <c r="F517" t="s">
+        <v>147</v>
+      </c>
+      <c r="G517" s="12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H517" s="7" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="15.75">
+      <c r="A518" t="s">
+        <v>0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C518" t="s">
         <v>1107</v>
       </c>
-      <c r="D514" t="s">
-        <v>147</v>
-      </c>
-      <c r="F514" t="s">
-        <v>147</v>
-      </c>
-      <c r="G514" s="12" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H514" s="7" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
-        <v>0</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C515" t="s">
+      <c r="D518" t="s">
+        <v>147</v>
+      </c>
+      <c r="F518" t="s">
+        <v>147</v>
+      </c>
+      <c r="G518" s="12" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H518" s="7" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="15.75">
+      <c r="A519" t="s">
+        <v>0</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C519" t="s">
         <v>1108</v>
       </c>
-      <c r="D515" t="s">
-        <v>147</v>
-      </c>
-      <c r="G515" s="12" t="s">
+      <c r="D519" t="s">
+        <v>147</v>
+      </c>
+      <c r="F519" t="s">
+        <v>147</v>
+      </c>
+      <c r="G519" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H519" s="7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="15.75">
+      <c r="A520" t="s">
+        <v>0</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D520" t="s">
+        <v>147</v>
+      </c>
+      <c r="G520" s="12" t="s">
         <v>1126</v>
       </c>
-      <c r="H515" s="7" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
-        <v>0</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D516" t="s">
-        <v>147</v>
-      </c>
-      <c r="F516" t="s">
-        <v>147</v>
-      </c>
-      <c r="G516" s="12" t="s">
+      <c r="H520" s="7" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="15.75">
+      <c r="A521" t="s">
+        <v>0</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D521" t="s">
+        <v>147</v>
+      </c>
+      <c r="G521" s="12" t="s">
         <v>1127</v>
       </c>
-      <c r="H516" s="7" t="s">
-        <v>1140</v>
-      </c>
-      <c r="I516" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
-        <v>0</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D517" t="s">
-        <v>147</v>
-      </c>
-      <c r="F517" t="s">
-        <v>147</v>
-      </c>
-      <c r="G517" s="12" t="s">
+      <c r="H521" s="7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="15.75">
+      <c r="A522" t="s">
+        <v>0</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D522" t="s">
+        <v>147</v>
+      </c>
+      <c r="G522" s="12" t="s">
         <v>1128</v>
       </c>
-      <c r="H517" s="7" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
-        <v>0</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C518" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D518" t="s">
-        <v>147</v>
-      </c>
-      <c r="F518" t="s">
-        <v>147</v>
-      </c>
-      <c r="G518" s="12" t="s">
+      <c r="H522" s="7" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>0</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D523" t="s">
+        <v>147</v>
+      </c>
+      <c r="G523" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H523" s="7" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>0</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D524" t="s">
+        <v>147</v>
+      </c>
+      <c r="G524" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="H518" s="7" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
-        <v>0</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C519" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D519" t="s">
-        <v>147</v>
-      </c>
-      <c r="F519" t="s">
-        <v>147</v>
-      </c>
-      <c r="G519" s="12" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H519" s="7" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
-        <v>0</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C520" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D520" t="s">
-        <v>147</v>
-      </c>
-      <c r="G520" s="12" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H520" s="7" t="s">
+      <c r="H524" s="7" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
-        <v>0</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C521" t="s">
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>0</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C525" t="s">
         <v>1114</v>
       </c>
-      <c r="D521" t="s">
-        <v>147</v>
-      </c>
-      <c r="G521" s="12" t="s">
+      <c r="D525" t="s">
+        <v>147</v>
+      </c>
+      <c r="G525" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="H521" s="7" t="s">
+      <c r="H525" s="7" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
-        <v>0</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C522" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D522" t="s">
-        <v>147</v>
-      </c>
-      <c r="G522" s="12" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H522" s="7" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
-        <v>0</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D523" t="s">
-        <v>147</v>
-      </c>
-      <c r="G523" s="7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H523" s="7" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A524" t="s">
-        <v>0</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C524" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D524" t="s">
-        <v>147</v>
-      </c>
-      <c r="G524" s="7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H524" s="7" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A525" t="s">
-        <v>0</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D525" t="s">
-        <v>147</v>
-      </c>
-      <c r="G525" s="7" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H525" s="7" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9">
       <c r="A526" t="s">
         <v>0</v>
       </c>
       <c r="B526" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C526" t="s">
         <v>576</v>
@@ -20214,21 +20224,21 @@
         <v>147</v>
       </c>
       <c r="G526" s="7" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="H526" s="7" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9">
       <c r="A527" t="s">
         <v>0</v>
       </c>
       <c r="B527" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C527" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D527" t="s">
         <v>147</v>
@@ -20237,21 +20247,21 @@
         <v>147</v>
       </c>
       <c r="G527" s="7" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H527" s="7" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
       <c r="A528" t="s">
         <v>0</v>
       </c>
       <c r="B528" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C528" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D528" t="s">
         <v>147</v>
@@ -20260,18 +20270,18 @@
         <v>147</v>
       </c>
       <c r="G528" s="7" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="H528" s="7" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
       <c r="A529" t="s">
         <v>0</v>
       </c>
       <c r="B529" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C529" t="s">
         <v>902</v>
@@ -20292,12 +20302,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9">
       <c r="A530" t="s">
         <v>0</v>
       </c>
       <c r="B530" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C530" t="s">
         <v>903</v>
@@ -20318,15 +20328,15 @@
         <v>907</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9">
       <c r="A531" t="s">
         <v>0</v>
       </c>
       <c r="B531" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C531" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D531" t="s">
         <v>147</v>
@@ -20335,18 +20345,18 @@
         <v>147</v>
       </c>
       <c r="G531" s="7" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H531" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9">
       <c r="A532" t="s">
         <v>0</v>
       </c>
       <c r="B532" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C532" t="s">
         <v>7</v>
@@ -20367,18 +20377,18 @@
         <v>291</v>
       </c>
       <c r="I532" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
       <c r="A533" t="s">
         <v>0</v>
       </c>
       <c r="B533" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C533" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D533" t="s">
         <v>147</v>
@@ -20396,12 +20406,12 @@
         <v>789</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9">
       <c r="A534" t="s">
         <v>0</v>
       </c>
       <c r="B534" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C534" t="s">
         <v>9</v>
@@ -20413,18 +20423,18 @@
         <v>147</v>
       </c>
       <c r="G534" s="7" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="H534" s="7" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9">
       <c r="A535" t="s">
         <v>0</v>
       </c>
       <c r="B535" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C535" t="s">
         <v>902</v>
@@ -20445,12 +20455,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9">
       <c r="A536" t="s">
         <v>0</v>
       </c>
       <c r="B536" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C536" t="s">
         <v>903</v>
@@ -20471,12 +20481,12 @@
         <v>907</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" ht="15.75">
       <c r="A537" t="s">
         <v>0</v>
       </c>
       <c r="B537" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C537" t="s">
         <v>11</v>
@@ -20491,24 +20501,24 @@
         <v>147</v>
       </c>
       <c r="G537" s="12" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="H537" s="7" t="s">
         <v>103</v>
       </c>
       <c r="I537" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
       <c r="A538" t="s">
         <v>0</v>
       </c>
       <c r="B538" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C538" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D538" t="s">
         <v>147</v>
@@ -20517,21 +20527,21 @@
         <v>147</v>
       </c>
       <c r="G538" s="7" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H538" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9">
       <c r="A539" t="s">
         <v>0</v>
       </c>
       <c r="B539" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C539" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D539" t="s">
         <v>147</v>
@@ -20546,18 +20556,18 @@
         <v>135</v>
       </c>
       <c r="H539" s="7" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="I539" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
       <c r="A540" t="s">
         <v>0</v>
       </c>
       <c r="B540" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C540" t="s">
         <v>41</v>
@@ -20578,12 +20588,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9">
       <c r="A541" t="s">
         <v>0</v>
       </c>
       <c r="B541" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C541" t="s">
         <v>902</v>
@@ -20604,12 +20614,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9">
       <c r="A542" t="s">
         <v>0</v>
       </c>
       <c r="B542" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C542" t="s">
         <v>903</v>
@@ -20630,41 +20640,41 @@
         <v>907</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9">
       <c r="A543" t="s">
         <v>0</v>
       </c>
       <c r="B543" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C543" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D543" t="s">
+        <v>147</v>
+      </c>
+      <c r="E543" t="s">
+        <v>147</v>
+      </c>
+      <c r="F543" t="s">
+        <v>147</v>
+      </c>
+      <c r="G543" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="D543" t="s">
-        <v>147</v>
-      </c>
-      <c r="E543" t="s">
-        <v>147</v>
-      </c>
-      <c r="F543" t="s">
-        <v>147</v>
-      </c>
-      <c r="G543" s="7" t="s">
-        <v>1160</v>
-      </c>
       <c r="H543" s="7" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
       <c r="A544" t="s">
         <v>0</v>
       </c>
       <c r="B544" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C544" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D544" t="s">
         <v>147</v>
@@ -20676,18 +20686,18 @@
         <v>147</v>
       </c>
       <c r="G544" s="7" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="H544" s="7" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9">
       <c r="A545" t="s">
         <v>0</v>
       </c>
       <c r="B545" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C545" t="s">
         <v>902</v>
@@ -20708,12 +20718,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9">
       <c r="A546" t="s">
         <v>0</v>
       </c>
       <c r="B546" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C546" t="s">
         <v>903</v>
@@ -20734,12 +20744,12 @@
         <v>907</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9">
       <c r="A547" t="s">
         <v>0</v>
       </c>
       <c r="B547" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C547" t="s">
         <v>4</v>
@@ -20751,18 +20761,18 @@
         <v>147</v>
       </c>
       <c r="G547" s="7" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="H547" s="7" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
       <c r="A548" t="s">
         <v>0</v>
       </c>
       <c r="B548" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C548" t="s">
         <v>45</v>
@@ -20783,15 +20793,15 @@
         <v>254</v>
       </c>
       <c r="I548" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
       <c r="A549" t="s">
         <v>0</v>
       </c>
       <c r="B549" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C549" t="s">
         <v>902</v>
@@ -20812,12 +20822,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9">
       <c r="A550" t="s">
         <v>0</v>
       </c>
       <c r="B550" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C550" t="s">
         <v>903</v>
@@ -20838,12 +20848,12 @@
         <v>907</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9">
       <c r="A551" t="s">
         <v>0</v>
       </c>
       <c r="B551" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C551" t="s">
         <v>4</v>
@@ -20855,21 +20865,21 @@
         <v>147</v>
       </c>
       <c r="G551" s="7" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="H551" s="7" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
       <c r="A552" t="s">
         <v>0</v>
       </c>
       <c r="B552" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C552" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D552" t="s">
         <v>147</v>
@@ -20884,18 +20894,18 @@
         <v>421</v>
       </c>
       <c r="H552" s="7" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="I552" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
       <c r="A553" t="s">
         <v>0</v>
       </c>
       <c r="B553" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C553" t="s">
         <v>902</v>
@@ -20916,12 +20926,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" ht="16.5" customHeight="1">
       <c r="A554" t="s">
         <v>0</v>
       </c>
       <c r="B554" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C554" t="s">
         <v>903</v>
@@ -20942,38 +20952,38 @@
         <v>907</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9">
       <c r="A555" t="s">
         <v>0</v>
       </c>
       <c r="B555" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C555" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D555" t="s">
+        <v>147</v>
+      </c>
+      <c r="F555" t="s">
+        <v>147</v>
+      </c>
+      <c r="G555" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H555" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="D555" t="s">
-        <v>147</v>
-      </c>
-      <c r="F555" t="s">
-        <v>147</v>
-      </c>
-      <c r="G555" s="7" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H555" s="7" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="556" spans="1:9">
       <c r="A556" t="s">
         <v>0</v>
       </c>
       <c r="B556" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C556" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D556" t="s">
         <v>147</v>
@@ -20985,18 +20995,18 @@
         <v>147</v>
       </c>
       <c r="G556" s="7" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
       <c r="A557" t="s">
         <v>0</v>
       </c>
       <c r="B557" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C557" t="s">
         <v>902</v>
@@ -21017,12 +21027,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9">
       <c r="A558" t="s">
         <v>0</v>
       </c>
       <c r="B558" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C558" t="s">
         <v>903</v>
@@ -21054,7 +21064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21064,14 +21074,14 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21082,7 +21092,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21100,7 +21110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21110,16 +21120,16 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21139,7 +21149,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21150,7 +21160,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -21161,7 +21171,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -21172,7 +21182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -21183,7 +21193,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -21194,23 +21204,23 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E8" t="s">
         <v>147</v>
@@ -21223,7 +21233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21233,15 +21243,15 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21255,7 +21265,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21269,7 +21279,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -21283,7 +21293,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -21297,7 +21307,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -21311,7 +21321,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -21331,7 +21341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21341,17 +21351,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -21371,7 +21381,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="16.5" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:C380"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="1190">
   <si>
     <t>DATA</t>
   </si>
@@ -4162,8 +4162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q95" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="Q89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="T103" sqref="T103"/>
@@ -7417,11 +7417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M558"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7476,7 +7476,7 @@
       <c r="L1" s="10" t="s">
         <v>1181</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -7828,7 +7828,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8043,8 +8043,11 @@
       <c r="H25" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="M25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45">
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -8110,7 +8113,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>0</v>
       </c>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5324" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5327" uniqueCount="1205">
   <si>
     <t>DATA</t>
   </si>
@@ -3764,6 +3764,9 @@
   </si>
   <si>
     <t>role</t>
+  </si>
+  <si>
+    <t>masterDataRolePermissionRsps</t>
   </si>
 </sst>
 </file>
@@ -4207,10 +4210,10 @@
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I68" sqref="I68"/>
+      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6202,7 +6205,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -6229,6 +6232,15 @@
       </c>
       <c r="O68" s="7" t="s">
         <v>1196</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>896</v>
       </c>
       <c r="S68" t="s">
         <v>789</v>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="web.Model{C}" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$562</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$568</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables{T}'!$A$1:$L$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'web.Model{C}'!$A$1:$C$380</definedName>
   </definedNames>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5327" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="1213">
   <si>
     <t>DATA</t>
   </si>
@@ -3767,6 +3767,30 @@
   </si>
   <si>
     <t>masterDataRolePermissionRsps</t>
+  </si>
+  <si>
+    <t>DE: Role</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>DE: Login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>DE: Password</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
   </si>
 </sst>
 </file>
@@ -4209,11 +4233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6259,8 +6283,8 @@
       <c r="C69" t="s">
         <v>1057</v>
       </c>
-      <c r="F69" t="s">
-        <v>147</v>
+      <c r="J69" t="s">
+        <v>223</v>
       </c>
       <c r="K69" t="s">
         <v>893</v>
@@ -7512,13 +7536,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M569"/>
+  <dimension ref="A1:M575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D326" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I337" sqref="I337"/>
+      <selection pane="bottomRight" activeCell="K343" sqref="K343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15810,7 +15834,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -15839,7 +15863,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>153</v>
       </c>
@@ -15868,7 +15892,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -15894,7 +15918,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -15920,304 +15944,313 @@
         <v>907</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>153</v>
       </c>
       <c r="B341" t="s">
+        <v>766</v>
+      </c>
+      <c r="C341" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" t="s">
+        <v>147</v>
+      </c>
+      <c r="E341" t="s">
+        <v>147</v>
+      </c>
+      <c r="F341" t="s">
+        <v>147</v>
+      </c>
+      <c r="G341" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H341" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>153</v>
+      </c>
+      <c r="B342" t="s">
+        <v>766</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D342" t="s">
+        <v>147</v>
+      </c>
+      <c r="E342" t="s">
+        <v>147</v>
+      </c>
+      <c r="F342" t="s">
+        <v>147</v>
+      </c>
+      <c r="G342" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H342" s="7" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>153</v>
+      </c>
+      <c r="B343" t="s">
+        <v>766</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D343" t="s">
+        <v>147</v>
+      </c>
+      <c r="F343" t="s">
+        <v>147</v>
+      </c>
+      <c r="G343" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H343" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J343" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>153</v>
+      </c>
+      <c r="B344" t="s">
+        <v>766</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D344" t="s">
+        <v>147</v>
+      </c>
+      <c r="E344" t="s">
+        <v>147</v>
+      </c>
+      <c r="F344" t="s">
+        <v>147</v>
+      </c>
+      <c r="G344" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H344" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>153</v>
+      </c>
+      <c r="B345" t="s">
+        <v>766</v>
+      </c>
+      <c r="C345" t="s">
+        <v>902</v>
+      </c>
+      <c r="D345" t="s">
+        <v>147</v>
+      </c>
+      <c r="E345" t="s">
+        <v>147</v>
+      </c>
+      <c r="F345" t="s">
+        <v>147</v>
+      </c>
+      <c r="G345" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H345" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>153</v>
+      </c>
+      <c r="B346" t="s">
+        <v>766</v>
+      </c>
+      <c r="C346" t="s">
+        <v>903</v>
+      </c>
+      <c r="D346" t="s">
+        <v>147</v>
+      </c>
+      <c r="E346" t="s">
+        <v>147</v>
+      </c>
+      <c r="F346" t="s">
+        <v>147</v>
+      </c>
+      <c r="G346" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H346" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>153</v>
+      </c>
+      <c r="B347" t="s">
         <v>154</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C347" t="s">
         <v>363</v>
       </c>
-      <c r="D341" t="s">
-        <v>147</v>
-      </c>
-      <c r="E341" t="s">
-        <v>147</v>
-      </c>
-      <c r="F341" t="s">
-        <v>147</v>
-      </c>
-      <c r="G341" s="7" t="s">
+      <c r="D347" t="s">
+        <v>147</v>
+      </c>
+      <c r="E347" t="s">
+        <v>147</v>
+      </c>
+      <c r="F347" t="s">
+        <v>147</v>
+      </c>
+      <c r="G347" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H341" s="7" t="s">
+      <c r="H347" s="7" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>153</v>
-      </c>
-      <c r="B342" t="s">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>153</v>
+      </c>
+      <c r="B348" t="s">
         <v>154</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C348" t="s">
         <v>9</v>
       </c>
-      <c r="D342" t="s">
-        <v>147</v>
-      </c>
-      <c r="E342" t="s">
-        <v>147</v>
-      </c>
-      <c r="G342" s="7" t="s">
+      <c r="D348" t="s">
+        <v>147</v>
+      </c>
+      <c r="E348" t="s">
+        <v>147</v>
+      </c>
+      <c r="G348" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H342" s="7" t="s">
+      <c r="H348" s="7" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>153</v>
-      </c>
-      <c r="B343" t="s">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>153</v>
+      </c>
+      <c r="B349" t="s">
         <v>154</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C349" t="s">
         <v>902</v>
       </c>
-      <c r="D343" t="s">
-        <v>147</v>
-      </c>
-      <c r="E343" t="s">
-        <v>147</v>
-      </c>
-      <c r="F343" t="s">
-        <v>147</v>
-      </c>
-      <c r="G343" s="7" t="s">
+      <c r="D349" t="s">
+        <v>147</v>
+      </c>
+      <c r="E349" t="s">
+        <v>147</v>
+      </c>
+      <c r="F349" t="s">
+        <v>147</v>
+      </c>
+      <c r="G349" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="H343" s="7" t="s">
+      <c r="H349" s="7" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>153</v>
-      </c>
-      <c r="B344" t="s">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>153</v>
+      </c>
+      <c r="B350" t="s">
         <v>154</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C350" t="s">
         <v>903</v>
       </c>
-      <c r="D344" t="s">
-        <v>147</v>
-      </c>
-      <c r="E344" t="s">
-        <v>147</v>
-      </c>
-      <c r="F344" t="s">
-        <v>147</v>
-      </c>
-      <c r="G344" s="7" t="s">
+      <c r="D350" t="s">
+        <v>147</v>
+      </c>
+      <c r="E350" t="s">
+        <v>147</v>
+      </c>
+      <c r="F350" t="s">
+        <v>147</v>
+      </c>
+      <c r="G350" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H344" s="7" t="s">
+      <c r="H350" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>153</v>
-      </c>
-      <c r="B345" t="s">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>153</v>
+      </c>
+      <c r="B351" t="s">
         <v>155</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C351" t="s">
         <v>363</v>
       </c>
-      <c r="D345" t="s">
-        <v>147</v>
-      </c>
-      <c r="E345" t="s">
-        <v>147</v>
-      </c>
-      <c r="F345" t="s">
-        <v>147</v>
-      </c>
-      <c r="G345" s="7" t="s">
+      <c r="D351" t="s">
+        <v>147</v>
+      </c>
+      <c r="E351" t="s">
+        <v>147</v>
+      </c>
+      <c r="F351" t="s">
+        <v>147</v>
+      </c>
+      <c r="G351" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H345" s="7" t="s">
+      <c r="H351" s="7" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>153</v>
-      </c>
-      <c r="B346" t="s">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>153</v>
+      </c>
+      <c r="B352" t="s">
         <v>155</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C352" t="s">
         <v>9</v>
       </c>
-      <c r="D346" t="s">
-        <v>147</v>
-      </c>
-      <c r="E346" t="s">
-        <v>147</v>
-      </c>
-      <c r="G346" s="7" t="s">
+      <c r="D352" t="s">
+        <v>147</v>
+      </c>
+      <c r="E352" t="s">
+        <v>147</v>
+      </c>
+      <c r="G352" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H346" s="7" t="s">
+      <c r="H352" s="7" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>153</v>
-      </c>
-      <c r="B347" t="s">
-        <v>155</v>
-      </c>
-      <c r="C347" t="s">
-        <v>902</v>
-      </c>
-      <c r="D347" t="s">
-        <v>147</v>
-      </c>
-      <c r="E347" t="s">
-        <v>147</v>
-      </c>
-      <c r="F347" t="s">
-        <v>147</v>
-      </c>
-      <c r="G347" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="H347" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>153</v>
-      </c>
-      <c r="B348" t="s">
-        <v>155</v>
-      </c>
-      <c r="C348" t="s">
-        <v>903</v>
-      </c>
-      <c r="D348" t="s">
-        <v>147</v>
-      </c>
-      <c r="E348" t="s">
-        <v>147</v>
-      </c>
-      <c r="F348" t="s">
-        <v>147</v>
-      </c>
-      <c r="G348" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="H348" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>153</v>
-      </c>
-      <c r="B349" t="s">
-        <v>156</v>
-      </c>
-      <c r="C349" t="s">
-        <v>366</v>
-      </c>
-      <c r="D349" t="s">
-        <v>147</v>
-      </c>
-      <c r="E349" t="s">
-        <v>147</v>
-      </c>
-      <c r="F349" t="s">
-        <v>147</v>
-      </c>
-      <c r="G349" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H349" s="7" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>153</v>
-      </c>
-      <c r="B350" t="s">
-        <v>156</v>
-      </c>
-      <c r="C350" t="s">
-        <v>368</v>
-      </c>
-      <c r="D350" t="s">
-        <v>147</v>
-      </c>
-      <c r="E350" t="s">
-        <v>147</v>
-      </c>
-      <c r="G350" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H350" s="7" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>153</v>
-      </c>
-      <c r="B351" t="s">
-        <v>156</v>
-      </c>
-      <c r="C351" t="s">
-        <v>370</v>
-      </c>
-      <c r="D351" t="s">
-        <v>147</v>
-      </c>
-      <c r="E351" t="s">
-        <v>147</v>
-      </c>
-      <c r="G351" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H351" s="7" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>153</v>
-      </c>
-      <c r="B352" t="s">
-        <v>156</v>
-      </c>
-      <c r="C352" t="s">
-        <v>902</v>
-      </c>
-      <c r="D352" t="s">
-        <v>147</v>
-      </c>
-      <c r="E352" t="s">
-        <v>147</v>
-      </c>
-      <c r="F352" t="s">
-        <v>147</v>
-      </c>
-      <c r="G352" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="H352" s="7" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -16225,10 +16258,10 @@
         <v>153</v>
       </c>
       <c r="B353" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C353" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D353" t="s">
         <v>147</v>
@@ -16240,10 +16273,10 @@
         <v>147</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H353" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -16251,10 +16284,10 @@
         <v>153</v>
       </c>
       <c r="B354" t="s">
-        <v>276</v>
+        <v>155</v>
       </c>
       <c r="C354" t="s">
-        <v>12</v>
+        <v>903</v>
       </c>
       <c r="D354" t="s">
         <v>147</v>
@@ -16266,10 +16299,10 @@
         <v>147</v>
       </c>
       <c r="G354" s="7" t="s">
-        <v>522</v>
+        <v>905</v>
       </c>
       <c r="H354" s="7" t="s">
-        <v>789</v>
+        <v>907</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -16277,10 +16310,10 @@
         <v>153</v>
       </c>
       <c r="B355" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
       <c r="C355" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="D355" t="s">
         <v>147</v>
@@ -16288,11 +16321,14 @@
       <c r="E355" t="s">
         <v>147</v>
       </c>
+      <c r="F355" t="s">
+        <v>147</v>
+      </c>
       <c r="G355" s="7" t="s">
-        <v>523</v>
+        <v>367</v>
       </c>
       <c r="H355" s="7" t="s">
-        <v>635</v>
+        <v>786</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -16300,10 +16336,10 @@
         <v>153</v>
       </c>
       <c r="B356" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
       <c r="C356" t="s">
-        <v>902</v>
+        <v>368</v>
       </c>
       <c r="D356" t="s">
         <v>147</v>
@@ -16311,14 +16347,11 @@
       <c r="E356" t="s">
         <v>147</v>
       </c>
-      <c r="F356" t="s">
-        <v>147</v>
-      </c>
       <c r="G356" s="7" t="s">
-        <v>904</v>
+        <v>369</v>
       </c>
       <c r="H356" s="7" t="s">
-        <v>906</v>
+        <v>787</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -16326,10 +16359,10 @@
         <v>153</v>
       </c>
       <c r="B357" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
       <c r="C357" t="s">
-        <v>903</v>
+        <v>370</v>
       </c>
       <c r="D357" t="s">
         <v>147</v>
@@ -16337,25 +16370,22 @@
       <c r="E357" t="s">
         <v>147</v>
       </c>
-      <c r="F357" t="s">
-        <v>147</v>
-      </c>
       <c r="G357" s="7" t="s">
-        <v>905</v>
+        <v>371</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>153</v>
       </c>
       <c r="B358" t="s">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="C358" t="s">
-        <v>524</v>
+        <v>902</v>
       </c>
       <c r="D358" t="s">
         <v>147</v>
@@ -16367,10 +16397,10 @@
         <v>147</v>
       </c>
       <c r="G358" s="7" t="s">
-        <v>525</v>
+        <v>904</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>789</v>
+        <v>906</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -16378,10 +16408,10 @@
         <v>153</v>
       </c>
       <c r="B359" t="s">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="C359" t="s">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="D359" t="s">
         <v>147</v>
@@ -16389,11 +16419,14 @@
       <c r="E359" t="s">
         <v>147</v>
       </c>
+      <c r="F359" t="s">
+        <v>147</v>
+      </c>
       <c r="G359" s="7" t="s">
-        <v>526</v>
+        <v>905</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>635</v>
+        <v>907</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -16401,19 +16434,25 @@
         <v>153</v>
       </c>
       <c r="B360" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C360" t="s">
-        <v>527</v>
+        <v>12</v>
       </c>
       <c r="D360" t="s">
         <v>147</v>
       </c>
+      <c r="E360" t="s">
+        <v>147</v>
+      </c>
+      <c r="F360" t="s">
+        <v>147</v>
+      </c>
       <c r="G360" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H360" s="7" t="s">
-        <v>840</v>
+        <v>789</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -16421,22 +16460,22 @@
         <v>153</v>
       </c>
       <c r="B361" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C361" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D361" t="s">
         <v>147</v>
       </c>
+      <c r="E361" t="s">
+        <v>147</v>
+      </c>
       <c r="G361" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I361" t="s">
-        <v>974</v>
+        <v>635</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -16444,7 +16483,7 @@
         <v>153</v>
       </c>
       <c r="B362" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C362" t="s">
         <v>902</v>
@@ -16470,7 +16509,7 @@
         <v>153</v>
       </c>
       <c r="B363" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C363" t="s">
         <v>903</v>
@@ -16491,27 +16530,30 @@
         <v>907</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>153</v>
       </c>
       <c r="B364" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C364" t="s">
-        <v>55</v>
+        <v>524</v>
       </c>
       <c r="D364" t="s">
         <v>147</v>
       </c>
+      <c r="E364" t="s">
+        <v>147</v>
+      </c>
       <c r="F364" t="s">
         <v>147</v>
       </c>
       <c r="G364" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>281</v>
+        <v>789</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -16519,10 +16561,10 @@
         <v>153</v>
       </c>
       <c r="B365" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C365" t="s">
-        <v>531</v>
+        <v>9</v>
       </c>
       <c r="D365" t="s">
         <v>147</v>
@@ -16530,14 +16572,11 @@
       <c r="E365" t="s">
         <v>147</v>
       </c>
-      <c r="F365" t="s">
-        <v>147</v>
-      </c>
       <c r="G365" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>278</v>
+        <v>635</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -16545,25 +16584,19 @@
         <v>153</v>
       </c>
       <c r="B366" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C366" t="s">
-        <v>902</v>
+        <v>527</v>
       </c>
       <c r="D366" t="s">
         <v>147</v>
       </c>
-      <c r="E366" t="s">
-        <v>147</v>
-      </c>
-      <c r="F366" t="s">
-        <v>147</v>
-      </c>
       <c r="G366" s="7" t="s">
-        <v>904</v>
+        <v>528</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>906</v>
+        <v>840</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -16571,36 +16604,33 @@
         <v>153</v>
       </c>
       <c r="B367" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C367" t="s">
-        <v>903</v>
+        <v>16</v>
       </c>
       <c r="D367" t="s">
         <v>147</v>
       </c>
-      <c r="E367" t="s">
-        <v>147</v>
-      </c>
-      <c r="F367" t="s">
-        <v>147</v>
-      </c>
       <c r="G367" s="7" t="s">
-        <v>905</v>
+        <v>529</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="I367" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>153</v>
       </c>
       <c r="B368" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C368" t="s">
-        <v>548</v>
+        <v>902</v>
       </c>
       <c r="D368" t="s">
         <v>147</v>
@@ -16612,10 +16642,10 @@
         <v>147</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>549</v>
+        <v>904</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>847</v>
+        <v>906</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -16623,10 +16653,10 @@
         <v>153</v>
       </c>
       <c r="B369" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C369" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D369" t="s">
         <v>147</v>
@@ -16638,10 +16668,10 @@
         <v>147</v>
       </c>
       <c r="G369" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -16649,25 +16679,22 @@
         <v>153</v>
       </c>
       <c r="B370" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C370" t="s">
-        <v>903</v>
+        <v>55</v>
       </c>
       <c r="D370" t="s">
         <v>147</v>
       </c>
-      <c r="E370" t="s">
-        <v>147</v>
-      </c>
       <c r="F370" t="s">
         <v>147</v>
       </c>
       <c r="G370" s="7" t="s">
-        <v>905</v>
+        <v>530</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>907</v>
+        <v>281</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -16675,10 +16702,10 @@
         <v>153</v>
       </c>
       <c r="B371" t="s">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="C371" t="s">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="D371" t="s">
         <v>147</v>
@@ -16690,10 +16717,10 @@
         <v>147</v>
       </c>
       <c r="G371" s="7" t="s">
-        <v>364</v>
+        <v>532</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>785</v>
+        <v>278</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
@@ -16701,7 +16728,7 @@
         <v>153</v>
       </c>
       <c r="B372" t="s">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="C372" t="s">
         <v>902</v>
@@ -16727,7 +16754,7 @@
         <v>153</v>
       </c>
       <c r="B373" t="s">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="C373" t="s">
         <v>903</v>
@@ -16748,15 +16775,15 @@
         <v>907</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>153</v>
       </c>
       <c r="B374" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C374" t="s">
-        <v>12</v>
+        <v>548</v>
       </c>
       <c r="D374" t="s">
         <v>147</v>
@@ -16768,10 +16795,10 @@
         <v>147</v>
       </c>
       <c r="G374" s="7" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>789</v>
+        <v>847</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -16779,10 +16806,10 @@
         <v>153</v>
       </c>
       <c r="B375" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C375" t="s">
-        <v>496</v>
+        <v>902</v>
       </c>
       <c r="D375" t="s">
         <v>147</v>
@@ -16794,10 +16821,10 @@
         <v>147</v>
       </c>
       <c r="G375" s="7" t="s">
-        <v>497</v>
+        <v>904</v>
       </c>
       <c r="H375" s="7" t="s">
-        <v>836</v>
+        <v>906</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -16805,10 +16832,10 @@
         <v>153</v>
       </c>
       <c r="B376" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C376" t="s">
-        <v>498</v>
+        <v>903</v>
       </c>
       <c r="D376" t="s">
         <v>147</v>
@@ -16820,10 +16847,10 @@
         <v>147</v>
       </c>
       <c r="G376" s="7" t="s">
-        <v>182</v>
+        <v>905</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>183</v>
+        <v>907</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -16831,10 +16858,10 @@
         <v>153</v>
       </c>
       <c r="B377" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="C377" t="s">
-        <v>902</v>
+        <v>372</v>
       </c>
       <c r="D377" t="s">
         <v>147</v>
@@ -16846,10 +16873,10 @@
         <v>147</v>
       </c>
       <c r="G377" s="7" t="s">
-        <v>904</v>
+        <v>364</v>
       </c>
       <c r="H377" s="7" t="s">
-        <v>906</v>
+        <v>785</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -16857,10 +16884,10 @@
         <v>153</v>
       </c>
       <c r="B378" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="C378" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D378" t="s">
         <v>147</v>
@@ -16872,10 +16899,10 @@
         <v>147</v>
       </c>
       <c r="G378" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H378" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -16883,22 +16910,25 @@
         <v>153</v>
       </c>
       <c r="B379" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="C379" t="s">
-        <v>499</v>
+        <v>903</v>
       </c>
       <c r="D379" t="s">
         <v>147</v>
       </c>
+      <c r="E379" t="s">
+        <v>147</v>
+      </c>
       <c r="F379" t="s">
         <v>147</v>
       </c>
       <c r="G379" s="7" t="s">
-        <v>500</v>
+        <v>905</v>
       </c>
       <c r="H379" s="7" t="s">
-        <v>254</v>
+        <v>907</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -16906,10 +16936,10 @@
         <v>153</v>
       </c>
       <c r="B380" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C380" t="s">
-        <v>501</v>
+        <v>12</v>
       </c>
       <c r="D380" t="s">
         <v>147</v>
@@ -16921,21 +16951,21 @@
         <v>147</v>
       </c>
       <c r="G380" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H380" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>153</v>
       </c>
       <c r="B381" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C381" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D381" t="s">
         <v>147</v>
@@ -16943,11 +16973,14 @@
       <c r="E381" t="s">
         <v>147</v>
       </c>
+      <c r="F381" t="s">
+        <v>147</v>
+      </c>
       <c r="G381" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -16955,10 +16988,10 @@
         <v>153</v>
       </c>
       <c r="B382" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C382" t="s">
-        <v>902</v>
+        <v>498</v>
       </c>
       <c r="D382" t="s">
         <v>147</v>
@@ -16970,10 +17003,10 @@
         <v>147</v>
       </c>
       <c r="G382" s="7" t="s">
-        <v>904</v>
+        <v>182</v>
       </c>
       <c r="H382" s="7" t="s">
-        <v>906</v>
+        <v>183</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -16981,10 +17014,10 @@
         <v>153</v>
       </c>
       <c r="B383" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C383" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D383" t="s">
         <v>147</v>
@@ -16996,10 +17029,10 @@
         <v>147</v>
       </c>
       <c r="G383" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H383" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -17007,10 +17040,10 @@
         <v>153</v>
       </c>
       <c r="B384" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C384" t="s">
-        <v>12</v>
+        <v>903</v>
       </c>
       <c r="D384" t="s">
         <v>147</v>
@@ -17018,11 +17051,14 @@
       <c r="E384" t="s">
         <v>147</v>
       </c>
+      <c r="F384" t="s">
+        <v>147</v>
+      </c>
       <c r="G384" s="7" t="s">
-        <v>494</v>
+        <v>905</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>789</v>
+        <v>907</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -17030,25 +17066,22 @@
         <v>153</v>
       </c>
       <c r="B385" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C385" t="s">
-        <v>902</v>
+        <v>499</v>
       </c>
       <c r="D385" t="s">
         <v>147</v>
       </c>
-      <c r="E385" t="s">
-        <v>147</v>
-      </c>
       <c r="F385" t="s">
         <v>147</v>
       </c>
       <c r="G385" s="7" t="s">
-        <v>904</v>
+        <v>500</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>906</v>
+        <v>254</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -17056,10 +17089,10 @@
         <v>153</v>
       </c>
       <c r="B386" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C386" t="s">
-        <v>903</v>
+        <v>501</v>
       </c>
       <c r="D386" t="s">
         <v>147</v>
@@ -17071,21 +17104,21 @@
         <v>147</v>
       </c>
       <c r="G386" s="7" t="s">
-        <v>905</v>
+        <v>502</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>153</v>
       </c>
       <c r="B387" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="C387" t="s">
-        <v>12</v>
+        <v>503</v>
       </c>
       <c r="D387" t="s">
         <v>147</v>
@@ -17093,14 +17126,11 @@
       <c r="E387" t="s">
         <v>147</v>
       </c>
-      <c r="F387" t="s">
-        <v>147</v>
-      </c>
       <c r="G387" s="7" t="s">
-        <v>380</v>
+        <v>504</v>
       </c>
       <c r="H387" s="7" t="s">
-        <v>789</v>
+        <v>837</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -17108,10 +17138,10 @@
         <v>153</v>
       </c>
       <c r="B388" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="C388" t="s">
-        <v>9</v>
+        <v>902</v>
       </c>
       <c r="D388" t="s">
         <v>147</v>
@@ -17119,11 +17149,14 @@
       <c r="E388" t="s">
         <v>147</v>
       </c>
+      <c r="F388" t="s">
+        <v>147</v>
+      </c>
       <c r="G388" s="7" t="s">
-        <v>381</v>
+        <v>904</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>635</v>
+        <v>906</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -17131,10 +17164,10 @@
         <v>153</v>
       </c>
       <c r="B389" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="C389" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D389" t="s">
         <v>147</v>
@@ -17146,10 +17179,10 @@
         <v>147</v>
       </c>
       <c r="G389" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -17157,10 +17190,10 @@
         <v>153</v>
       </c>
       <c r="B390" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="C390" t="s">
-        <v>903</v>
+        <v>12</v>
       </c>
       <c r="D390" t="s">
         <v>147</v>
@@ -17168,14 +17201,11 @@
       <c r="E390" t="s">
         <v>147</v>
       </c>
-      <c r="F390" t="s">
-        <v>147</v>
-      </c>
       <c r="G390" s="7" t="s">
-        <v>905</v>
+        <v>494</v>
       </c>
       <c r="H390" s="7" t="s">
-        <v>907</v>
+        <v>789</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -17183,10 +17213,10 @@
         <v>153</v>
       </c>
       <c r="B391" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="C391" t="s">
-        <v>382</v>
+        <v>902</v>
       </c>
       <c r="D391" t="s">
         <v>147</v>
@@ -17198,10 +17228,10 @@
         <v>147</v>
       </c>
       <c r="G391" s="7" t="s">
-        <v>383</v>
+        <v>904</v>
       </c>
       <c r="H391" s="7" t="s">
-        <v>790</v>
+        <v>906</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -17209,10 +17239,10 @@
         <v>153</v>
       </c>
       <c r="B392" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="C392" t="s">
-        <v>384</v>
+        <v>903</v>
       </c>
       <c r="D392" t="s">
         <v>147</v>
@@ -17224,10 +17254,10 @@
         <v>147</v>
       </c>
       <c r="G392" s="7" t="s">
-        <v>385</v>
+        <v>905</v>
       </c>
       <c r="H392" s="7" t="s">
-        <v>791</v>
+        <v>907</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -17235,10 +17265,10 @@
         <v>153</v>
       </c>
       <c r="B393" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C393" t="s">
-        <v>902</v>
+        <v>12</v>
       </c>
       <c r="D393" t="s">
         <v>147</v>
@@ -17250,10 +17280,10 @@
         <v>147</v>
       </c>
       <c r="G393" s="7" t="s">
-        <v>904</v>
+        <v>380</v>
       </c>
       <c r="H393" s="7" t="s">
-        <v>906</v>
+        <v>789</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -17261,10 +17291,10 @@
         <v>153</v>
       </c>
       <c r="B394" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C394" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D394" t="s">
         <v>147</v>
@@ -17272,14 +17302,11 @@
       <c r="E394" t="s">
         <v>147</v>
       </c>
-      <c r="F394" t="s">
-        <v>147</v>
-      </c>
       <c r="G394" s="7" t="s">
-        <v>905</v>
+        <v>381</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>907</v>
+        <v>635</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -17287,10 +17314,10 @@
         <v>153</v>
       </c>
       <c r="B395" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C395" t="s">
-        <v>386</v>
+        <v>902</v>
       </c>
       <c r="D395" t="s">
         <v>147</v>
@@ -17302,10 +17329,10 @@
         <v>147</v>
       </c>
       <c r="G395" s="7" t="s">
-        <v>387</v>
+        <v>904</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>793</v>
+        <v>906</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -17313,10 +17340,10 @@
         <v>153</v>
       </c>
       <c r="B396" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C396" t="s">
-        <v>388</v>
+        <v>903</v>
       </c>
       <c r="D396" t="s">
         <v>147</v>
@@ -17328,10 +17355,10 @@
         <v>147</v>
       </c>
       <c r="G396" s="7" t="s">
-        <v>389</v>
+        <v>905</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>792</v>
+        <v>907</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -17339,10 +17366,10 @@
         <v>153</v>
       </c>
       <c r="B397" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C397" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D397" t="s">
         <v>147</v>
@@ -17354,10 +17381,10 @@
         <v>147</v>
       </c>
       <c r="G397" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -17365,13 +17392,25 @@
         <v>153</v>
       </c>
       <c r="B398" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C398" t="s">
-        <v>392</v>
+        <v>384</v>
+      </c>
+      <c r="D398" t="s">
+        <v>147</v>
       </c>
       <c r="E398" t="s">
         <v>147</v>
+      </c>
+      <c r="F398" t="s">
+        <v>147</v>
+      </c>
+      <c r="G398" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H398" s="7" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
@@ -17379,13 +17418,25 @@
         <v>153</v>
       </c>
       <c r="B399" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C399" t="s">
-        <v>393</v>
+        <v>902</v>
+      </c>
+      <c r="D399" t="s">
+        <v>147</v>
       </c>
       <c r="E399" t="s">
         <v>147</v>
+      </c>
+      <c r="F399" t="s">
+        <v>147</v>
+      </c>
+      <c r="G399" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H399" s="7" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -17393,10 +17444,10 @@
         <v>153</v>
       </c>
       <c r="B400" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C400" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D400" t="s">
         <v>147</v>
@@ -17408,10 +17459,10 @@
         <v>147</v>
       </c>
       <c r="G400" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H400" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -17422,7 +17473,7 @@
         <v>184</v>
       </c>
       <c r="C401" t="s">
-        <v>903</v>
+        <v>386</v>
       </c>
       <c r="D401" t="s">
         <v>147</v>
@@ -17434,10 +17485,10 @@
         <v>147</v>
       </c>
       <c r="G401" s="7" t="s">
-        <v>905</v>
+        <v>387</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>907</v>
+        <v>793</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -17445,10 +17496,10 @@
         <v>153</v>
       </c>
       <c r="B402" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C402" t="s">
-        <v>12</v>
+        <v>388</v>
       </c>
       <c r="D402" t="s">
         <v>147</v>
@@ -17460,10 +17511,10 @@
         <v>147</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>189</v>
+        <v>389</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -17471,10 +17522,10 @@
         <v>153</v>
       </c>
       <c r="B403" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C403" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="D403" t="s">
         <v>147</v>
@@ -17482,11 +17533,14 @@
       <c r="E403" t="s">
         <v>147</v>
       </c>
+      <c r="F403" t="s">
+        <v>147</v>
+      </c>
       <c r="G403" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H403" s="7" t="s">
-        <v>635</v>
+        <v>794</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -17494,25 +17548,13 @@
         <v>153</v>
       </c>
       <c r="B404" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C404" t="s">
-        <v>902</v>
-      </c>
-      <c r="D404" t="s">
-        <v>147</v>
+        <v>392</v>
       </c>
       <c r="E404" t="s">
         <v>147</v>
-      </c>
-      <c r="F404" t="s">
-        <v>147</v>
-      </c>
-      <c r="G404" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="H404" s="7" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -17520,25 +17562,13 @@
         <v>153</v>
       </c>
       <c r="B405" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C405" t="s">
-        <v>903</v>
-      </c>
-      <c r="D405" t="s">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="E405" t="s">
         <v>147</v>
-      </c>
-      <c r="F405" t="s">
-        <v>147</v>
-      </c>
-      <c r="G405" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="H405" s="7" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -17546,10 +17576,10 @@
         <v>153</v>
       </c>
       <c r="B406" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C406" t="s">
-        <v>398</v>
+        <v>902</v>
       </c>
       <c r="D406" t="s">
         <v>147</v>
@@ -17561,21 +17591,21 @@
         <v>147</v>
       </c>
       <c r="G406" s="7" t="s">
-        <v>399</v>
+        <v>904</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>153</v>
       </c>
       <c r="B407" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C407" t="s">
-        <v>400</v>
+        <v>903</v>
       </c>
       <c r="D407" t="s">
         <v>147</v>
@@ -17587,21 +17617,21 @@
         <v>147</v>
       </c>
       <c r="G407" s="7" t="s">
-        <v>401</v>
+        <v>905</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>153</v>
       </c>
       <c r="B408" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C408" t="s">
-        <v>402</v>
+        <v>12</v>
       </c>
       <c r="D408" t="s">
         <v>147</v>
@@ -17613,10 +17643,10 @@
         <v>147</v>
       </c>
       <c r="G408" s="7" t="s">
-        <v>403</v>
+        <v>189</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -17624,10 +17654,10 @@
         <v>153</v>
       </c>
       <c r="B409" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C409" t="s">
-        <v>404</v>
+        <v>9</v>
       </c>
       <c r="D409" t="s">
         <v>147</v>
@@ -17636,10 +17666,10 @@
         <v>147</v>
       </c>
       <c r="G409" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="H409" s="7" t="s">
-        <v>798</v>
+        <v>635</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -17647,10 +17677,10 @@
         <v>153</v>
       </c>
       <c r="B410" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C410" t="s">
-        <v>406</v>
+        <v>902</v>
       </c>
       <c r="D410" t="s">
         <v>147</v>
@@ -17658,11 +17688,14 @@
       <c r="E410" t="s">
         <v>147</v>
       </c>
+      <c r="F410" t="s">
+        <v>147</v>
+      </c>
       <c r="G410" s="7" t="s">
-        <v>407</v>
+        <v>904</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>799</v>
+        <v>906</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -17670,10 +17703,10 @@
         <v>153</v>
       </c>
       <c r="B411" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C411" t="s">
-        <v>408</v>
+        <v>903</v>
       </c>
       <c r="D411" t="s">
         <v>147</v>
@@ -17681,11 +17714,14 @@
       <c r="E411" t="s">
         <v>147</v>
       </c>
+      <c r="F411" t="s">
+        <v>147</v>
+      </c>
       <c r="G411" s="7" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c r="H411" s="7" t="s">
-        <v>800</v>
+        <v>907</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -17696,7 +17732,7 @@
         <v>194</v>
       </c>
       <c r="C412" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D412" t="s">
         <v>147</v>
@@ -17704,11 +17740,14 @@
       <c r="E412" t="s">
         <v>147</v>
       </c>
+      <c r="F412" t="s">
+        <v>147</v>
+      </c>
       <c r="G412" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>802</v>
+        <v>225</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -17719,7 +17758,7 @@
         <v>194</v>
       </c>
       <c r="C413" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D413" t="s">
         <v>147</v>
@@ -17727,14 +17766,17 @@
       <c r="E413" t="s">
         <v>147</v>
       </c>
+      <c r="F413" t="s">
+        <v>147</v>
+      </c>
       <c r="G413" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H413" s="7" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>153</v>
       </c>
@@ -17742,7 +17784,7 @@
         <v>194</v>
       </c>
       <c r="C414" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D414" t="s">
         <v>147</v>
@@ -17750,14 +17792,17 @@
       <c r="E414" t="s">
         <v>147</v>
       </c>
+      <c r="F414" t="s">
+        <v>147</v>
+      </c>
       <c r="G414" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>153</v>
       </c>
@@ -17765,7 +17810,7 @@
         <v>194</v>
       </c>
       <c r="C415" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D415" t="s">
         <v>147</v>
@@ -17774,10 +17819,10 @@
         <v>147</v>
       </c>
       <c r="G415" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
@@ -17788,7 +17833,7 @@
         <v>194</v>
       </c>
       <c r="C416" t="s">
-        <v>902</v>
+        <v>406</v>
       </c>
       <c r="D416" t="s">
         <v>147</v>
@@ -17796,14 +17841,11 @@
       <c r="E416" t="s">
         <v>147</v>
       </c>
-      <c r="F416" t="s">
-        <v>147</v>
-      </c>
       <c r="G416" s="7" t="s">
-        <v>904</v>
+        <v>407</v>
       </c>
       <c r="H416" s="7" t="s">
-        <v>906</v>
+        <v>799</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
@@ -17814,7 +17856,7 @@
         <v>194</v>
       </c>
       <c r="C417" t="s">
-        <v>903</v>
+        <v>408</v>
       </c>
       <c r="D417" t="s">
         <v>147</v>
@@ -17822,14 +17864,11 @@
       <c r="E417" t="s">
         <v>147</v>
       </c>
-      <c r="F417" t="s">
-        <v>147</v>
-      </c>
       <c r="G417" s="7" t="s">
-        <v>905</v>
+        <v>801</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>907</v>
+        <v>800</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
@@ -17837,33 +17876,33 @@
         <v>153</v>
       </c>
       <c r="B418" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C418" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D418" t="s">
         <v>147</v>
       </c>
-      <c r="F418" t="s">
+      <c r="E418" t="s">
         <v>147</v>
       </c>
       <c r="G418" s="7" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>153</v>
       </c>
       <c r="B419" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C419" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="D419" t="s">
         <v>147</v>
@@ -17871,14 +17910,11 @@
       <c r="E419" t="s">
         <v>147</v>
       </c>
-      <c r="F419" t="s">
-        <v>147</v>
-      </c>
       <c r="G419" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="H419" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -17886,77 +17922,71 @@
         <v>153</v>
       </c>
       <c r="B420" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C420" t="s">
+        <v>413</v>
+      </c>
+      <c r="D420" t="s">
+        <v>147</v>
+      </c>
+      <c r="E420" t="s">
+        <v>147</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H420" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>153</v>
+      </c>
+      <c r="B421" t="s">
+        <v>194</v>
+      </c>
+      <c r="C421" t="s">
+        <v>415</v>
+      </c>
+      <c r="D421" t="s">
+        <v>147</v>
+      </c>
+      <c r="E421" t="s">
+        <v>147</v>
+      </c>
+      <c r="G421" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H421" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>153</v>
+      </c>
+      <c r="B422" t="s">
+        <v>194</v>
+      </c>
+      <c r="C422" t="s">
         <v>902</v>
       </c>
-      <c r="D420" t="s">
-        <v>147</v>
-      </c>
-      <c r="E420" t="s">
-        <v>147</v>
-      </c>
-      <c r="F420" t="s">
-        <v>147</v>
-      </c>
-      <c r="G420" s="7" t="s">
+      <c r="D422" t="s">
+        <v>147</v>
+      </c>
+      <c r="E422" t="s">
+        <v>147</v>
+      </c>
+      <c r="F422" t="s">
+        <v>147</v>
+      </c>
+      <c r="G422" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="H420" s="7" t="s">
+      <c r="H422" s="7" t="s">
         <v>906</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>153</v>
-      </c>
-      <c r="B421" t="s">
-        <v>191</v>
-      </c>
-      <c r="C421" t="s">
-        <v>903</v>
-      </c>
-      <c r="D421" t="s">
-        <v>147</v>
-      </c>
-      <c r="E421" t="s">
-        <v>147</v>
-      </c>
-      <c r="F421" t="s">
-        <v>147</v>
-      </c>
-      <c r="G421" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="H421" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>153</v>
-      </c>
-      <c r="B422" t="s">
-        <v>200</v>
-      </c>
-      <c r="C422" t="s">
-        <v>12</v>
-      </c>
-      <c r="D422" t="s">
-        <v>147</v>
-      </c>
-      <c r="E422" t="s">
-        <v>147</v>
-      </c>
-      <c r="F422" t="s">
-        <v>147</v>
-      </c>
-      <c r="G422" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H422" s="7" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -17964,10 +17994,10 @@
         <v>153</v>
       </c>
       <c r="B423" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C423" t="s">
-        <v>420</v>
+        <v>903</v>
       </c>
       <c r="D423" t="s">
         <v>147</v>
@@ -17975,11 +18005,14 @@
       <c r="E423" t="s">
         <v>147</v>
       </c>
+      <c r="F423" t="s">
+        <v>147</v>
+      </c>
       <c r="G423" s="7" t="s">
-        <v>421</v>
+        <v>905</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>806</v>
+        <v>907</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -17987,25 +18020,22 @@
         <v>153</v>
       </c>
       <c r="B424" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C424" t="s">
-        <v>902</v>
+        <v>395</v>
       </c>
       <c r="D424" t="s">
         <v>147</v>
       </c>
-      <c r="E424" t="s">
-        <v>147</v>
-      </c>
       <c r="F424" t="s">
         <v>147</v>
       </c>
       <c r="G424" s="7" t="s">
-        <v>904</v>
+        <v>189</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>906</v>
+        <v>190</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -18013,10 +18043,10 @@
         <v>153</v>
       </c>
       <c r="B425" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C425" t="s">
-        <v>903</v>
+        <v>396</v>
       </c>
       <c r="D425" t="s">
         <v>147</v>
@@ -18028,10 +18058,10 @@
         <v>147</v>
       </c>
       <c r="G425" s="7" t="s">
-        <v>905</v>
+        <v>397</v>
       </c>
       <c r="H425" s="7" t="s">
-        <v>907</v>
+        <v>795</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -18039,19 +18069,25 @@
         <v>153</v>
       </c>
       <c r="B426" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C426" t="s">
-        <v>424</v>
+        <v>902</v>
       </c>
       <c r="D426" t="s">
         <v>147</v>
       </c>
+      <c r="E426" t="s">
+        <v>147</v>
+      </c>
+      <c r="F426" t="s">
+        <v>147</v>
+      </c>
       <c r="G426" s="7" t="s">
-        <v>425</v>
+        <v>904</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>807</v>
+        <v>906</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -18059,10 +18095,10 @@
         <v>153</v>
       </c>
       <c r="B427" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C427" t="s">
-        <v>426</v>
+        <v>903</v>
       </c>
       <c r="D427" t="s">
         <v>147</v>
@@ -18074,30 +18110,36 @@
         <v>147</v>
       </c>
       <c r="G427" s="7" t="s">
-        <v>427</v>
+        <v>905</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>153</v>
       </c>
       <c r="B428" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C428" t="s">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="D428" t="s">
         <v>147</v>
       </c>
+      <c r="E428" t="s">
+        <v>147</v>
+      </c>
+      <c r="F428" t="s">
+        <v>147</v>
+      </c>
       <c r="G428" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -18105,19 +18147,22 @@
         <v>153</v>
       </c>
       <c r="B429" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C429" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D429" t="s">
         <v>147</v>
       </c>
+      <c r="E429" t="s">
+        <v>147</v>
+      </c>
       <c r="G429" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="H429" s="7" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
@@ -18125,19 +18170,25 @@
         <v>153</v>
       </c>
       <c r="B430" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C430" t="s">
-        <v>432</v>
+        <v>902</v>
       </c>
       <c r="D430" t="s">
         <v>147</v>
       </c>
+      <c r="E430" t="s">
+        <v>147</v>
+      </c>
+      <c r="F430" t="s">
+        <v>147</v>
+      </c>
       <c r="G430" s="7" t="s">
-        <v>433</v>
+        <v>904</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>811</v>
+        <v>906</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
@@ -18145,19 +18196,25 @@
         <v>153</v>
       </c>
       <c r="B431" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C431" t="s">
-        <v>434</v>
+        <v>903</v>
       </c>
       <c r="D431" t="s">
         <v>147</v>
       </c>
+      <c r="E431" t="s">
+        <v>147</v>
+      </c>
+      <c r="F431" t="s">
+        <v>147</v>
+      </c>
       <c r="G431" s="7" t="s">
-        <v>435</v>
+        <v>905</v>
       </c>
       <c r="H431" s="7" t="s">
-        <v>812</v>
+        <v>907</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
@@ -18168,19 +18225,16 @@
         <v>207</v>
       </c>
       <c r="C432" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="D432" t="s">
         <v>147</v>
       </c>
-      <c r="E432" t="s">
-        <v>147</v>
-      </c>
       <c r="G432" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
@@ -18191,7 +18245,7 @@
         <v>207</v>
       </c>
       <c r="C433" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="D433" t="s">
         <v>147</v>
@@ -18199,11 +18253,14 @@
       <c r="E433" t="s">
         <v>147</v>
       </c>
+      <c r="F433" t="s">
+        <v>147</v>
+      </c>
       <c r="G433" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>635</v>
+        <v>808</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
@@ -18214,16 +18271,16 @@
         <v>207</v>
       </c>
       <c r="C434" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D434" t="s">
         <v>147</v>
       </c>
       <c r="G434" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
@@ -18234,16 +18291,16 @@
         <v>207</v>
       </c>
       <c r="C435" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D435" t="s">
         <v>147</v>
       </c>
       <c r="G435" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H435" s="7" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -18254,16 +18311,16 @@
         <v>207</v>
       </c>
       <c r="C436" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D436" t="s">
         <v>147</v>
       </c>
       <c r="G436" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H436" s="7" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -18274,16 +18331,16 @@
         <v>207</v>
       </c>
       <c r="C437" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D437" t="s">
         <v>147</v>
       </c>
       <c r="G437" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H437" s="7" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
@@ -18294,7 +18351,7 @@
         <v>207</v>
       </c>
       <c r="C438" t="s">
-        <v>902</v>
+        <v>12</v>
       </c>
       <c r="D438" t="s">
         <v>147</v>
@@ -18302,14 +18359,11 @@
       <c r="E438" t="s">
         <v>147</v>
       </c>
-      <c r="F438" t="s">
-        <v>147</v>
-      </c>
       <c r="G438" s="7" t="s">
-        <v>904</v>
+        <v>436</v>
       </c>
       <c r="H438" s="7" t="s">
-        <v>906</v>
+        <v>789</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
@@ -18320,7 +18374,7 @@
         <v>207</v>
       </c>
       <c r="C439" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D439" t="s">
         <v>147</v>
@@ -18328,14 +18382,11 @@
       <c r="E439" t="s">
         <v>147</v>
       </c>
-      <c r="F439" t="s">
-        <v>147</v>
-      </c>
       <c r="G439" s="7" t="s">
-        <v>905</v>
+        <v>437</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>907</v>
+        <v>635</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
@@ -18343,25 +18394,19 @@
         <v>153</v>
       </c>
       <c r="B440" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C440" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="D440" t="s">
         <v>147</v>
       </c>
-      <c r="E440" t="s">
-        <v>147</v>
-      </c>
-      <c r="F440" t="s">
-        <v>147</v>
-      </c>
       <c r="G440" s="7" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="H440" s="7" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
@@ -18369,22 +18414,19 @@
         <v>153</v>
       </c>
       <c r="B441" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C441" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="D441" t="s">
         <v>147</v>
       </c>
-      <c r="E441" t="s">
-        <v>147</v>
-      </c>
       <c r="G441" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="H441" s="7" t="s">
-        <v>635</v>
+        <v>814</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
@@ -18392,25 +18434,19 @@
         <v>153</v>
       </c>
       <c r="B442" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C442" t="s">
-        <v>902</v>
+        <v>442</v>
       </c>
       <c r="D442" t="s">
         <v>147</v>
       </c>
-      <c r="E442" t="s">
-        <v>147</v>
-      </c>
-      <c r="F442" t="s">
-        <v>147</v>
-      </c>
       <c r="G442" s="7" t="s">
-        <v>904</v>
+        <v>443</v>
       </c>
       <c r="H442" s="7" t="s">
-        <v>906</v>
+        <v>815</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
@@ -18418,25 +18454,19 @@
         <v>153</v>
       </c>
       <c r="B443" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C443" t="s">
-        <v>903</v>
+        <v>444</v>
       </c>
       <c r="D443" t="s">
         <v>147</v>
       </c>
-      <c r="E443" t="s">
-        <v>147</v>
-      </c>
-      <c r="F443" t="s">
-        <v>147</v>
-      </c>
       <c r="G443" s="7" t="s">
-        <v>905</v>
+        <v>445</v>
       </c>
       <c r="H443" s="7" t="s">
-        <v>907</v>
+        <v>816</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
@@ -18444,10 +18474,10 @@
         <v>153</v>
       </c>
       <c r="B444" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C444" t="s">
-        <v>12</v>
+        <v>902</v>
       </c>
       <c r="D444" t="s">
         <v>147</v>
@@ -18459,10 +18489,10 @@
         <v>147</v>
       </c>
       <c r="G444" s="7" t="s">
-        <v>422</v>
+        <v>904</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>789</v>
+        <v>906</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
@@ -18470,10 +18500,10 @@
         <v>153</v>
       </c>
       <c r="B445" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C445" t="s">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="D445" t="s">
         <v>147</v>
@@ -18481,11 +18511,14 @@
       <c r="E445" t="s">
         <v>147</v>
       </c>
+      <c r="F445" t="s">
+        <v>147</v>
+      </c>
       <c r="G445" s="7" t="s">
-        <v>423</v>
+        <v>905</v>
       </c>
       <c r="H445" s="7" t="s">
-        <v>635</v>
+        <v>907</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
@@ -18493,10 +18526,10 @@
         <v>153</v>
       </c>
       <c r="B446" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C446" t="s">
-        <v>902</v>
+        <v>12</v>
       </c>
       <c r="D446" t="s">
         <v>147</v>
@@ -18508,10 +18541,10 @@
         <v>147</v>
       </c>
       <c r="G446" s="7" t="s">
-        <v>904</v>
+        <v>417</v>
       </c>
       <c r="H446" s="7" t="s">
-        <v>906</v>
+        <v>789</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
@@ -18519,10 +18552,10 @@
         <v>153</v>
       </c>
       <c r="B447" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C447" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D447" t="s">
         <v>147</v>
@@ -18530,14 +18563,11 @@
       <c r="E447" t="s">
         <v>147</v>
       </c>
-      <c r="F447" t="s">
-        <v>147</v>
-      </c>
       <c r="G447" s="7" t="s">
-        <v>905</v>
+        <v>418</v>
       </c>
       <c r="H447" s="7" t="s">
-        <v>907</v>
+        <v>635</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
@@ -18545,10 +18575,10 @@
         <v>153</v>
       </c>
       <c r="B448" t="s">
-        <v>779</v>
+        <v>197</v>
       </c>
       <c r="C448" t="s">
-        <v>780</v>
+        <v>902</v>
       </c>
       <c r="D448" t="s">
         <v>147</v>
@@ -18556,11 +18586,14 @@
       <c r="E448" t="s">
         <v>147</v>
       </c>
+      <c r="F448" t="s">
+        <v>147</v>
+      </c>
       <c r="G448" s="7" t="s">
-        <v>873</v>
+        <v>904</v>
       </c>
       <c r="H448" s="7" t="s">
-        <v>91</v>
+        <v>906</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -18568,10 +18601,10 @@
         <v>153</v>
       </c>
       <c r="B449" t="s">
-        <v>779</v>
+        <v>197</v>
       </c>
       <c r="C449" t="s">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="D449" t="s">
         <v>147</v>
@@ -18579,11 +18612,14 @@
       <c r="E449" t="s">
         <v>147</v>
       </c>
+      <c r="F449" t="s">
+        <v>147</v>
+      </c>
       <c r="G449" s="7" t="s">
-        <v>484</v>
+        <v>905</v>
       </c>
       <c r="H449" s="7" t="s">
-        <v>635</v>
+        <v>907</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
@@ -18591,10 +18627,10 @@
         <v>153</v>
       </c>
       <c r="B450" t="s">
-        <v>779</v>
+        <v>204</v>
       </c>
       <c r="C450" t="s">
-        <v>781</v>
+        <v>12</v>
       </c>
       <c r="D450" t="s">
         <v>147</v>
@@ -18602,11 +18638,14 @@
       <c r="E450" t="s">
         <v>147</v>
       </c>
+      <c r="F450" t="s">
+        <v>147</v>
+      </c>
       <c r="G450" s="7" t="s">
-        <v>874</v>
+        <v>422</v>
       </c>
       <c r="H450" s="7" t="s">
-        <v>877</v>
+        <v>789</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
@@ -18614,10 +18653,10 @@
         <v>153</v>
       </c>
       <c r="B451" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="C451" t="s">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="D451" t="s">
         <v>147</v>
@@ -18625,14 +18664,11 @@
       <c r="E451" t="s">
         <v>147</v>
       </c>
-      <c r="F451" t="s">
-        <v>147</v>
-      </c>
       <c r="G451" s="7" t="s">
-        <v>529</v>
+        <v>423</v>
       </c>
       <c r="H451" s="7" t="s">
-        <v>785</v>
+        <v>635</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
@@ -18640,10 +18676,10 @@
         <v>153</v>
       </c>
       <c r="B452" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="C452" t="s">
-        <v>12</v>
+        <v>902</v>
       </c>
       <c r="D452" t="s">
         <v>147</v>
@@ -18651,11 +18687,14 @@
       <c r="E452" t="s">
         <v>147</v>
       </c>
+      <c r="F452" t="s">
+        <v>147</v>
+      </c>
       <c r="G452" s="7" t="s">
-        <v>533</v>
+        <v>904</v>
       </c>
       <c r="H452" s="7" t="s">
-        <v>789</v>
+        <v>906</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
@@ -18663,10 +18702,10 @@
         <v>153</v>
       </c>
       <c r="B453" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="C453" t="s">
-        <v>534</v>
+        <v>903</v>
       </c>
       <c r="D453" t="s">
         <v>147</v>
@@ -18674,11 +18713,14 @@
       <c r="E453" t="s">
         <v>147</v>
       </c>
+      <c r="F453" t="s">
+        <v>147</v>
+      </c>
       <c r="G453" s="7" t="s">
-        <v>535</v>
+        <v>905</v>
       </c>
       <c r="H453" s="7" t="s">
-        <v>841</v>
+        <v>907</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
@@ -18686,10 +18728,10 @@
         <v>153</v>
       </c>
       <c r="B454" t="s">
-        <v>286</v>
+        <v>779</v>
       </c>
       <c r="C454" t="s">
-        <v>902</v>
+        <v>780</v>
       </c>
       <c r="D454" t="s">
         <v>147</v>
@@ -18697,14 +18739,11 @@
       <c r="E454" t="s">
         <v>147</v>
       </c>
-      <c r="F454" t="s">
-        <v>147</v>
-      </c>
       <c r="G454" s="7" t="s">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="H454" s="7" t="s">
-        <v>906</v>
+        <v>91</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -18712,10 +18751,10 @@
         <v>153</v>
       </c>
       <c r="B455" t="s">
-        <v>286</v>
+        <v>779</v>
       </c>
       <c r="C455" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D455" t="s">
         <v>147</v>
@@ -18723,14 +18762,11 @@
       <c r="E455" t="s">
         <v>147</v>
       </c>
-      <c r="F455" t="s">
-        <v>147</v>
-      </c>
       <c r="G455" s="7" t="s">
-        <v>905</v>
+        <v>484</v>
       </c>
       <c r="H455" s="7" t="s">
-        <v>907</v>
+        <v>635</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
@@ -18738,10 +18774,10 @@
         <v>153</v>
       </c>
       <c r="B456" t="s">
-        <v>289</v>
+        <v>779</v>
       </c>
       <c r="C456" t="s">
-        <v>363</v>
+        <v>781</v>
       </c>
       <c r="D456" t="s">
         <v>147</v>
@@ -18749,14 +18785,11 @@
       <c r="E456" t="s">
         <v>147</v>
       </c>
-      <c r="F456" t="s">
-        <v>147</v>
-      </c>
       <c r="G456" s="7" t="s">
-        <v>521</v>
+        <v>874</v>
       </c>
       <c r="H456" s="7" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
@@ -18764,10 +18797,10 @@
         <v>153</v>
       </c>
       <c r="B457" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C457" t="s">
-        <v>536</v>
+        <v>363</v>
       </c>
       <c r="D457" t="s">
         <v>147</v>
@@ -18775,51 +18808,60 @@
       <c r="E457" t="s">
         <v>147</v>
       </c>
+      <c r="F457" t="s">
+        <v>147</v>
+      </c>
       <c r="G457" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H457" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>153</v>
       </c>
       <c r="B458" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C458" t="s">
-        <v>538</v>
+        <v>12</v>
       </c>
       <c r="D458" t="s">
         <v>147</v>
       </c>
+      <c r="E458" t="s">
+        <v>147</v>
+      </c>
       <c r="G458" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H458" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>153</v>
       </c>
       <c r="B459" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C459" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D459" t="s">
         <v>147</v>
       </c>
+      <c r="E459" t="s">
+        <v>147</v>
+      </c>
       <c r="G459" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H459" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -18827,10 +18869,10 @@
         <v>153</v>
       </c>
       <c r="B460" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C460" t="s">
-        <v>542</v>
+        <v>902</v>
       </c>
       <c r="D460" t="s">
         <v>147</v>
@@ -18838,11 +18880,14 @@
       <c r="E460" t="s">
         <v>147</v>
       </c>
+      <c r="F460" t="s">
+        <v>147</v>
+      </c>
       <c r="G460" s="7" t="s">
-        <v>543</v>
+        <v>904</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>635</v>
+        <v>906</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -18850,10 +18895,10 @@
         <v>153</v>
       </c>
       <c r="B461" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C461" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D461" t="s">
         <v>147</v>
@@ -18865,10 +18910,10 @@
         <v>147</v>
       </c>
       <c r="G461" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -18879,7 +18924,7 @@
         <v>289</v>
       </c>
       <c r="C462" t="s">
-        <v>903</v>
+        <v>363</v>
       </c>
       <c r="D462" t="s">
         <v>147</v>
@@ -18891,10 +18936,10 @@
         <v>147</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>905</v>
+        <v>521</v>
       </c>
       <c r="H462" s="7" t="s">
-        <v>907</v>
+        <v>785</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -18902,10 +18947,10 @@
         <v>153</v>
       </c>
       <c r="B463" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C463" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="D463" t="s">
         <v>147</v>
@@ -18913,60 +18958,51 @@
       <c r="E463" t="s">
         <v>147</v>
       </c>
-      <c r="F463" t="s">
-        <v>147</v>
-      </c>
       <c r="G463" s="7" t="s">
-        <v>263</v>
+        <v>537</v>
       </c>
       <c r="H463" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>153</v>
       </c>
       <c r="B464" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C464" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="D464" t="s">
         <v>147</v>
       </c>
-      <c r="E464" t="s">
-        <v>147</v>
-      </c>
       <c r="G464" s="7" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="H464" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>153</v>
       </c>
       <c r="B465" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C465" t="s">
-        <v>16</v>
+        <v>540</v>
       </c>
       <c r="D465" t="s">
         <v>147</v>
       </c>
       <c r="G465" s="7" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="H465" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I465" t="s">
-        <v>974</v>
+        <v>844</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -18974,22 +19010,22 @@
         <v>153</v>
       </c>
       <c r="B466" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C466" t="s">
-        <v>55</v>
+        <v>542</v>
       </c>
       <c r="D466" t="s">
         <v>147</v>
       </c>
+      <c r="E466" t="s">
+        <v>147</v>
+      </c>
       <c r="G466" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="H466" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I466" t="s">
-        <v>975</v>
+        <v>635</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -18997,7 +19033,7 @@
         <v>153</v>
       </c>
       <c r="B467" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C467" t="s">
         <v>902</v>
@@ -19023,7 +19059,7 @@
         <v>153</v>
       </c>
       <c r="B468" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C468" t="s">
         <v>903</v>
@@ -19049,10 +19085,10 @@
         <v>153</v>
       </c>
       <c r="B469" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C469" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="D469" t="s">
         <v>147</v>
@@ -19064,10 +19100,10 @@
         <v>147</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>845</v>
+        <v>264</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -19075,10 +19111,10 @@
         <v>153</v>
       </c>
       <c r="B470" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C470" t="s">
-        <v>15</v>
+        <v>507</v>
       </c>
       <c r="D470" t="s">
         <v>147</v>
@@ -19087,10 +19123,10 @@
         <v>147</v>
       </c>
       <c r="G470" s="7" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="H470" s="7" t="s">
-        <v>645</v>
+        <v>838</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -19098,22 +19134,22 @@
         <v>153</v>
       </c>
       <c r="B471" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C471" t="s">
-        <v>546</v>
+        <v>16</v>
       </c>
       <c r="D471" t="s">
         <v>147</v>
       </c>
-      <c r="E471" t="s">
-        <v>147</v>
-      </c>
       <c r="G471" s="7" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="H471" s="7" t="s">
-        <v>846</v>
+        <v>288</v>
+      </c>
+      <c r="I471" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -19121,25 +19157,22 @@
         <v>153</v>
       </c>
       <c r="B472" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C472" t="s">
-        <v>902</v>
+        <v>55</v>
       </c>
       <c r="D472" t="s">
         <v>147</v>
       </c>
-      <c r="E472" t="s">
-        <v>147</v>
-      </c>
-      <c r="F472" t="s">
-        <v>147</v>
-      </c>
       <c r="G472" s="7" t="s">
-        <v>904</v>
+        <v>510</v>
       </c>
       <c r="H472" s="7" t="s">
-        <v>906</v>
+        <v>281</v>
+      </c>
+      <c r="I472" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -19147,10 +19180,10 @@
         <v>153</v>
       </c>
       <c r="B473" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C473" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D473" t="s">
         <v>147</v>
@@ -19162,10 +19195,10 @@
         <v>147</v>
       </c>
       <c r="G473" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H473" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -19173,22 +19206,25 @@
         <v>153</v>
       </c>
       <c r="B474" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C474" t="s">
-        <v>511</v>
+        <v>903</v>
       </c>
       <c r="D474" t="s">
         <v>147</v>
       </c>
+      <c r="E474" t="s">
+        <v>147</v>
+      </c>
       <c r="F474" t="s">
         <v>147</v>
       </c>
       <c r="G474" s="7" t="s">
-        <v>512</v>
+        <v>905</v>
       </c>
       <c r="H474" s="7" t="s">
-        <v>839</v>
+        <v>907</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -19196,10 +19232,10 @@
         <v>153</v>
       </c>
       <c r="B475" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C475" t="s">
-        <v>12</v>
+        <v>544</v>
       </c>
       <c r="D475" t="s">
         <v>147</v>
@@ -19207,11 +19243,14 @@
       <c r="E475" t="s">
         <v>147</v>
       </c>
+      <c r="F475" t="s">
+        <v>147</v>
+      </c>
       <c r="G475" s="7" t="s">
-        <v>513</v>
+        <v>293</v>
       </c>
       <c r="H475" s="7" t="s">
-        <v>789</v>
+        <v>845</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -19219,10 +19258,10 @@
         <v>153</v>
       </c>
       <c r="B476" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C476" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D476" t="s">
         <v>147</v>
@@ -19231,10 +19270,10 @@
         <v>147</v>
       </c>
       <c r="G476" s="7" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="H476" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -19242,10 +19281,10 @@
         <v>153</v>
       </c>
       <c r="B477" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C477" t="s">
-        <v>902</v>
+        <v>546</v>
       </c>
       <c r="D477" t="s">
         <v>147</v>
@@ -19253,14 +19292,11 @@
       <c r="E477" t="s">
         <v>147</v>
       </c>
-      <c r="F477" t="s">
-        <v>147</v>
-      </c>
       <c r="G477" s="7" t="s">
-        <v>904</v>
+        <v>547</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>906</v>
+        <v>846</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -19268,10 +19304,10 @@
         <v>153</v>
       </c>
       <c r="B478" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C478" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D478" t="s">
         <v>147</v>
@@ -19283,10 +19319,10 @@
         <v>147</v>
       </c>
       <c r="G478" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H478" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -19294,22 +19330,25 @@
         <v>153</v>
       </c>
       <c r="B479" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C479" t="s">
-        <v>478</v>
+        <v>903</v>
       </c>
       <c r="D479" t="s">
         <v>147</v>
       </c>
+      <c r="E479" t="s">
+        <v>147</v>
+      </c>
       <c r="F479" t="s">
         <v>147</v>
       </c>
       <c r="G479" s="7" t="s">
-        <v>515</v>
+        <v>905</v>
       </c>
       <c r="H479" s="7" t="s">
-        <v>223</v>
+        <v>907</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -19317,25 +19356,22 @@
         <v>153</v>
       </c>
       <c r="B480" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C480" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D480" t="s">
         <v>147</v>
       </c>
-      <c r="E480" t="s">
-        <v>147</v>
-      </c>
       <c r="F480" t="s">
         <v>147</v>
       </c>
       <c r="G480" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H480" s="7" t="s">
-        <v>772</v>
+        <v>839</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -19343,10 +19379,10 @@
         <v>153</v>
       </c>
       <c r="B481" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C481" t="s">
-        <v>902</v>
+        <v>12</v>
       </c>
       <c r="D481" t="s">
         <v>147</v>
@@ -19354,14 +19390,11 @@
       <c r="E481" t="s">
         <v>147</v>
       </c>
-      <c r="F481" t="s">
-        <v>147</v>
-      </c>
       <c r="G481" s="7" t="s">
-        <v>904</v>
+        <v>513</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>906</v>
+        <v>789</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -19369,10 +19402,10 @@
         <v>153</v>
       </c>
       <c r="B482" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C482" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D482" t="s">
         <v>147</v>
@@ -19380,14 +19413,11 @@
       <c r="E482" t="s">
         <v>147</v>
       </c>
-      <c r="F482" t="s">
-        <v>147</v>
-      </c>
       <c r="G482" s="7" t="s">
-        <v>905</v>
+        <v>514</v>
       </c>
       <c r="H482" s="7" t="s">
-        <v>907</v>
+        <v>635</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -19395,10 +19425,10 @@
         <v>153</v>
       </c>
       <c r="B483" t="s">
-        <v>778</v>
+        <v>265</v>
       </c>
       <c r="C483" t="s">
-        <v>782</v>
+        <v>902</v>
       </c>
       <c r="D483" t="s">
         <v>147</v>
@@ -19406,11 +19436,14 @@
       <c r="E483" t="s">
         <v>147</v>
       </c>
+      <c r="F483" t="s">
+        <v>147</v>
+      </c>
       <c r="G483" s="7" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="H483" s="7" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -19418,10 +19451,10 @@
         <v>153</v>
       </c>
       <c r="B484" t="s">
-        <v>778</v>
+        <v>265</v>
       </c>
       <c r="C484" t="s">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="D484" t="s">
         <v>147</v>
@@ -19429,77 +19462,89 @@
       <c r="E484" t="s">
         <v>147</v>
       </c>
+      <c r="F484" t="s">
+        <v>147</v>
+      </c>
       <c r="G484" s="7" t="s">
-        <v>484</v>
+        <v>905</v>
       </c>
       <c r="H484" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>153</v>
       </c>
       <c r="B485" t="s">
-        <v>944</v>
+        <v>267</v>
       </c>
       <c r="C485" t="s">
-        <v>945</v>
+        <v>478</v>
       </c>
       <c r="D485" t="s">
         <v>147</v>
       </c>
-      <c r="E485" t="s">
-        <v>147</v>
-      </c>
       <c r="F485" t="s">
         <v>147</v>
       </c>
-      <c r="G485" s="13" t="s">
-        <v>953</v>
+      <c r="G485" s="7" t="s">
+        <v>515</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>153</v>
       </c>
       <c r="B486" t="s">
-        <v>944</v>
+        <v>267</v>
       </c>
       <c r="C486" t="s">
-        <v>12</v>
+        <v>516</v>
       </c>
       <c r="D486" t="s">
         <v>147</v>
       </c>
-      <c r="G486" s="13" t="s">
-        <v>955</v>
+      <c r="E486" t="s">
+        <v>147</v>
+      </c>
+      <c r="F486" t="s">
+        <v>147</v>
+      </c>
+      <c r="G486" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="H486" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>153</v>
       </c>
       <c r="B487" t="s">
-        <v>944</v>
+        <v>267</v>
       </c>
       <c r="C487" t="s">
-        <v>946</v>
+        <v>902</v>
       </c>
       <c r="D487" t="s">
         <v>147</v>
       </c>
-      <c r="G487" s="13" t="s">
-        <v>956</v>
+      <c r="E487" t="s">
+        <v>147</v>
+      </c>
+      <c r="F487" t="s">
+        <v>147</v>
+      </c>
+      <c r="G487" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="H487" s="7" t="s">
-        <v>957</v>
+        <v>906</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
@@ -19507,71 +19552,74 @@
         <v>153</v>
       </c>
       <c r="B488" t="s">
-        <v>944</v>
+        <v>267</v>
       </c>
       <c r="C488" t="s">
-        <v>947</v>
+        <v>903</v>
       </c>
       <c r="D488" t="s">
         <v>147</v>
       </c>
+      <c r="E488" t="s">
+        <v>147</v>
+      </c>
+      <c r="F488" t="s">
+        <v>147</v>
+      </c>
       <c r="G488" s="7" t="s">
-        <v>969</v>
+        <v>905</v>
       </c>
       <c r="H488" s="7" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>153</v>
       </c>
       <c r="B489" t="s">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="C489" t="s">
-        <v>948</v>
+        <v>782</v>
       </c>
       <c r="D489" t="s">
         <v>147</v>
       </c>
-      <c r="G489" s="13" t="s">
-        <v>966</v>
+      <c r="E489" t="s">
+        <v>147</v>
+      </c>
+      <c r="G489" s="7" t="s">
+        <v>875</v>
       </c>
       <c r="H489" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="I489" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>153</v>
       </c>
       <c r="B490" t="s">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="C490" t="s">
-        <v>949</v>
+        <v>9</v>
       </c>
       <c r="D490" t="s">
         <v>147</v>
       </c>
-      <c r="F490" t="s">
-        <v>147</v>
-      </c>
-      <c r="G490" s="13" t="s">
-        <v>960</v>
+      <c r="E490" t="s">
+        <v>147</v>
+      </c>
+      <c r="G490" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="H490" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="I490" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>153</v>
       </c>
@@ -19579,19 +19627,25 @@
         <v>944</v>
       </c>
       <c r="C491" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D491" t="s">
         <v>147</v>
       </c>
-      <c r="G491" s="7" t="s">
-        <v>964</v>
+      <c r="E491" t="s">
+        <v>147</v>
+      </c>
+      <c r="F491" t="s">
+        <v>147</v>
+      </c>
+      <c r="G491" s="13" t="s">
+        <v>953</v>
       </c>
       <c r="H491" s="7" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>153</v>
       </c>
@@ -19599,19 +19653,19 @@
         <v>944</v>
       </c>
       <c r="C492" t="s">
-        <v>951</v>
+        <v>12</v>
       </c>
       <c r="D492" t="s">
         <v>147</v>
       </c>
-      <c r="G492" s="7" t="s">
-        <v>965</v>
+      <c r="G492" s="13" t="s">
+        <v>955</v>
       </c>
       <c r="H492" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>153</v>
       </c>
@@ -19619,19 +19673,19 @@
         <v>944</v>
       </c>
       <c r="C493" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D493" t="s">
         <v>147</v>
       </c>
       <c r="G493" s="13" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H493" s="7" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>153</v>
       </c>
@@ -19639,22 +19693,19 @@
         <v>944</v>
       </c>
       <c r="C494" t="s">
-        <v>498</v>
+        <v>947</v>
       </c>
       <c r="D494" t="s">
         <v>147</v>
       </c>
-      <c r="G494" s="13" t="s">
-        <v>182</v>
+      <c r="G494" s="7" t="s">
+        <v>969</v>
       </c>
       <c r="H494" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I494" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>153</v>
       </c>
@@ -19662,25 +19713,22 @@
         <v>944</v>
       </c>
       <c r="C495" t="s">
-        <v>902</v>
+        <v>948</v>
       </c>
       <c r="D495" t="s">
         <v>147</v>
       </c>
-      <c r="E495" t="s">
-        <v>147</v>
-      </c>
-      <c r="F495" t="s">
-        <v>147</v>
-      </c>
-      <c r="G495" s="7" t="s">
-        <v>904</v>
+      <c r="G495" s="13" t="s">
+        <v>966</v>
       </c>
       <c r="H495" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="I495" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>153</v>
       </c>
@@ -19688,154 +19736,160 @@
         <v>944</v>
       </c>
       <c r="C496" t="s">
+        <v>949</v>
+      </c>
+      <c r="D496" t="s">
+        <v>147</v>
+      </c>
+      <c r="F496" t="s">
+        <v>147</v>
+      </c>
+      <c r="G496" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="H496" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="I496" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>153</v>
+      </c>
+      <c r="B497" t="s">
+        <v>944</v>
+      </c>
+      <c r="C497" t="s">
+        <v>950</v>
+      </c>
+      <c r="D497" t="s">
+        <v>147</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="H497" s="7" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>153</v>
+      </c>
+      <c r="B498" t="s">
+        <v>944</v>
+      </c>
+      <c r="C498" t="s">
+        <v>951</v>
+      </c>
+      <c r="D498" t="s">
+        <v>147</v>
+      </c>
+      <c r="G498" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="H498" s="7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>153</v>
+      </c>
+      <c r="B499" t="s">
+        <v>944</v>
+      </c>
+      <c r="C499" t="s">
+        <v>952</v>
+      </c>
+      <c r="D499" t="s">
+        <v>147</v>
+      </c>
+      <c r="G499" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="H499" s="7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>153</v>
+      </c>
+      <c r="B500" t="s">
+        <v>944</v>
+      </c>
+      <c r="C500" t="s">
+        <v>498</v>
+      </c>
+      <c r="D500" t="s">
+        <v>147</v>
+      </c>
+      <c r="G500" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H500" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I500" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>153</v>
+      </c>
+      <c r="B501" t="s">
+        <v>944</v>
+      </c>
+      <c r="C501" t="s">
+        <v>902</v>
+      </c>
+      <c r="D501" t="s">
+        <v>147</v>
+      </c>
+      <c r="E501" t="s">
+        <v>147</v>
+      </c>
+      <c r="F501" t="s">
+        <v>147</v>
+      </c>
+      <c r="G501" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H501" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>153</v>
+      </c>
+      <c r="B502" t="s">
+        <v>944</v>
+      </c>
+      <c r="C502" t="s">
         <v>903</v>
       </c>
-      <c r="D496" t="s">
-        <v>147</v>
-      </c>
-      <c r="E496" t="s">
-        <v>147</v>
-      </c>
-      <c r="F496" t="s">
-        <v>147</v>
-      </c>
-      <c r="G496" s="7" t="s">
+      <c r="D502" t="s">
+        <v>147</v>
+      </c>
+      <c r="E502" t="s">
+        <v>147</v>
+      </c>
+      <c r="F502" t="s">
+        <v>147</v>
+      </c>
+      <c r="G502" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H496" s="7" t="s">
+      <c r="H502" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>153</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D497" t="s">
-        <v>147</v>
-      </c>
-      <c r="E497" t="s">
-        <v>147</v>
-      </c>
-      <c r="F497" t="s">
-        <v>147</v>
-      </c>
-      <c r="G497" s="13" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H497" s="7" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
-        <v>153</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D498" t="s">
-        <v>147</v>
-      </c>
-      <c r="G498" s="13" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H498" s="7" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>153</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D499" t="s">
-        <v>147</v>
-      </c>
-      <c r="G499" s="13" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H499" s="7" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
-        <v>153</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D500" t="s">
-        <v>147</v>
-      </c>
-      <c r="G500" s="7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H500" s="7" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
-        <v>153</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D501" t="s">
-        <v>147</v>
-      </c>
-      <c r="F501" t="s">
-        <v>147</v>
-      </c>
-      <c r="G501" s="12" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H501" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
-        <v>153</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C502" t="s">
-        <v>586</v>
-      </c>
-      <c r="D502" t="s">
-        <v>147</v>
-      </c>
-      <c r="G502" s="12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H502" s="7" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>153</v>
       </c>
@@ -19843,19 +19897,25 @@
         <v>1009</v>
       </c>
       <c r="C503" t="s">
-        <v>584</v>
+        <v>1011</v>
       </c>
       <c r="D503" t="s">
         <v>147</v>
       </c>
-      <c r="G503" s="12" t="s">
-        <v>1036</v>
+      <c r="E503" t="s">
+        <v>147</v>
+      </c>
+      <c r="F503" t="s">
+        <v>147</v>
+      </c>
+      <c r="G503" s="13" t="s">
+        <v>1026</v>
       </c>
       <c r="H503" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>153</v>
       </c>
@@ -19863,19 +19923,19 @@
         <v>1009</v>
       </c>
       <c r="C504" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D504" t="s">
         <v>147</v>
       </c>
-      <c r="G504" s="12" t="s">
-        <v>1037</v>
+      <c r="G504" s="13" t="s">
+        <v>1028</v>
       </c>
       <c r="H504" s="7" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -19883,19 +19943,19 @@
         <v>1009</v>
       </c>
       <c r="C505" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D505" t="s">
         <v>147</v>
       </c>
-      <c r="G505" s="12" t="s">
-        <v>1039</v>
+      <c r="G505" s="13" t="s">
+        <v>1030</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>153</v>
       </c>
@@ -19903,19 +19963,19 @@
         <v>1009</v>
       </c>
       <c r="C506" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D506" t="s">
         <v>147</v>
       </c>
-      <c r="G506" s="12" t="s">
-        <v>1041</v>
+      <c r="G506" s="7" t="s">
+        <v>1033</v>
       </c>
       <c r="H506" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -19923,19 +19983,22 @@
         <v>1009</v>
       </c>
       <c r="C507" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D507" t="s">
         <v>147</v>
       </c>
-      <c r="G507" s="7" t="s">
-        <v>1042</v>
+      <c r="F507" t="s">
+        <v>147</v>
+      </c>
+      <c r="G507" s="12" t="s">
+        <v>1034</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -19943,19 +20006,19 @@
         <v>1009</v>
       </c>
       <c r="C508" t="s">
-        <v>1020</v>
+        <v>586</v>
       </c>
       <c r="D508" t="s">
         <v>147</v>
       </c>
-      <c r="G508" s="7" t="s">
-        <v>1044</v>
+      <c r="G508" s="12" t="s">
+        <v>1035</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>153</v>
       </c>
@@ -19963,19 +20026,19 @@
         <v>1009</v>
       </c>
       <c r="C509" t="s">
-        <v>1021</v>
+        <v>584</v>
       </c>
       <c r="D509" t="s">
         <v>147</v>
       </c>
-      <c r="G509" s="7" t="s">
-        <v>1046</v>
+      <c r="G509" s="12" t="s">
+        <v>1036</v>
       </c>
       <c r="H509" s="7" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>153</v>
       </c>
@@ -19983,19 +20046,19 @@
         <v>1009</v>
       </c>
       <c r="C510" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D510" t="s">
         <v>147</v>
       </c>
-      <c r="G510" s="7" t="s">
-        <v>1048</v>
+      <c r="G510" s="12" t="s">
+        <v>1037</v>
       </c>
       <c r="H510" s="7" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>153</v>
       </c>
@@ -20003,19 +20066,19 @@
         <v>1009</v>
       </c>
       <c r="C511" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D511" t="s">
         <v>147</v>
       </c>
-      <c r="G511" s="7" t="s">
-        <v>1050</v>
+      <c r="G511" s="12" t="s">
+        <v>1039</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>153</v>
       </c>
@@ -20023,22 +20086,19 @@
         <v>1009</v>
       </c>
       <c r="C512" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D512" t="s">
         <v>147</v>
       </c>
-      <c r="F512" t="s">
-        <v>147</v>
-      </c>
-      <c r="G512" s="7" t="s">
-        <v>1052</v>
+      <c r="G512" s="12" t="s">
+        <v>1041</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>153</v>
       </c>
@@ -20046,19 +20106,19 @@
         <v>1009</v>
       </c>
       <c r="C513" t="s">
-        <v>559</v>
+        <v>1019</v>
       </c>
       <c r="D513" t="s">
         <v>147</v>
       </c>
       <c r="G513" s="7" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="H513" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>153</v>
       </c>
@@ -20066,22 +20126,19 @@
         <v>1009</v>
       </c>
       <c r="C514" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D514" t="s">
         <v>147</v>
       </c>
-      <c r="E514" t="s">
-        <v>147</v>
-      </c>
       <c r="G514" s="7" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="H514" s="7" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>153</v>
       </c>
@@ -20089,25 +20146,19 @@
         <v>1009</v>
       </c>
       <c r="C515" t="s">
-        <v>902</v>
+        <v>1021</v>
       </c>
       <c r="D515" t="s">
         <v>147</v>
       </c>
-      <c r="E515" t="s">
-        <v>147</v>
-      </c>
-      <c r="F515" t="s">
-        <v>147</v>
-      </c>
       <c r="G515" s="7" t="s">
-        <v>904</v>
+        <v>1046</v>
       </c>
       <c r="H515" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>153</v>
       </c>
@@ -20115,111 +20166,90 @@
         <v>1009</v>
       </c>
       <c r="C516" t="s">
-        <v>903</v>
+        <v>1022</v>
       </c>
       <c r="D516" t="s">
         <v>147</v>
       </c>
-      <c r="E516" t="s">
-        <v>147</v>
-      </c>
-      <c r="F516" t="s">
-        <v>147</v>
-      </c>
       <c r="G516" s="7" t="s">
-        <v>905</v>
+        <v>1048</v>
       </c>
       <c r="H516" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>153</v>
       </c>
       <c r="B517" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C517" t="s">
-        <v>398</v>
+        <v>1023</v>
       </c>
       <c r="D517" t="s">
         <v>147</v>
       </c>
-      <c r="F517" t="s">
-        <v>147</v>
-      </c>
       <c r="G517" s="7" t="s">
-        <v>1010</v>
+        <v>1050</v>
       </c>
       <c r="H517" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>153</v>
       </c>
       <c r="B518" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C518" t="s">
-        <v>7</v>
+        <v>1024</v>
       </c>
       <c r="D518" t="s">
         <v>147</v>
       </c>
-      <c r="E518" t="s">
-        <v>147</v>
-      </c>
       <c r="F518" t="s">
         <v>147</v>
       </c>
       <c r="G518" s="7" t="s">
-        <v>521</v>
+        <v>1052</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I518" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>153</v>
       </c>
       <c r="B519" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C519" t="s">
-        <v>1064</v>
+        <v>559</v>
       </c>
       <c r="D519" t="s">
         <v>147</v>
       </c>
-      <c r="E519" t="s">
-        <v>147</v>
-      </c>
-      <c r="F519" t="s">
-        <v>147</v>
-      </c>
       <c r="G519" s="7" t="s">
-        <v>789</v>
+        <v>1054</v>
       </c>
       <c r="H519" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>153</v>
       </c>
       <c r="B520" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C520" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
       <c r="D520" t="s">
         <v>147</v>
@@ -20228,18 +20258,18 @@
         <v>147</v>
       </c>
       <c r="G520" s="7" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="H520" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>153</v>
       </c>
       <c r="B521" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C521" t="s">
         <v>902</v>
@@ -20260,12 +20290,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>153</v>
       </c>
       <c r="B522" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C522" t="s">
         <v>903</v>
@@ -20286,12 +20316,12 @@
         <v>907</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B523" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C523" t="s">
         <v>398</v>
@@ -20308,126 +20338,138 @@
       <c r="H523" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J523" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K523" t="s">
-        <v>1178</v>
-      </c>
-      <c r="L523" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B524" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C524" t="s">
-        <v>1102</v>
+        <v>7</v>
+      </c>
+      <c r="D524" t="s">
+        <v>147</v>
+      </c>
+      <c r="E524" t="s">
+        <v>147</v>
+      </c>
+      <c r="F524" t="s">
+        <v>147</v>
       </c>
       <c r="G524" s="7" t="s">
-        <v>1117</v>
+        <v>521</v>
       </c>
       <c r="H524" s="7" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="525" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="I524" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B525" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C525" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
       <c r="D525" t="s">
         <v>147</v>
       </c>
+      <c r="E525" t="s">
+        <v>147</v>
+      </c>
       <c r="F525" t="s">
         <v>147</v>
       </c>
-      <c r="G525" s="12" t="s">
-        <v>1119</v>
+      <c r="G525" s="7" t="s">
+        <v>789</v>
       </c>
       <c r="H525" s="7" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="526" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B526" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C526" t="s">
-        <v>1104</v>
+        <v>9</v>
       </c>
       <c r="D526" t="s">
         <v>147</v>
       </c>
-      <c r="G526" s="12" t="s">
-        <v>1122</v>
+      <c r="E526" t="s">
+        <v>147</v>
+      </c>
+      <c r="G526" s="7" t="s">
+        <v>1065</v>
       </c>
       <c r="H526" s="7" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="527" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B527" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C527" t="s">
-        <v>1105</v>
+        <v>902</v>
       </c>
       <c r="D527" t="s">
         <v>147</v>
       </c>
+      <c r="E527" t="s">
+        <v>147</v>
+      </c>
       <c r="F527" t="s">
         <v>147</v>
       </c>
-      <c r="G527" s="12" t="s">
-        <v>1123</v>
+      <c r="G527" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="H527" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I527" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="528" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B528" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C528" t="s">
-        <v>1106</v>
+        <v>903</v>
       </c>
       <c r="D528" t="s">
         <v>147</v>
       </c>
+      <c r="E528" t="s">
+        <v>147</v>
+      </c>
       <c r="F528" t="s">
         <v>147</v>
       </c>
-      <c r="G528" s="12" t="s">
-        <v>1124</v>
+      <c r="G528" s="7" t="s">
+        <v>905</v>
       </c>
       <c r="H528" s="7" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>0</v>
       </c>
@@ -20435,7 +20477,7 @@
         <v>1074</v>
       </c>
       <c r="C529" t="s">
-        <v>1107</v>
+        <v>398</v>
       </c>
       <c r="D529" t="s">
         <v>147</v>
@@ -20443,14 +20485,23 @@
       <c r="F529" t="s">
         <v>147</v>
       </c>
-      <c r="G529" s="12" t="s">
-        <v>1125</v>
+      <c r="G529" s="7" t="s">
+        <v>1010</v>
       </c>
       <c r="H529" s="7" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="J529" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K529" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L529" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>0</v>
       </c>
@@ -20458,22 +20509,16 @@
         <v>1074</v>
       </c>
       <c r="C530" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D530" t="s">
-        <v>147</v>
-      </c>
-      <c r="F530" t="s">
-        <v>147</v>
-      </c>
-      <c r="G530" s="12" t="s">
-        <v>1134</v>
+        <v>1102</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>1117</v>
       </c>
       <c r="H530" s="7" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -20481,19 +20526,22 @@
         <v>1074</v>
       </c>
       <c r="C531" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="D531" t="s">
         <v>147</v>
       </c>
+      <c r="F531" t="s">
+        <v>147</v>
+      </c>
       <c r="G531" s="12" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="H531" s="7" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -20501,19 +20549,19 @@
         <v>1074</v>
       </c>
       <c r="C532" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="D532" t="s">
         <v>147</v>
       </c>
       <c r="G532" s="12" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="H532" s="7" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -20521,19 +20569,25 @@
         <v>1074</v>
       </c>
       <c r="C533" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="D533" t="s">
         <v>147</v>
       </c>
+      <c r="F533" t="s">
+        <v>147</v>
+      </c>
       <c r="G533" s="12" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="H533" s="7" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1136</v>
+      </c>
+      <c r="I533" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -20541,19 +20595,22 @@
         <v>1074</v>
       </c>
       <c r="C534" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="D534" t="s">
         <v>147</v>
       </c>
-      <c r="G534" s="7" t="s">
-        <v>1130</v>
+      <c r="F534" t="s">
+        <v>147</v>
+      </c>
+      <c r="G534" s="12" t="s">
+        <v>1124</v>
       </c>
       <c r="H534" s="7" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -20561,19 +20618,22 @@
         <v>1074</v>
       </c>
       <c r="C535" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="D535" t="s">
         <v>147</v>
       </c>
-      <c r="G535" s="7" t="s">
-        <v>1129</v>
+      <c r="F535" t="s">
+        <v>147</v>
+      </c>
+      <c r="G535" s="12" t="s">
+        <v>1125</v>
       </c>
       <c r="H535" s="7" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>0</v>
       </c>
@@ -20581,19 +20641,22 @@
         <v>1074</v>
       </c>
       <c r="C536" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="D536" t="s">
         <v>147</v>
       </c>
-      <c r="G536" s="7" t="s">
-        <v>1131</v>
+      <c r="F536" t="s">
+        <v>147</v>
+      </c>
+      <c r="G536" s="12" t="s">
+        <v>1134</v>
       </c>
       <c r="H536" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -20601,19 +20664,19 @@
         <v>1074</v>
       </c>
       <c r="C537" t="s">
-        <v>576</v>
+        <v>1109</v>
       </c>
       <c r="D537" t="s">
         <v>147</v>
       </c>
-      <c r="G537" s="7" t="s">
-        <v>1132</v>
+      <c r="G537" s="12" t="s">
+        <v>1126</v>
       </c>
       <c r="H537" s="7" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>0</v>
       </c>
@@ -20621,22 +20684,19 @@
         <v>1074</v>
       </c>
       <c r="C538" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="D538" t="s">
         <v>147</v>
       </c>
-      <c r="F538" t="s">
-        <v>147</v>
-      </c>
-      <c r="G538" s="7" t="s">
-        <v>1133</v>
+      <c r="G538" s="12" t="s">
+        <v>1127</v>
       </c>
       <c r="H538" s="7" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -20644,22 +20704,19 @@
         <v>1074</v>
       </c>
       <c r="C539" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="D539" t="s">
         <v>147</v>
       </c>
-      <c r="F539" t="s">
-        <v>147</v>
-      </c>
-      <c r="G539" s="7" t="s">
-        <v>1135</v>
+      <c r="G539" s="12" t="s">
+        <v>1128</v>
       </c>
       <c r="H539" s="7" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -20667,25 +20724,19 @@
         <v>1074</v>
       </c>
       <c r="C540" t="s">
-        <v>902</v>
+        <v>1112</v>
       </c>
       <c r="D540" t="s">
         <v>147</v>
       </c>
-      <c r="E540" t="s">
-        <v>147</v>
-      </c>
-      <c r="F540" t="s">
-        <v>147</v>
-      </c>
       <c r="G540" s="7" t="s">
-        <v>904</v>
+        <v>1130</v>
       </c>
       <c r="H540" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -20693,100 +20744,79 @@
         <v>1074</v>
       </c>
       <c r="C541" t="s">
-        <v>903</v>
+        <v>1113</v>
       </c>
       <c r="D541" t="s">
         <v>147</v>
       </c>
-      <c r="E541" t="s">
-        <v>147</v>
-      </c>
-      <c r="F541" t="s">
-        <v>147</v>
-      </c>
       <c r="G541" s="7" t="s">
-        <v>905</v>
+        <v>1129</v>
       </c>
       <c r="H541" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>0</v>
       </c>
       <c r="B542" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C542" t="s">
-        <v>1148</v>
+        <v>1114</v>
       </c>
       <c r="D542" t="s">
         <v>147</v>
       </c>
-      <c r="F542" t="s">
-        <v>147</v>
-      </c>
       <c r="G542" s="7" t="s">
-        <v>1010</v>
+        <v>1131</v>
       </c>
       <c r="H542" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>0</v>
       </c>
       <c r="B543" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C543" t="s">
-        <v>7</v>
+        <v>576</v>
       </c>
       <c r="D543" t="s">
         <v>147</v>
       </c>
-      <c r="E543" t="s">
-        <v>147</v>
-      </c>
-      <c r="F543" t="s">
-        <v>147</v>
-      </c>
       <c r="G543" s="7" t="s">
-        <v>521</v>
+        <v>1132</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I543" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>0</v>
       </c>
       <c r="B544" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C544" t="s">
-        <v>1064</v>
+        <v>1115</v>
       </c>
       <c r="D544" t="s">
         <v>147</v>
       </c>
-      <c r="E544" t="s">
-        <v>147</v>
-      </c>
       <c r="F544" t="s">
         <v>147</v>
       </c>
       <c r="G544" s="7" t="s">
-        <v>789</v>
+        <v>1133</v>
       </c>
       <c r="H544" s="7" t="s">
-        <v>789</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.3">
@@ -20794,22 +20824,22 @@
         <v>0</v>
       </c>
       <c r="B545" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C545" t="s">
-        <v>9</v>
+        <v>1116</v>
       </c>
       <c r="D545" t="s">
         <v>147</v>
       </c>
-      <c r="E545" t="s">
+      <c r="F545" t="s">
         <v>147</v>
       </c>
       <c r="G545" s="7" t="s">
-        <v>1065</v>
+        <v>1135</v>
       </c>
       <c r="H545" s="7" t="s">
-        <v>635</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.3">
@@ -20817,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="B546" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C546" t="s">
         <v>902</v>
@@ -20843,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="B547" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C547" t="s">
         <v>903</v>
@@ -20864,33 +20894,27 @@
         <v>907</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>0</v>
       </c>
       <c r="B548" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C548" t="s">
-        <v>11</v>
+        <v>1148</v>
       </c>
       <c r="D548" t="s">
         <v>147</v>
       </c>
-      <c r="E548" t="s">
-        <v>147</v>
-      </c>
       <c r="F548" t="s">
         <v>147</v>
       </c>
-      <c r="G548" s="12" t="s">
-        <v>1149</v>
+      <c r="G548" s="7" t="s">
+        <v>1010</v>
       </c>
       <c r="H548" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I548" t="s">
-        <v>934</v>
+        <v>225</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.3">
@@ -20898,22 +20922,28 @@
         <v>0</v>
       </c>
       <c r="B549" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C549" t="s">
-        <v>1148</v>
+        <v>7</v>
       </c>
       <c r="D549" t="s">
         <v>147</v>
       </c>
+      <c r="E549" t="s">
+        <v>147</v>
+      </c>
       <c r="F549" t="s">
         <v>147</v>
       </c>
       <c r="G549" s="7" t="s">
-        <v>1010</v>
+        <v>521</v>
       </c>
       <c r="H549" s="7" t="s">
-        <v>225</v>
+        <v>291</v>
+      </c>
+      <c r="I549" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.3">
@@ -20921,10 +20951,10 @@
         <v>0</v>
       </c>
       <c r="B550" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C550" t="s">
-        <v>1150</v>
+        <v>1064</v>
       </c>
       <c r="D550" t="s">
         <v>147</v>
@@ -20936,13 +20966,10 @@
         <v>147</v>
       </c>
       <c r="G550" s="7" t="s">
-        <v>135</v>
+        <v>789</v>
       </c>
       <c r="H550" s="7" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I550" t="s">
-        <v>936</v>
+        <v>789</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.3">
@@ -20950,10 +20977,10 @@
         <v>0</v>
       </c>
       <c r="B551" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C551" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D551" t="s">
         <v>147</v>
@@ -20961,14 +20988,11 @@
       <c r="E551" t="s">
         <v>147</v>
       </c>
-      <c r="F551" t="s">
-        <v>147</v>
-      </c>
       <c r="G551" s="7" t="s">
-        <v>485</v>
+        <v>1065</v>
       </c>
       <c r="H551" s="7" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.3">
@@ -20976,7 +21000,7 @@
         <v>0</v>
       </c>
       <c r="B552" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C552" t="s">
         <v>902</v>
@@ -21002,7 +21026,7 @@
         <v>0</v>
       </c>
       <c r="B553" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C553" t="s">
         <v>903</v>
@@ -21023,15 +21047,15 @@
         <v>907</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>0</v>
       </c>
       <c r="B554" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C554" t="s">
-        <v>1152</v>
+        <v>11</v>
       </c>
       <c r="D554" t="s">
         <v>147</v>
@@ -21042,11 +21066,14 @@
       <c r="F554" t="s">
         <v>147</v>
       </c>
-      <c r="G554" s="7" t="s">
-        <v>1156</v>
+      <c r="G554" s="12" t="s">
+        <v>1149</v>
       </c>
       <c r="H554" s="7" t="s">
-        <v>1154</v>
+        <v>103</v>
+      </c>
+      <c r="I554" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.3">
@@ -21054,25 +21081,22 @@
         <v>0</v>
       </c>
       <c r="B555" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C555" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="D555" t="s">
         <v>147</v>
       </c>
-      <c r="E555" t="s">
-        <v>147</v>
-      </c>
       <c r="F555" t="s">
         <v>147</v>
       </c>
       <c r="G555" s="7" t="s">
-        <v>1155</v>
+        <v>1010</v>
       </c>
       <c r="H555" s="7" t="s">
-        <v>783</v>
+        <v>225</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.3">
@@ -21080,10 +21104,10 @@
         <v>0</v>
       </c>
       <c r="B556" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C556" t="s">
-        <v>902</v>
+        <v>1150</v>
       </c>
       <c r="D556" t="s">
         <v>147</v>
@@ -21095,10 +21119,13 @@
         <v>147</v>
       </c>
       <c r="G556" s="7" t="s">
-        <v>904</v>
+        <v>135</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>906</v>
+        <v>1151</v>
+      </c>
+      <c r="I556" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.3">
@@ -21106,10 +21133,10 @@
         <v>0</v>
       </c>
       <c r="B557" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C557" t="s">
-        <v>903</v>
+        <v>41</v>
       </c>
       <c r="D557" t="s">
         <v>147</v>
@@ -21121,10 +21148,10 @@
         <v>147</v>
       </c>
       <c r="G557" s="7" t="s">
-        <v>905</v>
+        <v>485</v>
       </c>
       <c r="H557" s="7" t="s">
-        <v>907</v>
+        <v>658</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.3">
@@ -21132,22 +21159,25 @@
         <v>0</v>
       </c>
       <c r="B558" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C558" t="s">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="D558" t="s">
         <v>147</v>
       </c>
+      <c r="E558" t="s">
+        <v>147</v>
+      </c>
       <c r="F558" t="s">
         <v>147</v>
       </c>
       <c r="G558" s="7" t="s">
-        <v>1086</v>
+        <v>904</v>
       </c>
       <c r="H558" s="7" t="s">
-        <v>1087</v>
+        <v>906</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.3">
@@ -21155,10 +21185,10 @@
         <v>0</v>
       </c>
       <c r="B559" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C559" t="s">
-        <v>45</v>
+        <v>903</v>
       </c>
       <c r="D559" t="s">
         <v>147</v>
@@ -21170,13 +21200,10 @@
         <v>147</v>
       </c>
       <c r="G559" s="7" t="s">
-        <v>253</v>
+        <v>905</v>
       </c>
       <c r="H559" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I559" t="s">
-        <v>1000</v>
+        <v>907</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.3">
@@ -21184,10 +21211,10 @@
         <v>0</v>
       </c>
       <c r="B560" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C560" t="s">
-        <v>902</v>
+        <v>1152</v>
       </c>
       <c r="D560" t="s">
         <v>147</v>
@@ -21199,10 +21226,10 @@
         <v>147</v>
       </c>
       <c r="G560" s="7" t="s">
-        <v>904</v>
+        <v>1156</v>
       </c>
       <c r="H560" s="7" t="s">
-        <v>906</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.3">
@@ -21210,10 +21237,10 @@
         <v>0</v>
       </c>
       <c r="B561" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C561" t="s">
-        <v>903</v>
+        <v>1153</v>
       </c>
       <c r="D561" t="s">
         <v>147</v>
@@ -21225,10 +21252,10 @@
         <v>147</v>
       </c>
       <c r="G561" s="7" t="s">
-        <v>905</v>
+        <v>1155</v>
       </c>
       <c r="H561" s="7" t="s">
-        <v>907</v>
+        <v>783</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.3">
@@ -21236,22 +21263,25 @@
         <v>0</v>
       </c>
       <c r="B562" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C562" t="s">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="D562" t="s">
         <v>147</v>
       </c>
+      <c r="E562" t="s">
+        <v>147</v>
+      </c>
       <c r="F562" t="s">
         <v>147</v>
       </c>
       <c r="G562" s="7" t="s">
-        <v>1086</v>
+        <v>904</v>
       </c>
       <c r="H562" s="7" t="s">
-        <v>1087</v>
+        <v>906</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.3">
@@ -21259,10 +21289,10 @@
         <v>0</v>
       </c>
       <c r="B563" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C563" t="s">
-        <v>1157</v>
+        <v>903</v>
       </c>
       <c r="D563" t="s">
         <v>147</v>
@@ -21274,13 +21304,10 @@
         <v>147</v>
       </c>
       <c r="G563" s="7" t="s">
-        <v>421</v>
+        <v>905</v>
       </c>
       <c r="H563" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I563" t="s">
-        <v>1172</v>
+        <v>907</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.3">
@@ -21288,36 +21315,33 @@
         <v>0</v>
       </c>
       <c r="B564" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C564" t="s">
-        <v>902</v>
+        <v>4</v>
       </c>
       <c r="D564" t="s">
         <v>147</v>
       </c>
-      <c r="E564" t="s">
-        <v>147</v>
-      </c>
       <c r="F564" t="s">
         <v>147</v>
       </c>
       <c r="G564" s="7" t="s">
-        <v>904</v>
+        <v>1086</v>
       </c>
       <c r="H564" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>0</v>
       </c>
       <c r="B565" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C565" t="s">
-        <v>903</v>
+        <v>45</v>
       </c>
       <c r="D565" t="s">
         <v>147</v>
@@ -21329,10 +21353,13 @@
         <v>147</v>
       </c>
       <c r="G565" s="7" t="s">
-        <v>905</v>
+        <v>253</v>
       </c>
       <c r="H565" s="7" t="s">
-        <v>907</v>
+        <v>254</v>
+      </c>
+      <c r="I565" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.3">
@@ -21340,22 +21367,25 @@
         <v>0</v>
       </c>
       <c r="B566" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C566" t="s">
-        <v>1159</v>
+        <v>902</v>
       </c>
       <c r="D566" t="s">
         <v>147</v>
       </c>
+      <c r="E566" t="s">
+        <v>147</v>
+      </c>
       <c r="F566" t="s">
         <v>147</v>
       </c>
       <c r="G566" s="7" t="s">
-        <v>1164</v>
+        <v>904</v>
       </c>
       <c r="H566" s="7" t="s">
-        <v>1163</v>
+        <v>906</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.3">
@@ -21363,10 +21393,10 @@
         <v>0</v>
       </c>
       <c r="B567" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C567" t="s">
-        <v>1160</v>
+        <v>903</v>
       </c>
       <c r="D567" t="s">
         <v>147</v>
@@ -21378,10 +21408,10 @@
         <v>147</v>
       </c>
       <c r="G567" s="7" t="s">
-        <v>1161</v>
+        <v>905</v>
       </c>
       <c r="H567" s="7" t="s">
-        <v>1162</v>
+        <v>907</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.3">
@@ -21389,25 +21419,22 @@
         <v>0</v>
       </c>
       <c r="B568" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C568" t="s">
-        <v>902</v>
+        <v>4</v>
       </c>
       <c r="D568" t="s">
         <v>147</v>
       </c>
-      <c r="E568" t="s">
-        <v>147</v>
-      </c>
       <c r="F568" t="s">
         <v>147</v>
       </c>
       <c r="G568" s="7" t="s">
-        <v>904</v>
+        <v>1086</v>
       </c>
       <c r="H568" s="7" t="s">
-        <v>906</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.3">
@@ -21415,29 +21442,185 @@
         <v>0</v>
       </c>
       <c r="B569" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D569" t="s">
+        <v>147</v>
+      </c>
+      <c r="E569" t="s">
+        <v>147</v>
+      </c>
+      <c r="F569" t="s">
+        <v>147</v>
+      </c>
+      <c r="G569" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H569" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I569" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>0</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C570" t="s">
+        <v>902</v>
+      </c>
+      <c r="D570" t="s">
+        <v>147</v>
+      </c>
+      <c r="E570" t="s">
+        <v>147</v>
+      </c>
+      <c r="F570" t="s">
+        <v>147</v>
+      </c>
+      <c r="G570" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H570" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>0</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C571" t="s">
+        <v>903</v>
+      </c>
+      <c r="D571" t="s">
+        <v>147</v>
+      </c>
+      <c r="E571" t="s">
+        <v>147</v>
+      </c>
+      <c r="F571" t="s">
+        <v>147</v>
+      </c>
+      <c r="G571" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H571" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>0</v>
+      </c>
+      <c r="B572" t="s">
         <v>1080</v>
       </c>
-      <c r="C569" t="s">
+      <c r="C572" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D572" t="s">
+        <v>147</v>
+      </c>
+      <c r="F572" t="s">
+        <v>147</v>
+      </c>
+      <c r="G572" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H572" s="7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>0</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D573" t="s">
+        <v>147</v>
+      </c>
+      <c r="E573" t="s">
+        <v>147</v>
+      </c>
+      <c r="F573" t="s">
+        <v>147</v>
+      </c>
+      <c r="G573" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H573" s="7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>0</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C574" t="s">
+        <v>902</v>
+      </c>
+      <c r="D574" t="s">
+        <v>147</v>
+      </c>
+      <c r="E574" t="s">
+        <v>147</v>
+      </c>
+      <c r="F574" t="s">
+        <v>147</v>
+      </c>
+      <c r="G574" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H574" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>0</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C575" t="s">
         <v>903</v>
       </c>
-      <c r="D569" t="s">
-        <v>147</v>
-      </c>
-      <c r="E569" t="s">
-        <v>147</v>
-      </c>
-      <c r="F569" t="s">
-        <v>147</v>
-      </c>
-      <c r="G569" s="7" t="s">
+      <c r="D575" t="s">
+        <v>147</v>
+      </c>
+      <c r="E575" t="s">
+        <v>147</v>
+      </c>
+      <c r="F575" t="s">
+        <v>147</v>
+      </c>
+      <c r="G575" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H569" s="7" t="s">
+      <c r="H575" s="7" t="s">
         <v>907</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C562"/>
+  <autoFilter ref="A1:C568"/>
   <sortState ref="A2:H552">
     <sortCondition ref="B2:B552"/>
   </sortState>
@@ -21626,7 +21809,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="1216">
   <si>
     <t>DATA</t>
   </si>
@@ -3791,6 +3791,15 @@
   </si>
   <si>
     <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>sysTableId</t>
+  </si>
+  <si>
+    <t>EditModeType</t>
+  </si>
+  <si>
+    <t>editModeType</t>
   </si>
 </sst>
 </file>
@@ -4234,10 +4243,10 @@
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
+      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6959,8 +6968,11 @@
       <c r="C92" t="s">
         <v>1057</v>
       </c>
-      <c r="F92" t="s">
-        <v>147</v>
+      <c r="G92" t="s">
+        <v>147</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1213</v>
       </c>
       <c r="K92" t="s">
         <v>895</v>
@@ -7171,8 +7183,8 @@
       <c r="C99" t="s">
         <v>1057</v>
       </c>
-      <c r="F99" t="s">
-        <v>147</v>
+      <c r="J99" t="s">
+        <v>1214</v>
       </c>
       <c r="K99" t="s">
         <v>894</v>
@@ -7539,10 +7551,10 @@
   <dimension ref="A1:M575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H473" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K343" sqref="K343"/>
+      <selection pane="bottomRight" activeCell="I492" sqref="I492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19594,6 +19606,9 @@
       </c>
       <c r="H489" s="7" t="s">
         <v>876</v>
+      </c>
+      <c r="I489" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.3">

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -15,7 +15,7 @@
     <sheet name="web.Model{C}" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$570</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables{T}'!$A$1:$L$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'web.Model{C}'!$A$1:$C$380</definedName>
   </definedNames>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5391" uniqueCount="1219">
   <si>
     <t>DATA</t>
   </si>
@@ -3790,9 +3790,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ChangePassword</t>
-  </si>
-  <si>
     <t>sysTableId</t>
   </si>
   <si>
@@ -3800,6 +3797,18 @@
   </si>
   <si>
     <t>editModeType</t>
+  </si>
+  <si>
+    <t>SYS_TABLE</t>
+  </si>
+  <si>
+    <t>DE: Column</t>
+  </si>
+  <si>
+    <t>sysColumns</t>
+  </si>
+  <si>
+    <t>Settings/SysColumns</t>
   </si>
 </sst>
 </file>
@@ -4243,10 +4252,10 @@
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
+      <selection pane="bottomRight" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6972,7 +6981,10 @@
         <v>147</v>
       </c>
       <c r="H92" t="s">
-        <v>1213</v>
+        <v>1212</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1215</v>
       </c>
       <c r="K92" t="s">
         <v>895</v>
@@ -6980,9 +6992,6 @@
       <c r="L92" t="s">
         <v>899</v>
       </c>
-      <c r="N92" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -7184,7 +7193,7 @@
         <v>1057</v>
       </c>
       <c r="J99" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K99" t="s">
         <v>894</v>
@@ -7194,6 +7203,18 @@
       </c>
       <c r="N99" t="s">
         <v>147</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P99" t="s">
+        <v>1217</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R99" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
@@ -7548,13 +7569,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M575"/>
+  <dimension ref="A1:M577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H473" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I492" sqref="I492"/>
+      <selection pane="bottomRight" activeCell="E338" sqref="E338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15846,7 +15867,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -15859,9 +15880,6 @@
       <c r="D337" t="s">
         <v>147</v>
       </c>
-      <c r="E337" t="s">
-        <v>147</v>
-      </c>
       <c r="F337" t="s">
         <v>147</v>
       </c>
@@ -15875,7 +15893,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>153</v>
       </c>
@@ -15904,7 +15922,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -15930,7 +15948,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -15956,7 +15974,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>153</v>
       </c>
@@ -15982,7 +16000,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>153</v>
       </c>
@@ -16008,7 +16026,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>153</v>
       </c>
@@ -16030,11 +16048,8 @@
       <c r="H343" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="J343" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>153</v>
       </c>
@@ -16063,7 +16078,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>153</v>
       </c>
@@ -16089,7 +16104,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>153</v>
       </c>
@@ -16115,7 +16130,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -16141,7 +16156,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>153</v>
       </c>
@@ -16164,7 +16179,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>153</v>
       </c>
@@ -16190,7 +16205,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>153</v>
       </c>
@@ -16216,7 +16231,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>153</v>
       </c>
@@ -16242,7 +16257,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>153</v>
       </c>
@@ -18748,9 +18763,6 @@
       <c r="D454" t="s">
         <v>147</v>
       </c>
-      <c r="E454" t="s">
-        <v>147</v>
-      </c>
       <c r="G454" s="7" t="s">
         <v>873</v>
       </c>
@@ -18809,25 +18821,19 @@
         <v>153</v>
       </c>
       <c r="B457" t="s">
-        <v>286</v>
+        <v>779</v>
       </c>
       <c r="C457" t="s">
-        <v>363</v>
+        <v>902</v>
       </c>
       <c r="D457" t="s">
         <v>147</v>
       </c>
-      <c r="E457" t="s">
-        <v>147</v>
-      </c>
-      <c r="F457" t="s">
-        <v>147</v>
-      </c>
       <c r="G457" s="7" t="s">
-        <v>529</v>
+        <v>904</v>
       </c>
       <c r="H457" s="7" t="s">
-        <v>785</v>
+        <v>906</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -18835,22 +18841,19 @@
         <v>153</v>
       </c>
       <c r="B458" t="s">
-        <v>286</v>
+        <v>779</v>
       </c>
       <c r="C458" t="s">
-        <v>12</v>
+        <v>903</v>
       </c>
       <c r="D458" t="s">
         <v>147</v>
       </c>
-      <c r="E458" t="s">
-        <v>147</v>
-      </c>
       <c r="G458" s="7" t="s">
-        <v>533</v>
+        <v>905</v>
       </c>
       <c r="H458" s="7" t="s">
-        <v>789</v>
+        <v>907</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
@@ -18861,7 +18864,7 @@
         <v>286</v>
       </c>
       <c r="C459" t="s">
-        <v>534</v>
+        <v>363</v>
       </c>
       <c r="D459" t="s">
         <v>147</v>
@@ -18869,11 +18872,14 @@
       <c r="E459" t="s">
         <v>147</v>
       </c>
+      <c r="F459" t="s">
+        <v>147</v>
+      </c>
       <c r="G459" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H459" s="7" t="s">
-        <v>841</v>
+        <v>785</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -18884,7 +18890,7 @@
         <v>286</v>
       </c>
       <c r="C460" t="s">
-        <v>902</v>
+        <v>12</v>
       </c>
       <c r="D460" t="s">
         <v>147</v>
@@ -18892,14 +18898,11 @@
       <c r="E460" t="s">
         <v>147</v>
       </c>
-      <c r="F460" t="s">
-        <v>147</v>
-      </c>
       <c r="G460" s="7" t="s">
-        <v>904</v>
+        <v>533</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>906</v>
+        <v>789</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -18910,7 +18913,7 @@
         <v>286</v>
       </c>
       <c r="C461" t="s">
-        <v>903</v>
+        <v>534</v>
       </c>
       <c r="D461" t="s">
         <v>147</v>
@@ -18918,14 +18921,11 @@
       <c r="E461" t="s">
         <v>147</v>
       </c>
-      <c r="F461" t="s">
-        <v>147</v>
-      </c>
       <c r="G461" s="7" t="s">
-        <v>905</v>
+        <v>535</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>907</v>
+        <v>841</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -18933,10 +18933,10 @@
         <v>153</v>
       </c>
       <c r="B462" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C462" t="s">
-        <v>363</v>
+        <v>902</v>
       </c>
       <c r="D462" t="s">
         <v>147</v>
@@ -18948,10 +18948,10 @@
         <v>147</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>521</v>
+        <v>904</v>
       </c>
       <c r="H462" s="7" t="s">
-        <v>785</v>
+        <v>906</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -18959,10 +18959,10 @@
         <v>153</v>
       </c>
       <c r="B463" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C463" t="s">
-        <v>536</v>
+        <v>903</v>
       </c>
       <c r="D463" t="s">
         <v>147</v>
@@ -18970,14 +18970,17 @@
       <c r="E463" t="s">
         <v>147</v>
       </c>
+      <c r="F463" t="s">
+        <v>147</v>
+      </c>
       <c r="G463" s="7" t="s">
-        <v>537</v>
+        <v>905</v>
       </c>
       <c r="H463" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>153</v>
       </c>
@@ -18985,19 +18988,25 @@
         <v>289</v>
       </c>
       <c r="C464" t="s">
-        <v>538</v>
+        <v>363</v>
       </c>
       <c r="D464" t="s">
         <v>147</v>
       </c>
+      <c r="E464" t="s">
+        <v>147</v>
+      </c>
+      <c r="F464" t="s">
+        <v>147</v>
+      </c>
       <c r="G464" s="7" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="H464" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>153</v>
       </c>
@@ -19005,19 +19014,22 @@
         <v>289</v>
       </c>
       <c r="C465" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D465" t="s">
         <v>147</v>
       </c>
+      <c r="E465" t="s">
+        <v>147</v>
+      </c>
       <c r="G465" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H465" s="7" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>153</v>
       </c>
@@ -19025,22 +19037,19 @@
         <v>289</v>
       </c>
       <c r="C466" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D466" t="s">
         <v>147</v>
       </c>
-      <c r="E466" t="s">
-        <v>147</v>
-      </c>
       <c r="G466" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H466" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>153</v>
       </c>
@@ -19048,22 +19057,16 @@
         <v>289</v>
       </c>
       <c r="C467" t="s">
-        <v>902</v>
+        <v>540</v>
       </c>
       <c r="D467" t="s">
         <v>147</v>
       </c>
-      <c r="E467" t="s">
-        <v>147</v>
-      </c>
-      <c r="F467" t="s">
-        <v>147</v>
-      </c>
       <c r="G467" s="7" t="s">
-        <v>904</v>
+        <v>541</v>
       </c>
       <c r="H467" s="7" t="s">
-        <v>906</v>
+        <v>844</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -19074,7 +19077,7 @@
         <v>289</v>
       </c>
       <c r="C468" t="s">
-        <v>903</v>
+        <v>542</v>
       </c>
       <c r="D468" t="s">
         <v>147</v>
@@ -19082,14 +19085,11 @@
       <c r="E468" t="s">
         <v>147</v>
       </c>
-      <c r="F468" t="s">
-        <v>147</v>
-      </c>
       <c r="G468" s="7" t="s">
-        <v>905</v>
+        <v>543</v>
       </c>
       <c r="H468" s="7" t="s">
-        <v>907</v>
+        <v>635</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -19097,10 +19097,10 @@
         <v>153</v>
       </c>
       <c r="B469" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C469" t="s">
-        <v>506</v>
+        <v>902</v>
       </c>
       <c r="D469" t="s">
         <v>147</v>
@@ -19112,10 +19112,10 @@
         <v>147</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>263</v>
+        <v>904</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>264</v>
+        <v>906</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -19123,10 +19123,10 @@
         <v>153</v>
       </c>
       <c r="B470" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C470" t="s">
-        <v>507</v>
+        <v>903</v>
       </c>
       <c r="D470" t="s">
         <v>147</v>
@@ -19134,11 +19134,14 @@
       <c r="E470" t="s">
         <v>147</v>
       </c>
+      <c r="F470" t="s">
+        <v>147</v>
+      </c>
       <c r="G470" s="7" t="s">
-        <v>508</v>
+        <v>905</v>
       </c>
       <c r="H470" s="7" t="s">
-        <v>838</v>
+        <v>907</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -19149,19 +19152,22 @@
         <v>261</v>
       </c>
       <c r="C471" t="s">
-        <v>16</v>
+        <v>506</v>
       </c>
       <c r="D471" t="s">
         <v>147</v>
       </c>
+      <c r="E471" t="s">
+        <v>147</v>
+      </c>
+      <c r="F471" t="s">
+        <v>147</v>
+      </c>
       <c r="G471" s="7" t="s">
-        <v>509</v>
+        <v>263</v>
       </c>
       <c r="H471" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I471" t="s">
-        <v>974</v>
+        <v>264</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -19172,19 +19178,19 @@
         <v>261</v>
       </c>
       <c r="C472" t="s">
-        <v>55</v>
+        <v>507</v>
       </c>
       <c r="D472" t="s">
         <v>147</v>
       </c>
+      <c r="E472" t="s">
+        <v>147</v>
+      </c>
       <c r="G472" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H472" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I472" t="s">
-        <v>975</v>
+        <v>838</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -19195,22 +19201,19 @@
         <v>261</v>
       </c>
       <c r="C473" t="s">
-        <v>902</v>
+        <v>16</v>
       </c>
       <c r="D473" t="s">
         <v>147</v>
       </c>
-      <c r="E473" t="s">
-        <v>147</v>
-      </c>
-      <c r="F473" t="s">
-        <v>147</v>
-      </c>
       <c r="G473" s="7" t="s">
-        <v>904</v>
+        <v>509</v>
       </c>
       <c r="H473" s="7" t="s">
-        <v>906</v>
+        <v>288</v>
+      </c>
+      <c r="I473" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -19221,22 +19224,19 @@
         <v>261</v>
       </c>
       <c r="C474" t="s">
-        <v>903</v>
+        <v>55</v>
       </c>
       <c r="D474" t="s">
         <v>147</v>
       </c>
-      <c r="E474" t="s">
-        <v>147</v>
-      </c>
-      <c r="F474" t="s">
-        <v>147</v>
-      </c>
       <c r="G474" s="7" t="s">
-        <v>905</v>
+        <v>510</v>
       </c>
       <c r="H474" s="7" t="s">
-        <v>907</v>
+        <v>281</v>
+      </c>
+      <c r="I474" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -19244,10 +19244,10 @@
         <v>153</v>
       </c>
       <c r="B475" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C475" t="s">
-        <v>544</v>
+        <v>902</v>
       </c>
       <c r="D475" t="s">
         <v>147</v>
@@ -19259,10 +19259,10 @@
         <v>147</v>
       </c>
       <c r="G475" s="7" t="s">
-        <v>293</v>
+        <v>904</v>
       </c>
       <c r="H475" s="7" t="s">
-        <v>845</v>
+        <v>906</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -19270,10 +19270,10 @@
         <v>153</v>
       </c>
       <c r="B476" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C476" t="s">
-        <v>15</v>
+        <v>903</v>
       </c>
       <c r="D476" t="s">
         <v>147</v>
@@ -19281,11 +19281,14 @@
       <c r="E476" t="s">
         <v>147</v>
       </c>
+      <c r="F476" t="s">
+        <v>147</v>
+      </c>
       <c r="G476" s="7" t="s">
-        <v>545</v>
+        <v>905</v>
       </c>
       <c r="H476" s="7" t="s">
-        <v>645</v>
+        <v>907</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -19296,7 +19299,7 @@
         <v>292</v>
       </c>
       <c r="C477" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D477" t="s">
         <v>147</v>
@@ -19304,11 +19307,14 @@
       <c r="E477" t="s">
         <v>147</v>
       </c>
+      <c r="F477" t="s">
+        <v>147</v>
+      </c>
       <c r="G477" s="7" t="s">
-        <v>547</v>
+        <v>293</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -19319,7 +19325,7 @@
         <v>292</v>
       </c>
       <c r="C478" t="s">
-        <v>902</v>
+        <v>15</v>
       </c>
       <c r="D478" t="s">
         <v>147</v>
@@ -19327,14 +19333,11 @@
       <c r="E478" t="s">
         <v>147</v>
       </c>
-      <c r="F478" t="s">
-        <v>147</v>
-      </c>
       <c r="G478" s="7" t="s">
-        <v>904</v>
+        <v>545</v>
       </c>
       <c r="H478" s="7" t="s">
-        <v>906</v>
+        <v>645</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -19345,7 +19348,7 @@
         <v>292</v>
       </c>
       <c r="C479" t="s">
-        <v>903</v>
+        <v>546</v>
       </c>
       <c r="D479" t="s">
         <v>147</v>
@@ -19353,14 +19356,11 @@
       <c r="E479" t="s">
         <v>147</v>
       </c>
-      <c r="F479" t="s">
-        <v>147</v>
-      </c>
       <c r="G479" s="7" t="s">
-        <v>905</v>
+        <v>547</v>
       </c>
       <c r="H479" s="7" t="s">
-        <v>907</v>
+        <v>846</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -19368,22 +19368,25 @@
         <v>153</v>
       </c>
       <c r="B480" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C480" t="s">
-        <v>511</v>
+        <v>902</v>
       </c>
       <c r="D480" t="s">
         <v>147</v>
       </c>
+      <c r="E480" t="s">
+        <v>147</v>
+      </c>
       <c r="F480" t="s">
         <v>147</v>
       </c>
       <c r="G480" s="7" t="s">
-        <v>512</v>
+        <v>904</v>
       </c>
       <c r="H480" s="7" t="s">
-        <v>839</v>
+        <v>906</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -19391,10 +19394,10 @@
         <v>153</v>
       </c>
       <c r="B481" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C481" t="s">
-        <v>12</v>
+        <v>903</v>
       </c>
       <c r="D481" t="s">
         <v>147</v>
@@ -19402,11 +19405,14 @@
       <c r="E481" t="s">
         <v>147</v>
       </c>
+      <c r="F481" t="s">
+        <v>147</v>
+      </c>
       <c r="G481" s="7" t="s">
-        <v>513</v>
+        <v>905</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>789</v>
+        <v>907</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -19417,19 +19423,19 @@
         <v>265</v>
       </c>
       <c r="C482" t="s">
-        <v>9</v>
+        <v>511</v>
       </c>
       <c r="D482" t="s">
         <v>147</v>
       </c>
-      <c r="E482" t="s">
+      <c r="F482" t="s">
         <v>147</v>
       </c>
       <c r="G482" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H482" s="7" t="s">
-        <v>635</v>
+        <v>839</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -19440,7 +19446,7 @@
         <v>265</v>
       </c>
       <c r="C483" t="s">
-        <v>902</v>
+        <v>12</v>
       </c>
       <c r="D483" t="s">
         <v>147</v>
@@ -19448,14 +19454,11 @@
       <c r="E483" t="s">
         <v>147</v>
       </c>
-      <c r="F483" t="s">
-        <v>147</v>
-      </c>
       <c r="G483" s="7" t="s">
-        <v>904</v>
+        <v>513</v>
       </c>
       <c r="H483" s="7" t="s">
-        <v>906</v>
+        <v>789</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -19466,7 +19469,7 @@
         <v>265</v>
       </c>
       <c r="C484" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D484" t="s">
         <v>147</v>
@@ -19474,14 +19477,11 @@
       <c r="E484" t="s">
         <v>147</v>
       </c>
-      <c r="F484" t="s">
-        <v>147</v>
-      </c>
       <c r="G484" s="7" t="s">
-        <v>905</v>
+        <v>514</v>
       </c>
       <c r="H484" s="7" t="s">
-        <v>907</v>
+        <v>635</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -19489,22 +19489,25 @@
         <v>153</v>
       </c>
       <c r="B485" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C485" t="s">
-        <v>478</v>
+        <v>902</v>
       </c>
       <c r="D485" t="s">
         <v>147</v>
       </c>
+      <c r="E485" t="s">
+        <v>147</v>
+      </c>
       <c r="F485" t="s">
         <v>147</v>
       </c>
       <c r="G485" s="7" t="s">
-        <v>515</v>
+        <v>904</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>223</v>
+        <v>906</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -19512,10 +19515,10 @@
         <v>153</v>
       </c>
       <c r="B486" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C486" t="s">
-        <v>516</v>
+        <v>903</v>
       </c>
       <c r="D486" t="s">
         <v>147</v>
@@ -19527,10 +19530,10 @@
         <v>147</v>
       </c>
       <c r="G486" s="7" t="s">
-        <v>517</v>
+        <v>905</v>
       </c>
       <c r="H486" s="7" t="s">
-        <v>772</v>
+        <v>907</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.3">
@@ -19541,22 +19544,19 @@
         <v>267</v>
       </c>
       <c r="C487" t="s">
-        <v>902</v>
+        <v>478</v>
       </c>
       <c r="D487" t="s">
         <v>147</v>
       </c>
-      <c r="E487" t="s">
-        <v>147</v>
-      </c>
       <c r="F487" t="s">
         <v>147</v>
       </c>
       <c r="G487" s="7" t="s">
-        <v>904</v>
+        <v>515</v>
       </c>
       <c r="H487" s="7" t="s">
-        <v>906</v>
+        <v>223</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
@@ -19567,7 +19567,7 @@
         <v>267</v>
       </c>
       <c r="C488" t="s">
-        <v>903</v>
+        <v>516</v>
       </c>
       <c r="D488" t="s">
         <v>147</v>
@@ -19579,10 +19579,10 @@
         <v>147</v>
       </c>
       <c r="G488" s="7" t="s">
-        <v>905</v>
+        <v>517</v>
       </c>
       <c r="H488" s="7" t="s">
-        <v>907</v>
+        <v>772</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.3">
@@ -19590,10 +19590,10 @@
         <v>153</v>
       </c>
       <c r="B489" t="s">
-        <v>778</v>
+        <v>267</v>
       </c>
       <c r="C489" t="s">
-        <v>782</v>
+        <v>902</v>
       </c>
       <c r="D489" t="s">
         <v>147</v>
@@ -19601,14 +19601,14 @@
       <c r="E489" t="s">
         <v>147</v>
       </c>
+      <c r="F489" t="s">
+        <v>147</v>
+      </c>
       <c r="G489" s="7" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="H489" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="I489" t="s">
-        <v>1215</v>
+        <v>906</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.3">
@@ -19616,68 +19616,74 @@
         <v>153</v>
       </c>
       <c r="B490" t="s">
+        <v>267</v>
+      </c>
+      <c r="C490" t="s">
+        <v>903</v>
+      </c>
+      <c r="D490" t="s">
+        <v>147</v>
+      </c>
+      <c r="E490" t="s">
+        <v>147</v>
+      </c>
+      <c r="F490" t="s">
+        <v>147</v>
+      </c>
+      <c r="G490" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H490" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>153</v>
+      </c>
+      <c r="B491" t="s">
         <v>778</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C491" t="s">
+        <v>782</v>
+      </c>
+      <c r="D491" t="s">
+        <v>147</v>
+      </c>
+      <c r="E491" t="s">
+        <v>147</v>
+      </c>
+      <c r="G491" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="H491" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>153</v>
+      </c>
+      <c r="B492" t="s">
+        <v>778</v>
+      </c>
+      <c r="C492" t="s">
         <v>9</v>
       </c>
-      <c r="D490" t="s">
-        <v>147</v>
-      </c>
-      <c r="E490" t="s">
-        <v>147</v>
-      </c>
-      <c r="G490" s="7" t="s">
+      <c r="D492" t="s">
+        <v>147</v>
+      </c>
+      <c r="E492" t="s">
+        <v>147</v>
+      </c>
+      <c r="G492" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="H490" s="7" t="s">
+      <c r="H492" s="7" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>153</v>
-      </c>
-      <c r="B491" t="s">
-        <v>944</v>
-      </c>
-      <c r="C491" t="s">
-        <v>945</v>
-      </c>
-      <c r="D491" t="s">
-        <v>147</v>
-      </c>
-      <c r="E491" t="s">
-        <v>147</v>
-      </c>
-      <c r="F491" t="s">
-        <v>147</v>
-      </c>
-      <c r="G491" s="13" t="s">
-        <v>953</v>
-      </c>
-      <c r="H491" s="7" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
-        <v>153</v>
-      </c>
-      <c r="B492" t="s">
-        <v>944</v>
-      </c>
-      <c r="C492" t="s">
-        <v>12</v>
-      </c>
-      <c r="D492" t="s">
-        <v>147</v>
-      </c>
-      <c r="G492" s="13" t="s">
-        <v>955</v>
-      </c>
-      <c r="H492" s="7" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -19688,19 +19694,25 @@
         <v>944</v>
       </c>
       <c r="C493" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D493" t="s">
         <v>147</v>
       </c>
+      <c r="E493" t="s">
+        <v>147</v>
+      </c>
+      <c r="F493" t="s">
+        <v>147</v>
+      </c>
       <c r="G493" s="13" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H493" s="7" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>153</v>
       </c>
@@ -19708,16 +19720,16 @@
         <v>944</v>
       </c>
       <c r="C494" t="s">
-        <v>947</v>
+        <v>12</v>
       </c>
       <c r="D494" t="s">
         <v>147</v>
       </c>
-      <c r="G494" s="7" t="s">
-        <v>969</v>
+      <c r="G494" s="13" t="s">
+        <v>955</v>
       </c>
       <c r="H494" s="7" t="s">
-        <v>959</v>
+        <v>789</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -19728,22 +19740,19 @@
         <v>944</v>
       </c>
       <c r="C495" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D495" t="s">
         <v>147</v>
       </c>
       <c r="G495" s="13" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="H495" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="I495" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>153</v>
       </c>
@@ -19751,25 +19760,19 @@
         <v>944</v>
       </c>
       <c r="C496" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D496" t="s">
         <v>147</v>
       </c>
-      <c r="F496" t="s">
-        <v>147</v>
-      </c>
-      <c r="G496" s="13" t="s">
-        <v>960</v>
+      <c r="G496" s="7" t="s">
+        <v>969</v>
       </c>
       <c r="H496" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="I496" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -19777,19 +19780,22 @@
         <v>944</v>
       </c>
       <c r="C497" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D497" t="s">
         <v>147</v>
       </c>
-      <c r="G497" s="7" t="s">
-        <v>964</v>
+      <c r="G497" s="13" t="s">
+        <v>966</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="I497" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>153</v>
       </c>
@@ -19797,19 +19803,25 @@
         <v>944</v>
       </c>
       <c r="C498" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D498" t="s">
         <v>147</v>
       </c>
-      <c r="G498" s="7" t="s">
-        <v>965</v>
+      <c r="F498" t="s">
+        <v>147</v>
+      </c>
+      <c r="G498" s="13" t="s">
+        <v>960</v>
       </c>
       <c r="H498" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>961</v>
+      </c>
+      <c r="I498" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -19817,19 +19829,19 @@
         <v>944</v>
       </c>
       <c r="C499" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D499" t="s">
         <v>147</v>
       </c>
-      <c r="G499" s="13" t="s">
-        <v>958</v>
+      <c r="G499" s="7" t="s">
+        <v>964</v>
       </c>
       <c r="H499" s="7" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>153</v>
       </c>
@@ -19837,22 +19849,19 @@
         <v>944</v>
       </c>
       <c r="C500" t="s">
-        <v>498</v>
+        <v>951</v>
       </c>
       <c r="D500" t="s">
         <v>147</v>
       </c>
-      <c r="G500" s="13" t="s">
-        <v>182</v>
+      <c r="G500" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="H500" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I500" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>153</v>
       </c>
@@ -19860,25 +19869,19 @@
         <v>944</v>
       </c>
       <c r="C501" t="s">
-        <v>902</v>
+        <v>952</v>
       </c>
       <c r="D501" t="s">
         <v>147</v>
       </c>
-      <c r="E501" t="s">
-        <v>147</v>
-      </c>
-      <c r="F501" t="s">
-        <v>147</v>
-      </c>
-      <c r="G501" s="7" t="s">
-        <v>904</v>
+      <c r="G501" s="13" t="s">
+        <v>958</v>
       </c>
       <c r="H501" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>153</v>
       </c>
@@ -19886,71 +19889,74 @@
         <v>944</v>
       </c>
       <c r="C502" t="s">
+        <v>498</v>
+      </c>
+      <c r="D502" t="s">
+        <v>147</v>
+      </c>
+      <c r="G502" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H502" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I502" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>153</v>
+      </c>
+      <c r="B503" t="s">
+        <v>944</v>
+      </c>
+      <c r="C503" t="s">
+        <v>902</v>
+      </c>
+      <c r="D503" t="s">
+        <v>147</v>
+      </c>
+      <c r="E503" t="s">
+        <v>147</v>
+      </c>
+      <c r="F503" t="s">
+        <v>147</v>
+      </c>
+      <c r="G503" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H503" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>153</v>
+      </c>
+      <c r="B504" t="s">
+        <v>944</v>
+      </c>
+      <c r="C504" t="s">
         <v>903</v>
       </c>
-      <c r="D502" t="s">
-        <v>147</v>
-      </c>
-      <c r="E502" t="s">
-        <v>147</v>
-      </c>
-      <c r="F502" t="s">
-        <v>147</v>
-      </c>
-      <c r="G502" s="7" t="s">
+      <c r="D504" t="s">
+        <v>147</v>
+      </c>
+      <c r="E504" t="s">
+        <v>147</v>
+      </c>
+      <c r="F504" t="s">
+        <v>147</v>
+      </c>
+      <c r="G504" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H502" s="7" t="s">
+      <c r="H504" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
-        <v>153</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D503" t="s">
-        <v>147</v>
-      </c>
-      <c r="E503" t="s">
-        <v>147</v>
-      </c>
-      <c r="F503" t="s">
-        <v>147</v>
-      </c>
-      <c r="G503" s="13" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H503" s="7" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
-        <v>153</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C504" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D504" t="s">
-        <v>147</v>
-      </c>
-      <c r="G504" s="13" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H504" s="7" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -19958,19 +19964,25 @@
         <v>1009</v>
       </c>
       <c r="C505" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D505" t="s">
         <v>147</v>
       </c>
+      <c r="E505" t="s">
+        <v>147</v>
+      </c>
+      <c r="F505" t="s">
+        <v>147</v>
+      </c>
       <c r="G505" s="13" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>153</v>
       </c>
@@ -19978,19 +19990,19 @@
         <v>1009</v>
       </c>
       <c r="C506" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D506" t="s">
         <v>147</v>
       </c>
-      <c r="G506" s="7" t="s">
-        <v>1033</v>
+      <c r="G506" s="13" t="s">
+        <v>1028</v>
       </c>
       <c r="H506" s="7" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -19998,22 +20010,19 @@
         <v>1009</v>
       </c>
       <c r="C507" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D507" t="s">
         <v>147</v>
       </c>
-      <c r="F507" t="s">
-        <v>147</v>
-      </c>
-      <c r="G507" s="12" t="s">
-        <v>1034</v>
+      <c r="G507" s="13" t="s">
+        <v>1030</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -20021,16 +20030,16 @@
         <v>1009</v>
       </c>
       <c r="C508" t="s">
-        <v>586</v>
+        <v>1014</v>
       </c>
       <c r="D508" t="s">
         <v>147</v>
       </c>
-      <c r="G508" s="12" t="s">
-        <v>1035</v>
+      <c r="G508" s="7" t="s">
+        <v>1033</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>858</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="509" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -20041,16 +20050,19 @@
         <v>1009</v>
       </c>
       <c r="C509" t="s">
-        <v>584</v>
+        <v>1015</v>
       </c>
       <c r="D509" t="s">
         <v>147</v>
       </c>
+      <c r="F509" t="s">
+        <v>147</v>
+      </c>
       <c r="G509" s="12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H509" s="7" t="s">
-        <v>857</v>
+        <v>242</v>
       </c>
     </row>
     <row r="510" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -20061,16 +20073,16 @@
         <v>1009</v>
       </c>
       <c r="C510" t="s">
-        <v>1016</v>
+        <v>586</v>
       </c>
       <c r="D510" t="s">
         <v>147</v>
       </c>
       <c r="G510" s="12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H510" s="7" t="s">
-        <v>1038</v>
+        <v>858</v>
       </c>
     </row>
     <row r="511" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -20081,16 +20093,16 @@
         <v>1009</v>
       </c>
       <c r="C511" t="s">
-        <v>1017</v>
+        <v>584</v>
       </c>
       <c r="D511" t="s">
         <v>147</v>
       </c>
       <c r="G511" s="12" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>1040</v>
+        <v>857</v>
       </c>
     </row>
     <row r="512" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -20101,19 +20113,19 @@
         <v>1009</v>
       </c>
       <c r="C512" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D512" t="s">
         <v>147</v>
       </c>
       <c r="G512" s="12" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>153</v>
       </c>
@@ -20121,19 +20133,19 @@
         <v>1009</v>
       </c>
       <c r="C513" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D513" t="s">
         <v>147</v>
       </c>
-      <c r="G513" s="7" t="s">
-        <v>1042</v>
+      <c r="G513" s="12" t="s">
+        <v>1039</v>
       </c>
       <c r="H513" s="7" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>153</v>
       </c>
@@ -20141,16 +20153,16 @@
         <v>1009</v>
       </c>
       <c r="C514" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D514" t="s">
         <v>147</v>
       </c>
-      <c r="G514" s="7" t="s">
-        <v>1044</v>
+      <c r="G514" s="12" t="s">
+        <v>1041</v>
       </c>
       <c r="H514" s="7" t="s">
-        <v>1045</v>
+        <v>227</v>
       </c>
     </row>
     <row r="515" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -20161,19 +20173,19 @@
         <v>1009</v>
       </c>
       <c r="C515" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D515" t="s">
         <v>147</v>
       </c>
       <c r="G515" s="7" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="H515" s="7" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>153</v>
       </c>
@@ -20181,16 +20193,16 @@
         <v>1009</v>
       </c>
       <c r="C516" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D516" t="s">
         <v>147</v>
       </c>
       <c r="G516" s="7" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="H516" s="7" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="517" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -20201,19 +20213,19 @@
         <v>1009</v>
       </c>
       <c r="C517" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D517" t="s">
         <v>147</v>
       </c>
       <c r="G517" s="7" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="H517" s="7" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>153</v>
       </c>
@@ -20221,22 +20233,19 @@
         <v>1009</v>
       </c>
       <c r="C518" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D518" t="s">
         <v>147</v>
       </c>
-      <c r="F518" t="s">
-        <v>147</v>
-      </c>
       <c r="G518" s="7" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>153</v>
       </c>
@@ -20244,19 +20253,19 @@
         <v>1009</v>
       </c>
       <c r="C519" t="s">
-        <v>559</v>
+        <v>1023</v>
       </c>
       <c r="D519" t="s">
         <v>147</v>
       </c>
       <c r="G519" s="7" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="H519" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>153</v>
       </c>
@@ -20264,19 +20273,19 @@
         <v>1009</v>
       </c>
       <c r="C520" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D520" t="s">
         <v>147</v>
       </c>
-      <c r="E520" t="s">
+      <c r="F520" t="s">
         <v>147</v>
       </c>
       <c r="G520" s="7" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="H520" s="7" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.3">
@@ -20287,22 +20296,16 @@
         <v>1009</v>
       </c>
       <c r="C521" t="s">
-        <v>902</v>
+        <v>559</v>
       </c>
       <c r="D521" t="s">
         <v>147</v>
       </c>
-      <c r="E521" t="s">
-        <v>147</v>
-      </c>
-      <c r="F521" t="s">
-        <v>147</v>
-      </c>
       <c r="G521" s="7" t="s">
-        <v>904</v>
+        <v>1054</v>
       </c>
       <c r="H521" s="7" t="s">
-        <v>906</v>
+        <v>260</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.3">
@@ -20313,7 +20316,7 @@
         <v>1009</v>
       </c>
       <c r="C522" t="s">
-        <v>903</v>
+        <v>1025</v>
       </c>
       <c r="D522" t="s">
         <v>147</v>
@@ -20321,14 +20324,11 @@
       <c r="E522" t="s">
         <v>147</v>
       </c>
-      <c r="F522" t="s">
-        <v>147</v>
-      </c>
       <c r="G522" s="7" t="s">
-        <v>905</v>
+        <v>1055</v>
       </c>
       <c r="H522" s="7" t="s">
-        <v>907</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.3">
@@ -20336,22 +20336,25 @@
         <v>153</v>
       </c>
       <c r="B523" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C523" t="s">
-        <v>398</v>
+        <v>902</v>
       </c>
       <c r="D523" t="s">
         <v>147</v>
       </c>
+      <c r="E523" t="s">
+        <v>147</v>
+      </c>
       <c r="F523" t="s">
         <v>147</v>
       </c>
       <c r="G523" s="7" t="s">
-        <v>1010</v>
+        <v>904</v>
       </c>
       <c r="H523" s="7" t="s">
-        <v>225</v>
+        <v>906</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.3">
@@ -20359,10 +20362,10 @@
         <v>153</v>
       </c>
       <c r="B524" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C524" t="s">
-        <v>7</v>
+        <v>903</v>
       </c>
       <c r="D524" t="s">
         <v>147</v>
@@ -20374,13 +20377,10 @@
         <v>147</v>
       </c>
       <c r="G524" s="7" t="s">
-        <v>521</v>
+        <v>905</v>
       </c>
       <c r="H524" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I524" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.3">
@@ -20391,22 +20391,19 @@
         <v>1058</v>
       </c>
       <c r="C525" t="s">
-        <v>1064</v>
+        <v>398</v>
       </c>
       <c r="D525" t="s">
         <v>147</v>
       </c>
-      <c r="E525" t="s">
-        <v>147</v>
-      </c>
       <c r="F525" t="s">
         <v>147</v>
       </c>
       <c r="G525" s="7" t="s">
-        <v>789</v>
+        <v>1010</v>
       </c>
       <c r="H525" s="7" t="s">
-        <v>789</v>
+        <v>225</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.3">
@@ -20417,7 +20414,7 @@
         <v>1058</v>
       </c>
       <c r="C526" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D526" t="s">
         <v>147</v>
@@ -20425,11 +20422,17 @@
       <c r="E526" t="s">
         <v>147</v>
       </c>
+      <c r="F526" t="s">
+        <v>147</v>
+      </c>
       <c r="G526" s="7" t="s">
-        <v>1065</v>
+        <v>521</v>
       </c>
       <c r="H526" s="7" t="s">
-        <v>635</v>
+        <v>291</v>
+      </c>
+      <c r="I526" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.3">
@@ -20440,7 +20443,7 @@
         <v>1058</v>
       </c>
       <c r="C527" t="s">
-        <v>902</v>
+        <v>1064</v>
       </c>
       <c r="D527" t="s">
         <v>147</v>
@@ -20452,10 +20455,10 @@
         <v>147</v>
       </c>
       <c r="G527" s="7" t="s">
-        <v>904</v>
+        <v>789</v>
       </c>
       <c r="H527" s="7" t="s">
-        <v>906</v>
+        <v>789</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.3">
@@ -20466,7 +20469,7 @@
         <v>1058</v>
       </c>
       <c r="C528" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D528" t="s">
         <v>147</v>
@@ -20474,66 +20477,66 @@
       <c r="E528" t="s">
         <v>147</v>
       </c>
-      <c r="F528" t="s">
-        <v>147</v>
-      </c>
       <c r="G528" s="7" t="s">
-        <v>905</v>
+        <v>1065</v>
       </c>
       <c r="H528" s="7" t="s">
-        <v>907</v>
+        <v>635</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B529" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C529" t="s">
-        <v>398</v>
+        <v>902</v>
       </c>
       <c r="D529" t="s">
         <v>147</v>
       </c>
+      <c r="E529" t="s">
+        <v>147</v>
+      </c>
       <c r="F529" t="s">
         <v>147</v>
       </c>
       <c r="G529" s="7" t="s">
-        <v>1010</v>
+        <v>904</v>
       </c>
       <c r="H529" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J529" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K529" t="s">
-        <v>1178</v>
-      </c>
-      <c r="L529" t="s">
-        <v>1182</v>
+        <v>906</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B530" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C530" t="s">
-        <v>1102</v>
+        <v>903</v>
+      </c>
+      <c r="D530" t="s">
+        <v>147</v>
+      </c>
+      <c r="E530" t="s">
+        <v>147</v>
+      </c>
+      <c r="F530" t="s">
+        <v>147</v>
       </c>
       <c r="G530" s="7" t="s">
-        <v>1117</v>
+        <v>905</v>
       </c>
       <c r="H530" s="7" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="531" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -20541,7 +20544,7 @@
         <v>1074</v>
       </c>
       <c r="C531" t="s">
-        <v>1103</v>
+        <v>398</v>
       </c>
       <c r="D531" t="s">
         <v>147</v>
@@ -20549,14 +20552,23 @@
       <c r="F531" t="s">
         <v>147</v>
       </c>
-      <c r="G531" s="12" t="s">
-        <v>1119</v>
+      <c r="G531" s="7" t="s">
+        <v>1010</v>
       </c>
       <c r="H531" s="7" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="532" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="J531" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K531" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L531" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -20564,16 +20576,13 @@
         <v>1074</v>
       </c>
       <c r="C532" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D532" t="s">
-        <v>147</v>
-      </c>
-      <c r="G532" s="12" t="s">
-        <v>1122</v>
+        <v>1102</v>
+      </c>
+      <c r="G532" s="7" t="s">
+        <v>1117</v>
       </c>
       <c r="H532" s="7" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="533" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20584,7 +20593,7 @@
         <v>1074</v>
       </c>
       <c r="C533" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D533" t="s">
         <v>147</v>
@@ -20593,13 +20602,10 @@
         <v>147</v>
       </c>
       <c r="G533" s="12" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="H533" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I533" t="s">
-        <v>1175</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="534" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20610,19 +20616,16 @@
         <v>1074</v>
       </c>
       <c r="C534" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D534" t="s">
         <v>147</v>
       </c>
-      <c r="F534" t="s">
-        <v>147</v>
-      </c>
       <c r="G534" s="12" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H534" s="7" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="535" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20633,7 +20636,7 @@
         <v>1074</v>
       </c>
       <c r="C535" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D535" t="s">
         <v>147</v>
@@ -20642,10 +20645,13 @@
         <v>147</v>
       </c>
       <c r="G535" s="12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H535" s="7" t="s">
-        <v>1138</v>
+        <v>1136</v>
+      </c>
+      <c r="I535" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="536" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20656,7 +20662,7 @@
         <v>1074</v>
       </c>
       <c r="C536" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D536" t="s">
         <v>147</v>
@@ -20665,10 +20671,10 @@
         <v>147</v>
       </c>
       <c r="G536" s="12" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="H536" s="7" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="537" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20679,16 +20685,19 @@
         <v>1074</v>
       </c>
       <c r="C537" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D537" t="s">
         <v>147</v>
       </c>
+      <c r="F537" t="s">
+        <v>147</v>
+      </c>
       <c r="G537" s="12" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H537" s="7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="538" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20699,16 +20708,19 @@
         <v>1074</v>
       </c>
       <c r="C538" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D538" t="s">
         <v>147</v>
       </c>
+      <c r="F538" t="s">
+        <v>147</v>
+      </c>
       <c r="G538" s="12" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="H538" s="7" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="539" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -20719,19 +20731,19 @@
         <v>1074</v>
       </c>
       <c r="C539" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D539" t="s">
         <v>147</v>
       </c>
       <c r="G539" s="12" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H539" s="7" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -20739,19 +20751,19 @@
         <v>1074</v>
       </c>
       <c r="C540" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D540" t="s">
         <v>147</v>
       </c>
-      <c r="G540" s="7" t="s">
-        <v>1130</v>
+      <c r="G540" s="12" t="s">
+        <v>1127</v>
       </c>
       <c r="H540" s="7" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -20759,16 +20771,16 @@
         <v>1074</v>
       </c>
       <c r="C541" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D541" t="s">
         <v>147</v>
       </c>
-      <c r="G541" s="7" t="s">
-        <v>1129</v>
+      <c r="G541" s="12" t="s">
+        <v>1128</v>
       </c>
       <c r="H541" s="7" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.3">
@@ -20779,16 +20791,16 @@
         <v>1074</v>
       </c>
       <c r="C542" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D542" t="s">
         <v>147</v>
       </c>
       <c r="G542" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H542" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.3">
@@ -20799,16 +20811,16 @@
         <v>1074</v>
       </c>
       <c r="C543" t="s">
-        <v>576</v>
+        <v>1113</v>
       </c>
       <c r="D543" t="s">
         <v>147</v>
       </c>
       <c r="G543" s="7" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>854</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.3">
@@ -20819,19 +20831,16 @@
         <v>1074</v>
       </c>
       <c r="C544" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D544" t="s">
         <v>147</v>
       </c>
-      <c r="F544" t="s">
-        <v>147</v>
-      </c>
       <c r="G544" s="7" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H544" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.3">
@@ -20842,19 +20851,16 @@
         <v>1074</v>
       </c>
       <c r="C545" t="s">
-        <v>1116</v>
+        <v>576</v>
       </c>
       <c r="D545" t="s">
         <v>147</v>
       </c>
-      <c r="F545" t="s">
-        <v>147</v>
-      </c>
       <c r="G545" s="7" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="H545" s="7" t="s">
-        <v>1147</v>
+        <v>854</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.3">
@@ -20865,22 +20871,19 @@
         <v>1074</v>
       </c>
       <c r="C546" t="s">
-        <v>902</v>
+        <v>1115</v>
       </c>
       <c r="D546" t="s">
         <v>147</v>
       </c>
-      <c r="E546" t="s">
-        <v>147</v>
-      </c>
       <c r="F546" t="s">
         <v>147</v>
       </c>
       <c r="G546" s="7" t="s">
-        <v>904</v>
+        <v>1133</v>
       </c>
       <c r="H546" s="7" t="s">
-        <v>906</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.3">
@@ -20891,22 +20894,19 @@
         <v>1074</v>
       </c>
       <c r="C547" t="s">
-        <v>903</v>
+        <v>1116</v>
       </c>
       <c r="D547" t="s">
         <v>147</v>
       </c>
-      <c r="E547" t="s">
-        <v>147</v>
-      </c>
       <c r="F547" t="s">
         <v>147</v>
       </c>
       <c r="G547" s="7" t="s">
-        <v>905</v>
+        <v>1135</v>
       </c>
       <c r="H547" s="7" t="s">
-        <v>907</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.3">
@@ -20914,22 +20914,25 @@
         <v>0</v>
       </c>
       <c r="B548" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C548" t="s">
-        <v>1148</v>
+        <v>902</v>
       </c>
       <c r="D548" t="s">
         <v>147</v>
       </c>
+      <c r="E548" t="s">
+        <v>147</v>
+      </c>
       <c r="F548" t="s">
         <v>147</v>
       </c>
       <c r="G548" s="7" t="s">
-        <v>1010</v>
+        <v>904</v>
       </c>
       <c r="H548" s="7" t="s">
-        <v>225</v>
+        <v>906</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.3">
@@ -20937,10 +20940,10 @@
         <v>0</v>
       </c>
       <c r="B549" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C549" t="s">
-        <v>7</v>
+        <v>903</v>
       </c>
       <c r="D549" t="s">
         <v>147</v>
@@ -20952,13 +20955,10 @@
         <v>147</v>
       </c>
       <c r="G549" s="7" t="s">
-        <v>521</v>
+        <v>905</v>
       </c>
       <c r="H549" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I549" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.3">
@@ -20969,22 +20969,19 @@
         <v>1075</v>
       </c>
       <c r="C550" t="s">
-        <v>1064</v>
+        <v>1148</v>
       </c>
       <c r="D550" t="s">
         <v>147</v>
       </c>
-      <c r="E550" t="s">
-        <v>147</v>
-      </c>
       <c r="F550" t="s">
         <v>147</v>
       </c>
       <c r="G550" s="7" t="s">
-        <v>789</v>
+        <v>1010</v>
       </c>
       <c r="H550" s="7" t="s">
-        <v>789</v>
+        <v>225</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.3">
@@ -20995,7 +20992,7 @@
         <v>1075</v>
       </c>
       <c r="C551" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D551" t="s">
         <v>147</v>
@@ -21003,11 +21000,17 @@
       <c r="E551" t="s">
         <v>147</v>
       </c>
+      <c r="F551" t="s">
+        <v>147</v>
+      </c>
       <c r="G551" s="7" t="s">
-        <v>1065</v>
+        <v>521</v>
       </c>
       <c r="H551" s="7" t="s">
-        <v>635</v>
+        <v>291</v>
+      </c>
+      <c r="I551" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.3">
@@ -21018,7 +21021,7 @@
         <v>1075</v>
       </c>
       <c r="C552" t="s">
-        <v>902</v>
+        <v>1064</v>
       </c>
       <c r="D552" t="s">
         <v>147</v>
@@ -21030,10 +21033,10 @@
         <v>147</v>
       </c>
       <c r="G552" s="7" t="s">
-        <v>904</v>
+        <v>789</v>
       </c>
       <c r="H552" s="7" t="s">
-        <v>906</v>
+        <v>789</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.3">
@@ -21044,7 +21047,7 @@
         <v>1075</v>
       </c>
       <c r="C553" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D553" t="s">
         <v>147</v>
@@ -21052,25 +21055,22 @@
       <c r="E553" t="s">
         <v>147</v>
       </c>
-      <c r="F553" t="s">
-        <v>147</v>
-      </c>
       <c r="G553" s="7" t="s">
-        <v>905</v>
+        <v>1065</v>
       </c>
       <c r="H553" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>0</v>
       </c>
       <c r="B554" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C554" t="s">
-        <v>11</v>
+        <v>902</v>
       </c>
       <c r="D554" t="s">
         <v>147</v>
@@ -21081,14 +21081,11 @@
       <c r="F554" t="s">
         <v>147</v>
       </c>
-      <c r="G554" s="12" t="s">
-        <v>1149</v>
+      <c r="G554" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="H554" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I554" t="s">
-        <v>934</v>
+        <v>906</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.3">
@@ -21096,25 +21093,28 @@
         <v>0</v>
       </c>
       <c r="B555" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C555" t="s">
-        <v>1148</v>
+        <v>903</v>
       </c>
       <c r="D555" t="s">
         <v>147</v>
       </c>
+      <c r="E555" t="s">
+        <v>147</v>
+      </c>
       <c r="F555" t="s">
         <v>147</v>
       </c>
       <c r="G555" s="7" t="s">
-        <v>1010</v>
+        <v>905</v>
       </c>
       <c r="H555" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>1076</v>
       </c>
       <c r="C556" t="s">
-        <v>1150</v>
+        <v>11</v>
       </c>
       <c r="D556" t="s">
         <v>147</v>
@@ -21133,14 +21133,14 @@
       <c r="F556" t="s">
         <v>147</v>
       </c>
-      <c r="G556" s="7" t="s">
-        <v>135</v>
+      <c r="G556" s="12" t="s">
+        <v>1149</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>1151</v>
+        <v>103</v>
       </c>
       <c r="I556" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.3">
@@ -21151,22 +21151,19 @@
         <v>1076</v>
       </c>
       <c r="C557" t="s">
-        <v>41</v>
+        <v>1148</v>
       </c>
       <c r="D557" t="s">
         <v>147</v>
       </c>
-      <c r="E557" t="s">
-        <v>147</v>
-      </c>
       <c r="F557" t="s">
         <v>147</v>
       </c>
       <c r="G557" s="7" t="s">
-        <v>485</v>
+        <v>1010</v>
       </c>
       <c r="H557" s="7" t="s">
-        <v>658</v>
+        <v>225</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.3">
@@ -21177,7 +21174,7 @@
         <v>1076</v>
       </c>
       <c r="C558" t="s">
-        <v>902</v>
+        <v>1150</v>
       </c>
       <c r="D558" t="s">
         <v>147</v>
@@ -21189,10 +21186,13 @@
         <v>147</v>
       </c>
       <c r="G558" s="7" t="s">
-        <v>904</v>
+        <v>135</v>
       </c>
       <c r="H558" s="7" t="s">
-        <v>906</v>
+        <v>1151</v>
+      </c>
+      <c r="I558" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.3">
@@ -21203,7 +21203,7 @@
         <v>1076</v>
       </c>
       <c r="C559" t="s">
-        <v>903</v>
+        <v>41</v>
       </c>
       <c r="D559" t="s">
         <v>147</v>
@@ -21215,10 +21215,10 @@
         <v>147</v>
       </c>
       <c r="G559" s="7" t="s">
-        <v>905</v>
+        <v>485</v>
       </c>
       <c r="H559" s="7" t="s">
-        <v>907</v>
+        <v>658</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.3">
@@ -21226,10 +21226,10 @@
         <v>0</v>
       </c>
       <c r="B560" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C560" t="s">
-        <v>1152</v>
+        <v>902</v>
       </c>
       <c r="D560" t="s">
         <v>147</v>
@@ -21241,10 +21241,10 @@
         <v>147</v>
       </c>
       <c r="G560" s="7" t="s">
-        <v>1156</v>
+        <v>904</v>
       </c>
       <c r="H560" s="7" t="s">
-        <v>1154</v>
+        <v>906</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.3">
@@ -21252,10 +21252,10 @@
         <v>0</v>
       </c>
       <c r="B561" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C561" t="s">
-        <v>1153</v>
+        <v>903</v>
       </c>
       <c r="D561" t="s">
         <v>147</v>
@@ -21267,10 +21267,10 @@
         <v>147</v>
       </c>
       <c r="G561" s="7" t="s">
-        <v>1155</v>
+        <v>905</v>
       </c>
       <c r="H561" s="7" t="s">
-        <v>783</v>
+        <v>907</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.3">
@@ -21281,7 +21281,7 @@
         <v>1077</v>
       </c>
       <c r="C562" t="s">
-        <v>902</v>
+        <v>1152</v>
       </c>
       <c r="D562" t="s">
         <v>147</v>
@@ -21293,10 +21293,10 @@
         <v>147</v>
       </c>
       <c r="G562" s="7" t="s">
-        <v>904</v>
+        <v>1156</v>
       </c>
       <c r="H562" s="7" t="s">
-        <v>906</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.3">
@@ -21307,7 +21307,7 @@
         <v>1077</v>
       </c>
       <c r="C563" t="s">
-        <v>903</v>
+        <v>1153</v>
       </c>
       <c r="D563" t="s">
         <v>147</v>
@@ -21319,10 +21319,10 @@
         <v>147</v>
       </c>
       <c r="G563" s="7" t="s">
-        <v>905</v>
+        <v>1155</v>
       </c>
       <c r="H563" s="7" t="s">
-        <v>907</v>
+        <v>783</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.3">
@@ -21330,22 +21330,25 @@
         <v>0</v>
       </c>
       <c r="B564" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C564" t="s">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="D564" t="s">
         <v>147</v>
       </c>
+      <c r="E564" t="s">
+        <v>147</v>
+      </c>
       <c r="F564" t="s">
         <v>147</v>
       </c>
       <c r="G564" s="7" t="s">
-        <v>1086</v>
+        <v>904</v>
       </c>
       <c r="H564" s="7" t="s">
-        <v>1087</v>
+        <v>906</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.3">
@@ -21353,10 +21356,10 @@
         <v>0</v>
       </c>
       <c r="B565" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C565" t="s">
-        <v>45</v>
+        <v>903</v>
       </c>
       <c r="D565" t="s">
         <v>147</v>
@@ -21368,13 +21371,10 @@
         <v>147</v>
       </c>
       <c r="G565" s="7" t="s">
-        <v>253</v>
+        <v>905</v>
       </c>
       <c r="H565" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I565" t="s">
-        <v>1000</v>
+        <v>907</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.3">
@@ -21385,22 +21385,19 @@
         <v>1078</v>
       </c>
       <c r="C566" t="s">
-        <v>902</v>
+        <v>4</v>
       </c>
       <c r="D566" t="s">
         <v>147</v>
       </c>
-      <c r="E566" t="s">
-        <v>147</v>
-      </c>
       <c r="F566" t="s">
         <v>147</v>
       </c>
       <c r="G566" s="7" t="s">
-        <v>904</v>
+        <v>1086</v>
       </c>
       <c r="H566" s="7" t="s">
-        <v>906</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.3">
@@ -21411,7 +21408,7 @@
         <v>1078</v>
       </c>
       <c r="C567" t="s">
-        <v>903</v>
+        <v>45</v>
       </c>
       <c r="D567" t="s">
         <v>147</v>
@@ -21423,10 +21420,13 @@
         <v>147</v>
       </c>
       <c r="G567" s="7" t="s">
-        <v>905</v>
+        <v>253</v>
       </c>
       <c r="H567" s="7" t="s">
-        <v>907</v>
+        <v>254</v>
+      </c>
+      <c r="I567" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.3">
@@ -21434,22 +21434,25 @@
         <v>0</v>
       </c>
       <c r="B568" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C568" t="s">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="D568" t="s">
         <v>147</v>
       </c>
+      <c r="E568" t="s">
+        <v>147</v>
+      </c>
       <c r="F568" t="s">
         <v>147</v>
       </c>
       <c r="G568" s="7" t="s">
-        <v>1086</v>
+        <v>904</v>
       </c>
       <c r="H568" s="7" t="s">
-        <v>1087</v>
+        <v>906</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.3">
@@ -21457,10 +21460,10 @@
         <v>0</v>
       </c>
       <c r="B569" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C569" t="s">
-        <v>1157</v>
+        <v>903</v>
       </c>
       <c r="D569" t="s">
         <v>147</v>
@@ -21472,13 +21475,10 @@
         <v>147</v>
       </c>
       <c r="G569" s="7" t="s">
-        <v>421</v>
+        <v>905</v>
       </c>
       <c r="H569" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I569" t="s">
-        <v>1172</v>
+        <v>907</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.3">
@@ -21489,25 +21489,22 @@
         <v>1079</v>
       </c>
       <c r="C570" t="s">
-        <v>902</v>
+        <v>4</v>
       </c>
       <c r="D570" t="s">
         <v>147</v>
       </c>
-      <c r="E570" t="s">
-        <v>147</v>
-      </c>
       <c r="F570" t="s">
         <v>147</v>
       </c>
       <c r="G570" s="7" t="s">
-        <v>904</v>
+        <v>1086</v>
       </c>
       <c r="H570" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>0</v>
       </c>
@@ -21515,7 +21512,7 @@
         <v>1079</v>
       </c>
       <c r="C571" t="s">
-        <v>903</v>
+        <v>1157</v>
       </c>
       <c r="D571" t="s">
         <v>147</v>
@@ -21527,10 +21524,13 @@
         <v>147</v>
       </c>
       <c r="G571" s="7" t="s">
-        <v>905</v>
+        <v>421</v>
       </c>
       <c r="H571" s="7" t="s">
-        <v>907</v>
+        <v>1158</v>
+      </c>
+      <c r="I571" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.3">
@@ -21538,33 +21538,36 @@
         <v>0</v>
       </c>
       <c r="B572" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C572" t="s">
-        <v>1159</v>
+        <v>902</v>
       </c>
       <c r="D572" t="s">
         <v>147</v>
       </c>
+      <c r="E572" t="s">
+        <v>147</v>
+      </c>
       <c r="F572" t="s">
         <v>147</v>
       </c>
       <c r="G572" s="7" t="s">
-        <v>1164</v>
+        <v>904</v>
       </c>
       <c r="H572" s="7" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>0</v>
       </c>
       <c r="B573" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C573" t="s">
-        <v>1160</v>
+        <v>903</v>
       </c>
       <c r="D573" t="s">
         <v>147</v>
@@ -21576,10 +21579,10 @@
         <v>147</v>
       </c>
       <c r="G573" s="7" t="s">
-        <v>1161</v>
+        <v>905</v>
       </c>
       <c r="H573" s="7" t="s">
-        <v>1162</v>
+        <v>907</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.3">
@@ -21590,22 +21593,19 @@
         <v>1080</v>
       </c>
       <c r="C574" t="s">
-        <v>902</v>
+        <v>1159</v>
       </c>
       <c r="D574" t="s">
         <v>147</v>
       </c>
-      <c r="E574" t="s">
-        <v>147</v>
-      </c>
       <c r="F574" t="s">
         <v>147</v>
       </c>
       <c r="G574" s="7" t="s">
-        <v>904</v>
+        <v>1164</v>
       </c>
       <c r="H574" s="7" t="s">
-        <v>906</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.3">
@@ -21616,26 +21616,78 @@
         <v>1080</v>
       </c>
       <c r="C575" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D575" t="s">
+        <v>147</v>
+      </c>
+      <c r="E575" t="s">
+        <v>147</v>
+      </c>
+      <c r="F575" t="s">
+        <v>147</v>
+      </c>
+      <c r="G575" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H575" s="7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>0</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C576" t="s">
+        <v>902</v>
+      </c>
+      <c r="D576" t="s">
+        <v>147</v>
+      </c>
+      <c r="E576" t="s">
+        <v>147</v>
+      </c>
+      <c r="F576" t="s">
+        <v>147</v>
+      </c>
+      <c r="G576" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H576" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>0</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C577" t="s">
         <v>903</v>
       </c>
-      <c r="D575" t="s">
-        <v>147</v>
-      </c>
-      <c r="E575" t="s">
-        <v>147</v>
-      </c>
-      <c r="F575" t="s">
-        <v>147</v>
-      </c>
-      <c r="G575" s="7" t="s">
+      <c r="D577" t="s">
+        <v>147</v>
+      </c>
+      <c r="E577" t="s">
+        <v>147</v>
+      </c>
+      <c r="F577" t="s">
+        <v>147</v>
+      </c>
+      <c r="G577" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H575" s="7" t="s">
+      <c r="H577" s="7" t="s">
         <v>907</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C568"/>
+  <autoFilter ref="A1:C570"/>
   <sortState ref="A2:H552">
     <sortCondition ref="B2:B552"/>
   </sortState>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5391" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5397" uniqueCount="1220">
   <si>
     <t>DATA</t>
   </si>
@@ -3809,6 +3809,9 @@
   </si>
   <si>
     <t>Settings/SysColumns</t>
+  </si>
+  <si>
+    <t>Settings</t>
   </si>
 </sst>
 </file>
@@ -4251,11 +4254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="P86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N92" sqref="N92"/>
+      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6199,6 +6202,9 @@
       <c r="C66" t="s">
         <v>1057</v>
       </c>
+      <c r="D66" t="s">
+        <v>1219</v>
+      </c>
       <c r="G66" t="s">
         <v>147</v>
       </c>
@@ -6228,6 +6234,9 @@
       <c r="C67" t="s">
         <v>1057</v>
       </c>
+      <c r="D67" t="s">
+        <v>1219</v>
+      </c>
       <c r="K67" t="s">
         <v>891</v>
       </c>
@@ -6257,6 +6266,9 @@
       <c r="C68" t="s">
         <v>1057</v>
       </c>
+      <c r="D68" t="s">
+        <v>1219</v>
+      </c>
       <c r="J68" t="s">
         <v>1202</v>
       </c>
@@ -6301,6 +6313,9 @@
       <c r="C69" t="s">
         <v>1057</v>
       </c>
+      <c r="D69" t="s">
+        <v>1219</v>
+      </c>
       <c r="J69" t="s">
         <v>223</v>
       </c>
@@ -6977,6 +6992,9 @@
       <c r="C92" t="s">
         <v>1057</v>
       </c>
+      <c r="D92" t="s">
+        <v>1219</v>
+      </c>
       <c r="G92" t="s">
         <v>147</v>
       </c>
@@ -7191,6 +7209,9 @@
       </c>
       <c r="C99" t="s">
         <v>1057</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1219</v>
       </c>
       <c r="J99" t="s">
         <v>1213</v>
@@ -7571,7 +7592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5397" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5398" uniqueCount="1220">
   <si>
     <t>DATA</t>
   </si>
@@ -4254,11 +4254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P86" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="P50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21767,11 +21767,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21811,6 +21811,9 @@
         <v>766</v>
       </c>
       <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
         <v>147</v>
       </c>
     </row>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="web.Model{C}" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$570</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$568</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables{T}'!$A$1:$L$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'web.Model{C}'!$A$1:$C$380</definedName>
   </definedNames>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5398" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5392" uniqueCount="1216">
   <si>
     <t>DATA</t>
   </si>
@@ -3790,6 +3790,9 @@
     <t>Password</t>
   </si>
   <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
     <t>sysTableId</t>
   </si>
   <si>
@@ -3797,28 +3800,13 @@
   </si>
   <si>
     <t>editModeType</t>
-  </si>
-  <si>
-    <t>SYS_TABLE</t>
-  </si>
-  <si>
-    <t>DE: Column</t>
-  </si>
-  <si>
-    <t>sysColumns</t>
-  </si>
-  <si>
-    <t>Settings/SysColumns</t>
-  </si>
-  <si>
-    <t>Settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3953,7 +3941,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3966,9 +3954,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4006,7 +3994,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4040,7 +4028,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4075,10 +4062,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4251,41 +4237,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
+      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="66.5546875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="25.44140625" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="66.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="7" customWidth="1"/>
     <col min="18" max="18" width="19" style="7" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -4350,7 +4336,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4359,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +4385,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4420,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="105">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4509,7 +4495,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +4526,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4557,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4602,7 +4588,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4619,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4671,7 +4657,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4700,7 +4686,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4723,7 +4709,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4764,7 +4750,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4793,7 +4779,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4819,7 +4805,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4857,7 +4843,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4886,7 +4872,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4924,7 +4910,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4953,7 +4939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4979,7 +4965,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +4994,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -5046,7 +5032,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -5075,7 +5061,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -5101,7 +5087,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5127,7 +5113,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5153,7 +5139,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -5179,7 +5165,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -5205,7 +5191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -5243,7 +5229,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -5281,7 +5267,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -5319,7 +5305,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5357,7 +5343,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5392,7 +5378,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -5418,7 +5404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -5444,7 +5430,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -5479,7 +5465,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -5502,7 +5488,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -5537,7 +5523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -5563,7 +5549,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -5586,7 +5572,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -5609,7 +5595,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -5635,7 +5621,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -5661,7 +5647,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -5684,7 +5670,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>153</v>
       </c>
@@ -5707,7 +5693,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -5742,7 +5728,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -5765,7 +5751,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -5788,7 +5774,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -5811,7 +5797,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -5837,7 +5823,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -5863,7 +5849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -5889,7 +5875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -5915,7 +5901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5941,7 +5927,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5964,7 +5950,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -5990,7 +5976,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -6013,7 +5999,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -6039,7 +6025,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -6065,7 +6051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -6094,7 +6080,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -6117,7 +6103,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -6140,7 +6126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -6166,7 +6152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -6192,7 +6178,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -6202,9 +6188,6 @@
       <c r="C66" t="s">
         <v>1057</v>
       </c>
-      <c r="D66" t="s">
-        <v>1219</v>
-      </c>
       <c r="G66" t="s">
         <v>147</v>
       </c>
@@ -6224,7 +6207,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -6234,9 +6217,6 @@
       <c r="C67" t="s">
         <v>1057</v>
       </c>
-      <c r="D67" t="s">
-        <v>1219</v>
-      </c>
       <c r="K67" t="s">
         <v>891</v>
       </c>
@@ -6256,7 +6236,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="30">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -6266,9 +6246,6 @@
       <c r="C68" t="s">
         <v>1057</v>
       </c>
-      <c r="D68" t="s">
-        <v>1219</v>
-      </c>
       <c r="J68" t="s">
         <v>1202</v>
       </c>
@@ -6303,7 +6280,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -6313,9 +6290,6 @@
       <c r="C69" t="s">
         <v>1057</v>
       </c>
-      <c r="D69" t="s">
-        <v>1219</v>
-      </c>
       <c r="J69" t="s">
         <v>223</v>
       </c>
@@ -6332,7 +6306,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -6358,7 +6332,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -6384,7 +6358,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -6410,7 +6384,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -6436,7 +6410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6462,7 +6436,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -6497,7 +6471,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -6535,7 +6509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6561,7 +6535,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -6587,7 +6561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -6616,7 +6590,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -6654,7 +6628,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -6680,7 +6654,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -6706,7 +6680,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -6738,7 +6712,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -6764,7 +6738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6793,7 +6767,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -6831,7 +6805,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -6869,7 +6843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -6898,7 +6872,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -6924,7 +6898,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -6950,7 +6924,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -6982,7 +6956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -6992,17 +6966,11 @@
       <c r="C92" t="s">
         <v>1057</v>
       </c>
-      <c r="D92" t="s">
-        <v>1219</v>
-      </c>
       <c r="G92" t="s">
         <v>147</v>
       </c>
       <c r="H92" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="K92" t="s">
         <v>895</v>
@@ -7010,8 +6978,11 @@
       <c r="L92" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -7043,7 +7014,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -7075,7 +7046,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -7110,7 +7081,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -7136,7 +7107,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -7162,7 +7133,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -7200,7 +7171,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -7210,11 +7181,8 @@
       <c r="C99" t="s">
         <v>1057</v>
       </c>
-      <c r="D99" t="s">
-        <v>1219</v>
-      </c>
       <c r="J99" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="K99" t="s">
         <v>894</v>
@@ -7225,20 +7193,8 @@
       <c r="N99" t="s">
         <v>147</v>
       </c>
-      <c r="O99" s="7" t="s">
-        <v>1218</v>
-      </c>
-      <c r="P99" t="s">
-        <v>1217</v>
-      </c>
-      <c r="Q99" s="7" t="s">
-        <v>1216</v>
-      </c>
-      <c r="R99" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -7273,7 +7229,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -7317,7 +7273,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -7352,7 +7308,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="30">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -7396,7 +7352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -7425,7 +7381,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="15.75">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7454,7 +7410,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="30">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -7489,7 +7445,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -7518,7 +7474,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -7547,7 +7503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7589,32 +7545,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M577"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I530" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E338" sqref="E338"/>
+      <selection pane="bottomRight" activeCell="M546" sqref="M546"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -7655,7 +7611,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7681,7 +7637,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7707,7 +7663,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7730,7 +7686,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7756,7 +7712,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7782,7 +7738,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7807,8 +7763,11 @@
       <c r="H7" s="7" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -7834,7 +7793,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7857,7 +7816,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7877,7 +7836,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7900,7 +7859,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7920,7 +7879,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7940,7 +7899,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7960,7 +7919,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7980,7 +7939,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -8003,7 +7962,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -8023,7 +7982,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8043,7 +8002,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -8063,7 +8022,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -8089,7 +8048,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8115,7 +8074,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8141,7 +8100,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8167,7 +8126,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8193,7 +8152,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8222,7 +8181,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8248,7 +8207,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8268,7 +8227,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -8288,7 +8247,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8311,7 +8270,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -8337,7 +8296,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -8363,7 +8322,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -8386,7 +8345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -8415,7 +8374,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -8441,7 +8400,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -8467,7 +8426,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -8490,7 +8449,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -8519,7 +8478,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -8542,7 +8501,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -8568,7 +8527,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -8594,7 +8553,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -8623,7 +8582,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -8646,7 +8605,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -8672,7 +8631,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -8698,7 +8657,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -8721,7 +8680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -8750,7 +8709,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -8776,7 +8735,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -8802,7 +8761,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -8825,7 +8784,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -8854,7 +8813,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -8880,7 +8839,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -8906,7 +8865,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -8931,8 +8890,11 @@
       <c r="H53" s="7" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -8958,7 +8920,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="30">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8981,7 +8943,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -9007,7 +8969,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -9033,7 +8995,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="30">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -9056,7 +9018,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -9085,7 +9047,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -9111,7 +9073,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -9137,7 +9099,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="30">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -9162,8 +9124,11 @@
       <c r="H62" s="7" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="30">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -9186,7 +9151,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="30">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -9206,7 +9171,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="45">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9226,7 +9191,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="30">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -9246,7 +9211,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="30">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -9266,7 +9231,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="30">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -9286,7 +9251,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -9312,7 +9277,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -9338,7 +9303,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -9363,8 +9328,11 @@
       <c r="H71" s="7" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -9390,7 +9358,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -9416,7 +9384,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -9442,7 +9410,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="30">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -9465,7 +9433,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -9494,7 +9462,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -9520,7 +9488,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -9546,7 +9514,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -9568,8 +9536,11 @@
       <c r="H79" s="7" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -9592,7 +9563,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -9618,7 +9589,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -9641,7 +9612,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -9661,7 +9632,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -9681,7 +9652,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -9704,7 +9675,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -9727,7 +9698,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -9747,7 +9718,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -9767,7 +9738,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -9790,7 +9761,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -9810,7 +9781,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -9830,7 +9801,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -9850,7 +9821,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -9876,7 +9847,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -9902,7 +9873,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -9928,7 +9899,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -9953,8 +9924,11 @@
       <c r="H96" s="7" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9951,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -10003,7 +9977,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -10026,7 +10000,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -10052,7 +10026,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -10078,7 +10052,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -10101,7 +10075,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -10130,7 +10104,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -10156,7 +10130,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -10182,7 +10156,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -10208,7 +10182,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -10231,7 +10205,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -10257,7 +10231,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -10283,7 +10257,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -10306,7 +10280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -10332,7 +10306,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -10358,7 +10332,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -10384,7 +10358,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -10412,8 +10386,11 @@
       <c r="I114" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -10438,8 +10415,11 @@
       <c r="H115" s="7" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -10465,7 +10445,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -10491,7 +10471,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -10516,8 +10496,11 @@
       <c r="H118" s="7" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -10543,7 +10526,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="45">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -10563,7 +10546,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="45">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -10589,7 +10572,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="30">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -10612,7 +10595,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="30">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -10635,7 +10618,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="60">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -10658,7 +10641,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -10681,7 +10664,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -10707,7 +10690,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -10733,7 +10716,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -10758,8 +10741,11 @@
       <c r="H128" s="7" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -10785,7 +10771,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -10811,7 +10797,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -10837,7 +10823,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -10860,7 +10846,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -10889,7 +10875,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -10915,7 +10901,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -10941,7 +10927,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -10966,8 +10952,11 @@
       <c r="H136" s="7" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M136" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -10996,7 +10985,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -11022,7 +11011,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -11048,7 +11037,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -11074,7 +11063,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="30">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -11099,8 +11088,11 @@
       <c r="H141" s="7" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -11126,7 +11118,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -11149,7 +11141,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -11172,7 +11164,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -11198,7 +11190,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -11224,7 +11216,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="30">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -11250,7 +11242,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="30">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -11272,8 +11264,11 @@
       <c r="H148" s="7" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -11299,7 +11294,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -11325,7 +11320,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="30">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -11351,7 +11346,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -11374,7 +11369,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -11400,7 +11395,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11426,7 +11421,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -11452,7 +11447,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -11472,7 +11467,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -11492,7 +11487,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="30">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -11512,7 +11507,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -11532,7 +11527,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -11552,7 +11547,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -11572,7 +11567,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -11595,7 +11590,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>153</v>
       </c>
@@ -11618,7 +11613,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>153</v>
       </c>
@@ -11641,7 +11636,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -11661,7 +11656,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>153</v>
       </c>
@@ -11681,7 +11676,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -11701,7 +11696,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -11721,7 +11716,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>153</v>
       </c>
@@ -11747,7 +11742,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>153</v>
       </c>
@@ -11773,7 +11768,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -11796,7 +11791,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>153</v>
       </c>
@@ -11822,7 +11817,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>153</v>
       </c>
@@ -11848,7 +11843,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>153</v>
       </c>
@@ -11874,7 +11869,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>153</v>
       </c>
@@ -11900,7 +11895,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>153</v>
       </c>
@@ -11926,7 +11921,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>153</v>
       </c>
@@ -11952,7 +11947,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -11978,7 +11973,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>153</v>
       </c>
@@ -12001,7 +11996,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>153</v>
       </c>
@@ -12027,7 +12022,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -12053,7 +12048,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>153</v>
       </c>
@@ -12079,7 +12074,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>153</v>
       </c>
@@ -12102,7 +12097,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>153</v>
       </c>
@@ -12128,7 +12123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>153</v>
       </c>
@@ -12154,7 +12149,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>153</v>
       </c>
@@ -12180,7 +12175,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>153</v>
       </c>
@@ -12203,7 +12198,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>153</v>
       </c>
@@ -12226,7 +12221,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>153</v>
       </c>
@@ -12249,7 +12244,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>153</v>
       </c>
@@ -12275,7 +12270,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>153</v>
       </c>
@@ -12301,7 +12296,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>153</v>
       </c>
@@ -12327,7 +12322,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>153</v>
       </c>
@@ -12350,7 +12345,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>153</v>
       </c>
@@ -12376,7 +12371,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -12402,7 +12397,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>153</v>
       </c>
@@ -12428,7 +12423,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -12454,7 +12449,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>153</v>
       </c>
@@ -12480,7 +12475,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>153</v>
       </c>
@@ -12506,7 +12501,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>153</v>
       </c>
@@ -12532,7 +12527,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>153</v>
       </c>
@@ -12558,7 +12553,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>153</v>
       </c>
@@ -12584,7 +12579,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>153</v>
       </c>
@@ -12610,7 +12605,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>153</v>
       </c>
@@ -12633,7 +12628,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="30">
       <c r="A205" t="s">
         <v>153</v>
       </c>
@@ -12659,7 +12654,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="30">
       <c r="A206" t="s">
         <v>153</v>
       </c>
@@ -12682,7 +12677,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="30">
       <c r="A207" t="s">
         <v>153</v>
       </c>
@@ -12705,7 +12700,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="30">
       <c r="A208" t="s">
         <v>153</v>
       </c>
@@ -12728,7 +12723,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>153</v>
       </c>
@@ -12754,7 +12749,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>153</v>
       </c>
@@ -12780,7 +12775,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>153</v>
       </c>
@@ -12806,7 +12801,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="30">
       <c r="A212" t="s">
         <v>153</v>
       </c>
@@ -12829,7 +12824,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>153</v>
       </c>
@@ -12855,7 +12850,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>153</v>
       </c>
@@ -12881,7 +12876,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -12907,7 +12902,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="30">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -12930,7 +12925,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>153</v>
       </c>
@@ -12956,7 +12951,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>153</v>
       </c>
@@ -12982,7 +12977,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>153</v>
       </c>
@@ -13008,7 +13003,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>153</v>
       </c>
@@ -13034,7 +13029,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>153</v>
       </c>
@@ -13060,7 +13055,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>153</v>
       </c>
@@ -13086,7 +13081,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>153</v>
       </c>
@@ -13112,7 +13107,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="30">
       <c r="A224" t="s">
         <v>153</v>
       </c>
@@ -13132,7 +13127,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="30">
       <c r="A225" t="s">
         <v>153</v>
       </c>
@@ -13152,7 +13147,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>153</v>
       </c>
@@ -13172,7 +13167,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>153</v>
       </c>
@@ -13198,7 +13193,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>153</v>
       </c>
@@ -13224,7 +13219,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>153</v>
       </c>
@@ -13250,7 +13245,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>153</v>
       </c>
@@ -13273,7 +13268,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="30">
       <c r="A231" t="s">
         <v>153</v>
       </c>
@@ -13296,7 +13291,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>153</v>
       </c>
@@ -13322,7 +13317,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>153</v>
       </c>
@@ -13348,7 +13343,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>153</v>
       </c>
@@ -13374,7 +13369,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>153</v>
       </c>
@@ -13397,7 +13392,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="30">
       <c r="A236" t="s">
         <v>153</v>
       </c>
@@ -13417,7 +13412,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="30">
       <c r="A237" t="s">
         <v>153</v>
       </c>
@@ -13437,7 +13432,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>153</v>
       </c>
@@ -13463,7 +13458,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>153</v>
       </c>
@@ -13489,7 +13484,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>153</v>
       </c>
@@ -13515,7 +13510,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>153</v>
       </c>
@@ -13541,7 +13536,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>153</v>
       </c>
@@ -13567,7 +13562,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>153</v>
       </c>
@@ -13593,7 +13588,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>153</v>
       </c>
@@ -13619,7 +13614,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>153</v>
       </c>
@@ -13642,7 +13637,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>153</v>
       </c>
@@ -13668,7 +13663,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>153</v>
       </c>
@@ -13694,7 +13689,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>153</v>
       </c>
@@ -13720,7 +13715,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>153</v>
       </c>
@@ -13740,7 +13735,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>153</v>
       </c>
@@ -13766,7 +13761,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>153</v>
       </c>
@@ -13792,7 +13787,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="30">
       <c r="A252" t="s">
         <v>153</v>
       </c>
@@ -13818,7 +13813,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="30">
       <c r="A253" t="s">
         <v>153</v>
       </c>
@@ -13838,7 +13833,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="30">
       <c r="A254" t="s">
         <v>153</v>
       </c>
@@ -13858,7 +13853,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>153</v>
       </c>
@@ -13884,7 +13879,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>153</v>
       </c>
@@ -13910,7 +13905,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="30">
       <c r="A257" t="s">
         <v>153</v>
       </c>
@@ -13936,7 +13931,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="30">
       <c r="A258" t="s">
         <v>153</v>
       </c>
@@ -13959,7 +13954,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>153</v>
       </c>
@@ -13985,7 +13980,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>153</v>
       </c>
@@ -14011,7 +14006,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>153</v>
       </c>
@@ -14037,7 +14032,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>153</v>
       </c>
@@ -14063,7 +14058,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>153</v>
       </c>
@@ -14089,7 +14084,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>153</v>
       </c>
@@ -14115,7 +14110,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>153</v>
       </c>
@@ -14138,7 +14133,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>153</v>
       </c>
@@ -14164,7 +14159,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>153</v>
       </c>
@@ -14190,7 +14185,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>153</v>
       </c>
@@ -14216,7 +14211,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>153</v>
       </c>
@@ -14239,7 +14234,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>153</v>
       </c>
@@ -14262,7 +14257,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>153</v>
       </c>
@@ -14288,7 +14283,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>153</v>
       </c>
@@ -14314,7 +14309,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>153</v>
       </c>
@@ -14340,7 +14335,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -14363,7 +14358,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>153</v>
       </c>
@@ -14383,7 +14378,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>153</v>
       </c>
@@ -14409,7 +14404,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>153</v>
       </c>
@@ -14435,7 +14430,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>153</v>
       </c>
@@ -14461,7 +14456,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>153</v>
       </c>
@@ -14487,7 +14482,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>153</v>
       </c>
@@ -14513,7 +14508,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>153</v>
       </c>
@@ -14539,7 +14534,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>153</v>
       </c>
@@ -14562,7 +14557,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>153</v>
       </c>
@@ -14576,7 +14571,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>153</v>
       </c>
@@ -14590,7 +14585,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>153</v>
       </c>
@@ -14616,7 +14611,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>153</v>
       </c>
@@ -14642,7 +14637,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>153</v>
       </c>
@@ -14668,7 +14663,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>153</v>
       </c>
@@ -14694,7 +14689,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>153</v>
       </c>
@@ -14720,7 +14715,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>153</v>
       </c>
@@ -14746,7 +14741,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>153</v>
       </c>
@@ -14772,7 +14767,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>153</v>
       </c>
@@ -14798,7 +14793,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>153</v>
       </c>
@@ -14824,7 +14819,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>153</v>
       </c>
@@ -14850,7 +14845,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>153</v>
       </c>
@@ -14876,7 +14871,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>153</v>
       </c>
@@ -14902,7 +14897,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>153</v>
       </c>
@@ -14928,7 +14923,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>153</v>
       </c>
@@ -14954,7 +14949,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>153</v>
       </c>
@@ -14980,7 +14975,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>153</v>
       </c>
@@ -15006,7 +15001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>153</v>
       </c>
@@ -15032,7 +15027,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>153</v>
       </c>
@@ -15058,7 +15053,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>153</v>
       </c>
@@ -15081,7 +15076,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>153</v>
       </c>
@@ -15104,7 +15099,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>153</v>
       </c>
@@ -15130,7 +15125,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>153</v>
       </c>
@@ -15156,7 +15151,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>153</v>
       </c>
@@ -15182,7 +15177,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>153</v>
       </c>
@@ -15208,7 +15203,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>153</v>
       </c>
@@ -15234,7 +15229,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="30">
       <c r="A310" t="s">
         <v>153</v>
       </c>
@@ -15254,7 +15249,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>153</v>
       </c>
@@ -15280,7 +15275,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>153</v>
       </c>
@@ -15306,7 +15301,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="30">
       <c r="A313" t="s">
         <v>153</v>
       </c>
@@ -15332,7 +15327,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>153</v>
       </c>
@@ -15355,7 +15350,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="75">
       <c r="A315" t="s">
         <v>153</v>
       </c>
@@ -15375,7 +15370,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>153</v>
       </c>
@@ -15401,7 +15396,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>153</v>
       </c>
@@ -15427,7 +15422,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>153</v>
       </c>
@@ -15453,7 +15448,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="30">
       <c r="A319" t="s">
         <v>153</v>
       </c>
@@ -15476,7 +15471,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>153</v>
       </c>
@@ -15499,7 +15494,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>153</v>
       </c>
@@ -15525,7 +15520,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>153</v>
       </c>
@@ -15551,7 +15546,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>153</v>
       </c>
@@ -15577,7 +15572,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>153</v>
       </c>
@@ -15600,7 +15595,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>153</v>
       </c>
@@ -15623,7 +15618,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>153</v>
       </c>
@@ -15646,7 +15641,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>153</v>
       </c>
@@ -15663,7 +15658,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>153</v>
       </c>
@@ -15689,7 +15684,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>153</v>
       </c>
@@ -15715,7 +15710,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>153</v>
       </c>
@@ -15738,7 +15733,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>153</v>
       </c>
@@ -15764,7 +15759,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>153</v>
       </c>
@@ -15787,7 +15782,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>153</v>
       </c>
@@ -15810,7 +15805,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>153</v>
       </c>
@@ -15836,7 +15831,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>153</v>
       </c>
@@ -15862,7 +15857,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>153</v>
       </c>
@@ -15888,7 +15883,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -15901,6 +15896,9 @@
       <c r="D337" t="s">
         <v>147</v>
       </c>
+      <c r="E337" t="s">
+        <v>147</v>
+      </c>
       <c r="F337" t="s">
         <v>147</v>
       </c>
@@ -15914,7 +15912,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10">
       <c r="A338" t="s">
         <v>153</v>
       </c>
@@ -15943,7 +15941,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -15969,7 +15967,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -15995,7 +15993,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10">
       <c r="A341" t="s">
         <v>153</v>
       </c>
@@ -16021,7 +16019,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10">
       <c r="A342" t="s">
         <v>153</v>
       </c>
@@ -16047,7 +16045,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10">
       <c r="A343" t="s">
         <v>153</v>
       </c>
@@ -16069,8 +16067,11 @@
       <c r="H343" s="7" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10">
       <c r="A344" t="s">
         <v>153</v>
       </c>
@@ -16099,7 +16100,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10">
       <c r="A345" t="s">
         <v>153</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10">
       <c r="A346" t="s">
         <v>153</v>
       </c>
@@ -16151,7 +16152,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -16177,7 +16178,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10">
       <c r="A348" t="s">
         <v>153</v>
       </c>
@@ -16200,7 +16201,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10">
       <c r="A349" t="s">
         <v>153</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>153</v>
       </c>
@@ -16252,7 +16253,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10">
       <c r="A351" t="s">
         <v>153</v>
       </c>
@@ -16278,7 +16279,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10">
       <c r="A352" t="s">
         <v>153</v>
       </c>
@@ -16301,7 +16302,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9">
       <c r="A353" t="s">
         <v>153</v>
       </c>
@@ -16327,7 +16328,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9">
       <c r="A354" t="s">
         <v>153</v>
       </c>
@@ -16353,7 +16354,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
         <v>153</v>
       </c>
@@ -16379,7 +16380,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9">
       <c r="A356" t="s">
         <v>153</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9">
       <c r="A357" t="s">
         <v>153</v>
       </c>
@@ -16425,7 +16426,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
         <v>153</v>
       </c>
@@ -16451,7 +16452,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9">
       <c r="A359" t="s">
         <v>153</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9">
       <c r="A360" t="s">
         <v>153</v>
       </c>
@@ -16503,7 +16504,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9">
       <c r="A361" t="s">
         <v>153</v>
       </c>
@@ -16526,7 +16527,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
         <v>153</v>
       </c>
@@ -16552,7 +16553,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9">
       <c r="A363" t="s">
         <v>153</v>
       </c>
@@ -16578,7 +16579,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="30">
       <c r="A364" t="s">
         <v>153</v>
       </c>
@@ -16604,7 +16605,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
         <v>153</v>
       </c>
@@ -16627,7 +16628,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9">
       <c r="A366" t="s">
         <v>153</v>
       </c>
@@ -16647,7 +16648,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9">
       <c r="A367" t="s">
         <v>153</v>
       </c>
@@ -16670,7 +16671,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
         <v>153</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8">
       <c r="A369" t="s">
         <v>153</v>
       </c>
@@ -16722,7 +16723,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8">
       <c r="A370" t="s">
         <v>153</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8">
       <c r="A371" t="s">
         <v>153</v>
       </c>
@@ -16771,7 +16772,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8">
       <c r="A372" t="s">
         <v>153</v>
       </c>
@@ -16797,7 +16798,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8">
       <c r="A373" t="s">
         <v>153</v>
       </c>
@@ -16823,7 +16824,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="30">
       <c r="A374" t="s">
         <v>153</v>
       </c>
@@ -16849,7 +16850,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8">
       <c r="A375" t="s">
         <v>153</v>
       </c>
@@ -16875,7 +16876,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8">
       <c r="A376" t="s">
         <v>153</v>
       </c>
@@ -16901,7 +16902,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8">
       <c r="A377" t="s">
         <v>153</v>
       </c>
@@ -16927,7 +16928,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8">
       <c r="A378" t="s">
         <v>153</v>
       </c>
@@ -16953,7 +16954,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8">
       <c r="A379" t="s">
         <v>153</v>
       </c>
@@ -16979,7 +16980,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8">
       <c r="A380" t="s">
         <v>153</v>
       </c>
@@ -17005,7 +17006,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8">
       <c r="A381" t="s">
         <v>153</v>
       </c>
@@ -17031,7 +17032,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8">
       <c r="A382" t="s">
         <v>153</v>
       </c>
@@ -17057,7 +17058,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8">
       <c r="A383" t="s">
         <v>153</v>
       </c>
@@ -17083,7 +17084,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8">
       <c r="A384" t="s">
         <v>153</v>
       </c>
@@ -17109,7 +17110,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8">
       <c r="A385" t="s">
         <v>153</v>
       </c>
@@ -17132,7 +17133,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8">
       <c r="A386" t="s">
         <v>153</v>
       </c>
@@ -17158,7 +17159,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" ht="30">
       <c r="A387" t="s">
         <v>153</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>153</v>
       </c>
@@ -17207,7 +17208,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
         <v>153</v>
       </c>
@@ -17233,7 +17234,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
         <v>153</v>
       </c>
@@ -17256,7 +17257,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>153</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
         <v>153</v>
       </c>
@@ -17308,7 +17309,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" ht="30">
       <c r="A393" t="s">
         <v>153</v>
       </c>
@@ -17334,7 +17335,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
         <v>153</v>
       </c>
@@ -17357,7 +17358,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
         <v>153</v>
       </c>
@@ -17383,7 +17384,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8">
       <c r="A396" t="s">
         <v>153</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8">
       <c r="A397" t="s">
         <v>153</v>
       </c>
@@ -17435,7 +17436,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" ht="30">
       <c r="A398" t="s">
         <v>153</v>
       </c>
@@ -17461,7 +17462,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8">
       <c r="A399" t="s">
         <v>153</v>
       </c>
@@ -17487,7 +17488,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8">
       <c r="A400" t="s">
         <v>153</v>
       </c>
@@ -17513,7 +17514,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8">
       <c r="A401" t="s">
         <v>153</v>
       </c>
@@ -17539,7 +17540,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8">
       <c r="A402" t="s">
         <v>153</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8">
       <c r="A403" t="s">
         <v>153</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8">
       <c r="A404" t="s">
         <v>153</v>
       </c>
@@ -17605,7 +17606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8">
       <c r="A405" t="s">
         <v>153</v>
       </c>
@@ -17619,7 +17620,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8">
       <c r="A406" t="s">
         <v>153</v>
       </c>
@@ -17645,7 +17646,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8">
       <c r="A407" t="s">
         <v>153</v>
       </c>
@@ -17671,7 +17672,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8">
       <c r="A408" t="s">
         <v>153</v>
       </c>
@@ -17697,7 +17698,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8">
       <c r="A409" t="s">
         <v>153</v>
       </c>
@@ -17720,7 +17721,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8">
       <c r="A410" t="s">
         <v>153</v>
       </c>
@@ -17746,7 +17747,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8">
       <c r="A411" t="s">
         <v>153</v>
       </c>
@@ -17772,7 +17773,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8">
       <c r="A412" t="s">
         <v>153</v>
       </c>
@@ -17798,7 +17799,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="30">
       <c r="A413" t="s">
         <v>153</v>
       </c>
@@ -17824,7 +17825,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" ht="60">
       <c r="A414" t="s">
         <v>153</v>
       </c>
@@ -17850,7 +17851,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8">
       <c r="A415" t="s">
         <v>153</v>
       </c>
@@ -17873,7 +17874,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8">
       <c r="A416" t="s">
         <v>153</v>
       </c>
@@ -17896,7 +17897,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8">
       <c r="A417" t="s">
         <v>153</v>
       </c>
@@ -17919,7 +17920,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8">
       <c r="A418" t="s">
         <v>153</v>
       </c>
@@ -17942,7 +17943,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" ht="45">
       <c r="A419" t="s">
         <v>153</v>
       </c>
@@ -17965,7 +17966,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8">
       <c r="A420" t="s">
         <v>153</v>
       </c>
@@ -17988,7 +17989,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" ht="60">
       <c r="A421" t="s">
         <v>153</v>
       </c>
@@ -18011,7 +18012,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8">
       <c r="A422" t="s">
         <v>153</v>
       </c>
@@ -18037,7 +18038,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8">
       <c r="A423" t="s">
         <v>153</v>
       </c>
@@ -18063,7 +18064,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8">
       <c r="A424" t="s">
         <v>153</v>
       </c>
@@ -18086,7 +18087,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8">
       <c r="A425" t="s">
         <v>153</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8">
       <c r="A426" t="s">
         <v>153</v>
       </c>
@@ -18138,7 +18139,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8">
       <c r="A427" t="s">
         <v>153</v>
       </c>
@@ -18164,7 +18165,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="105">
       <c r="A428" t="s">
         <v>153</v>
       </c>
@@ -18190,7 +18191,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8">
       <c r="A429" t="s">
         <v>153</v>
       </c>
@@ -18213,7 +18214,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8">
       <c r="A430" t="s">
         <v>153</v>
       </c>
@@ -18239,7 +18240,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8">
       <c r="A431" t="s">
         <v>153</v>
       </c>
@@ -18265,7 +18266,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8">
       <c r="A432" t="s">
         <v>153</v>
       </c>
@@ -18285,7 +18286,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8">
       <c r="A433" t="s">
         <v>153</v>
       </c>
@@ -18311,7 +18312,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8">
       <c r="A434" t="s">
         <v>153</v>
       </c>
@@ -18331,7 +18332,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8">
       <c r="A435" t="s">
         <v>153</v>
       </c>
@@ -18351,7 +18352,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8">
       <c r="A436" t="s">
         <v>153</v>
       </c>
@@ -18371,7 +18372,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8">
       <c r="A437" t="s">
         <v>153</v>
       </c>
@@ -18391,7 +18392,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8">
       <c r="A438" t="s">
         <v>153</v>
       </c>
@@ -18414,7 +18415,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8">
       <c r="A439" t="s">
         <v>153</v>
       </c>
@@ -18437,7 +18438,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8">
       <c r="A440" t="s">
         <v>153</v>
       </c>
@@ -18457,7 +18458,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8">
       <c r="A441" t="s">
         <v>153</v>
       </c>
@@ -18477,7 +18478,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8">
       <c r="A442" t="s">
         <v>153</v>
       </c>
@@ -18497,7 +18498,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8">
       <c r="A443" t="s">
         <v>153</v>
       </c>
@@ -18517,7 +18518,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8">
       <c r="A444" t="s">
         <v>153</v>
       </c>
@@ -18543,7 +18544,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8">
       <c r="A445" t="s">
         <v>153</v>
       </c>
@@ -18569,7 +18570,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8">
       <c r="A446" t="s">
         <v>153</v>
       </c>
@@ -18595,7 +18596,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8">
       <c r="A447" t="s">
         <v>153</v>
       </c>
@@ -18618,7 +18619,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8">
       <c r="A448" t="s">
         <v>153</v>
       </c>
@@ -18644,7 +18645,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>153</v>
       </c>
@@ -18670,7 +18671,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>153</v>
       </c>
@@ -18696,7 +18697,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8">
       <c r="A451" t="s">
         <v>153</v>
       </c>
@@ -18719,7 +18720,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8">
       <c r="A452" t="s">
         <v>153</v>
       </c>
@@ -18745,7 +18746,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8">
       <c r="A453" t="s">
         <v>153</v>
       </c>
@@ -18771,7 +18772,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8">
       <c r="A454" t="s">
         <v>153</v>
       </c>
@@ -18784,6 +18785,9 @@
       <c r="D454" t="s">
         <v>147</v>
       </c>
+      <c r="E454" t="s">
+        <v>147</v>
+      </c>
       <c r="G454" s="7" t="s">
         <v>873</v>
       </c>
@@ -18791,7 +18795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8">
       <c r="A455" t="s">
         <v>153</v>
       </c>
@@ -18814,7 +18818,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8">
       <c r="A456" t="s">
         <v>153</v>
       </c>
@@ -18837,47 +18841,56 @@
         <v>877</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8">
       <c r="A457" t="s">
         <v>153</v>
       </c>
       <c r="B457" t="s">
-        <v>779</v>
+        <v>286</v>
       </c>
       <c r="C457" t="s">
-        <v>902</v>
+        <v>363</v>
       </c>
       <c r="D457" t="s">
         <v>147</v>
       </c>
+      <c r="E457" t="s">
+        <v>147</v>
+      </c>
+      <c r="F457" t="s">
+        <v>147</v>
+      </c>
       <c r="G457" s="7" t="s">
-        <v>904</v>
+        <v>529</v>
       </c>
       <c r="H457" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458" t="s">
         <v>153</v>
       </c>
       <c r="B458" t="s">
-        <v>779</v>
+        <v>286</v>
       </c>
       <c r="C458" t="s">
-        <v>903</v>
+        <v>12</v>
       </c>
       <c r="D458" t="s">
         <v>147</v>
       </c>
+      <c r="E458" t="s">
+        <v>147</v>
+      </c>
       <c r="G458" s="7" t="s">
-        <v>905</v>
+        <v>533</v>
       </c>
       <c r="H458" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459" t="s">
         <v>153</v>
       </c>
@@ -18885,7 +18898,7 @@
         <v>286</v>
       </c>
       <c r="C459" t="s">
-        <v>363</v>
+        <v>534</v>
       </c>
       <c r="D459" t="s">
         <v>147</v>
@@ -18893,17 +18906,14 @@
       <c r="E459" t="s">
         <v>147</v>
       </c>
-      <c r="F459" t="s">
-        <v>147</v>
-      </c>
       <c r="G459" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H459" s="7" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460" t="s">
         <v>153</v>
       </c>
@@ -18911,7 +18921,7 @@
         <v>286</v>
       </c>
       <c r="C460" t="s">
-        <v>12</v>
+        <v>902</v>
       </c>
       <c r="D460" t="s">
         <v>147</v>
@@ -18919,14 +18929,17 @@
       <c r="E460" t="s">
         <v>147</v>
       </c>
+      <c r="F460" t="s">
+        <v>147</v>
+      </c>
       <c r="G460" s="7" t="s">
-        <v>533</v>
+        <v>904</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461" t="s">
         <v>153</v>
       </c>
@@ -18934,7 +18947,7 @@
         <v>286</v>
       </c>
       <c r="C461" t="s">
-        <v>534</v>
+        <v>903</v>
       </c>
       <c r="D461" t="s">
         <v>147</v>
@@ -18942,22 +18955,25 @@
       <c r="E461" t="s">
         <v>147</v>
       </c>
+      <c r="F461" t="s">
+        <v>147</v>
+      </c>
       <c r="G461" s="7" t="s">
-        <v>535</v>
+        <v>905</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462" t="s">
         <v>153</v>
       </c>
       <c r="B462" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C462" t="s">
-        <v>902</v>
+        <v>363</v>
       </c>
       <c r="D462" t="s">
         <v>147</v>
@@ -18969,21 +18985,21 @@
         <v>147</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>904</v>
+        <v>521</v>
       </c>
       <c r="H462" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463" t="s">
         <v>153</v>
       </c>
       <c r="B463" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C463" t="s">
-        <v>903</v>
+        <v>536</v>
       </c>
       <c r="D463" t="s">
         <v>147</v>
@@ -18991,17 +19007,14 @@
       <c r="E463" t="s">
         <v>147</v>
       </c>
-      <c r="F463" t="s">
-        <v>147</v>
-      </c>
       <c r="G463" s="7" t="s">
-        <v>905</v>
+        <v>537</v>
       </c>
       <c r="H463" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" ht="30">
       <c r="A464" t="s">
         <v>153</v>
       </c>
@@ -19009,25 +19022,19 @@
         <v>289</v>
       </c>
       <c r="C464" t="s">
-        <v>363</v>
+        <v>538</v>
       </c>
       <c r="D464" t="s">
         <v>147</v>
       </c>
-      <c r="E464" t="s">
-        <v>147</v>
-      </c>
-      <c r="F464" t="s">
-        <v>147</v>
-      </c>
       <c r="G464" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="H464" s="7" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="30">
       <c r="A465" t="s">
         <v>153</v>
       </c>
@@ -19035,22 +19042,19 @@
         <v>289</v>
       </c>
       <c r="C465" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D465" t="s">
         <v>147</v>
       </c>
-      <c r="E465" t="s">
-        <v>147</v>
-      </c>
       <c r="G465" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H465" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
       <c r="A466" t="s">
         <v>153</v>
       </c>
@@ -19058,19 +19062,22 @@
         <v>289</v>
       </c>
       <c r="C466" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D466" t="s">
         <v>147</v>
       </c>
+      <c r="E466" t="s">
+        <v>147</v>
+      </c>
       <c r="G466" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H466" s="7" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
       <c r="A467" t="s">
         <v>153</v>
       </c>
@@ -19078,19 +19085,25 @@
         <v>289</v>
       </c>
       <c r="C467" t="s">
-        <v>540</v>
+        <v>902</v>
       </c>
       <c r="D467" t="s">
         <v>147</v>
       </c>
+      <c r="E467" t="s">
+        <v>147</v>
+      </c>
+      <c r="F467" t="s">
+        <v>147</v>
+      </c>
       <c r="G467" s="7" t="s">
-        <v>541</v>
+        <v>904</v>
       </c>
       <c r="H467" s="7" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
       <c r="A468" t="s">
         <v>153</v>
       </c>
@@ -19098,7 +19111,7 @@
         <v>289</v>
       </c>
       <c r="C468" t="s">
-        <v>542</v>
+        <v>903</v>
       </c>
       <c r="D468" t="s">
         <v>147</v>
@@ -19106,22 +19119,25 @@
       <c r="E468" t="s">
         <v>147</v>
       </c>
+      <c r="F468" t="s">
+        <v>147</v>
+      </c>
       <c r="G468" s="7" t="s">
-        <v>543</v>
+        <v>905</v>
       </c>
       <c r="H468" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
       <c r="A469" t="s">
         <v>153</v>
       </c>
       <c r="B469" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C469" t="s">
-        <v>902</v>
+        <v>506</v>
       </c>
       <c r="D469" t="s">
         <v>147</v>
@@ -19133,21 +19149,21 @@
         <v>147</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>904</v>
+        <v>263</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
       <c r="A470" t="s">
         <v>153</v>
       </c>
       <c r="B470" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C470" t="s">
-        <v>903</v>
+        <v>507</v>
       </c>
       <c r="D470" t="s">
         <v>147</v>
@@ -19155,17 +19171,14 @@
       <c r="E470" t="s">
         <v>147</v>
       </c>
-      <c r="F470" t="s">
-        <v>147</v>
-      </c>
       <c r="G470" s="7" t="s">
-        <v>905</v>
+        <v>508</v>
       </c>
       <c r="H470" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -19173,25 +19186,22 @@
         <v>261</v>
       </c>
       <c r="C471" t="s">
-        <v>506</v>
+        <v>16</v>
       </c>
       <c r="D471" t="s">
         <v>147</v>
       </c>
-      <c r="E471" t="s">
-        <v>147</v>
-      </c>
-      <c r="F471" t="s">
-        <v>147</v>
-      </c>
       <c r="G471" s="7" t="s">
-        <v>263</v>
+        <v>509</v>
       </c>
       <c r="H471" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="I471" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
       <c r="A472" t="s">
         <v>153</v>
       </c>
@@ -19199,22 +19209,22 @@
         <v>261</v>
       </c>
       <c r="C472" t="s">
-        <v>507</v>
+        <v>55</v>
       </c>
       <c r="D472" t="s">
         <v>147</v>
       </c>
-      <c r="E472" t="s">
-        <v>147</v>
-      </c>
       <c r="G472" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H472" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="I472" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
       <c r="A473" t="s">
         <v>153</v>
       </c>
@@ -19222,22 +19232,25 @@
         <v>261</v>
       </c>
       <c r="C473" t="s">
-        <v>16</v>
+        <v>902</v>
       </c>
       <c r="D473" t="s">
         <v>147</v>
       </c>
+      <c r="E473" t="s">
+        <v>147</v>
+      </c>
+      <c r="F473" t="s">
+        <v>147</v>
+      </c>
       <c r="G473" s="7" t="s">
-        <v>509</v>
+        <v>904</v>
       </c>
       <c r="H473" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I473" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
       <c r="A474" t="s">
         <v>153</v>
       </c>
@@ -19245,30 +19258,33 @@
         <v>261</v>
       </c>
       <c r="C474" t="s">
-        <v>55</v>
+        <v>903</v>
       </c>
       <c r="D474" t="s">
         <v>147</v>
       </c>
+      <c r="E474" t="s">
+        <v>147</v>
+      </c>
+      <c r="F474" t="s">
+        <v>147</v>
+      </c>
       <c r="G474" s="7" t="s">
-        <v>510</v>
+        <v>905</v>
       </c>
       <c r="H474" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I474" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
       <c r="A475" t="s">
         <v>153</v>
       </c>
       <c r="B475" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C475" t="s">
-        <v>902</v>
+        <v>544</v>
       </c>
       <c r="D475" t="s">
         <v>147</v>
@@ -19280,21 +19296,21 @@
         <v>147</v>
       </c>
       <c r="G475" s="7" t="s">
-        <v>904</v>
+        <v>293</v>
       </c>
       <c r="H475" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
       <c r="A476" t="s">
         <v>153</v>
       </c>
       <c r="B476" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C476" t="s">
-        <v>903</v>
+        <v>15</v>
       </c>
       <c r="D476" t="s">
         <v>147</v>
@@ -19302,17 +19318,14 @@
       <c r="E476" t="s">
         <v>147</v>
       </c>
-      <c r="F476" t="s">
-        <v>147</v>
-      </c>
       <c r="G476" s="7" t="s">
-        <v>905</v>
+        <v>545</v>
       </c>
       <c r="H476" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
       <c r="A477" t="s">
         <v>153</v>
       </c>
@@ -19320,7 +19333,7 @@
         <v>292</v>
       </c>
       <c r="C477" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D477" t="s">
         <v>147</v>
@@ -19328,17 +19341,14 @@
       <c r="E477" t="s">
         <v>147</v>
       </c>
-      <c r="F477" t="s">
-        <v>147</v>
-      </c>
       <c r="G477" s="7" t="s">
-        <v>293</v>
+        <v>547</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
       <c r="A478" t="s">
         <v>153</v>
       </c>
@@ -19346,7 +19356,7 @@
         <v>292</v>
       </c>
       <c r="C478" t="s">
-        <v>15</v>
+        <v>902</v>
       </c>
       <c r="D478" t="s">
         <v>147</v>
@@ -19354,14 +19364,17 @@
       <c r="E478" t="s">
         <v>147</v>
       </c>
+      <c r="F478" t="s">
+        <v>147</v>
+      </c>
       <c r="G478" s="7" t="s">
-        <v>545</v>
+        <v>904</v>
       </c>
       <c r="H478" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
       <c r="A479" t="s">
         <v>153</v>
       </c>
@@ -19369,7 +19382,7 @@
         <v>292</v>
       </c>
       <c r="C479" t="s">
-        <v>546</v>
+        <v>903</v>
       </c>
       <c r="D479" t="s">
         <v>147</v>
@@ -19377,48 +19390,48 @@
       <c r="E479" t="s">
         <v>147</v>
       </c>
+      <c r="F479" t="s">
+        <v>147</v>
+      </c>
       <c r="G479" s="7" t="s">
-        <v>547</v>
+        <v>905</v>
       </c>
       <c r="H479" s="7" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
       <c r="A480" t="s">
         <v>153</v>
       </c>
       <c r="B480" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C480" t="s">
-        <v>902</v>
+        <v>511</v>
       </c>
       <c r="D480" t="s">
         <v>147</v>
       </c>
-      <c r="E480" t="s">
-        <v>147</v>
-      </c>
       <c r="F480" t="s">
         <v>147</v>
       </c>
       <c r="G480" s="7" t="s">
-        <v>904</v>
+        <v>512</v>
       </c>
       <c r="H480" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
       <c r="A481" t="s">
         <v>153</v>
       </c>
       <c r="B481" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C481" t="s">
-        <v>903</v>
+        <v>12</v>
       </c>
       <c r="D481" t="s">
         <v>147</v>
@@ -19426,17 +19439,14 @@
       <c r="E481" t="s">
         <v>147</v>
       </c>
-      <c r="F481" t="s">
-        <v>147</v>
-      </c>
       <c r="G481" s="7" t="s">
-        <v>905</v>
+        <v>513</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
       <c r="A482" t="s">
         <v>153</v>
       </c>
@@ -19444,22 +19454,22 @@
         <v>265</v>
       </c>
       <c r="C482" t="s">
-        <v>511</v>
+        <v>9</v>
       </c>
       <c r="D482" t="s">
         <v>147</v>
       </c>
-      <c r="F482" t="s">
+      <c r="E482" t="s">
         <v>147</v>
       </c>
       <c r="G482" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H482" s="7" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
       <c r="A483" t="s">
         <v>153</v>
       </c>
@@ -19467,7 +19477,7 @@
         <v>265</v>
       </c>
       <c r="C483" t="s">
-        <v>12</v>
+        <v>902</v>
       </c>
       <c r="D483" t="s">
         <v>147</v>
@@ -19475,14 +19485,17 @@
       <c r="E483" t="s">
         <v>147</v>
       </c>
+      <c r="F483" t="s">
+        <v>147</v>
+      </c>
       <c r="G483" s="7" t="s">
-        <v>513</v>
+        <v>904</v>
       </c>
       <c r="H483" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
       <c r="A484" t="s">
         <v>153</v>
       </c>
@@ -19490,7 +19503,7 @@
         <v>265</v>
       </c>
       <c r="C484" t="s">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="D484" t="s">
         <v>147</v>
@@ -19498,48 +19511,48 @@
       <c r="E484" t="s">
         <v>147</v>
       </c>
+      <c r="F484" t="s">
+        <v>147</v>
+      </c>
       <c r="G484" s="7" t="s">
-        <v>514</v>
+        <v>905</v>
       </c>
       <c r="H484" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
       <c r="A485" t="s">
         <v>153</v>
       </c>
       <c r="B485" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C485" t="s">
-        <v>902</v>
+        <v>478</v>
       </c>
       <c r="D485" t="s">
         <v>147</v>
       </c>
-      <c r="E485" t="s">
-        <v>147</v>
-      </c>
       <c r="F485" t="s">
         <v>147</v>
       </c>
       <c r="G485" s="7" t="s">
-        <v>904</v>
+        <v>515</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
       <c r="A486" t="s">
         <v>153</v>
       </c>
       <c r="B486" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C486" t="s">
-        <v>903</v>
+        <v>516</v>
       </c>
       <c r="D486" t="s">
         <v>147</v>
@@ -19551,13 +19564,13 @@
         <v>147</v>
       </c>
       <c r="G486" s="7" t="s">
-        <v>905</v>
+        <v>517</v>
       </c>
       <c r="H486" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
       <c r="A487" t="s">
         <v>153</v>
       </c>
@@ -19565,22 +19578,25 @@
         <v>267</v>
       </c>
       <c r="C487" t="s">
-        <v>478</v>
+        <v>902</v>
       </c>
       <c r="D487" t="s">
         <v>147</v>
       </c>
+      <c r="E487" t="s">
+        <v>147</v>
+      </c>
       <c r="F487" t="s">
         <v>147</v>
       </c>
       <c r="G487" s="7" t="s">
-        <v>515</v>
+        <v>904</v>
       </c>
       <c r="H487" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
       <c r="A488" t="s">
         <v>153</v>
       </c>
@@ -19588,7 +19604,7 @@
         <v>267</v>
       </c>
       <c r="C488" t="s">
-        <v>516</v>
+        <v>903</v>
       </c>
       <c r="D488" t="s">
         <v>147</v>
@@ -19600,21 +19616,21 @@
         <v>147</v>
       </c>
       <c r="G488" s="7" t="s">
-        <v>517</v>
+        <v>905</v>
       </c>
       <c r="H488" s="7" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
       <c r="A489" t="s">
         <v>153</v>
       </c>
       <c r="B489" t="s">
-        <v>267</v>
+        <v>778</v>
       </c>
       <c r="C489" t="s">
-        <v>902</v>
+        <v>782</v>
       </c>
       <c r="D489" t="s">
         <v>147</v>
@@ -19622,25 +19638,25 @@
       <c r="E489" t="s">
         <v>147</v>
       </c>
-      <c r="F489" t="s">
-        <v>147</v>
-      </c>
       <c r="G489" s="7" t="s">
-        <v>904</v>
+        <v>875</v>
       </c>
       <c r="H489" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+      <c r="I489" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
       <c r="A490" t="s">
         <v>153</v>
       </c>
       <c r="B490" t="s">
-        <v>267</v>
+        <v>778</v>
       </c>
       <c r="C490" t="s">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="D490" t="s">
         <v>147</v>
@@ -19648,25 +19664,22 @@
       <c r="E490" t="s">
         <v>147</v>
       </c>
-      <c r="F490" t="s">
-        <v>147</v>
-      </c>
       <c r="G490" s="7" t="s">
-        <v>905</v>
+        <v>484</v>
       </c>
       <c r="H490" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="15.75">
       <c r="A491" t="s">
         <v>153</v>
       </c>
       <c r="B491" t="s">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="C491" t="s">
-        <v>782</v>
+        <v>945</v>
       </c>
       <c r="D491" t="s">
         <v>147</v>
@@ -19674,40 +19687,37 @@
       <c r="E491" t="s">
         <v>147</v>
       </c>
-      <c r="G491" s="7" t="s">
-        <v>875</v>
+      <c r="F491" t="s">
+        <v>147</v>
+      </c>
+      <c r="G491" s="13" t="s">
+        <v>953</v>
       </c>
       <c r="H491" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="I491" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="15.75">
       <c r="A492" t="s">
         <v>153</v>
       </c>
       <c r="B492" t="s">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="C492" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D492" t="s">
         <v>147</v>
       </c>
-      <c r="E492" t="s">
-        <v>147</v>
-      </c>
-      <c r="G492" s="7" t="s">
-        <v>484</v>
+      <c r="G492" s="13" t="s">
+        <v>955</v>
       </c>
       <c r="H492" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="15.75">
       <c r="A493" t="s">
         <v>153</v>
       </c>
@@ -19715,25 +19725,19 @@
         <v>944</v>
       </c>
       <c r="C493" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D493" t="s">
         <v>147</v>
       </c>
-      <c r="E493" t="s">
-        <v>147</v>
-      </c>
-      <c r="F493" t="s">
-        <v>147</v>
-      </c>
       <c r="G493" s="13" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="H493" s="7" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
       <c r="A494" t="s">
         <v>153</v>
       </c>
@@ -19741,19 +19745,19 @@
         <v>944</v>
       </c>
       <c r="C494" t="s">
-        <v>12</v>
+        <v>947</v>
       </c>
       <c r="D494" t="s">
         <v>147</v>
       </c>
-      <c r="G494" s="13" t="s">
-        <v>955</v>
+      <c r="G494" s="7" t="s">
+        <v>969</v>
       </c>
       <c r="H494" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="15.75">
       <c r="A495" t="s">
         <v>153</v>
       </c>
@@ -19761,19 +19765,22 @@
         <v>944</v>
       </c>
       <c r="C495" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D495" t="s">
         <v>147</v>
       </c>
       <c r="G495" s="13" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="H495" s="7" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="I495" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="15.75">
       <c r="A496" t="s">
         <v>153</v>
       </c>
@@ -19781,19 +19788,25 @@
         <v>944</v>
       </c>
       <c r="C496" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D496" t="s">
         <v>147</v>
       </c>
-      <c r="G496" s="7" t="s">
-        <v>969</v>
+      <c r="F496" t="s">
+        <v>147</v>
+      </c>
+      <c r="G496" s="13" t="s">
+        <v>960</v>
       </c>
       <c r="H496" s="7" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>961</v>
+      </c>
+      <c r="I496" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -19801,22 +19814,19 @@
         <v>944</v>
       </c>
       <c r="C497" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D497" t="s">
         <v>147</v>
       </c>
-      <c r="G497" s="13" t="s">
-        <v>966</v>
+      <c r="G497" s="7" t="s">
+        <v>964</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="I497" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
       <c r="A498" t="s">
         <v>153</v>
       </c>
@@ -19824,25 +19834,19 @@
         <v>944</v>
       </c>
       <c r="C498" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D498" t="s">
         <v>147</v>
       </c>
-      <c r="F498" t="s">
-        <v>147</v>
-      </c>
-      <c r="G498" s="13" t="s">
-        <v>960</v>
+      <c r="G498" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="H498" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="I498" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="47.25">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -19850,19 +19854,19 @@
         <v>944</v>
       </c>
       <c r="C499" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D499" t="s">
         <v>147</v>
       </c>
-      <c r="G499" s="7" t="s">
-        <v>964</v>
+      <c r="G499" s="13" t="s">
+        <v>958</v>
       </c>
       <c r="H499" s="7" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="15.75">
       <c r="A500" t="s">
         <v>153</v>
       </c>
@@ -19870,19 +19874,22 @@
         <v>944</v>
       </c>
       <c r="C500" t="s">
-        <v>951</v>
+        <v>498</v>
       </c>
       <c r="D500" t="s">
         <v>147</v>
       </c>
-      <c r="G500" s="7" t="s">
-        <v>965</v>
+      <c r="G500" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="H500" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="I500" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
       <c r="A501" t="s">
         <v>153</v>
       </c>
@@ -19890,19 +19897,25 @@
         <v>944</v>
       </c>
       <c r="C501" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="D501" t="s">
         <v>147</v>
       </c>
-      <c r="G501" s="13" t="s">
-        <v>958</v>
+      <c r="E501" t="s">
+        <v>147</v>
+      </c>
+      <c r="F501" t="s">
+        <v>147</v>
+      </c>
+      <c r="G501" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="H501" s="7" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
       <c r="A502" t="s">
         <v>153</v>
       </c>
@@ -19910,30 +19923,33 @@
         <v>944</v>
       </c>
       <c r="C502" t="s">
-        <v>498</v>
+        <v>903</v>
       </c>
       <c r="D502" t="s">
         <v>147</v>
       </c>
-      <c r="G502" s="13" t="s">
-        <v>182</v>
+      <c r="E502" t="s">
+        <v>147</v>
+      </c>
+      <c r="F502" t="s">
+        <v>147</v>
+      </c>
+      <c r="G502" s="7" t="s">
+        <v>905</v>
       </c>
       <c r="H502" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I502" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" ht="15.75">
       <c r="A503" t="s">
         <v>153</v>
       </c>
       <c r="B503" t="s">
-        <v>944</v>
+        <v>1009</v>
       </c>
       <c r="C503" t="s">
-        <v>902</v>
+        <v>1011</v>
       </c>
       <c r="D503" t="s">
         <v>147</v>
@@ -19944,40 +19960,34 @@
       <c r="F503" t="s">
         <v>147</v>
       </c>
-      <c r="G503" s="7" t="s">
-        <v>904</v>
+      <c r="G503" s="13" t="s">
+        <v>1026</v>
       </c>
       <c r="H503" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="31.5">
       <c r="A504" t="s">
         <v>153</v>
       </c>
       <c r="B504" t="s">
-        <v>944</v>
+        <v>1009</v>
       </c>
       <c r="C504" t="s">
-        <v>903</v>
+        <v>1012</v>
       </c>
       <c r="D504" t="s">
         <v>147</v>
       </c>
-      <c r="E504" t="s">
-        <v>147</v>
-      </c>
-      <c r="F504" t="s">
-        <v>147</v>
-      </c>
-      <c r="G504" s="7" t="s">
-        <v>905</v>
+      <c r="G504" s="13" t="s">
+        <v>1028</v>
       </c>
       <c r="H504" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" ht="47.25">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -19985,25 +19995,19 @@
         <v>1009</v>
       </c>
       <c r="C505" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D505" t="s">
         <v>147</v>
       </c>
-      <c r="E505" t="s">
-        <v>147</v>
-      </c>
-      <c r="F505" t="s">
-        <v>147</v>
-      </c>
       <c r="G505" s="13" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
       <c r="A506" t="s">
         <v>153</v>
       </c>
@@ -20011,19 +20015,19 @@
         <v>1009</v>
       </c>
       <c r="C506" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D506" t="s">
         <v>147</v>
       </c>
-      <c r="G506" s="13" t="s">
-        <v>1028</v>
+      <c r="G506" s="7" t="s">
+        <v>1033</v>
       </c>
       <c r="H506" s="7" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" ht="15.75">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -20031,19 +20035,22 @@
         <v>1009</v>
       </c>
       <c r="C507" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D507" t="s">
         <v>147</v>
       </c>
-      <c r="G507" s="13" t="s">
-        <v>1030</v>
+      <c r="F507" t="s">
+        <v>147</v>
+      </c>
+      <c r="G507" s="12" t="s">
+        <v>1034</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="15.75">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -20051,19 +20058,19 @@
         <v>1009</v>
       </c>
       <c r="C508" t="s">
-        <v>1014</v>
+        <v>586</v>
       </c>
       <c r="D508" t="s">
         <v>147</v>
       </c>
-      <c r="G508" s="7" t="s">
-        <v>1033</v>
+      <c r="G508" s="12" t="s">
+        <v>1035</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="15.75">
       <c r="A509" t="s">
         <v>153</v>
       </c>
@@ -20071,22 +20078,19 @@
         <v>1009</v>
       </c>
       <c r="C509" t="s">
-        <v>1015</v>
+        <v>584</v>
       </c>
       <c r="D509" t="s">
         <v>147</v>
       </c>
-      <c r="F509" t="s">
-        <v>147</v>
-      </c>
       <c r="G509" s="12" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="H509" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="15.75">
       <c r="A510" t="s">
         <v>153</v>
       </c>
@@ -20094,19 +20098,19 @@
         <v>1009</v>
       </c>
       <c r="C510" t="s">
-        <v>586</v>
+        <v>1016</v>
       </c>
       <c r="D510" t="s">
         <v>147</v>
       </c>
       <c r="G510" s="12" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="H510" s="7" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" ht="15.75">
       <c r="A511" t="s">
         <v>153</v>
       </c>
@@ -20114,19 +20118,19 @@
         <v>1009</v>
       </c>
       <c r="C511" t="s">
-        <v>584</v>
+        <v>1017</v>
       </c>
       <c r="D511" t="s">
         <v>147</v>
       </c>
       <c r="G511" s="12" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="15.75">
       <c r="A512" t="s">
         <v>153</v>
       </c>
@@ -20134,19 +20138,19 @@
         <v>1009</v>
       </c>
       <c r="C512" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D512" t="s">
         <v>147</v>
       </c>
       <c r="G512" s="12" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="30">
       <c r="A513" t="s">
         <v>153</v>
       </c>
@@ -20154,19 +20158,19 @@
         <v>1009</v>
       </c>
       <c r="C513" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D513" t="s">
         <v>147</v>
       </c>
-      <c r="G513" s="12" t="s">
-        <v>1039</v>
+      <c r="G513" s="7" t="s">
+        <v>1042</v>
       </c>
       <c r="H513" s="7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="75">
       <c r="A514" t="s">
         <v>153</v>
       </c>
@@ -20174,19 +20178,19 @@
         <v>1009</v>
       </c>
       <c r="C514" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D514" t="s">
         <v>147</v>
       </c>
-      <c r="G514" s="12" t="s">
-        <v>1041</v>
+      <c r="G514" s="7" t="s">
+        <v>1044</v>
       </c>
       <c r="H514" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="30">
       <c r="A515" t="s">
         <v>153</v>
       </c>
@@ -20194,19 +20198,19 @@
         <v>1009</v>
       </c>
       <c r="C515" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D515" t="s">
         <v>147</v>
       </c>
       <c r="G515" s="7" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="H515" s="7" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="30">
       <c r="A516" t="s">
         <v>153</v>
       </c>
@@ -20214,19 +20218,19 @@
         <v>1009</v>
       </c>
       <c r="C516" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D516" t="s">
         <v>147</v>
       </c>
       <c r="G516" s="7" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="H516" s="7" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="30">
       <c r="A517" t="s">
         <v>153</v>
       </c>
@@ -20234,19 +20238,19 @@
         <v>1009</v>
       </c>
       <c r="C517" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D517" t="s">
         <v>147</v>
       </c>
       <c r="G517" s="7" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="H517" s="7" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="75">
       <c r="A518" t="s">
         <v>153</v>
       </c>
@@ -20254,19 +20258,22 @@
         <v>1009</v>
       </c>
       <c r="C518" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D518" t="s">
         <v>147</v>
       </c>
+      <c r="F518" t="s">
+        <v>147</v>
+      </c>
       <c r="G518" s="7" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
       <c r="A519" t="s">
         <v>153</v>
       </c>
@@ -20274,19 +20281,19 @@
         <v>1009</v>
       </c>
       <c r="C519" t="s">
-        <v>1023</v>
+        <v>559</v>
       </c>
       <c r="D519" t="s">
         <v>147</v>
       </c>
       <c r="G519" s="7" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="H519" s="7" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
       <c r="A520" t="s">
         <v>153</v>
       </c>
@@ -20294,22 +20301,22 @@
         <v>1009</v>
       </c>
       <c r="C520" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D520" t="s">
         <v>147</v>
       </c>
-      <c r="F520" t="s">
+      <c r="E520" t="s">
         <v>147</v>
       </c>
       <c r="G520" s="7" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="H520" s="7" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
       <c r="A521" t="s">
         <v>153</v>
       </c>
@@ -20317,19 +20324,25 @@
         <v>1009</v>
       </c>
       <c r="C521" t="s">
-        <v>559</v>
+        <v>902</v>
       </c>
       <c r="D521" t="s">
         <v>147</v>
       </c>
+      <c r="E521" t="s">
+        <v>147</v>
+      </c>
+      <c r="F521" t="s">
+        <v>147</v>
+      </c>
       <c r="G521" s="7" t="s">
-        <v>1054</v>
+        <v>904</v>
       </c>
       <c r="H521" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
       <c r="A522" t="s">
         <v>153</v>
       </c>
@@ -20337,7 +20350,7 @@
         <v>1009</v>
       </c>
       <c r="C522" t="s">
-        <v>1025</v>
+        <v>903</v>
       </c>
       <c r="D522" t="s">
         <v>147</v>
@@ -20345,48 +20358,48 @@
       <c r="E522" t="s">
         <v>147</v>
       </c>
+      <c r="F522" t="s">
+        <v>147</v>
+      </c>
       <c r="G522" s="7" t="s">
-        <v>1055</v>
+        <v>905</v>
       </c>
       <c r="H522" s="7" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
       <c r="A523" t="s">
         <v>153</v>
       </c>
       <c r="B523" t="s">
-        <v>1009</v>
+        <v>1058</v>
       </c>
       <c r="C523" t="s">
-        <v>902</v>
+        <v>398</v>
       </c>
       <c r="D523" t="s">
         <v>147</v>
       </c>
-      <c r="E523" t="s">
-        <v>147</v>
-      </c>
       <c r="F523" t="s">
         <v>147</v>
       </c>
       <c r="G523" s="7" t="s">
-        <v>904</v>
+        <v>1010</v>
       </c>
       <c r="H523" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
       <c r="A524" t="s">
         <v>153</v>
       </c>
       <c r="B524" t="s">
-        <v>1009</v>
+        <v>1058</v>
       </c>
       <c r="C524" t="s">
-        <v>903</v>
+        <v>7</v>
       </c>
       <c r="D524" t="s">
         <v>147</v>
@@ -20398,13 +20411,16 @@
         <v>147</v>
       </c>
       <c r="G524" s="7" t="s">
-        <v>905</v>
+        <v>521</v>
       </c>
       <c r="H524" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="I524" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
       <c r="A525" t="s">
         <v>153</v>
       </c>
@@ -20412,22 +20428,25 @@
         <v>1058</v>
       </c>
       <c r="C525" t="s">
-        <v>398</v>
+        <v>1064</v>
       </c>
       <c r="D525" t="s">
         <v>147</v>
       </c>
+      <c r="E525" t="s">
+        <v>147</v>
+      </c>
       <c r="F525" t="s">
         <v>147</v>
       </c>
       <c r="G525" s="7" t="s">
-        <v>1010</v>
+        <v>789</v>
       </c>
       <c r="H525" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
       <c r="A526" t="s">
         <v>153</v>
       </c>
@@ -20435,7 +20454,7 @@
         <v>1058</v>
       </c>
       <c r="C526" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D526" t="s">
         <v>147</v>
@@ -20443,20 +20462,14 @@
       <c r="E526" t="s">
         <v>147</v>
       </c>
-      <c r="F526" t="s">
-        <v>147</v>
-      </c>
       <c r="G526" s="7" t="s">
-        <v>521</v>
+        <v>1065</v>
       </c>
       <c r="H526" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I526" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
       <c r="A527" t="s">
         <v>153</v>
       </c>
@@ -20464,7 +20477,7 @@
         <v>1058</v>
       </c>
       <c r="C527" t="s">
-        <v>1064</v>
+        <v>902</v>
       </c>
       <c r="D527" t="s">
         <v>147</v>
@@ -20476,13 +20489,13 @@
         <v>147</v>
       </c>
       <c r="G527" s="7" t="s">
-        <v>789</v>
+        <v>904</v>
       </c>
       <c r="H527" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
       <c r="A528" t="s">
         <v>153</v>
       </c>
@@ -20490,7 +20503,7 @@
         <v>1058</v>
       </c>
       <c r="C528" t="s">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="D528" t="s">
         <v>147</v>
@@ -20498,66 +20511,66 @@
       <c r="E528" t="s">
         <v>147</v>
       </c>
+      <c r="F528" t="s">
+        <v>147</v>
+      </c>
       <c r="G528" s="7" t="s">
-        <v>1065</v>
+        <v>905</v>
       </c>
       <c r="H528" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13">
       <c r="A529" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="B529" t="s">
-        <v>1058</v>
+        <v>1074</v>
       </c>
       <c r="C529" t="s">
-        <v>902</v>
+        <v>398</v>
       </c>
       <c r="D529" t="s">
         <v>147</v>
       </c>
-      <c r="E529" t="s">
-        <v>147</v>
-      </c>
       <c r="F529" t="s">
         <v>147</v>
       </c>
       <c r="G529" s="7" t="s">
-        <v>904</v>
+        <v>1010</v>
       </c>
       <c r="H529" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="J529" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K529" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L529" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13">
       <c r="A530" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="B530" t="s">
-        <v>1058</v>
+        <v>1074</v>
       </c>
       <c r="C530" t="s">
-        <v>903</v>
-      </c>
-      <c r="D530" t="s">
-        <v>147</v>
-      </c>
-      <c r="E530" t="s">
-        <v>147</v>
-      </c>
-      <c r="F530" t="s">
-        <v>147</v>
+        <v>1102</v>
       </c>
       <c r="G530" s="7" t="s">
-        <v>905</v>
+        <v>1117</v>
       </c>
       <c r="H530" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" ht="15.75">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -20565,7 +20578,7 @@
         <v>1074</v>
       </c>
       <c r="C531" t="s">
-        <v>398</v>
+        <v>1103</v>
       </c>
       <c r="D531" t="s">
         <v>147</v>
@@ -20573,23 +20586,14 @@
       <c r="F531" t="s">
         <v>147</v>
       </c>
-      <c r="G531" s="7" t="s">
-        <v>1010</v>
+      <c r="G531" s="12" t="s">
+        <v>1119</v>
       </c>
       <c r="H531" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J531" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K531" t="s">
-        <v>1178</v>
-      </c>
-      <c r="L531" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" ht="15.75">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -20597,16 +20601,19 @@
         <v>1074</v>
       </c>
       <c r="C532" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G532" s="7" t="s">
-        <v>1117</v>
+        <v>1104</v>
+      </c>
+      <c r="D532" t="s">
+        <v>147</v>
+      </c>
+      <c r="G532" s="12" t="s">
+        <v>1122</v>
       </c>
       <c r="H532" s="7" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="533" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" ht="15.75">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -20614,7 +20621,7 @@
         <v>1074</v>
       </c>
       <c r="C533" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D533" t="s">
         <v>147</v>
@@ -20623,13 +20630,16 @@
         <v>147</v>
       </c>
       <c r="G533" s="12" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="H533" s="7" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="534" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1136</v>
+      </c>
+      <c r="I533" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" ht="15.75">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -20637,19 +20647,22 @@
         <v>1074</v>
       </c>
       <c r="C534" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D534" t="s">
         <v>147</v>
       </c>
+      <c r="F534" t="s">
+        <v>147</v>
+      </c>
       <c r="G534" s="12" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H534" s="7" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="535" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" ht="15.75">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -20657,7 +20670,7 @@
         <v>1074</v>
       </c>
       <c r="C535" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D535" t="s">
         <v>147</v>
@@ -20666,16 +20679,13 @@
         <v>147</v>
       </c>
       <c r="G535" s="12" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="H535" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I535" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="536" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" ht="15.75">
       <c r="A536" t="s">
         <v>0</v>
       </c>
@@ -20683,7 +20693,7 @@
         <v>1074</v>
       </c>
       <c r="C536" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D536" t="s">
         <v>147</v>
@@ -20692,13 +20702,13 @@
         <v>147</v>
       </c>
       <c r="G536" s="12" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="H536" s="7" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="537" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" ht="15.75">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -20706,22 +20716,19 @@
         <v>1074</v>
       </c>
       <c r="C537" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D537" t="s">
         <v>147</v>
       </c>
-      <c r="F537" t="s">
-        <v>147</v>
-      </c>
       <c r="G537" s="12" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H537" s="7" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="538" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" ht="15.75">
       <c r="A538" t="s">
         <v>0</v>
       </c>
@@ -20729,22 +20736,19 @@
         <v>1074</v>
       </c>
       <c r="C538" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D538" t="s">
         <v>147</v>
       </c>
-      <c r="F538" t="s">
-        <v>147</v>
-      </c>
       <c r="G538" s="12" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="H538" s="7" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="539" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" ht="15.75">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -20752,19 +20756,19 @@
         <v>1074</v>
       </c>
       <c r="C539" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D539" t="s">
         <v>147</v>
       </c>
       <c r="G539" s="12" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="H539" s="7" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="540" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -20772,19 +20776,19 @@
         <v>1074</v>
       </c>
       <c r="C540" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D540" t="s">
         <v>147</v>
       </c>
-      <c r="G540" s="12" t="s">
-        <v>1127</v>
+      <c r="G540" s="7" t="s">
+        <v>1130</v>
       </c>
       <c r="H540" s="7" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="541" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -20792,19 +20796,19 @@
         <v>1074</v>
       </c>
       <c r="C541" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D541" t="s">
         <v>147</v>
       </c>
-      <c r="G541" s="12" t="s">
-        <v>1128</v>
+      <c r="G541" s="7" t="s">
+        <v>1129</v>
       </c>
       <c r="H541" s="7" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -20812,19 +20816,19 @@
         <v>1074</v>
       </c>
       <c r="C542" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D542" t="s">
         <v>147</v>
       </c>
       <c r="G542" s="7" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H542" s="7" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -20832,19 +20836,19 @@
         <v>1074</v>
       </c>
       <c r="C543" t="s">
-        <v>1113</v>
+        <v>576</v>
       </c>
       <c r="D543" t="s">
         <v>147</v>
       </c>
       <c r="G543" s="7" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -20852,19 +20856,25 @@
         <v>1074</v>
       </c>
       <c r="C544" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D544" t="s">
         <v>147</v>
       </c>
+      <c r="F544" t="s">
+        <v>147</v>
+      </c>
       <c r="G544" s="7" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H544" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1146</v>
+      </c>
+      <c r="M544" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -20872,19 +20882,22 @@
         <v>1074</v>
       </c>
       <c r="C545" t="s">
-        <v>576</v>
+        <v>1116</v>
       </c>
       <c r="D545" t="s">
         <v>147</v>
       </c>
+      <c r="F545" t="s">
+        <v>147</v>
+      </c>
       <c r="G545" s="7" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="H545" s="7" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -20892,22 +20905,25 @@
         <v>1074</v>
       </c>
       <c r="C546" t="s">
-        <v>1115</v>
+        <v>902</v>
       </c>
       <c r="D546" t="s">
         <v>147</v>
       </c>
+      <c r="E546" t="s">
+        <v>147</v>
+      </c>
       <c r="F546" t="s">
         <v>147</v>
       </c>
       <c r="G546" s="7" t="s">
-        <v>1133</v>
+        <v>904</v>
       </c>
       <c r="H546" s="7" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -20915,56 +20931,56 @@
         <v>1074</v>
       </c>
       <c r="C547" t="s">
-        <v>1116</v>
+        <v>903</v>
       </c>
       <c r="D547" t="s">
         <v>147</v>
       </c>
+      <c r="E547" t="s">
+        <v>147</v>
+      </c>
       <c r="F547" t="s">
         <v>147</v>
       </c>
       <c r="G547" s="7" t="s">
-        <v>1135</v>
+        <v>905</v>
       </c>
       <c r="H547" s="7" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
       <c r="A548" t="s">
         <v>0</v>
       </c>
       <c r="B548" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C548" t="s">
-        <v>902</v>
+        <v>1148</v>
       </c>
       <c r="D548" t="s">
         <v>147</v>
       </c>
-      <c r="E548" t="s">
-        <v>147</v>
-      </c>
       <c r="F548" t="s">
         <v>147</v>
       </c>
       <c r="G548" s="7" t="s">
-        <v>904</v>
+        <v>1010</v>
       </c>
       <c r="H548" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
       <c r="A549" t="s">
         <v>0</v>
       </c>
       <c r="B549" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C549" t="s">
-        <v>903</v>
+        <v>7</v>
       </c>
       <c r="D549" t="s">
         <v>147</v>
@@ -20976,13 +20992,16 @@
         <v>147</v>
       </c>
       <c r="G549" s="7" t="s">
-        <v>905</v>
+        <v>521</v>
       </c>
       <c r="H549" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="I549" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
       <c r="A550" t="s">
         <v>0</v>
       </c>
@@ -20990,22 +21009,25 @@
         <v>1075</v>
       </c>
       <c r="C550" t="s">
-        <v>1148</v>
+        <v>1064</v>
       </c>
       <c r="D550" t="s">
         <v>147</v>
       </c>
+      <c r="E550" t="s">
+        <v>147</v>
+      </c>
       <c r="F550" t="s">
         <v>147</v>
       </c>
       <c r="G550" s="7" t="s">
-        <v>1010</v>
+        <v>789</v>
       </c>
       <c r="H550" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
       <c r="A551" t="s">
         <v>0</v>
       </c>
@@ -21013,7 +21035,7 @@
         <v>1075</v>
       </c>
       <c r="C551" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D551" t="s">
         <v>147</v>
@@ -21021,20 +21043,14 @@
       <c r="E551" t="s">
         <v>147</v>
       </c>
-      <c r="F551" t="s">
-        <v>147</v>
-      </c>
       <c r="G551" s="7" t="s">
-        <v>521</v>
+        <v>1065</v>
       </c>
       <c r="H551" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I551" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
       <c r="A552" t="s">
         <v>0</v>
       </c>
@@ -21042,7 +21058,7 @@
         <v>1075</v>
       </c>
       <c r="C552" t="s">
-        <v>1064</v>
+        <v>902</v>
       </c>
       <c r="D552" t="s">
         <v>147</v>
@@ -21054,13 +21070,13 @@
         <v>147</v>
       </c>
       <c r="G552" s="7" t="s">
-        <v>789</v>
+        <v>904</v>
       </c>
       <c r="H552" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
       <c r="A553" t="s">
         <v>0</v>
       </c>
@@ -21068,7 +21084,7 @@
         <v>1075</v>
       </c>
       <c r="C553" t="s">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="D553" t="s">
         <v>147</v>
@@ -21076,22 +21092,25 @@
       <c r="E553" t="s">
         <v>147</v>
       </c>
+      <c r="F553" t="s">
+        <v>147</v>
+      </c>
       <c r="G553" s="7" t="s">
-        <v>1065</v>
+        <v>905</v>
       </c>
       <c r="H553" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" ht="15.75">
       <c r="A554" t="s">
         <v>0</v>
       </c>
       <c r="B554" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C554" t="s">
-        <v>902</v>
+        <v>11</v>
       </c>
       <c r="D554" t="s">
         <v>147</v>
@@ -21102,40 +21121,40 @@
       <c r="F554" t="s">
         <v>147</v>
       </c>
-      <c r="G554" s="7" t="s">
-        <v>904</v>
+      <c r="G554" s="12" t="s">
+        <v>1149</v>
       </c>
       <c r="H554" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="I554" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
       <c r="A555" t="s">
         <v>0</v>
       </c>
       <c r="B555" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C555" t="s">
-        <v>903</v>
+        <v>1148</v>
       </c>
       <c r="D555" t="s">
         <v>147</v>
       </c>
-      <c r="E555" t="s">
-        <v>147</v>
-      </c>
       <c r="F555" t="s">
         <v>147</v>
       </c>
       <c r="G555" s="7" t="s">
-        <v>905</v>
+        <v>1010</v>
       </c>
       <c r="H555" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -21143,7 +21162,7 @@
         <v>1076</v>
       </c>
       <c r="C556" t="s">
-        <v>11</v>
+        <v>1150</v>
       </c>
       <c r="D556" t="s">
         <v>147</v>
@@ -21154,17 +21173,17 @@
       <c r="F556" t="s">
         <v>147</v>
       </c>
-      <c r="G556" s="12" t="s">
-        <v>1149</v>
+      <c r="G556" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>103</v>
+        <v>1151</v>
       </c>
       <c r="I556" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
       <c r="A557" t="s">
         <v>0</v>
       </c>
@@ -21172,22 +21191,25 @@
         <v>1076</v>
       </c>
       <c r="C557" t="s">
-        <v>1148</v>
+        <v>41</v>
       </c>
       <c r="D557" t="s">
         <v>147</v>
       </c>
+      <c r="E557" t="s">
+        <v>147</v>
+      </c>
       <c r="F557" t="s">
         <v>147</v>
       </c>
       <c r="G557" s="7" t="s">
-        <v>1010</v>
+        <v>485</v>
       </c>
       <c r="H557" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
       <c r="A558" t="s">
         <v>0</v>
       </c>
@@ -21195,7 +21217,7 @@
         <v>1076</v>
       </c>
       <c r="C558" t="s">
-        <v>1150</v>
+        <v>902</v>
       </c>
       <c r="D558" t="s">
         <v>147</v>
@@ -21207,16 +21229,13 @@
         <v>147</v>
       </c>
       <c r="G558" s="7" t="s">
-        <v>135</v>
+        <v>904</v>
       </c>
       <c r="H558" s="7" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I558" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9">
       <c r="A559" t="s">
         <v>0</v>
       </c>
@@ -21224,7 +21243,7 @@
         <v>1076</v>
       </c>
       <c r="C559" t="s">
-        <v>41</v>
+        <v>903</v>
       </c>
       <c r="D559" t="s">
         <v>147</v>
@@ -21236,21 +21255,21 @@
         <v>147</v>
       </c>
       <c r="G559" s="7" t="s">
-        <v>485</v>
+        <v>905</v>
       </c>
       <c r="H559" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9">
       <c r="A560" t="s">
         <v>0</v>
       </c>
       <c r="B560" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C560" t="s">
-        <v>902</v>
+        <v>1152</v>
       </c>
       <c r="D560" t="s">
         <v>147</v>
@@ -21262,21 +21281,21 @@
         <v>147</v>
       </c>
       <c r="G560" s="7" t="s">
-        <v>904</v>
+        <v>1156</v>
       </c>
       <c r="H560" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9">
       <c r="A561" t="s">
         <v>0</v>
       </c>
       <c r="B561" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C561" t="s">
-        <v>903</v>
+        <v>1153</v>
       </c>
       <c r="D561" t="s">
         <v>147</v>
@@ -21288,13 +21307,13 @@
         <v>147</v>
       </c>
       <c r="G561" s="7" t="s">
-        <v>905</v>
+        <v>1155</v>
       </c>
       <c r="H561" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9">
       <c r="A562" t="s">
         <v>0</v>
       </c>
@@ -21302,7 +21321,7 @@
         <v>1077</v>
       </c>
       <c r="C562" t="s">
-        <v>1152</v>
+        <v>902</v>
       </c>
       <c r="D562" t="s">
         <v>147</v>
@@ -21314,13 +21333,13 @@
         <v>147</v>
       </c>
       <c r="G562" s="7" t="s">
-        <v>1156</v>
+        <v>904</v>
       </c>
       <c r="H562" s="7" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9">
       <c r="A563" t="s">
         <v>0</v>
       </c>
@@ -21328,7 +21347,7 @@
         <v>1077</v>
       </c>
       <c r="C563" t="s">
-        <v>1153</v>
+        <v>903</v>
       </c>
       <c r="D563" t="s">
         <v>147</v>
@@ -21340,47 +21359,44 @@
         <v>147</v>
       </c>
       <c r="G563" s="7" t="s">
-        <v>1155</v>
+        <v>905</v>
       </c>
       <c r="H563" s="7" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9">
       <c r="A564" t="s">
         <v>0</v>
       </c>
       <c r="B564" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C564" t="s">
-        <v>902</v>
+        <v>4</v>
       </c>
       <c r="D564" t="s">
         <v>147</v>
       </c>
-      <c r="E564" t="s">
-        <v>147</v>
-      </c>
       <c r="F564" t="s">
         <v>147</v>
       </c>
       <c r="G564" s="7" t="s">
-        <v>904</v>
+        <v>1086</v>
       </c>
       <c r="H564" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9">
       <c r="A565" t="s">
         <v>0</v>
       </c>
       <c r="B565" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C565" t="s">
-        <v>903</v>
+        <v>45</v>
       </c>
       <c r="D565" t="s">
         <v>147</v>
@@ -21392,13 +21408,16 @@
         <v>147</v>
       </c>
       <c r="G565" s="7" t="s">
-        <v>905</v>
+        <v>253</v>
       </c>
       <c r="H565" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="I565" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9">
       <c r="A566" t="s">
         <v>0</v>
       </c>
@@ -21406,22 +21425,25 @@
         <v>1078</v>
       </c>
       <c r="C566" t="s">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="D566" t="s">
         <v>147</v>
       </c>
+      <c r="E566" t="s">
+        <v>147</v>
+      </c>
       <c r="F566" t="s">
         <v>147</v>
       </c>
       <c r="G566" s="7" t="s">
-        <v>1086</v>
+        <v>904</v>
       </c>
       <c r="H566" s="7" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9">
       <c r="A567" t="s">
         <v>0</v>
       </c>
@@ -21429,7 +21451,7 @@
         <v>1078</v>
       </c>
       <c r="C567" t="s">
-        <v>45</v>
+        <v>903</v>
       </c>
       <c r="D567" t="s">
         <v>147</v>
@@ -21441,50 +21463,44 @@
         <v>147</v>
       </c>
       <c r="G567" s="7" t="s">
-        <v>253</v>
+        <v>905</v>
       </c>
       <c r="H567" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I567" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9">
       <c r="A568" t="s">
         <v>0</v>
       </c>
       <c r="B568" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C568" t="s">
-        <v>902</v>
+        <v>4</v>
       </c>
       <c r="D568" t="s">
         <v>147</v>
       </c>
-      <c r="E568" t="s">
-        <v>147</v>
-      </c>
       <c r="F568" t="s">
         <v>147</v>
       </c>
       <c r="G568" s="7" t="s">
-        <v>904</v>
+        <v>1086</v>
       </c>
       <c r="H568" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9">
       <c r="A569" t="s">
         <v>0</v>
       </c>
       <c r="B569" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C569" t="s">
-        <v>903</v>
+        <v>1157</v>
       </c>
       <c r="D569" t="s">
         <v>147</v>
@@ -21496,13 +21512,16 @@
         <v>147</v>
       </c>
       <c r="G569" s="7" t="s">
-        <v>905</v>
+        <v>421</v>
       </c>
       <c r="H569" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1158</v>
+      </c>
+      <c r="I569" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9">
       <c r="A570" t="s">
         <v>0</v>
       </c>
@@ -21510,22 +21529,25 @@
         <v>1079</v>
       </c>
       <c r="C570" t="s">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="D570" t="s">
         <v>147</v>
       </c>
+      <c r="E570" t="s">
+        <v>147</v>
+      </c>
       <c r="F570" t="s">
         <v>147</v>
       </c>
       <c r="G570" s="7" t="s">
-        <v>1086</v>
+        <v>904</v>
       </c>
       <c r="H570" s="7" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" ht="16.5" customHeight="1">
       <c r="A571" t="s">
         <v>0</v>
       </c>
@@ -21533,7 +21555,7 @@
         <v>1079</v>
       </c>
       <c r="C571" t="s">
-        <v>1157</v>
+        <v>903</v>
       </c>
       <c r="D571" t="s">
         <v>147</v>
@@ -21545,50 +21567,44 @@
         <v>147</v>
       </c>
       <c r="G571" s="7" t="s">
-        <v>421</v>
+        <v>905</v>
       </c>
       <c r="H571" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I571" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9">
       <c r="A572" t="s">
         <v>0</v>
       </c>
       <c r="B572" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C572" t="s">
-        <v>902</v>
+        <v>1159</v>
       </c>
       <c r="D572" t="s">
         <v>147</v>
       </c>
-      <c r="E572" t="s">
-        <v>147</v>
-      </c>
       <c r="F572" t="s">
         <v>147</v>
       </c>
       <c r="G572" s="7" t="s">
-        <v>904</v>
+        <v>1164</v>
       </c>
       <c r="H572" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9">
       <c r="A573" t="s">
         <v>0</v>
       </c>
       <c r="B573" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C573" t="s">
-        <v>903</v>
+        <v>1160</v>
       </c>
       <c r="D573" t="s">
         <v>147</v>
@@ -21600,13 +21616,13 @@
         <v>147</v>
       </c>
       <c r="G573" s="7" t="s">
-        <v>905</v>
+        <v>1161</v>
       </c>
       <c r="H573" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9">
       <c r="A574" t="s">
         <v>0</v>
       </c>
@@ -21614,22 +21630,25 @@
         <v>1080</v>
       </c>
       <c r="C574" t="s">
-        <v>1159</v>
+        <v>902</v>
       </c>
       <c r="D574" t="s">
         <v>147</v>
       </c>
+      <c r="E574" t="s">
+        <v>147</v>
+      </c>
       <c r="F574" t="s">
         <v>147</v>
       </c>
       <c r="G574" s="7" t="s">
-        <v>1164</v>
+        <v>904</v>
       </c>
       <c r="H574" s="7" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9">
       <c r="A575" t="s">
         <v>0</v>
       </c>
@@ -21637,7 +21656,7 @@
         <v>1080</v>
       </c>
       <c r="C575" t="s">
-        <v>1160</v>
+        <v>903</v>
       </c>
       <c r="D575" t="s">
         <v>147</v>
@@ -21649,66 +21668,14 @@
         <v>147</v>
       </c>
       <c r="G575" s="7" t="s">
-        <v>1161</v>
+        <v>905</v>
       </c>
       <c r="H575" s="7" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A576" t="s">
-        <v>0</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C576" t="s">
-        <v>902</v>
-      </c>
-      <c r="D576" t="s">
-        <v>147</v>
-      </c>
-      <c r="E576" t="s">
-        <v>147</v>
-      </c>
-      <c r="F576" t="s">
-        <v>147</v>
-      </c>
-      <c r="G576" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="H576" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A577" t="s">
-        <v>0</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C577" t="s">
-        <v>903</v>
-      </c>
-      <c r="D577" t="s">
-        <v>147</v>
-      </c>
-      <c r="E577" t="s">
-        <v>147</v>
-      </c>
-      <c r="F577" t="s">
-        <v>147</v>
-      </c>
-      <c r="G577" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="H577" s="7" t="s">
         <v>907</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C570"/>
+  <autoFilter ref="A1:C568"/>
   <sortState ref="A2:H552">
     <sortCondition ref="B2:B552"/>
   </sortState>
@@ -21718,7 +21685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21728,14 +21695,14 @@
       <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21746,7 +21713,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21764,26 +21731,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21803,7 +21770,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21813,11 +21780,8 @@
       <c r="C2" t="s">
         <v>147</v>
       </c>
-      <c r="F2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -21825,7 +21789,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -21839,7 +21803,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -21853,7 +21817,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -21864,7 +21828,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -21875,7 +21839,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -21893,7 +21857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21903,15 +21867,15 @@
       <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21925,7 +21889,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21939,7 +21903,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -21953,7 +21917,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -21967,7 +21931,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -21981,7 +21945,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -22001,7 +21965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22011,17 +21975,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -22041,7 +22005,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="16.5" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:C380"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5392" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="1216">
   <si>
     <t>DATA</t>
   </si>
@@ -3805,8 +3805,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3941,7 +3941,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3954,9 +3954,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3994,7 +3994,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4028,6 +4028,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4062,9 +4063,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4237,7 +4239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4247,31 +4249,31 @@
       <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="66.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="66.5546875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" style="7" customWidth="1"/>
     <col min="18" max="18" width="19" style="7" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4420,7 +4422,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="105">
+    <row r="5" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4526,7 +4528,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4559,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4588,7 +4590,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4619,7 +4621,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4686,7 +4688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4779,7 +4781,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4910,7 +4912,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -5061,7 +5063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -5165,7 +5167,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -5229,7 +5231,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -5404,7 +5406,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -5488,7 +5490,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -5523,7 +5525,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -5549,7 +5551,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -5647,7 +5649,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>153</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -5849,7 +5851,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -5875,7 +5877,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -6103,7 +6105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="30">
+    <row r="68" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -6384,7 +6386,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6436,7 +6438,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -6509,7 +6511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6535,7 +6537,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -6680,7 +6682,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -6956,7 +6958,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -7014,7 +7016,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -7107,7 +7109,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -7133,7 +7135,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -7308,7 +7310,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="30">
+    <row r="103" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -7352,7 +7354,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.75">
+    <row r="105" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="30">
+    <row r="106" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -7445,7 +7447,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -7503,7 +7505,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7545,32 +7547,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I530" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="M546" sqref="M546"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7637,7 +7639,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7738,7 +7740,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7816,7 +7818,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45">
+    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7879,7 +7881,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7939,7 +7941,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7962,7 +7964,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8002,7 +8004,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -8022,7 +8024,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -8048,7 +8050,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30">
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8100,7 +8102,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8152,7 +8154,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8207,7 +8209,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30">
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8227,7 +8229,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="45">
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -8247,7 +8249,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -8322,7 +8324,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -8374,7 +8376,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -8400,7 +8402,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -8426,7 +8428,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -8527,7 +8529,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -8553,7 +8555,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -8582,7 +8584,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -8605,7 +8607,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -8631,7 +8633,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -8657,7 +8659,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -8680,7 +8682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -8709,7 +8711,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -8735,7 +8737,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -8784,7 +8786,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -8813,7 +8815,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -8839,7 +8841,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -8865,7 +8867,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -8894,7 +8896,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -8920,7 +8922,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="30">
+    <row r="55" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -8969,7 +8971,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -8995,7 +8997,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30">
+    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -9018,7 +9020,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -9047,7 +9049,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -9073,7 +9075,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -9099,7 +9101,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30">
+    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -9128,7 +9130,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="30">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -9151,7 +9153,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30">
+    <row r="64" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="45">
+    <row r="65" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30">
+    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -9211,7 +9213,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30">
+    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -9231,7 +9233,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30">
+    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -9251,7 +9253,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -9277,7 +9279,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -9303,7 +9305,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -9332,7 +9334,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -9384,7 +9386,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -9410,7 +9412,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30">
+    <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -9462,7 +9464,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -9514,7 +9516,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -9540,7 +9542,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -9589,7 +9591,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -9612,7 +9614,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -9632,7 +9634,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -9652,7 +9654,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -9675,7 +9677,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -9738,7 +9740,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -9801,7 +9803,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -9821,7 +9823,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -9847,7 +9849,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -9873,7 +9875,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -9899,7 +9901,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -9928,7 +9930,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -9951,7 +9953,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9979,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -10000,7 +10002,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -10026,7 +10028,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -10052,7 +10054,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -10075,7 +10077,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -10104,7 +10106,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -10130,7 +10132,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -10156,7 +10158,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -10182,7 +10184,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -10205,7 +10207,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -10231,7 +10233,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -10280,7 +10282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -10332,7 +10334,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -10358,7 +10360,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -10390,7 +10392,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -10419,7 +10421,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -10445,7 +10447,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -10471,7 +10473,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -10500,7 +10502,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="45">
+    <row r="120" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -10546,7 +10548,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="45">
+    <row r="121" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -10572,7 +10574,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="30">
+    <row r="122" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -10595,7 +10597,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30">
+    <row r="123" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -10618,7 +10620,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="60">
+    <row r="124" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -10641,7 +10643,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -10664,7 +10666,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -10690,7 +10692,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -10716,7 +10718,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -10745,7 +10747,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -10771,7 +10773,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -10823,7 +10825,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -10901,7 +10903,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -10927,7 +10929,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -10956,7 +10958,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -10985,7 +10987,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -11011,7 +11013,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -11037,7 +11039,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -11063,7 +11065,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30">
+    <row r="141" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -11092,7 +11094,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -11118,7 +11120,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -11141,7 +11143,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -11164,7 +11166,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -11190,7 +11192,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -11216,7 +11218,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="30">
+    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -11242,7 +11244,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="30">
+    <row r="148" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -11268,7 +11270,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -11294,7 +11296,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -11320,7 +11322,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="30">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -11346,7 +11348,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -11369,7 +11371,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -11395,7 +11397,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -11447,7 +11449,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -11467,7 +11469,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -11487,7 +11489,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="30">
+    <row r="158" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -11507,7 +11509,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -11527,7 +11529,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -11547,7 +11549,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -11590,7 +11592,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>153</v>
       </c>
@@ -11613,7 +11615,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>153</v>
       </c>
@@ -11636,7 +11638,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -11656,7 +11658,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>153</v>
       </c>
@@ -11676,7 +11678,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -11696,7 +11698,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -11716,7 +11718,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>153</v>
       </c>
@@ -11742,7 +11744,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>153</v>
       </c>
@@ -11768,7 +11770,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>153</v>
       </c>
@@ -11817,7 +11819,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>153</v>
       </c>
@@ -11843,7 +11845,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>153</v>
       </c>
@@ -11869,7 +11871,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>153</v>
       </c>
@@ -11895,7 +11897,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>153</v>
       </c>
@@ -11921,7 +11923,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>153</v>
       </c>
@@ -11947,7 +11949,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -11973,7 +11975,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>153</v>
       </c>
@@ -11996,7 +11998,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>153</v>
       </c>
@@ -12022,7 +12024,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -12048,7 +12050,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>153</v>
       </c>
@@ -12074,7 +12076,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>153</v>
       </c>
@@ -12097,7 +12099,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>153</v>
       </c>
@@ -12123,7 +12125,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>153</v>
       </c>
@@ -12149,7 +12151,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>153</v>
       </c>
@@ -12175,7 +12177,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>153</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>153</v>
       </c>
@@ -12221,7 +12223,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>153</v>
       </c>
@@ -12244,7 +12246,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>153</v>
       </c>
@@ -12270,7 +12272,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>153</v>
       </c>
@@ -12296,7 +12298,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>153</v>
       </c>
@@ -12322,7 +12324,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>153</v>
       </c>
@@ -12345,7 +12347,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>153</v>
       </c>
@@ -12371,7 +12373,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -12397,7 +12399,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>153</v>
       </c>
@@ -12423,7 +12425,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -12449,7 +12451,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>153</v>
       </c>
@@ -12475,7 +12477,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>153</v>
       </c>
@@ -12501,7 +12503,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>153</v>
       </c>
@@ -12527,7 +12529,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>153</v>
       </c>
@@ -12553,7 +12555,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>153</v>
       </c>
@@ -12579,7 +12581,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>153</v>
       </c>
@@ -12605,7 +12607,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>153</v>
       </c>
@@ -12628,7 +12630,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="30">
+    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>153</v>
       </c>
@@ -12654,7 +12656,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="30">
+    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>153</v>
       </c>
@@ -12677,7 +12679,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="30">
+    <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>153</v>
       </c>
@@ -12700,7 +12702,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="30">
+    <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>153</v>
       </c>
@@ -12723,7 +12725,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>153</v>
       </c>
@@ -12749,7 +12751,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>153</v>
       </c>
@@ -12775,7 +12777,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>153</v>
       </c>
@@ -12801,7 +12803,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="30">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>153</v>
       </c>
@@ -12824,7 +12826,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>153</v>
       </c>
@@ -12850,7 +12852,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>153</v>
       </c>
@@ -12876,7 +12878,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -12902,7 +12904,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="30">
+    <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -12925,7 +12927,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>153</v>
       </c>
@@ -12951,7 +12953,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>153</v>
       </c>
@@ -12977,7 +12979,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>153</v>
       </c>
@@ -13003,7 +13005,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>153</v>
       </c>
@@ -13029,7 +13031,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>153</v>
       </c>
@@ -13055,7 +13057,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>153</v>
       </c>
@@ -13081,7 +13083,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>153</v>
       </c>
@@ -13107,7 +13109,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="30">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>153</v>
       </c>
@@ -13127,7 +13129,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="30">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>153</v>
       </c>
@@ -13147,7 +13149,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>153</v>
       </c>
@@ -13167,7 +13169,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>153</v>
       </c>
@@ -13193,7 +13195,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>153</v>
       </c>
@@ -13219,7 +13221,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>153</v>
       </c>
@@ -13245,7 +13247,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>153</v>
       </c>
@@ -13268,7 +13270,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="30">
+    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>153</v>
       </c>
@@ -13291,7 +13293,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>153</v>
       </c>
@@ -13317,7 +13319,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>153</v>
       </c>
@@ -13343,7 +13345,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>153</v>
       </c>
@@ -13369,7 +13371,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>153</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30">
+    <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>153</v>
       </c>
@@ -13412,7 +13414,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="30">
+    <row r="237" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>153</v>
       </c>
@@ -13432,7 +13434,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>153</v>
       </c>
@@ -13458,7 +13460,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>153</v>
       </c>
@@ -13484,7 +13486,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>153</v>
       </c>
@@ -13510,7 +13512,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>153</v>
       </c>
@@ -13536,7 +13538,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>153</v>
       </c>
@@ -13562,7 +13564,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>153</v>
       </c>
@@ -13588,7 +13590,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>153</v>
       </c>
@@ -13614,7 +13616,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>153</v>
       </c>
@@ -13637,7 +13639,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>153</v>
       </c>
@@ -13663,7 +13665,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>153</v>
       </c>
@@ -13689,7 +13691,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>153</v>
       </c>
@@ -13715,7 +13717,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>153</v>
       </c>
@@ -13735,7 +13737,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>153</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>153</v>
       </c>
@@ -13787,7 +13789,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="30">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>153</v>
       </c>
@@ -13813,7 +13815,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="30">
+    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>153</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="30">
+    <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>153</v>
       </c>
@@ -13853,7 +13855,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>153</v>
       </c>
@@ -13879,7 +13881,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>153</v>
       </c>
@@ -13905,7 +13907,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="30">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>153</v>
       </c>
@@ -13931,7 +13933,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="30">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>153</v>
       </c>
@@ -13954,7 +13956,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>153</v>
       </c>
@@ -13980,7 +13982,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>153</v>
       </c>
@@ -14006,7 +14008,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>153</v>
       </c>
@@ -14032,7 +14034,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>153</v>
       </c>
@@ -14058,7 +14060,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>153</v>
       </c>
@@ -14084,7 +14086,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>153</v>
       </c>
@@ -14110,7 +14112,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>153</v>
       </c>
@@ -14133,7 +14135,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>153</v>
       </c>
@@ -14159,7 +14161,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>153</v>
       </c>
@@ -14185,7 +14187,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>153</v>
       </c>
@@ -14211,7 +14213,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>153</v>
       </c>
@@ -14234,7 +14236,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>153</v>
       </c>
@@ -14257,7 +14259,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>153</v>
       </c>
@@ -14283,7 +14285,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>153</v>
       </c>
@@ -14309,7 +14311,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>153</v>
       </c>
@@ -14335,7 +14337,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -14358,7 +14360,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>153</v>
       </c>
@@ -14378,7 +14380,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>153</v>
       </c>
@@ -14404,7 +14406,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>153</v>
       </c>
@@ -14430,7 +14432,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>153</v>
       </c>
@@ -14456,7 +14458,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>153</v>
       </c>
@@ -14482,7 +14484,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>153</v>
       </c>
@@ -14508,7 +14510,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>153</v>
       </c>
@@ -14534,7 +14536,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>153</v>
       </c>
@@ -14557,7 +14559,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>153</v>
       </c>
@@ -14571,7 +14573,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>153</v>
       </c>
@@ -14585,7 +14587,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>153</v>
       </c>
@@ -14611,7 +14613,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>153</v>
       </c>
@@ -14637,7 +14639,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>153</v>
       </c>
@@ -14663,7 +14665,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>153</v>
       </c>
@@ -14689,7 +14691,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>153</v>
       </c>
@@ -14715,7 +14717,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>153</v>
       </c>
@@ -14741,7 +14743,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>153</v>
       </c>
@@ -14767,7 +14769,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>153</v>
       </c>
@@ -14793,7 +14795,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>153</v>
       </c>
@@ -14819,7 +14821,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>153</v>
       </c>
@@ -14845,7 +14847,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>153</v>
       </c>
@@ -14871,7 +14873,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>153</v>
       </c>
@@ -14897,7 +14899,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>153</v>
       </c>
@@ -14923,7 +14925,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>153</v>
       </c>
@@ -14949,7 +14951,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>153</v>
       </c>
@@ -14975,7 +14977,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>153</v>
       </c>
@@ -15001,7 +15003,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>153</v>
       </c>
@@ -15027,7 +15029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>153</v>
       </c>
@@ -15053,7 +15055,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>153</v>
       </c>
@@ -15076,7 +15078,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>153</v>
       </c>
@@ -15099,7 +15101,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>153</v>
       </c>
@@ -15125,7 +15127,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>153</v>
       </c>
@@ -15151,7 +15153,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>153</v>
       </c>
@@ -15177,7 +15179,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>153</v>
       </c>
@@ -15203,7 +15205,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>153</v>
       </c>
@@ -15229,7 +15231,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="30">
+    <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>153</v>
       </c>
@@ -15249,7 +15251,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>153</v>
       </c>
@@ -15275,7 +15277,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>153</v>
       </c>
@@ -15301,7 +15303,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="30">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>153</v>
       </c>
@@ -15327,7 +15329,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>153</v>
       </c>
@@ -15350,7 +15352,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="75">
+    <row r="315" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>153</v>
       </c>
@@ -15370,7 +15372,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>153</v>
       </c>
@@ -15396,7 +15398,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>153</v>
       </c>
@@ -15422,7 +15424,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>153</v>
       </c>
@@ -15448,7 +15450,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="30">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>153</v>
       </c>
@@ -15471,7 +15473,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>153</v>
       </c>
@@ -15494,7 +15496,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>153</v>
       </c>
@@ -15520,7 +15522,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>153</v>
       </c>
@@ -15546,7 +15548,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>153</v>
       </c>
@@ -15572,7 +15574,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>153</v>
       </c>
@@ -15595,7 +15597,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>153</v>
       </c>
@@ -15618,7 +15620,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>153</v>
       </c>
@@ -15641,7 +15643,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>153</v>
       </c>
@@ -15658,7 +15660,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>153</v>
       </c>
@@ -15684,7 +15686,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>153</v>
       </c>
@@ -15710,7 +15712,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>153</v>
       </c>
@@ -15733,7 +15735,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>153</v>
       </c>
@@ -15759,7 +15761,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>153</v>
       </c>
@@ -15782,7 +15784,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>153</v>
       </c>
@@ -15805,7 +15807,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>153</v>
       </c>
@@ -15831,7 +15833,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>153</v>
       </c>
@@ -15857,7 +15859,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>153</v>
       </c>
@@ -15883,7 +15885,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -15912,7 +15914,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>153</v>
       </c>
@@ -15941,7 +15943,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -15967,7 +15969,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -15993,7 +15995,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>153</v>
       </c>
@@ -16019,7 +16021,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>153</v>
       </c>
@@ -16045,7 +16047,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>153</v>
       </c>
@@ -16071,7 +16073,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>153</v>
       </c>
@@ -16100,7 +16102,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>153</v>
       </c>
@@ -16126,7 +16128,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>153</v>
       </c>
@@ -16152,7 +16154,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -16178,7 +16180,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>153</v>
       </c>
@@ -16201,7 +16203,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>153</v>
       </c>
@@ -16227,7 +16229,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>153</v>
       </c>
@@ -16253,7 +16255,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>153</v>
       </c>
@@ -16279,7 +16281,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>153</v>
       </c>
@@ -16302,7 +16304,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>153</v>
       </c>
@@ -16328,7 +16330,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>153</v>
       </c>
@@ -16354,7 +16356,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>153</v>
       </c>
@@ -16380,7 +16382,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>153</v>
       </c>
@@ -16403,7 +16405,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>153</v>
       </c>
@@ -16426,7 +16428,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>153</v>
       </c>
@@ -16452,7 +16454,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>153</v>
       </c>
@@ -16478,7 +16480,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>153</v>
       </c>
@@ -16504,7 +16506,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>153</v>
       </c>
@@ -16527,7 +16529,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>153</v>
       </c>
@@ -16553,7 +16555,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>153</v>
       </c>
@@ -16579,7 +16581,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="30">
+    <row r="364" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>153</v>
       </c>
@@ -16605,7 +16607,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>153</v>
       </c>
@@ -16628,7 +16630,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>153</v>
       </c>
@@ -16648,7 +16650,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>153</v>
       </c>
@@ -16671,7 +16673,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>153</v>
       </c>
@@ -16697,7 +16699,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>153</v>
       </c>
@@ -16723,7 +16725,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>153</v>
       </c>
@@ -16746,7 +16748,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>153</v>
       </c>
@@ -16772,7 +16774,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>153</v>
       </c>
@@ -16798,7 +16800,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>153</v>
       </c>
@@ -16824,7 +16826,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="30">
+    <row r="374" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>153</v>
       </c>
@@ -16850,7 +16852,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>153</v>
       </c>
@@ -16876,7 +16878,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>153</v>
       </c>
@@ -16902,7 +16904,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>153</v>
       </c>
@@ -16928,7 +16930,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>153</v>
       </c>
@@ -16954,7 +16956,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>153</v>
       </c>
@@ -16980,7 +16982,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>153</v>
       </c>
@@ -17006,7 +17008,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>153</v>
       </c>
@@ -17032,7 +17034,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>153</v>
       </c>
@@ -17058,7 +17060,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>153</v>
       </c>
@@ -17084,7 +17086,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>153</v>
       </c>
@@ -17110,7 +17112,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>153</v>
       </c>
@@ -17133,7 +17135,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>153</v>
       </c>
@@ -17159,7 +17161,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="30">
+    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>153</v>
       </c>
@@ -17182,7 +17184,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>153</v>
       </c>
@@ -17208,7 +17210,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>153</v>
       </c>
@@ -17234,7 +17236,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>153</v>
       </c>
@@ -17257,7 +17259,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>153</v>
       </c>
@@ -17283,7 +17285,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>153</v>
       </c>
@@ -17309,7 +17311,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="30">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>153</v>
       </c>
@@ -17335,7 +17337,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>153</v>
       </c>
@@ -17358,7 +17360,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>153</v>
       </c>
@@ -17384,7 +17386,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>153</v>
       </c>
@@ -17410,7 +17412,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>153</v>
       </c>
@@ -17436,7 +17438,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="30">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>153</v>
       </c>
@@ -17462,7 +17464,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>153</v>
       </c>
@@ -17488,7 +17490,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>153</v>
       </c>
@@ -17514,7 +17516,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>153</v>
       </c>
@@ -17540,7 +17542,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>153</v>
       </c>
@@ -17566,7 +17568,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>153</v>
       </c>
@@ -17592,7 +17594,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>153</v>
       </c>
@@ -17606,7 +17608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>153</v>
       </c>
@@ -17620,7 +17622,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>153</v>
       </c>
@@ -17646,7 +17648,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>153</v>
       </c>
@@ -17672,7 +17674,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>153</v>
       </c>
@@ -17698,7 +17700,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>153</v>
       </c>
@@ -17721,7 +17723,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>153</v>
       </c>
@@ -17747,7 +17749,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>153</v>
       </c>
@@ -17773,7 +17775,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>153</v>
       </c>
@@ -17799,7 +17801,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="30">
+    <row r="413" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>153</v>
       </c>
@@ -17825,7 +17827,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="60">
+    <row r="414" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>153</v>
       </c>
@@ -17851,7 +17853,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>153</v>
       </c>
@@ -17874,7 +17876,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>153</v>
       </c>
@@ -17897,7 +17899,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>153</v>
       </c>
@@ -17920,7 +17922,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>153</v>
       </c>
@@ -17943,7 +17945,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="45">
+    <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>153</v>
       </c>
@@ -17966,7 +17968,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>153</v>
       </c>
@@ -17989,7 +17991,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="60">
+    <row r="421" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>153</v>
       </c>
@@ -18012,7 +18014,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>153</v>
       </c>
@@ -18038,7 +18040,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>153</v>
       </c>
@@ -18064,7 +18066,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>153</v>
       </c>
@@ -18087,7 +18089,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>153</v>
       </c>
@@ -18113,7 +18115,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>153</v>
       </c>
@@ -18139,7 +18141,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>153</v>
       </c>
@@ -18165,7 +18167,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="105">
+    <row r="428" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>153</v>
       </c>
@@ -18191,7 +18193,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>153</v>
       </c>
@@ -18214,7 +18216,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>153</v>
       </c>
@@ -18240,7 +18242,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>153</v>
       </c>
@@ -18266,7 +18268,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>153</v>
       </c>
@@ -18286,7 +18288,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>153</v>
       </c>
@@ -18312,7 +18314,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>153</v>
       </c>
@@ -18332,7 +18334,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>153</v>
       </c>
@@ -18352,7 +18354,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>153</v>
       </c>
@@ -18372,7 +18374,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>153</v>
       </c>
@@ -18392,7 +18394,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>153</v>
       </c>
@@ -18415,7 +18417,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>153</v>
       </c>
@@ -18438,7 +18440,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>153</v>
       </c>
@@ -18458,7 +18460,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>153</v>
       </c>
@@ -18478,7 +18480,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>153</v>
       </c>
@@ -18498,7 +18500,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>153</v>
       </c>
@@ -18518,7 +18520,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>153</v>
       </c>
@@ -18544,7 +18546,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>153</v>
       </c>
@@ -18570,7 +18572,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>153</v>
       </c>
@@ -18596,7 +18598,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>153</v>
       </c>
@@ -18619,7 +18621,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>153</v>
       </c>
@@ -18645,7 +18647,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>153</v>
       </c>
@@ -18671,7 +18673,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>153</v>
       </c>
@@ -18697,7 +18699,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>153</v>
       </c>
@@ -18720,7 +18722,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>153</v>
       </c>
@@ -18746,7 +18748,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>153</v>
       </c>
@@ -18772,7 +18774,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>153</v>
       </c>
@@ -18795,7 +18797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>153</v>
       </c>
@@ -18818,7 +18820,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>153</v>
       </c>
@@ -18841,7 +18843,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>153</v>
       </c>
@@ -18867,7 +18869,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>153</v>
       </c>
@@ -18890,7 +18892,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>153</v>
       </c>
@@ -18913,7 +18915,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>153</v>
       </c>
@@ -18939,7 +18941,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>153</v>
       </c>
@@ -18965,7 +18967,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>153</v>
       </c>
@@ -18991,7 +18993,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>153</v>
       </c>
@@ -19014,7 +19016,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="30">
+    <row r="464" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>153</v>
       </c>
@@ -19034,7 +19036,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="30">
+    <row r="465" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>153</v>
       </c>
@@ -19054,7 +19056,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>153</v>
       </c>
@@ -19077,7 +19079,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>153</v>
       </c>
@@ -19103,7 +19105,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>153</v>
       </c>
@@ -19129,7 +19131,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>153</v>
       </c>
@@ -19155,7 +19157,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>153</v>
       </c>
@@ -19178,7 +19180,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -19201,7 +19203,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>153</v>
       </c>
@@ -19224,7 +19226,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>153</v>
       </c>
@@ -19250,7 +19252,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>153</v>
       </c>
@@ -19276,7 +19278,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>153</v>
       </c>
@@ -19302,7 +19304,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>153</v>
       </c>
@@ -19325,7 +19327,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>153</v>
       </c>
@@ -19348,7 +19350,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>153</v>
       </c>
@@ -19374,7 +19376,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>153</v>
       </c>
@@ -19400,7 +19402,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>153</v>
       </c>
@@ -19423,7 +19425,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>153</v>
       </c>
@@ -19446,7 +19448,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>153</v>
       </c>
@@ -19469,7 +19471,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>153</v>
       </c>
@@ -19495,7 +19497,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>153</v>
       </c>
@@ -19521,7 +19523,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>153</v>
       </c>
@@ -19544,7 +19546,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>153</v>
       </c>
@@ -19570,7 +19572,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>153</v>
       </c>
@@ -19596,7 +19598,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>153</v>
       </c>
@@ -19622,7 +19624,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>153</v>
       </c>
@@ -19648,7 +19650,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>153</v>
       </c>
@@ -19671,7 +19673,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="15.75">
+    <row r="491" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>153</v>
       </c>
@@ -19697,7 +19699,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="15.75">
+    <row r="492" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>153</v>
       </c>
@@ -19717,7 +19719,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="15.75">
+    <row r="493" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>153</v>
       </c>
@@ -19737,7 +19739,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>153</v>
       </c>
@@ -19757,7 +19759,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="15.75">
+    <row r="495" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>153</v>
       </c>
@@ -19780,7 +19782,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="15.75">
+    <row r="496" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>153</v>
       </c>
@@ -19806,7 +19808,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -19826,7 +19828,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>153</v>
       </c>
@@ -19846,7 +19848,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="47.25">
+    <row r="499" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -19866,7 +19868,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="15.75">
+    <row r="500" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>153</v>
       </c>
@@ -19889,7 +19891,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>153</v>
       </c>
@@ -19915,7 +19917,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>153</v>
       </c>
@@ -19941,7 +19943,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="15.75">
+    <row r="503" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>153</v>
       </c>
@@ -19967,7 +19969,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="31.5">
+    <row r="504" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>153</v>
       </c>
@@ -19987,7 +19989,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="47.25">
+    <row r="505" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -20007,7 +20009,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>153</v>
       </c>
@@ -20027,7 +20029,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="15.75">
+    <row r="507" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -20050,7 +20052,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="15.75">
+    <row r="508" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -20070,7 +20072,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="15.75">
+    <row r="509" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>153</v>
       </c>
@@ -20090,7 +20092,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="15.75">
+    <row r="510" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>153</v>
       </c>
@@ -20110,7 +20112,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="15.75">
+    <row r="511" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>153</v>
       </c>
@@ -20130,7 +20132,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="15.75">
+    <row r="512" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>153</v>
       </c>
@@ -20150,7 +20152,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="30">
+    <row r="513" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>153</v>
       </c>
@@ -20170,7 +20172,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="75">
+    <row r="514" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>153</v>
       </c>
@@ -20190,7 +20192,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="30">
+    <row r="515" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>153</v>
       </c>
@@ -20210,7 +20212,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="30">
+    <row r="516" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>153</v>
       </c>
@@ -20230,7 +20232,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="30">
+    <row r="517" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>153</v>
       </c>
@@ -20250,7 +20252,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="75">
+    <row r="518" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>153</v>
       </c>
@@ -20273,7 +20275,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>153</v>
       </c>
@@ -20293,7 +20295,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>153</v>
       </c>
@@ -20316,7 +20318,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>153</v>
       </c>
@@ -20342,7 +20344,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>153</v>
       </c>
@@ -20368,7 +20370,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>153</v>
       </c>
@@ -20391,7 +20393,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>153</v>
       </c>
@@ -20420,7 +20422,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>153</v>
       </c>
@@ -20446,7 +20448,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>153</v>
       </c>
@@ -20469,7 +20471,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>153</v>
       </c>
@@ -20495,7 +20497,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>153</v>
       </c>
@@ -20521,7 +20523,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>0</v>
       </c>
@@ -20553,7 +20555,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>0</v>
       </c>
@@ -20570,7 +20572,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="531" spans="1:13" ht="15.75">
+    <row r="531" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>0</v>
       </c>
@@ -20593,7 +20595,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="15.75">
+    <row r="532" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>0</v>
       </c>
@@ -20613,7 +20615,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="15.75">
+    <row r="533" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -20639,7 +20641,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="15.75">
+    <row r="534" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -20662,7 +20664,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="15.75">
+    <row r="535" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -20685,7 +20687,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="536" spans="1:13" ht="15.75">
+    <row r="536" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>0</v>
       </c>
@@ -20708,7 +20710,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="15.75">
+    <row r="537" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -20728,7 +20730,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="15.75">
+    <row r="538" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>0</v>
       </c>
@@ -20748,7 +20750,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="15.75">
+    <row r="539" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -20768,7 +20770,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="540" spans="1:13">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -20788,7 +20790,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="541" spans="1:13">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -20808,7 +20810,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="542" spans="1:13">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -20828,7 +20830,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="543" spans="1:13">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -20848,7 +20850,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="544" spans="1:13">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -20874,7 +20876,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -20897,7 +20899,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -20923,7 +20925,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -20949,7 +20951,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>0</v>
       </c>
@@ -20972,7 +20974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>0</v>
       </c>
@@ -21001,7 +21003,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>0</v>
       </c>
@@ -21027,7 +21029,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>0</v>
       </c>
@@ -21050,7 +21052,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>0</v>
       </c>
@@ -21076,7 +21078,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>0</v>
       </c>
@@ -21102,7 +21104,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="15.75">
+    <row r="554" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>0</v>
       </c>
@@ -21131,7 +21133,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>0</v>
       </c>
@@ -21154,7 +21156,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -21183,7 +21185,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>0</v>
       </c>
@@ -21209,7 +21211,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>0</v>
       </c>
@@ -21235,7 +21237,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>0</v>
       </c>
@@ -21261,7 +21263,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>0</v>
       </c>
@@ -21287,7 +21289,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>0</v>
       </c>
@@ -21313,7 +21315,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>0</v>
       </c>
@@ -21339,7 +21341,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>0</v>
       </c>
@@ -21365,7 +21367,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>0</v>
       </c>
@@ -21388,7 +21390,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>0</v>
       </c>
@@ -21417,7 +21419,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>0</v>
       </c>
@@ -21443,7 +21445,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>0</v>
       </c>
@@ -21469,7 +21471,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>0</v>
       </c>
@@ -21492,7 +21494,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>0</v>
       </c>
@@ -21521,7 +21523,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>0</v>
       </c>
@@ -21547,7 +21549,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="16.5" customHeight="1">
+    <row r="571" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>0</v>
       </c>
@@ -21573,7 +21575,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>0</v>
       </c>
@@ -21596,7 +21598,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>0</v>
       </c>
@@ -21622,7 +21624,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>0</v>
       </c>
@@ -21648,7 +21650,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>0</v>
       </c>
@@ -21685,24 +21687,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21711,17 +21713,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>768</v>
-      </c>
-      <c r="C2" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -21731,26 +21722,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21770,7 +21761,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21781,72 +21772,50 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>778</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>768</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>779</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>778</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
+        <v>1074</v>
       </c>
       <c r="E5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>779</v>
-      </c>
-      <c r="C6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" t="s">
         <v>1009</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -21857,7 +21826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21867,15 +21836,15 @@
       <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -21889,7 +21858,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -21903,7 +21872,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -21917,7 +21886,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -21931,7 +21900,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -21945,7 +21914,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -21965,7 +21934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21975,17 +21944,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -22005,7 +21974,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C380"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="1216">
   <si>
     <t>DATA</t>
   </si>
@@ -21729,7 +21729,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD4"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21769,6 +21769,9 @@
         <v>766</v>
       </c>
       <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
         <v>147</v>
       </c>
     </row>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="19092" windowHeight="8412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables{T}" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="web.Model{C}" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Columns{C}'!$A$1:$C$572</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tables{T}'!$A$1:$L$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'web.Model{C}'!$A$1:$C$380</definedName>
   </definedNames>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="1220">
   <si>
     <t>DATA</t>
   </si>
@@ -3790,9 +3790,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ChangePassword</t>
-  </si>
-  <si>
     <t>sysTableId</t>
   </si>
   <si>
@@ -3800,6 +3797,21 @@
   </si>
   <si>
     <t>editModeType</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>DE: Columns</t>
+  </si>
+  <si>
+    <t>sysColumns</t>
+  </si>
+  <si>
+    <t>Settings/SysColumns</t>
+  </si>
+  <si>
+    <t>Settings</t>
   </si>
 </sst>
 </file>
@@ -4243,10 +4255,10 @@
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6190,6 +6202,9 @@
       <c r="C66" t="s">
         <v>1057</v>
       </c>
+      <c r="D66" t="s">
+        <v>1219</v>
+      </c>
       <c r="G66" t="s">
         <v>147</v>
       </c>
@@ -6219,6 +6234,9 @@
       <c r="C67" t="s">
         <v>1057</v>
       </c>
+      <c r="D67" t="s">
+        <v>1219</v>
+      </c>
       <c r="K67" t="s">
         <v>891</v>
       </c>
@@ -6248,6 +6266,9 @@
       <c r="C68" t="s">
         <v>1057</v>
       </c>
+      <c r="D68" t="s">
+        <v>1219</v>
+      </c>
       <c r="J68" t="s">
         <v>1202</v>
       </c>
@@ -6292,6 +6313,9 @@
       <c r="C69" t="s">
         <v>1057</v>
       </c>
+      <c r="D69" t="s">
+        <v>1219</v>
+      </c>
       <c r="J69" t="s">
         <v>223</v>
       </c>
@@ -6968,11 +6992,17 @@
       <c r="C92" t="s">
         <v>1057</v>
       </c>
+      <c r="D92" t="s">
+        <v>1219</v>
+      </c>
       <c r="G92" t="s">
         <v>147</v>
       </c>
       <c r="H92" t="s">
-        <v>1213</v>
+        <v>1212</v>
+      </c>
+      <c r="I92" t="s">
+        <v>778</v>
       </c>
       <c r="K92" t="s">
         <v>895</v>
@@ -6980,9 +7010,6 @@
       <c r="L92" t="s">
         <v>899</v>
       </c>
-      <c r="N92" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -7183,8 +7210,11 @@
       <c r="C99" t="s">
         <v>1057</v>
       </c>
+      <c r="D99" t="s">
+        <v>1219</v>
+      </c>
       <c r="J99" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K99" t="s">
         <v>894</v>
@@ -7193,6 +7223,21 @@
         <v>900</v>
       </c>
       <c r="N99" t="s">
+        <v>147</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P99" t="s">
+        <v>1217</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R99" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="U99" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7548,13 +7593,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M575"/>
+  <dimension ref="A1:M579"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I530" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M546" sqref="M546"/>
+      <selection pane="bottomRight" activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15774,6 +15819,9 @@
       <c r="D332" t="s">
         <v>147</v>
       </c>
+      <c r="E332" t="s">
+        <v>147</v>
+      </c>
       <c r="F332" t="s">
         <v>147</v>
       </c>
@@ -15797,6 +15845,9 @@
       <c r="D333" t="s">
         <v>147</v>
       </c>
+      <c r="E333" t="s">
+        <v>147</v>
+      </c>
       <c r="F333" t="s">
         <v>147</v>
       </c>
@@ -15885,7 +15936,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -15898,9 +15949,6 @@
       <c r="D337" t="s">
         <v>147</v>
       </c>
-      <c r="E337" t="s">
-        <v>147</v>
-      </c>
       <c r="F337" t="s">
         <v>147</v>
       </c>
@@ -15914,7 +15962,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>153</v>
       </c>
@@ -15943,7 +15991,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -15969,7 +16017,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -15995,7 +16043,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>153</v>
       </c>
@@ -16021,7 +16069,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>153</v>
       </c>
@@ -16047,7 +16095,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>153</v>
       </c>
@@ -16069,11 +16117,8 @@
       <c r="H343" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="J343" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>153</v>
       </c>
@@ -16102,7 +16147,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>153</v>
       </c>
@@ -16128,7 +16173,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>153</v>
       </c>
@@ -16154,7 +16199,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -16180,7 +16225,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>153</v>
       </c>
@@ -16203,7 +16248,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>153</v>
       </c>
@@ -16229,7 +16274,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>153</v>
       </c>
@@ -16255,7 +16300,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>153</v>
       </c>
@@ -16281,7 +16326,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>153</v>
       </c>
@@ -18782,7 +18827,7 @@
         <v>779</v>
       </c>
       <c r="C454" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="D454" t="s">
         <v>147</v>
@@ -18790,11 +18835,14 @@
       <c r="E454" t="s">
         <v>147</v>
       </c>
+      <c r="F454" t="s">
+        <v>147</v>
+      </c>
       <c r="G454" s="7" t="s">
-        <v>873</v>
+        <v>789</v>
       </c>
       <c r="H454" s="7" t="s">
-        <v>91</v>
+        <v>789</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -18805,19 +18853,16 @@
         <v>779</v>
       </c>
       <c r="C455" t="s">
-        <v>9</v>
+        <v>780</v>
       </c>
       <c r="D455" t="s">
         <v>147</v>
       </c>
-      <c r="E455" t="s">
-        <v>147</v>
-      </c>
       <c r="G455" s="7" t="s">
-        <v>484</v>
+        <v>873</v>
       </c>
       <c r="H455" s="7" t="s">
-        <v>635</v>
+        <v>91</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
@@ -18828,7 +18873,7 @@
         <v>779</v>
       </c>
       <c r="C456" t="s">
-        <v>781</v>
+        <v>9</v>
       </c>
       <c r="D456" t="s">
         <v>147</v>
@@ -18837,10 +18882,10 @@
         <v>147</v>
       </c>
       <c r="G456" s="7" t="s">
-        <v>874</v>
+        <v>484</v>
       </c>
       <c r="H456" s="7" t="s">
-        <v>877</v>
+        <v>635</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
@@ -18848,10 +18893,10 @@
         <v>153</v>
       </c>
       <c r="B457" t="s">
-        <v>286</v>
+        <v>779</v>
       </c>
       <c r="C457" t="s">
-        <v>363</v>
+        <v>781</v>
       </c>
       <c r="D457" t="s">
         <v>147</v>
@@ -18859,14 +18904,11 @@
       <c r="E457" t="s">
         <v>147</v>
       </c>
-      <c r="F457" t="s">
-        <v>147</v>
-      </c>
       <c r="G457" s="7" t="s">
-        <v>529</v>
+        <v>874</v>
       </c>
       <c r="H457" s="7" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -18877,7 +18919,7 @@
         <v>286</v>
       </c>
       <c r="C458" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="D458" t="s">
         <v>147</v>
@@ -18885,11 +18927,14 @@
       <c r="E458" t="s">
         <v>147</v>
       </c>
+      <c r="F458" t="s">
+        <v>147</v>
+      </c>
       <c r="G458" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H458" s="7" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
@@ -18900,7 +18945,7 @@
         <v>286</v>
       </c>
       <c r="C459" t="s">
-        <v>534</v>
+        <v>12</v>
       </c>
       <c r="D459" t="s">
         <v>147</v>
@@ -18909,10 +18954,10 @@
         <v>147</v>
       </c>
       <c r="G459" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H459" s="7" t="s">
-        <v>841</v>
+        <v>789</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -18923,7 +18968,7 @@
         <v>286</v>
       </c>
       <c r="C460" t="s">
-        <v>902</v>
+        <v>534</v>
       </c>
       <c r="D460" t="s">
         <v>147</v>
@@ -18931,14 +18976,11 @@
       <c r="E460" t="s">
         <v>147</v>
       </c>
-      <c r="F460" t="s">
-        <v>147</v>
-      </c>
       <c r="G460" s="7" t="s">
-        <v>904</v>
+        <v>535</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>906</v>
+        <v>841</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -18949,7 +18991,7 @@
         <v>286</v>
       </c>
       <c r="C461" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D461" t="s">
         <v>147</v>
@@ -18961,10 +19003,10 @@
         <v>147</v>
       </c>
       <c r="G461" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -18972,10 +19014,10 @@
         <v>153</v>
       </c>
       <c r="B462" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C462" t="s">
-        <v>363</v>
+        <v>903</v>
       </c>
       <c r="D462" t="s">
         <v>147</v>
@@ -18987,10 +19029,10 @@
         <v>147</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>521</v>
+        <v>905</v>
       </c>
       <c r="H462" s="7" t="s">
-        <v>785</v>
+        <v>907</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -19001,7 +19043,7 @@
         <v>289</v>
       </c>
       <c r="C463" t="s">
-        <v>536</v>
+        <v>363</v>
       </c>
       <c r="D463" t="s">
         <v>147</v>
@@ -19009,14 +19051,17 @@
       <c r="E463" t="s">
         <v>147</v>
       </c>
+      <c r="F463" t="s">
+        <v>147</v>
+      </c>
       <c r="G463" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="H463" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>153</v>
       </c>
@@ -19024,16 +19069,19 @@
         <v>289</v>
       </c>
       <c r="C464" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D464" t="s">
         <v>147</v>
       </c>
+      <c r="E464" t="s">
+        <v>147</v>
+      </c>
       <c r="G464" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H464" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -19044,19 +19092,19 @@
         <v>289</v>
       </c>
       <c r="C465" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D465" t="s">
         <v>147</v>
       </c>
       <c r="G465" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H465" s="7" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>153</v>
       </c>
@@ -19064,19 +19112,16 @@
         <v>289</v>
       </c>
       <c r="C466" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D466" t="s">
         <v>147</v>
       </c>
-      <c r="E466" t="s">
-        <v>147</v>
-      </c>
       <c r="G466" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H466" s="7" t="s">
-        <v>635</v>
+        <v>844</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -19087,7 +19132,7 @@
         <v>289</v>
       </c>
       <c r="C467" t="s">
-        <v>902</v>
+        <v>542</v>
       </c>
       <c r="D467" t="s">
         <v>147</v>
@@ -19095,14 +19140,11 @@
       <c r="E467" t="s">
         <v>147</v>
       </c>
-      <c r="F467" t="s">
-        <v>147</v>
-      </c>
       <c r="G467" s="7" t="s">
-        <v>904</v>
+        <v>543</v>
       </c>
       <c r="H467" s="7" t="s">
-        <v>906</v>
+        <v>635</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -19113,7 +19155,7 @@
         <v>289</v>
       </c>
       <c r="C468" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D468" t="s">
         <v>147</v>
@@ -19125,10 +19167,10 @@
         <v>147</v>
       </c>
       <c r="G468" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H468" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -19136,10 +19178,10 @@
         <v>153</v>
       </c>
       <c r="B469" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C469" t="s">
-        <v>506</v>
+        <v>903</v>
       </c>
       <c r="D469" t="s">
         <v>147</v>
@@ -19151,10 +19193,10 @@
         <v>147</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>263</v>
+        <v>905</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>264</v>
+        <v>907</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -19165,7 +19207,7 @@
         <v>261</v>
       </c>
       <c r="C470" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D470" t="s">
         <v>147</v>
@@ -19173,11 +19215,14 @@
       <c r="E470" t="s">
         <v>147</v>
       </c>
+      <c r="F470" t="s">
+        <v>147</v>
+      </c>
       <c r="G470" s="7" t="s">
-        <v>508</v>
+        <v>263</v>
       </c>
       <c r="H470" s="7" t="s">
-        <v>838</v>
+        <v>264</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -19188,19 +19233,19 @@
         <v>261</v>
       </c>
       <c r="C471" t="s">
-        <v>16</v>
+        <v>507</v>
       </c>
       <c r="D471" t="s">
         <v>147</v>
       </c>
+      <c r="E471" t="s">
+        <v>147</v>
+      </c>
       <c r="G471" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H471" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I471" t="s">
-        <v>974</v>
+        <v>838</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -19211,19 +19256,19 @@
         <v>261</v>
       </c>
       <c r="C472" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D472" t="s">
         <v>147</v>
       </c>
       <c r="G472" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H472" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="I472" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -19234,22 +19279,19 @@
         <v>261</v>
       </c>
       <c r="C473" t="s">
-        <v>902</v>
+        <v>55</v>
       </c>
       <c r="D473" t="s">
         <v>147</v>
       </c>
-      <c r="E473" t="s">
-        <v>147</v>
-      </c>
-      <c r="F473" t="s">
-        <v>147</v>
-      </c>
       <c r="G473" s="7" t="s">
-        <v>904</v>
+        <v>510</v>
       </c>
       <c r="H473" s="7" t="s">
-        <v>906</v>
+        <v>281</v>
+      </c>
+      <c r="I473" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -19260,7 +19302,7 @@
         <v>261</v>
       </c>
       <c r="C474" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D474" t="s">
         <v>147</v>
@@ -19272,10 +19314,10 @@
         <v>147</v>
       </c>
       <c r="G474" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H474" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -19283,10 +19325,10 @@
         <v>153</v>
       </c>
       <c r="B475" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C475" t="s">
-        <v>544</v>
+        <v>903</v>
       </c>
       <c r="D475" t="s">
         <v>147</v>
@@ -19298,10 +19340,10 @@
         <v>147</v>
       </c>
       <c r="G475" s="7" t="s">
-        <v>293</v>
+        <v>905</v>
       </c>
       <c r="H475" s="7" t="s">
-        <v>845</v>
+        <v>907</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -19312,7 +19354,7 @@
         <v>292</v>
       </c>
       <c r="C476" t="s">
-        <v>15</v>
+        <v>544</v>
       </c>
       <c r="D476" t="s">
         <v>147</v>
@@ -19320,11 +19362,14 @@
       <c r="E476" t="s">
         <v>147</v>
       </c>
+      <c r="F476" t="s">
+        <v>147</v>
+      </c>
       <c r="G476" s="7" t="s">
-        <v>545</v>
+        <v>293</v>
       </c>
       <c r="H476" s="7" t="s">
-        <v>645</v>
+        <v>845</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -19335,7 +19380,7 @@
         <v>292</v>
       </c>
       <c r="C477" t="s">
-        <v>546</v>
+        <v>15</v>
       </c>
       <c r="D477" t="s">
         <v>147</v>
@@ -19344,10 +19389,10 @@
         <v>147</v>
       </c>
       <c r="G477" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>846</v>
+        <v>645</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -19358,7 +19403,7 @@
         <v>292</v>
       </c>
       <c r="C478" t="s">
-        <v>902</v>
+        <v>546</v>
       </c>
       <c r="D478" t="s">
         <v>147</v>
@@ -19366,14 +19411,11 @@
       <c r="E478" t="s">
         <v>147</v>
       </c>
-      <c r="F478" t="s">
-        <v>147</v>
-      </c>
       <c r="G478" s="7" t="s">
-        <v>904</v>
+        <v>547</v>
       </c>
       <c r="H478" s="7" t="s">
-        <v>906</v>
+        <v>846</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -19384,7 +19426,7 @@
         <v>292</v>
       </c>
       <c r="C479" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D479" t="s">
         <v>147</v>
@@ -19396,10 +19438,10 @@
         <v>147</v>
       </c>
       <c r="G479" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H479" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -19407,22 +19449,25 @@
         <v>153</v>
       </c>
       <c r="B480" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C480" t="s">
-        <v>511</v>
+        <v>903</v>
       </c>
       <c r="D480" t="s">
         <v>147</v>
       </c>
+      <c r="E480" t="s">
+        <v>147</v>
+      </c>
       <c r="F480" t="s">
         <v>147</v>
       </c>
       <c r="G480" s="7" t="s">
-        <v>512</v>
+        <v>905</v>
       </c>
       <c r="H480" s="7" t="s">
-        <v>839</v>
+        <v>907</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -19433,19 +19478,19 @@
         <v>265</v>
       </c>
       <c r="C481" t="s">
-        <v>12</v>
+        <v>511</v>
       </c>
       <c r="D481" t="s">
         <v>147</v>
       </c>
-      <c r="E481" t="s">
+      <c r="F481" t="s">
         <v>147</v>
       </c>
       <c r="G481" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>789</v>
+        <v>839</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -19456,7 +19501,7 @@
         <v>265</v>
       </c>
       <c r="C482" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D482" t="s">
         <v>147</v>
@@ -19465,10 +19510,10 @@
         <v>147</v>
       </c>
       <c r="G482" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H482" s="7" t="s">
-        <v>635</v>
+        <v>789</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -19479,7 +19524,7 @@
         <v>265</v>
       </c>
       <c r="C483" t="s">
-        <v>902</v>
+        <v>9</v>
       </c>
       <c r="D483" t="s">
         <v>147</v>
@@ -19487,14 +19532,11 @@
       <c r="E483" t="s">
         <v>147</v>
       </c>
-      <c r="F483" t="s">
-        <v>147</v>
-      </c>
       <c r="G483" s="7" t="s">
-        <v>904</v>
+        <v>514</v>
       </c>
       <c r="H483" s="7" t="s">
-        <v>906</v>
+        <v>635</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -19505,7 +19547,7 @@
         <v>265</v>
       </c>
       <c r="C484" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D484" t="s">
         <v>147</v>
@@ -19517,10 +19559,10 @@
         <v>147</v>
       </c>
       <c r="G484" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H484" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -19528,22 +19570,25 @@
         <v>153</v>
       </c>
       <c r="B485" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C485" t="s">
-        <v>478</v>
+        <v>903</v>
       </c>
       <c r="D485" t="s">
         <v>147</v>
       </c>
+      <c r="E485" t="s">
+        <v>147</v>
+      </c>
       <c r="F485" t="s">
         <v>147</v>
       </c>
       <c r="G485" s="7" t="s">
-        <v>515</v>
+        <v>905</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>223</v>
+        <v>907</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -19554,22 +19599,19 @@
         <v>267</v>
       </c>
       <c r="C486" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="D486" t="s">
         <v>147</v>
       </c>
-      <c r="E486" t="s">
-        <v>147</v>
-      </c>
       <c r="F486" t="s">
         <v>147</v>
       </c>
       <c r="G486" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H486" s="7" t="s">
-        <v>772</v>
+        <v>223</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.3">
@@ -19580,7 +19622,7 @@
         <v>267</v>
       </c>
       <c r="C487" t="s">
-        <v>902</v>
+        <v>516</v>
       </c>
       <c r="D487" t="s">
         <v>147</v>
@@ -19592,10 +19634,10 @@
         <v>147</v>
       </c>
       <c r="G487" s="7" t="s">
-        <v>904</v>
+        <v>517</v>
       </c>
       <c r="H487" s="7" t="s">
-        <v>906</v>
+        <v>772</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
@@ -19606,7 +19648,7 @@
         <v>267</v>
       </c>
       <c r="C488" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D488" t="s">
         <v>147</v>
@@ -19618,10 +19660,10 @@
         <v>147</v>
       </c>
       <c r="G488" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H488" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.3">
@@ -19629,10 +19671,10 @@
         <v>153</v>
       </c>
       <c r="B489" t="s">
-        <v>778</v>
+        <v>267</v>
       </c>
       <c r="C489" t="s">
-        <v>782</v>
+        <v>903</v>
       </c>
       <c r="D489" t="s">
         <v>147</v>
@@ -19640,14 +19682,14 @@
       <c r="E489" t="s">
         <v>147</v>
       </c>
+      <c r="F489" t="s">
+        <v>147</v>
+      </c>
       <c r="G489" s="7" t="s">
-        <v>875</v>
+        <v>905</v>
       </c>
       <c r="H489" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="I489" t="s">
-        <v>1215</v>
+        <v>907</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.3">
@@ -19658,85 +19700,88 @@
         <v>778</v>
       </c>
       <c r="C490" t="s">
+        <v>12</v>
+      </c>
+      <c r="D490" t="s">
+        <v>147</v>
+      </c>
+      <c r="F490" t="s">
+        <v>147</v>
+      </c>
+      <c r="G490" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H490" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>153</v>
+      </c>
+      <c r="B491" t="s">
+        <v>778</v>
+      </c>
+      <c r="C491" t="s">
+        <v>782</v>
+      </c>
+      <c r="D491" t="s">
+        <v>147</v>
+      </c>
+      <c r="E491" t="s">
+        <v>147</v>
+      </c>
+      <c r="G491" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="H491" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>153</v>
+      </c>
+      <c r="B492" t="s">
+        <v>778</v>
+      </c>
+      <c r="C492" t="s">
         <v>9</v>
       </c>
-      <c r="D490" t="s">
-        <v>147</v>
-      </c>
-      <c r="E490" t="s">
-        <v>147</v>
-      </c>
-      <c r="G490" s="7" t="s">
+      <c r="D492" t="s">
+        <v>147</v>
+      </c>
+      <c r="G492" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="H490" s="7" t="s">
+      <c r="H492" s="7" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>153</v>
-      </c>
-      <c r="B491" t="s">
-        <v>944</v>
-      </c>
-      <c r="C491" t="s">
-        <v>945</v>
-      </c>
-      <c r="D491" t="s">
-        <v>147</v>
-      </c>
-      <c r="E491" t="s">
-        <v>147</v>
-      </c>
-      <c r="F491" t="s">
-        <v>147</v>
-      </c>
-      <c r="G491" s="13" t="s">
-        <v>953</v>
-      </c>
-      <c r="H491" s="7" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
-        <v>153</v>
-      </c>
-      <c r="B492" t="s">
-        <v>944</v>
-      </c>
-      <c r="C492" t="s">
-        <v>12</v>
-      </c>
-      <c r="D492" t="s">
-        <v>147</v>
-      </c>
-      <c r="G492" s="13" t="s">
-        <v>955</v>
-      </c>
-      <c r="H492" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>153</v>
       </c>
       <c r="B493" t="s">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="C493" t="s">
-        <v>946</v>
+        <v>902</v>
       </c>
       <c r="D493" t="s">
         <v>147</v>
       </c>
-      <c r="G493" s="13" t="s">
-        <v>956</v>
+      <c r="F493" t="s">
+        <v>147</v>
+      </c>
+      <c r="G493" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="H493" s="7" t="s">
-        <v>957</v>
+        <v>906</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.3">
@@ -19744,19 +19789,22 @@
         <v>153</v>
       </c>
       <c r="B494" t="s">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="C494" t="s">
-        <v>947</v>
+        <v>903</v>
       </c>
       <c r="D494" t="s">
         <v>147</v>
       </c>
+      <c r="F494" t="s">
+        <v>147</v>
+      </c>
       <c r="G494" s="7" t="s">
-        <v>969</v>
+        <v>905</v>
       </c>
       <c r="H494" s="7" t="s">
-        <v>959</v>
+        <v>907</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -19767,19 +19815,22 @@
         <v>944</v>
       </c>
       <c r="C495" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D495" t="s">
         <v>147</v>
       </c>
+      <c r="E495" t="s">
+        <v>147</v>
+      </c>
+      <c r="F495" t="s">
+        <v>147</v>
+      </c>
       <c r="G495" s="13" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="H495" s="7" t="s">
-        <v>967</v>
-      </c>
-      <c r="I495" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -19790,25 +19841,19 @@
         <v>944</v>
       </c>
       <c r="C496" t="s">
-        <v>949</v>
+        <v>12</v>
       </c>
       <c r="D496" t="s">
         <v>147</v>
       </c>
-      <c r="F496" t="s">
-        <v>147</v>
-      </c>
       <c r="G496" s="13" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="H496" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="I496" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -19816,16 +19861,16 @@
         <v>944</v>
       </c>
       <c r="C497" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D497" t="s">
         <v>147</v>
       </c>
-      <c r="G497" s="7" t="s">
-        <v>964</v>
+      <c r="G497" s="13" t="s">
+        <v>956</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.3">
@@ -19836,19 +19881,19 @@
         <v>944</v>
       </c>
       <c r="C498" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D498" t="s">
         <v>147</v>
       </c>
       <c r="G498" s="7" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="H498" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -19856,16 +19901,19 @@
         <v>944</v>
       </c>
       <c r="C499" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D499" t="s">
         <v>147</v>
       </c>
       <c r="G499" s="13" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="H499" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
+      </c>
+      <c r="I499" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="500" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -19876,19 +19924,22 @@
         <v>944</v>
       </c>
       <c r="C500" t="s">
-        <v>498</v>
+        <v>949</v>
       </c>
       <c r="D500" t="s">
         <v>147</v>
       </c>
+      <c r="F500" t="s">
+        <v>147</v>
+      </c>
       <c r="G500" s="13" t="s">
-        <v>182</v>
+        <v>960</v>
       </c>
       <c r="H500" s="7" t="s">
-        <v>183</v>
+        <v>961</v>
       </c>
       <c r="I500" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.3">
@@ -19899,22 +19950,16 @@
         <v>944</v>
       </c>
       <c r="C501" t="s">
-        <v>902</v>
+        <v>950</v>
       </c>
       <c r="D501" t="s">
         <v>147</v>
       </c>
-      <c r="E501" t="s">
-        <v>147</v>
-      </c>
-      <c r="F501" t="s">
-        <v>147</v>
-      </c>
       <c r="G501" s="7" t="s">
-        <v>904</v>
+        <v>964</v>
       </c>
       <c r="H501" s="7" t="s">
-        <v>906</v>
+        <v>962</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.3">
@@ -19925,88 +19970,85 @@
         <v>944</v>
       </c>
       <c r="C502" t="s">
-        <v>903</v>
+        <v>951</v>
       </c>
       <c r="D502" t="s">
         <v>147</v>
       </c>
-      <c r="E502" t="s">
-        <v>147</v>
-      </c>
-      <c r="F502" t="s">
-        <v>147</v>
-      </c>
       <c r="G502" s="7" t="s">
-        <v>905</v>
+        <v>965</v>
       </c>
       <c r="H502" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>153</v>
       </c>
       <c r="B503" t="s">
-        <v>1009</v>
+        <v>944</v>
       </c>
       <c r="C503" t="s">
-        <v>1011</v>
+        <v>952</v>
       </c>
       <c r="D503" t="s">
         <v>147</v>
       </c>
-      <c r="E503" t="s">
-        <v>147</v>
-      </c>
-      <c r="F503" t="s">
-        <v>147</v>
-      </c>
       <c r="G503" s="13" t="s">
-        <v>1026</v>
+        <v>958</v>
       </c>
       <c r="H503" s="7" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>153</v>
       </c>
       <c r="B504" t="s">
-        <v>1009</v>
+        <v>944</v>
       </c>
       <c r="C504" t="s">
-        <v>1012</v>
+        <v>498</v>
       </c>
       <c r="D504" t="s">
         <v>147</v>
       </c>
       <c r="G504" s="13" t="s">
-        <v>1028</v>
+        <v>182</v>
       </c>
       <c r="H504" s="7" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="I504" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>153</v>
       </c>
       <c r="B505" t="s">
-        <v>1009</v>
+        <v>944</v>
       </c>
       <c r="C505" t="s">
-        <v>1013</v>
+        <v>902</v>
       </c>
       <c r="D505" t="s">
         <v>147</v>
       </c>
-      <c r="G505" s="13" t="s">
-        <v>1030</v>
+      <c r="E505" t="s">
+        <v>147</v>
+      </c>
+      <c r="F505" t="s">
+        <v>147</v>
+      </c>
+      <c r="G505" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>1031</v>
+        <v>906</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.3">
@@ -20014,19 +20056,25 @@
         <v>153</v>
       </c>
       <c r="B506" t="s">
-        <v>1009</v>
+        <v>944</v>
       </c>
       <c r="C506" t="s">
-        <v>1014</v>
+        <v>903</v>
       </c>
       <c r="D506" t="s">
         <v>147</v>
       </c>
+      <c r="E506" t="s">
+        <v>147</v>
+      </c>
+      <c r="F506" t="s">
+        <v>147</v>
+      </c>
       <c r="G506" s="7" t="s">
-        <v>1033</v>
+        <v>905</v>
       </c>
       <c r="H506" s="7" t="s">
-        <v>1032</v>
+        <v>907</v>
       </c>
     </row>
     <row r="507" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -20037,22 +20085,25 @@
         <v>1009</v>
       </c>
       <c r="C507" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D507" t="s">
         <v>147</v>
       </c>
+      <c r="E507" t="s">
+        <v>147</v>
+      </c>
       <c r="F507" t="s">
         <v>147</v>
       </c>
-      <c r="G507" s="12" t="s">
-        <v>1034</v>
+      <c r="G507" s="13" t="s">
+        <v>1026</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -20060,19 +20111,19 @@
         <v>1009</v>
       </c>
       <c r="C508" t="s">
-        <v>586</v>
+        <v>1012</v>
       </c>
       <c r="D508" t="s">
         <v>147</v>
       </c>
-      <c r="G508" s="12" t="s">
-        <v>1035</v>
+      <c r="G508" s="13" t="s">
+        <v>1028</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>153</v>
       </c>
@@ -20080,19 +20131,19 @@
         <v>1009</v>
       </c>
       <c r="C509" t="s">
-        <v>584</v>
+        <v>1013</v>
       </c>
       <c r="D509" t="s">
         <v>147</v>
       </c>
-      <c r="G509" s="12" t="s">
-        <v>1036</v>
+      <c r="G509" s="13" t="s">
+        <v>1030</v>
       </c>
       <c r="H509" s="7" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>153</v>
       </c>
@@ -20100,16 +20151,16 @@
         <v>1009</v>
       </c>
       <c r="C510" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D510" t="s">
         <v>147</v>
       </c>
-      <c r="G510" s="12" t="s">
-        <v>1037</v>
+      <c r="G510" s="7" t="s">
+        <v>1033</v>
       </c>
       <c r="H510" s="7" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="511" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -20120,16 +20171,19 @@
         <v>1009</v>
       </c>
       <c r="C511" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D511" t="s">
         <v>147</v>
       </c>
+      <c r="F511" t="s">
+        <v>147</v>
+      </c>
       <c r="G511" s="12" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>1040</v>
+        <v>242</v>
       </c>
     </row>
     <row r="512" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -20140,19 +20194,19 @@
         <v>1009</v>
       </c>
       <c r="C512" t="s">
-        <v>1018</v>
+        <v>586</v>
       </c>
       <c r="D512" t="s">
         <v>147</v>
       </c>
       <c r="G512" s="12" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>153</v>
       </c>
@@ -20160,19 +20214,19 @@
         <v>1009</v>
       </c>
       <c r="C513" t="s">
-        <v>1019</v>
+        <v>584</v>
       </c>
       <c r="D513" t="s">
         <v>147</v>
       </c>
-      <c r="G513" s="7" t="s">
-        <v>1042</v>
+      <c r="G513" s="12" t="s">
+        <v>1036</v>
       </c>
       <c r="H513" s="7" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>153</v>
       </c>
@@ -20180,19 +20234,19 @@
         <v>1009</v>
       </c>
       <c r="C514" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D514" t="s">
         <v>147</v>
       </c>
-      <c r="G514" s="7" t="s">
-        <v>1044</v>
+      <c r="G514" s="12" t="s">
+        <v>1037</v>
       </c>
       <c r="H514" s="7" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>153</v>
       </c>
@@ -20200,19 +20254,19 @@
         <v>1009</v>
       </c>
       <c r="C515" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D515" t="s">
         <v>147</v>
       </c>
-      <c r="G515" s="7" t="s">
-        <v>1046</v>
+      <c r="G515" s="12" t="s">
+        <v>1039</v>
       </c>
       <c r="H515" s="7" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>153</v>
       </c>
@@ -20220,16 +20274,16 @@
         <v>1009</v>
       </c>
       <c r="C516" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D516" t="s">
         <v>147</v>
       </c>
-      <c r="G516" s="7" t="s">
-        <v>1048</v>
+      <c r="G516" s="12" t="s">
+        <v>1041</v>
       </c>
       <c r="H516" s="7" t="s">
-        <v>1049</v>
+        <v>227</v>
       </c>
     </row>
     <row r="517" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -20240,16 +20294,16 @@
         <v>1009</v>
       </c>
       <c r="C517" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D517" t="s">
         <v>147</v>
       </c>
       <c r="G517" s="7" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="H517" s="7" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="518" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -20260,22 +20314,19 @@
         <v>1009</v>
       </c>
       <c r="C518" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D518" t="s">
         <v>147</v>
       </c>
-      <c r="F518" t="s">
-        <v>147</v>
-      </c>
       <c r="G518" s="7" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>153</v>
       </c>
@@ -20283,19 +20334,19 @@
         <v>1009</v>
       </c>
       <c r="C519" t="s">
-        <v>559</v>
+        <v>1021</v>
       </c>
       <c r="D519" t="s">
         <v>147</v>
       </c>
       <c r="G519" s="7" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="H519" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>153</v>
       </c>
@@ -20303,22 +20354,19 @@
         <v>1009</v>
       </c>
       <c r="C520" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D520" t="s">
         <v>147</v>
       </c>
-      <c r="E520" t="s">
-        <v>147</v>
-      </c>
       <c r="G520" s="7" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="H520" s="7" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>153</v>
       </c>
@@ -20326,25 +20374,19 @@
         <v>1009</v>
       </c>
       <c r="C521" t="s">
-        <v>902</v>
+        <v>1023</v>
       </c>
       <c r="D521" t="s">
         <v>147</v>
       </c>
-      <c r="E521" t="s">
-        <v>147</v>
-      </c>
-      <c r="F521" t="s">
-        <v>147</v>
-      </c>
       <c r="G521" s="7" t="s">
-        <v>904</v>
+        <v>1050</v>
       </c>
       <c r="H521" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>153</v>
       </c>
@@ -20352,22 +20394,19 @@
         <v>1009</v>
       </c>
       <c r="C522" t="s">
-        <v>903</v>
+        <v>1024</v>
       </c>
       <c r="D522" t="s">
         <v>147</v>
       </c>
-      <c r="E522" t="s">
-        <v>147</v>
-      </c>
       <c r="F522" t="s">
         <v>147</v>
       </c>
       <c r="G522" s="7" t="s">
-        <v>905</v>
+        <v>1052</v>
       </c>
       <c r="H522" s="7" t="s">
-        <v>907</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.3">
@@ -20375,22 +20414,19 @@
         <v>153</v>
       </c>
       <c r="B523" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C523" t="s">
-        <v>398</v>
+        <v>559</v>
       </c>
       <c r="D523" t="s">
         <v>147</v>
       </c>
-      <c r="F523" t="s">
-        <v>147</v>
-      </c>
       <c r="G523" s="7" t="s">
-        <v>1010</v>
+        <v>1054</v>
       </c>
       <c r="H523" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.3">
@@ -20398,10 +20434,10 @@
         <v>153</v>
       </c>
       <c r="B524" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C524" t="s">
-        <v>7</v>
+        <v>1025</v>
       </c>
       <c r="D524" t="s">
         <v>147</v>
@@ -20409,17 +20445,11 @@
       <c r="E524" t="s">
         <v>147</v>
       </c>
-      <c r="F524" t="s">
-        <v>147</v>
-      </c>
       <c r="G524" s="7" t="s">
-        <v>521</v>
+        <v>1055</v>
       </c>
       <c r="H524" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I524" t="s">
-        <v>937</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.3">
@@ -20427,10 +20457,10 @@
         <v>153</v>
       </c>
       <c r="B525" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C525" t="s">
-        <v>1064</v>
+        <v>902</v>
       </c>
       <c r="D525" t="s">
         <v>147</v>
@@ -20442,10 +20472,10 @@
         <v>147</v>
       </c>
       <c r="G525" s="7" t="s">
-        <v>789</v>
+        <v>904</v>
       </c>
       <c r="H525" s="7" t="s">
-        <v>789</v>
+        <v>906</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.3">
@@ -20453,10 +20483,10 @@
         <v>153</v>
       </c>
       <c r="B526" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="C526" t="s">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="D526" t="s">
         <v>147</v>
@@ -20464,11 +20494,14 @@
       <c r="E526" t="s">
         <v>147</v>
       </c>
+      <c r="F526" t="s">
+        <v>147</v>
+      </c>
       <c r="G526" s="7" t="s">
-        <v>1065</v>
+        <v>905</v>
       </c>
       <c r="H526" s="7" t="s">
-        <v>635</v>
+        <v>907</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.3">
@@ -20479,22 +20512,19 @@
         <v>1058</v>
       </c>
       <c r="C527" t="s">
-        <v>902</v>
+        <v>398</v>
       </c>
       <c r="D527" t="s">
         <v>147</v>
       </c>
-      <c r="E527" t="s">
-        <v>147</v>
-      </c>
       <c r="F527" t="s">
         <v>147</v>
       </c>
       <c r="G527" s="7" t="s">
-        <v>904</v>
+        <v>1010</v>
       </c>
       <c r="H527" s="7" t="s">
-        <v>906</v>
+        <v>225</v>
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.3">
@@ -20505,117 +20535,129 @@
         <v>1058</v>
       </c>
       <c r="C528" t="s">
+        <v>7</v>
+      </c>
+      <c r="D528" t="s">
+        <v>147</v>
+      </c>
+      <c r="E528" t="s">
+        <v>147</v>
+      </c>
+      <c r="F528" t="s">
+        <v>147</v>
+      </c>
+      <c r="G528" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H528" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I528" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>153</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D529" t="s">
+        <v>147</v>
+      </c>
+      <c r="E529" t="s">
+        <v>147</v>
+      </c>
+      <c r="F529" t="s">
+        <v>147</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H529" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>153</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C530" t="s">
+        <v>9</v>
+      </c>
+      <c r="D530" t="s">
+        <v>147</v>
+      </c>
+      <c r="E530" t="s">
+        <v>147</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H530" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>153</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C531" t="s">
+        <v>902</v>
+      </c>
+      <c r="D531" t="s">
+        <v>147</v>
+      </c>
+      <c r="E531" t="s">
+        <v>147</v>
+      </c>
+      <c r="F531" t="s">
+        <v>147</v>
+      </c>
+      <c r="G531" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H531" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>153</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C532" t="s">
         <v>903</v>
       </c>
-      <c r="D528" t="s">
-        <v>147</v>
-      </c>
-      <c r="E528" t="s">
-        <v>147</v>
-      </c>
-      <c r="F528" t="s">
-        <v>147</v>
-      </c>
-      <c r="G528" s="7" t="s">
+      <c r="D532" t="s">
+        <v>147</v>
+      </c>
+      <c r="E532" t="s">
+        <v>147</v>
+      </c>
+      <c r="F532" t="s">
+        <v>147</v>
+      </c>
+      <c r="G532" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H528" s="7" t="s">
+      <c r="H532" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A529" t="s">
-        <v>0</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C529" t="s">
-        <v>398</v>
-      </c>
-      <c r="D529" t="s">
-        <v>147</v>
-      </c>
-      <c r="F529" t="s">
-        <v>147</v>
-      </c>
-      <c r="G529" s="7" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H529" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J529" t="s">
-        <v>1177</v>
-      </c>
-      <c r="K529" t="s">
-        <v>1178</v>
-      </c>
-      <c r="L529" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
-        <v>0</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G530" s="7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H530" s="7" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="531" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
-        <v>0</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C531" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D531" t="s">
-        <v>147</v>
-      </c>
-      <c r="F531" t="s">
-        <v>147</v>
-      </c>
-      <c r="G531" s="12" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H531" s="7" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="532" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
-        <v>0</v>
-      </c>
-      <c r="B532" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D532" t="s">
-        <v>147</v>
-      </c>
-      <c r="G532" s="12" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H532" s="7" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="533" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -20623,7 +20665,7 @@
         <v>1074</v>
       </c>
       <c r="C533" t="s">
-        <v>1105</v>
+        <v>398</v>
       </c>
       <c r="D533" t="s">
         <v>147</v>
@@ -20631,17 +20673,23 @@
       <c r="F533" t="s">
         <v>147</v>
       </c>
-      <c r="G533" s="12" t="s">
-        <v>1123</v>
+      <c r="G533" s="7" t="s">
+        <v>1010</v>
       </c>
       <c r="H533" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I533" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="534" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="J533" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K533" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L533" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -20649,22 +20697,16 @@
         <v>1074</v>
       </c>
       <c r="C534" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D534" t="s">
-        <v>147</v>
-      </c>
-      <c r="F534" t="s">
-        <v>147</v>
-      </c>
-      <c r="G534" s="12" t="s">
-        <v>1124</v>
+        <v>1102</v>
+      </c>
+      <c r="G534" s="7" t="s">
+        <v>1117</v>
       </c>
       <c r="H534" s="7" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="535" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -20672,7 +20714,7 @@
         <v>1074</v>
       </c>
       <c r="C535" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D535" t="s">
         <v>147</v>
@@ -20681,13 +20723,13 @@
         <v>147</v>
       </c>
       <c r="G535" s="12" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="H535" s="7" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="536" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>0</v>
       </c>
@@ -20695,22 +20737,19 @@
         <v>1074</v>
       </c>
       <c r="C536" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D536" t="s">
         <v>147</v>
       </c>
-      <c r="F536" t="s">
-        <v>147</v>
-      </c>
       <c r="G536" s="12" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="H536" s="7" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="537" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -20718,19 +20757,25 @@
         <v>1074</v>
       </c>
       <c r="C537" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D537" t="s">
         <v>147</v>
       </c>
+      <c r="F537" t="s">
+        <v>147</v>
+      </c>
       <c r="G537" s="12" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H537" s="7" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="538" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1136</v>
+      </c>
+      <c r="I537" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>0</v>
       </c>
@@ -20738,19 +20783,22 @@
         <v>1074</v>
       </c>
       <c r="C538" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D538" t="s">
         <v>147</v>
       </c>
+      <c r="F538" t="s">
+        <v>147</v>
+      </c>
       <c r="G538" s="12" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H538" s="7" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="539" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -20758,19 +20806,22 @@
         <v>1074</v>
       </c>
       <c r="C539" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D539" t="s">
         <v>147</v>
       </c>
+      <c r="F539" t="s">
+        <v>147</v>
+      </c>
       <c r="G539" s="12" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H539" s="7" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -20778,19 +20829,22 @@
         <v>1074</v>
       </c>
       <c r="C540" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D540" t="s">
         <v>147</v>
       </c>
-      <c r="G540" s="7" t="s">
-        <v>1130</v>
+      <c r="F540" t="s">
+        <v>147</v>
+      </c>
+      <c r="G540" s="12" t="s">
+        <v>1134</v>
       </c>
       <c r="H540" s="7" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -20798,19 +20852,19 @@
         <v>1074</v>
       </c>
       <c r="C541" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D541" t="s">
         <v>147</v>
       </c>
-      <c r="G541" s="7" t="s">
-        <v>1129</v>
+      <c r="G541" s="12" t="s">
+        <v>1126</v>
       </c>
       <c r="H541" s="7" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -20818,19 +20872,19 @@
         <v>1074</v>
       </c>
       <c r="C542" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D542" t="s">
         <v>147</v>
       </c>
-      <c r="G542" s="7" t="s">
-        <v>1131</v>
+      <c r="G542" s="12" t="s">
+        <v>1127</v>
       </c>
       <c r="H542" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -20838,19 +20892,19 @@
         <v>1074</v>
       </c>
       <c r="C543" t="s">
-        <v>576</v>
+        <v>1111</v>
       </c>
       <c r="D543" t="s">
         <v>147</v>
       </c>
-      <c r="G543" s="7" t="s">
-        <v>1132</v>
+      <c r="G543" s="12" t="s">
+        <v>1128</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -20858,25 +20912,19 @@
         <v>1074</v>
       </c>
       <c r="C544" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D544" t="s">
         <v>147</v>
       </c>
-      <c r="F544" t="s">
-        <v>147</v>
-      </c>
       <c r="G544" s="7" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H544" s="7" t="s">
-        <v>1146</v>
-      </c>
-      <c r="M544" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -20884,22 +20932,19 @@
         <v>1074</v>
       </c>
       <c r="C545" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D545" t="s">
         <v>147</v>
       </c>
-      <c r="F545" t="s">
-        <v>147</v>
-      </c>
       <c r="G545" s="7" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="H545" s="7" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -20907,25 +20952,19 @@
         <v>1074</v>
       </c>
       <c r="C546" t="s">
-        <v>902</v>
+        <v>1114</v>
       </c>
       <c r="D546" t="s">
         <v>147</v>
       </c>
-      <c r="E546" t="s">
-        <v>147</v>
-      </c>
-      <c r="F546" t="s">
-        <v>147</v>
-      </c>
       <c r="G546" s="7" t="s">
-        <v>904</v>
+        <v>1131</v>
       </c>
       <c r="H546" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -20933,126 +20972,120 @@
         <v>1074</v>
       </c>
       <c r="C547" t="s">
+        <v>576</v>
+      </c>
+      <c r="D547" t="s">
+        <v>147</v>
+      </c>
+      <c r="G547" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H547" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>0</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D548" t="s">
+        <v>147</v>
+      </c>
+      <c r="F548" t="s">
+        <v>147</v>
+      </c>
+      <c r="G548" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H548" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M548" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>0</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D549" t="s">
+        <v>147</v>
+      </c>
+      <c r="F549" t="s">
+        <v>147</v>
+      </c>
+      <c r="G549" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H549" s="7" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>0</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C550" t="s">
+        <v>902</v>
+      </c>
+      <c r="D550" t="s">
+        <v>147</v>
+      </c>
+      <c r="E550" t="s">
+        <v>147</v>
+      </c>
+      <c r="F550" t="s">
+        <v>147</v>
+      </c>
+      <c r="G550" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H550" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>0</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C551" t="s">
         <v>903</v>
       </c>
-      <c r="D547" t="s">
-        <v>147</v>
-      </c>
-      <c r="E547" t="s">
-        <v>147</v>
-      </c>
-      <c r="F547" t="s">
-        <v>147</v>
-      </c>
-      <c r="G547" s="7" t="s">
+      <c r="D551" t="s">
+        <v>147</v>
+      </c>
+      <c r="E551" t="s">
+        <v>147</v>
+      </c>
+      <c r="F551" t="s">
+        <v>147</v>
+      </c>
+      <c r="G551" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H547" s="7" t="s">
+      <c r="H551" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A548" t="s">
-        <v>0</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C548" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D548" t="s">
-        <v>147</v>
-      </c>
-      <c r="F548" t="s">
-        <v>147</v>
-      </c>
-      <c r="G548" s="7" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H548" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A549" t="s">
-        <v>0</v>
-      </c>
-      <c r="B549" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C549" t="s">
-        <v>7</v>
-      </c>
-      <c r="D549" t="s">
-        <v>147</v>
-      </c>
-      <c r="E549" t="s">
-        <v>147</v>
-      </c>
-      <c r="F549" t="s">
-        <v>147</v>
-      </c>
-      <c r="G549" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="H549" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I549" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A550" t="s">
-        <v>0</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C550" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D550" t="s">
-        <v>147</v>
-      </c>
-      <c r="E550" t="s">
-        <v>147</v>
-      </c>
-      <c r="F550" t="s">
-        <v>147</v>
-      </c>
-      <c r="G550" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="H550" s="7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A551" t="s">
-        <v>0</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C551" t="s">
-        <v>9</v>
-      </c>
-      <c r="D551" t="s">
-        <v>147</v>
-      </c>
-      <c r="E551" t="s">
-        <v>147</v>
-      </c>
-      <c r="G551" s="7" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H551" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>0</v>
       </c>
@@ -21060,25 +21093,22 @@
         <v>1075</v>
       </c>
       <c r="C552" t="s">
-        <v>902</v>
+        <v>1148</v>
       </c>
       <c r="D552" t="s">
         <v>147</v>
       </c>
-      <c r="E552" t="s">
-        <v>147</v>
-      </c>
       <c r="F552" t="s">
         <v>147</v>
       </c>
       <c r="G552" s="7" t="s">
-        <v>904</v>
+        <v>1010</v>
       </c>
       <c r="H552" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>0</v>
       </c>
@@ -21086,132 +21116,129 @@
         <v>1075</v>
       </c>
       <c r="C553" t="s">
+        <v>7</v>
+      </c>
+      <c r="D553" t="s">
+        <v>147</v>
+      </c>
+      <c r="E553" t="s">
+        <v>147</v>
+      </c>
+      <c r="F553" t="s">
+        <v>147</v>
+      </c>
+      <c r="G553" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H553" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="I553" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>0</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D554" t="s">
+        <v>147</v>
+      </c>
+      <c r="E554" t="s">
+        <v>147</v>
+      </c>
+      <c r="F554" t="s">
+        <v>147</v>
+      </c>
+      <c r="G554" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H554" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>0</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C555" t="s">
+        <v>9</v>
+      </c>
+      <c r="D555" t="s">
+        <v>147</v>
+      </c>
+      <c r="E555" t="s">
+        <v>147</v>
+      </c>
+      <c r="G555" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H555" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>0</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C556" t="s">
+        <v>902</v>
+      </c>
+      <c r="D556" t="s">
+        <v>147</v>
+      </c>
+      <c r="E556" t="s">
+        <v>147</v>
+      </c>
+      <c r="F556" t="s">
+        <v>147</v>
+      </c>
+      <c r="G556" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H556" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>0</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C557" t="s">
         <v>903</v>
       </c>
-      <c r="D553" t="s">
-        <v>147</v>
-      </c>
-      <c r="E553" t="s">
-        <v>147</v>
-      </c>
-      <c r="F553" t="s">
-        <v>147</v>
-      </c>
-      <c r="G553" s="7" t="s">
+      <c r="D557" t="s">
+        <v>147</v>
+      </c>
+      <c r="E557" t="s">
+        <v>147</v>
+      </c>
+      <c r="F557" t="s">
+        <v>147</v>
+      </c>
+      <c r="G557" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="H553" s="7" t="s">
+      <c r="H557" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A554" t="s">
-        <v>0</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C554" t="s">
-        <v>11</v>
-      </c>
-      <c r="D554" t="s">
-        <v>147</v>
-      </c>
-      <c r="E554" t="s">
-        <v>147</v>
-      </c>
-      <c r="F554" t="s">
-        <v>147</v>
-      </c>
-      <c r="G554" s="12" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H554" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I554" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A555" t="s">
-        <v>0</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D555" t="s">
-        <v>147</v>
-      </c>
-      <c r="F555" t="s">
-        <v>147</v>
-      </c>
-      <c r="G555" s="7" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H555" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A556" t="s">
-        <v>0</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D556" t="s">
-        <v>147</v>
-      </c>
-      <c r="E556" t="s">
-        <v>147</v>
-      </c>
-      <c r="F556" t="s">
-        <v>147</v>
-      </c>
-      <c r="G556" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H556" s="7" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I556" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A557" t="s">
-        <v>0</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C557" t="s">
-        <v>41</v>
-      </c>
-      <c r="D557" t="s">
-        <v>147</v>
-      </c>
-      <c r="E557" t="s">
-        <v>147</v>
-      </c>
-      <c r="F557" t="s">
-        <v>147</v>
-      </c>
-      <c r="G557" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="H557" s="7" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>0</v>
       </c>
@@ -21219,7 +21246,7 @@
         <v>1076</v>
       </c>
       <c r="C558" t="s">
-        <v>902</v>
+        <v>11</v>
       </c>
       <c r="D558" t="s">
         <v>147</v>
@@ -21230,14 +21257,17 @@
       <c r="F558" t="s">
         <v>147</v>
       </c>
-      <c r="G558" s="7" t="s">
-        <v>904</v>
+      <c r="G558" s="12" t="s">
+        <v>1149</v>
       </c>
       <c r="H558" s="7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="I558" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>0</v>
       </c>
@@ -21245,33 +21275,30 @@
         <v>1076</v>
       </c>
       <c r="C559" t="s">
-        <v>903</v>
+        <v>1148</v>
       </c>
       <c r="D559" t="s">
         <v>147</v>
       </c>
-      <c r="E559" t="s">
-        <v>147</v>
-      </c>
       <c r="F559" t="s">
         <v>147</v>
       </c>
       <c r="G559" s="7" t="s">
-        <v>905</v>
+        <v>1010</v>
       </c>
       <c r="H559" s="7" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>0</v>
       </c>
       <c r="B560" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C560" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D560" t="s">
         <v>147</v>
@@ -21283,10 +21310,13 @@
         <v>147</v>
       </c>
       <c r="G560" s="7" t="s">
-        <v>1156</v>
+        <v>135</v>
       </c>
       <c r="H560" s="7" t="s">
-        <v>1154</v>
+        <v>1151</v>
+      </c>
+      <c r="I560" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.3">
@@ -21294,10 +21324,10 @@
         <v>0</v>
       </c>
       <c r="B561" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C561" t="s">
-        <v>1153</v>
+        <v>41</v>
       </c>
       <c r="D561" t="s">
         <v>147</v>
@@ -21309,10 +21339,10 @@
         <v>147</v>
       </c>
       <c r="G561" s="7" t="s">
-        <v>1155</v>
+        <v>485</v>
       </c>
       <c r="H561" s="7" t="s">
-        <v>783</v>
+        <v>658</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.3">
@@ -21320,7 +21350,7 @@
         <v>0</v>
       </c>
       <c r="B562" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C562" t="s">
         <v>902</v>
@@ -21346,7 +21376,7 @@
         <v>0</v>
       </c>
       <c r="B563" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C563" t="s">
         <v>903</v>
@@ -21372,22 +21402,25 @@
         <v>0</v>
       </c>
       <c r="B564" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C564" t="s">
-        <v>4</v>
+        <v>1152</v>
       </c>
       <c r="D564" t="s">
         <v>147</v>
       </c>
+      <c r="E564" t="s">
+        <v>147</v>
+      </c>
       <c r="F564" t="s">
         <v>147</v>
       </c>
       <c r="G564" s="7" t="s">
-        <v>1086</v>
+        <v>1156</v>
       </c>
       <c r="H564" s="7" t="s">
-        <v>1087</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.3">
@@ -21395,10 +21428,10 @@
         <v>0</v>
       </c>
       <c r="B565" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C565" t="s">
-        <v>45</v>
+        <v>1153</v>
       </c>
       <c r="D565" t="s">
         <v>147</v>
@@ -21410,13 +21443,10 @@
         <v>147</v>
       </c>
       <c r="G565" s="7" t="s">
-        <v>253</v>
+        <v>1155</v>
       </c>
       <c r="H565" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I565" t="s">
-        <v>1000</v>
+        <v>783</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.3">
@@ -21424,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="B566" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C566" t="s">
         <v>902</v>
@@ -21450,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="B567" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C567" t="s">
         <v>903</v>
@@ -21476,7 +21506,7 @@
         <v>0</v>
       </c>
       <c r="B568" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C568" t="s">
         <v>4</v>
@@ -21499,10 +21529,10 @@
         <v>0</v>
       </c>
       <c r="B569" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C569" t="s">
-        <v>1157</v>
+        <v>45</v>
       </c>
       <c r="D569" t="s">
         <v>147</v>
@@ -21514,13 +21544,13 @@
         <v>147</v>
       </c>
       <c r="G569" s="7" t="s">
-        <v>421</v>
+        <v>253</v>
       </c>
       <c r="H569" s="7" t="s">
-        <v>1158</v>
+        <v>254</v>
       </c>
       <c r="I569" t="s">
-        <v>1172</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.3">
@@ -21528,7 +21558,7 @@
         <v>0</v>
       </c>
       <c r="B570" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C570" t="s">
         <v>902</v>
@@ -21549,12 +21579,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>0</v>
       </c>
       <c r="B571" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C571" t="s">
         <v>903</v>
@@ -21580,10 +21610,10 @@
         <v>0</v>
       </c>
       <c r="B572" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C572" t="s">
-        <v>1159</v>
+        <v>4</v>
       </c>
       <c r="D572" t="s">
         <v>147</v>
@@ -21592,10 +21622,10 @@
         <v>147</v>
       </c>
       <c r="G572" s="7" t="s">
-        <v>1164</v>
+        <v>1086</v>
       </c>
       <c r="H572" s="7" t="s">
-        <v>1163</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.3">
@@ -21603,10 +21633,10 @@
         <v>0</v>
       </c>
       <c r="B573" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C573" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D573" t="s">
         <v>147</v>
@@ -21618,10 +21648,13 @@
         <v>147</v>
       </c>
       <c r="G573" s="7" t="s">
-        <v>1161</v>
+        <v>421</v>
       </c>
       <c r="H573" s="7" t="s">
-        <v>1162</v>
+        <v>1158</v>
+      </c>
+      <c r="I573" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.3">
@@ -21629,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="B574" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C574" t="s">
         <v>902</v>
@@ -21650,12 +21683,12 @@
         <v>906</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>0</v>
       </c>
       <c r="B575" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C575" t="s">
         <v>903</v>
@@ -21676,8 +21709,109 @@
         <v>907</v>
       </c>
     </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>0</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D576" t="s">
+        <v>147</v>
+      </c>
+      <c r="F576" t="s">
+        <v>147</v>
+      </c>
+      <c r="G576" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H576" s="7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>0</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D577" t="s">
+        <v>147</v>
+      </c>
+      <c r="E577" t="s">
+        <v>147</v>
+      </c>
+      <c r="F577" t="s">
+        <v>147</v>
+      </c>
+      <c r="G577" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H577" s="7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>0</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C578" t="s">
+        <v>902</v>
+      </c>
+      <c r="D578" t="s">
+        <v>147</v>
+      </c>
+      <c r="E578" t="s">
+        <v>147</v>
+      </c>
+      <c r="F578" t="s">
+        <v>147</v>
+      </c>
+      <c r="G578" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="H578" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>0</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C579" t="s">
+        <v>903</v>
+      </c>
+      <c r="D579" t="s">
+        <v>147</v>
+      </c>
+      <c r="E579" t="s">
+        <v>147</v>
+      </c>
+      <c r="F579" t="s">
+        <v>147</v>
+      </c>
+      <c r="G579" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="H579" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C568"/>
+  <autoFilter ref="A1:C572"/>
   <sortState ref="A2:H552">
     <sortCondition ref="B2:B552"/>
   </sortState>
@@ -21725,11 +21859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6035" uniqueCount="1229">
   <si>
     <t>DATA</t>
   </si>
@@ -3812,6 +3812,33 @@
   </si>
   <si>
     <t>Passwort</t>
+  </si>
+  <si>
+    <t>MASTER_DATA_SITE_INFO</t>
+  </si>
+  <si>
+    <t>Web-Site Überwachung</t>
+  </si>
+  <si>
+    <t>Master data sites</t>
+  </si>
+  <si>
+    <t>Site-Name</t>
+  </si>
+  <si>
+    <t>Site name</t>
+  </si>
+  <si>
+    <t>SITE_PATH</t>
+  </si>
+  <si>
+    <t>TIMEOUT_CHECKING</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Timeout</t>
   </si>
 </sst>
 </file>
@@ -4253,13 +4280,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M92" sqref="M92"/>
+      <selection pane="bottomRight" activeCell="A110" sqref="A110:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7589,6 +7616,26 @@
         <v>1092</v>
       </c>
     </row>
+    <row r="110" spans="1:21">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1222</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L99">
     <sortState ref="A2:K98">
@@ -7606,13 +7653,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N579"/>
+  <dimension ref="A1:N582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D447" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F570" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E455" sqref="E455"/>
+      <selection pane="bottomRight" activeCell="H582" sqref="H582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23549,6 +23596,90 @@
       </c>
       <c r="I579" s="7" t="s">
         <v>907</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9">
+      <c r="A580" t="s">
+        <v>153</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C580" t="s">
+        <v>12</v>
+      </c>
+      <c r="D580" t="s">
+        <v>147</v>
+      </c>
+      <c r="E580" t="s">
+        <v>147</v>
+      </c>
+      <c r="F580" t="s">
+        <v>147</v>
+      </c>
+      <c r="G580" t="s">
+        <v>147</v>
+      </c>
+      <c r="H580" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I580" s="7" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9">
+      <c r="A581" t="s">
+        <v>153</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D581" t="s">
+        <v>147</v>
+      </c>
+      <c r="E581" t="s">
+        <v>147</v>
+      </c>
+      <c r="F581" t="s">
+        <v>147</v>
+      </c>
+      <c r="G581" t="s">
+        <v>147</v>
+      </c>
+      <c r="H581" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I581" s="7" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9">
+      <c r="A582" t="s">
+        <v>153</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D582" t="s">
+        <v>147</v>
+      </c>
+      <c r="E582" t="s">
+        <v>147</v>
+      </c>
+      <c r="F582" t="s">
+        <v>147</v>
+      </c>
+      <c r="H582" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I582" s="7" t="s">
+        <v>1228</v>
       </c>
     </row>
   </sheetData>

--- a/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
+++ b/MasterDataModule/Generation/MasterDataModule.Generation/Declarations/Stammdaten.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="8415" activeTab="1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6035" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="1240">
   <si>
     <t>DATA</t>
   </si>
@@ -3839,13 +3839,46 @@
   </si>
   <si>
     <t>Timeout</t>
+  </si>
+  <si>
+    <t>APPLICATION_LOGS</t>
+  </si>
+  <si>
+    <t>Applikation-Logs</t>
+  </si>
+  <si>
+    <t>Applications logs</t>
+  </si>
+  <si>
+    <t>LOG_TYPE</t>
+  </si>
+  <si>
+    <t>LOG_LEVEL</t>
+  </si>
+  <si>
+    <t>Log-Typ</t>
+  </si>
+  <si>
+    <t>Logs type</t>
+  </si>
+  <si>
+    <t>Log-Stufe</t>
+  </si>
+  <si>
+    <t>logs level</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3983,7 +4016,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3996,9 +4029,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4036,7 +4069,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4070,6 +4103,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4104,9 +4138,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4279,17 +4314,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A110" sqref="A110:B110"/>
+      <selection pane="bottomRight" activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
@@ -4313,7 +4348,7 @@
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
@@ -4381,7 +4416,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +4439,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +4465,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4465,7 +4500,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="105">
+    <row r="5" spans="1:22" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4506,7 +4541,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +4575,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4571,7 +4606,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4602,7 +4637,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4668,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4664,7 +4699,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +4737,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4731,7 +4766,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4754,7 +4789,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4795,7 +4830,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4824,7 +4859,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4850,7 +4885,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4888,7 +4923,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4917,7 +4952,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4955,7 +4990,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4984,7 +5019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5045,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +5074,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -5077,7 +5112,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -5106,7 +5141,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -5132,7 +5167,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5158,7 +5193,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5184,7 +5219,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -5210,7 +5245,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -5236,7 +5271,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -5274,7 +5309,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -5312,7 +5347,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -5350,7 +5385,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5388,7 +5423,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5423,7 +5458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -5449,7 +5484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -5475,7 +5510,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -5510,7 +5545,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -5533,7 +5568,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -5568,7 +5603,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -5594,7 +5629,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -5617,7 +5652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -5640,7 +5675,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -5666,7 +5701,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -5692,7 +5727,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -5715,7 +5750,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>153</v>
       </c>
@@ -5738,7 +5773,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -5773,7 +5808,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -5796,7 +5831,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -5819,7 +5854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -5842,7 +5877,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -5868,7 +5903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -5894,7 +5929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -5920,7 +5955,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -5946,7 +5981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5972,7 +6007,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5995,7 +6030,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -6021,7 +6056,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -6044,7 +6079,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -6070,7 +6105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -6096,7 +6131,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -6125,7 +6160,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -6148,7 +6183,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -6171,7 +6206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -6197,7 +6232,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -6223,7 +6258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -6255,7 +6290,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -6287,7 +6322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="30">
+    <row r="68" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -6334,7 +6369,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -6369,7 +6404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -6395,7 +6430,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -6421,7 +6456,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -6447,7 +6482,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -6473,7 +6508,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -6499,7 +6534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -6534,7 +6569,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -6572,7 +6607,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6598,7 +6633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -6624,7 +6659,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -6653,7 +6688,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -6691,7 +6726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -6717,7 +6752,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -6743,7 +6778,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -6775,7 +6810,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -6801,7 +6836,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -6830,7 +6865,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -6868,7 +6903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -6906,7 +6941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -6935,7 +6970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -6961,7 +6996,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -6987,7 +7022,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -7019,7 +7054,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -7051,7 +7086,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -7083,7 +7118,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -7115,7 +7150,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -7150,7 +7185,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -7176,7 +7211,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -7202,7 +7237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -7240,7 +7275,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -7281,7 +7316,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -7316,7 +7351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -7360,7 +7395,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -7395,7 +7430,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="30">
+    <row r="103" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -7439,7 +7474,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -7468,7 +7503,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.75">
+    <row r="105" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -7497,7 +7532,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="30">
+    <row r="106" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -7532,7 +7567,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -7561,7 +7596,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -7590,7 +7625,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7616,7 +7651,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>153</v>
       </c>
@@ -7634,6 +7669,26 @@
       </c>
       <c r="L110" t="s">
         <v>1222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -7652,17 +7707,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N582"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F570" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H582" sqref="H582"/>
+      <selection pane="bottomRight" activeCell="B582" sqref="B582"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
@@ -7677,7 +7732,7 @@
     <col min="13" max="13" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
@@ -7721,7 +7776,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7750,7 +7805,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7779,7 +7834,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7805,7 +7860,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7834,7 +7889,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7863,7 +7918,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -7895,7 +7950,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -7924,7 +7979,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -7950,7 +8005,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7973,7 +8028,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="45">
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7999,7 +8054,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -8022,7 +8077,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -8045,7 +8100,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8123,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -8091,7 +8146,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -8117,7 +8172,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -8140,7 +8195,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8163,7 +8218,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -8186,7 +8241,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -8215,7 +8270,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8244,7 +8299,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8273,7 +8328,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8302,7 +8357,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8331,7 +8386,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8363,7 +8418,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8392,7 +8447,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8415,7 +8470,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="45">
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -8438,7 +8493,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8464,7 +8519,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -8493,7 +8548,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -8522,7 +8577,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -8548,7 +8603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -8580,7 +8635,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -8609,7 +8664,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -8638,7 +8693,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -8664,7 +8719,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -8696,7 +8751,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -8722,7 +8777,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -8751,7 +8806,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -8780,7 +8835,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -8812,7 +8867,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -8838,7 +8893,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -8867,7 +8922,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -8896,7 +8951,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -8922,7 +8977,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -8954,7 +9009,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -8983,7 +9038,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -9012,7 +9067,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -9038,7 +9093,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -9070,7 +9125,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -9099,7 +9154,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -9128,7 +9183,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -9160,7 +9215,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -9189,7 +9244,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30">
+    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -9215,7 +9270,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -9244,7 +9299,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -9273,7 +9328,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30">
+    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -9299,7 +9354,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -9331,7 +9386,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -9360,7 +9415,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -9389,7 +9444,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30">
+    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -9421,7 +9476,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30">
+    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -9447,7 +9502,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="30">
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -9470,7 +9525,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="45">
+    <row r="65" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9493,7 +9548,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30">
+    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -9516,7 +9571,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="30">
+    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -9539,7 +9594,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30">
+    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -9562,7 +9617,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -9591,7 +9646,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -9620,7 +9675,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -9652,7 +9707,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -9681,7 +9736,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -9710,7 +9765,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -9739,7 +9794,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="30">
+    <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -9765,7 +9820,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -9797,7 +9852,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -9826,7 +9881,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -9855,7 +9910,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -9884,7 +9939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -9910,7 +9965,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -9939,7 +9994,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -9965,7 +10020,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -9988,7 +10043,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -10011,7 +10066,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -10037,7 +10092,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -10063,7 +10118,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -10086,7 +10141,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -10109,7 +10164,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -10135,7 +10190,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -10158,7 +10213,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -10181,7 +10236,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -10204,7 +10259,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -10233,7 +10288,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -10262,7 +10317,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -10291,7 +10346,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -10323,7 +10378,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -10349,7 +10404,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -10378,7 +10433,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -10404,7 +10459,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -10433,7 +10488,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -10462,7 +10517,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -10488,7 +10543,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -10520,7 +10575,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -10549,7 +10604,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -10578,7 +10633,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -10607,7 +10662,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -10633,7 +10688,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -10662,7 +10717,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -10691,7 +10746,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -10717,7 +10772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -10746,7 +10801,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -10775,7 +10830,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -10804,7 +10859,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -10839,7 +10894,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -10871,7 +10926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -10900,7 +10955,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -10929,7 +10984,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -10961,7 +11016,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -10990,7 +11045,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="45">
+    <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -11013,7 +11068,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="45">
+    <row r="121" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -11042,7 +11097,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="30">
+    <row r="122" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -11068,7 +11123,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="30">
+    <row r="123" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -11094,7 +11149,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="60">
+    <row r="124" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -11120,7 +11175,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -11146,7 +11201,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -11175,7 +11230,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -11204,7 +11259,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -11236,7 +11291,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -11265,7 +11320,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -11294,7 +11349,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -11323,7 +11378,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -11349,7 +11404,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -11381,7 +11436,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -11410,7 +11465,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -11439,7 +11494,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -11471,7 +11526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -11503,7 +11558,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -11532,7 +11587,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -11561,7 +11616,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -11590,7 +11645,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="30">
+    <row r="141" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -11622,7 +11677,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -11651,7 +11706,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -11677,7 +11732,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -11703,7 +11758,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -11732,7 +11787,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -11761,7 +11816,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="30">
+    <row r="147" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -11790,7 +11845,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30">
+    <row r="148" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -11819,7 +11874,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -11848,7 +11903,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -11877,7 +11932,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="30">
+    <row r="151" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -11906,7 +11961,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -11932,7 +11987,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -11961,7 +12016,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11990,7 +12045,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -12019,7 +12074,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -12042,7 +12097,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -12065,7 +12120,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="30">
+    <row r="158" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -12088,7 +12143,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -12111,7 +12166,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -12134,7 +12189,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -12157,7 +12212,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -12183,7 +12238,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>153</v>
       </c>
@@ -12209,7 +12264,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>153</v>
       </c>
@@ -12235,7 +12290,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -12258,7 +12313,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>153</v>
       </c>
@@ -12281,7 +12336,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -12304,7 +12359,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>153</v>
       </c>
@@ -12327,7 +12382,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>153</v>
       </c>
@@ -12356,7 +12411,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>153</v>
       </c>
@@ -12385,7 +12440,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>153</v>
       </c>
@@ -12411,7 +12466,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>153</v>
       </c>
@@ -12440,7 +12495,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>153</v>
       </c>
@@ -12469,7 +12524,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>153</v>
       </c>
@@ -12498,7 +12553,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>153</v>
       </c>
@@ -12527,7 +12582,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>153</v>
       </c>
@@ -12556,7 +12611,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>153</v>
       </c>
@@ -12585,7 +12640,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>153</v>
       </c>
@@ -12614,7 +12669,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>153</v>
       </c>
@@ -12640,7 +12695,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>153</v>
       </c>
@@ -12669,7 +12724,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>153</v>
       </c>
@@ -12698,7 +12753,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>153</v>
       </c>
@@ -12727,7 +12782,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>153</v>
       </c>
@@ -12753,7 +12808,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>153</v>
       </c>
@@ -12782,7 +12837,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>153</v>
       </c>
@@ -12811,7 +12866,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>153</v>
       </c>
@@ -12840,7 +12895,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>153</v>
       </c>
@@ -12866,7 +12921,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>153</v>
       </c>
@@ -12892,7 +12947,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>153</v>
       </c>
@@ -12918,7 +12973,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>153</v>
       </c>
@@ -12947,7 +13002,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>153</v>
       </c>
@@ -12976,7 +13031,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>153</v>
       </c>
@@ -13005,7 +13060,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>153</v>
       </c>
@@ -13031,7 +13086,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>153</v>
       </c>
@@ -13060,7 +13115,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -13089,7 +13144,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>153</v>
       </c>
@@ -13118,7 +13173,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -13147,7 +13202,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>153</v>
       </c>
@@ -13176,7 +13231,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>153</v>
       </c>
@@ -13205,7 +13260,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>153</v>
       </c>
@@ -13234,7 +13289,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>153</v>
       </c>
@@ -13263,7 +13318,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>153</v>
       </c>
@@ -13292,7 +13347,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>153</v>
       </c>
@@ -13321,7 +13376,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>153</v>
       </c>
@@ -13347,7 +13402,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="30">
+    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>153</v>
       </c>
@@ -13376,7 +13431,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="30">
+    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>153</v>
       </c>
@@ -13402,7 +13457,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>153</v>
       </c>
@@ -13428,7 +13483,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>153</v>
       </c>
@@ -13454,7 +13509,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>153</v>
       </c>
@@ -13483,7 +13538,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>153</v>
       </c>
@@ -13512,7 +13567,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>153</v>
       </c>
@@ -13541,7 +13596,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>153</v>
       </c>
@@ -13567,7 +13622,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>153</v>
       </c>
@@ -13596,7 +13651,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>153</v>
       </c>
@@ -13625,7 +13680,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -13654,7 +13709,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>153</v>
       </c>
@@ -13680,7 +13735,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>153</v>
       </c>
@@ -13709,7 +13764,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>153</v>
       </c>
@@ -13738,7 +13793,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>153</v>
       </c>
@@ -13767,7 +13822,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>153</v>
       </c>
@@ -13796,7 +13851,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>153</v>
       </c>
@@ -13825,7 +13880,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>153</v>
       </c>
@@ -13854,7 +13909,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>153</v>
       </c>
@@ -13883,7 +13938,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>153</v>
       </c>
@@ -13906,7 +13961,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>153</v>
       </c>
@@ -13929,7 +13984,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>153</v>
       </c>
@@ -13952,7 +14007,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>153</v>
       </c>
@@ -13981,7 +14036,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>153</v>
       </c>
@@ -14010,7 +14065,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>153</v>
       </c>
@@ -14039,7 +14094,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>153</v>
       </c>
@@ -14065,7 +14120,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>153</v>
       </c>
@@ -14091,7 +14146,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>153</v>
       </c>
@@ -14120,7 +14175,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>153</v>
       </c>
@@ -14149,7 +14204,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>153</v>
       </c>
@@ -14178,7 +14233,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>153</v>
       </c>
@@ -14204,7 +14259,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="30">
+    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>153</v>
       </c>
@@ -14227,7 +14282,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>153</v>
       </c>
@@ -14250,7 +14305,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>153</v>
       </c>
@@ -14279,7 +14334,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>153</v>
       </c>
@@ -14308,7 +14363,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>153</v>
       </c>
@@ -14337,7 +14392,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>153</v>
       </c>
@@ -14366,7 +14421,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>153</v>
       </c>
@@ -14395,7 +14450,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>153</v>
       </c>
@@ -14424,7 +14479,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>153</v>
       </c>
@@ -14453,7 +14508,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>153</v>
       </c>
@@ -14479,7 +14534,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>153</v>
       </c>
@@ -14508,7 +14563,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>153</v>
       </c>
@@ -14537,7 +14592,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>153</v>
       </c>
@@ -14566,7 +14621,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>153</v>
       </c>
@@ -14589,7 +14644,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>153</v>
       </c>
@@ -14618,7 +14673,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>153</v>
       </c>
@@ -14647,7 +14702,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="30">
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>153</v>
       </c>
@@ -14676,7 +14731,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>153</v>
       </c>
@@ -14699,7 +14754,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>153</v>
       </c>
@@ -14722,7 +14777,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>153</v>
       </c>
@@ -14751,7 +14806,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>153</v>
       </c>
@@ -14780,7 +14835,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>153</v>
       </c>
@@ -14809,7 +14864,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>153</v>
       </c>
@@ -14835,7 +14890,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>153</v>
       </c>
@@ -14864,7 +14919,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>153</v>
       </c>
@@ -14893,7 +14948,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>153</v>
       </c>
@@ -14922,7 +14977,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>153</v>
       </c>
@@ -14951,7 +15006,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>153</v>
       </c>
@@ -14980,7 +15035,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>153</v>
       </c>
@@ -15009,7 +15064,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>153</v>
       </c>
@@ -15035,7 +15090,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>153</v>
       </c>
@@ -15064,7 +15119,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>153</v>
       </c>
@@ -15093,7 +15148,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>153</v>
       </c>
@@ -15122,7 +15177,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>153</v>
       </c>
@@ -15148,7 +15203,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>153</v>
       </c>
@@ -15174,7 +15229,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>153</v>
       </c>
@@ -15203,7 +15258,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>153</v>
       </c>
@@ -15232,7 +15287,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>153</v>
       </c>
@@ -15261,7 +15316,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>153</v>
       </c>
@@ -15287,7 +15342,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>153</v>
       </c>
@@ -15310,7 +15365,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>153</v>
       </c>
@@ -15339,7 +15394,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>153</v>
       </c>
@@ -15368,7 +15423,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>153</v>
       </c>
@@ -15397,7 +15452,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>153</v>
       </c>
@@ -15426,7 +15481,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>153</v>
       </c>
@@ -15455,7 +15510,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>153</v>
       </c>
@@ -15484,7 +15539,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>153</v>
       </c>
@@ -15510,7 +15565,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>153</v>
       </c>
@@ -15527,7 +15582,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>153</v>
       </c>
@@ -15544,7 +15599,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>153</v>
       </c>
@@ -15573,7 +15628,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>153</v>
       </c>
@@ -15602,7 +15657,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>153</v>
       </c>
@@ -15631,7 +15686,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>153</v>
       </c>
@@ -15660,7 +15715,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>153</v>
       </c>
@@ -15689,7 +15744,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>153</v>
       </c>
@@ -15718,7 +15773,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>153</v>
       </c>
@@ -15747,7 +15802,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>153</v>
       </c>
@@ -15776,7 +15831,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>153</v>
       </c>
@@ -15805,7 +15860,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>153</v>
       </c>
@@ -15834,7 +15889,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>153</v>
       </c>
@@ -15863,7 +15918,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>153</v>
       </c>
@@ -15892,7 +15947,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>153</v>
       </c>
@@ -15921,7 +15976,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>153</v>
       </c>
@@ -15950,7 +16005,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>153</v>
       </c>
@@ -15979,7 +16034,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>153</v>
       </c>
@@ -16008,7 +16063,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>153</v>
       </c>
@@ -16037,7 +16092,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>153</v>
       </c>
@@ -16066,7 +16121,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>153</v>
       </c>
@@ -16092,7 +16147,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>153</v>
       </c>
@@ -16118,7 +16173,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>153</v>
       </c>
@@ -16147,7 +16202,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>153</v>
       </c>
@@ -16176,7 +16231,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>153</v>
       </c>
@@ -16205,7 +16260,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>153</v>
       </c>
@@ -16234,7 +16289,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>153</v>
       </c>
@@ -16263,7 +16318,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="30">
+    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>153</v>
       </c>
@@ -16286,7 +16341,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>153</v>
       </c>
@@ -16315,7 +16370,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>153</v>
       </c>
@@ -16344,7 +16399,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="30">
+    <row r="313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>153</v>
       </c>
@@ -16373,7 +16428,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>153</v>
       </c>
@@ -16399,7 +16454,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="75">
+    <row r="315" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>153</v>
       </c>
@@ -16422,7 +16477,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>153</v>
       </c>
@@ -16451,7 +16506,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>153</v>
       </c>
@@ -16480,7 +16535,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>153</v>
       </c>
@@ -16509,7 +16564,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="30">
+    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>153</v>
       </c>
@@ -16535,7 +16590,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>153</v>
       </c>
@@ -16561,7 +16616,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>153</v>
       </c>
@@ -16590,7 +16645,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>153</v>
       </c>
@@ -16619,7 +16674,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>153</v>
       </c>
@@ -16648,7 +16703,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>153</v>
       </c>
@@ -16674,7 +16729,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>153</v>
       </c>
@@ -16700,7 +16755,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>153</v>
       </c>
@@ -16726,7 +16781,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>153</v>
       </c>
@@ -16746,7 +16801,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>153</v>
       </c>
@@ -16775,7 +16830,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>153</v>
       </c>
@@ -16804,7 +16859,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>153</v>
       </c>
@@ -16830,7 +16885,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>153</v>
       </c>
@@ -16859,7 +16914,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>153</v>
       </c>
@@ -16888,7 +16943,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>153</v>
       </c>
@@ -16917,7 +16972,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>153</v>
       </c>
@@ -16946,7 +17001,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>153</v>
       </c>
@@ -16975,7 +17030,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>153</v>
       </c>
@@ -17004,7 +17059,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -17033,7 +17088,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>153</v>
       </c>
@@ -17065,7 +17120,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>153</v>
       </c>
@@ -17094,7 +17149,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>153</v>
       </c>
@@ -17123,7 +17178,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>153</v>
       </c>
@@ -17152,7 +17207,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>153</v>
       </c>
@@ -17181,7 +17236,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>153</v>
       </c>
@@ -17204,7 +17259,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>153</v>
       </c>
@@ -17236,7 +17291,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>153</v>
       </c>
@@ -17265,7 +17320,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>153</v>
       </c>
@@ -17294,7 +17349,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>153</v>
       </c>
@@ -17323,7 +17378,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>153</v>
       </c>
@@ -17349,7 +17404,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>153</v>
       </c>
@@ -17378,7 +17433,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>153</v>
       </c>
@@ -17407,7 +17462,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>153</v>
       </c>
@@ -17436,7 +17491,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>153</v>
       </c>
@@ -17462,7 +17517,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>153</v>
       </c>
@@ -17491,7 +17546,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>153</v>
       </c>
@@ -17520,7 +17575,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>153</v>
       </c>
@@ -17549,7 +17604,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>153</v>
       </c>
@@ -17575,7 +17630,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>153</v>
       </c>
@@ -17601,7 +17656,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>153</v>
       </c>
@@ -17630,7 +17685,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>153</v>
       </c>
@@ -17659,7 +17714,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>153</v>
       </c>
@@ -17688,7 +17743,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>153</v>
       </c>
@@ -17714,7 +17769,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>153</v>
       </c>
@@ -17743,7 +17798,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>153</v>
       </c>
@@ -17772,7 +17827,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="30">
+    <row r="364" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>153</v>
       </c>
@@ -17801,7 +17856,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>153</v>
       </c>
@@ -17827,7 +17882,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>153</v>
       </c>
@@ -17850,7 +17905,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>153</v>
       </c>
@@ -17876,7 +17931,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>153</v>
       </c>
@@ -17905,7 +17960,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>153</v>
       </c>
@@ -17934,7 +17989,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>153</v>
       </c>
@@ -17960,7 +18015,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>153</v>
       </c>
@@ -17989,7 +18044,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>153</v>
       </c>
@@ -18018,7 +18073,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>153</v>
       </c>
@@ -18047,7 +18102,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="30">
+    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>153</v>
       </c>
@@ -18076,7 +18131,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>153</v>
       </c>
@@ -18105,7 +18160,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>153</v>
       </c>
@@ -18134,7 +18189,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>153</v>
       </c>
@@ -18163,7 +18218,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>153</v>
       </c>
@@ -18192,7 +18247,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>153</v>
       </c>
@@ -18221,7 +18276,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>153</v>
       </c>
@@ -18250,7 +18305,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>153</v>
       </c>
@@ -18279,7 +18334,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>153</v>
       </c>
@@ -18308,7 +18363,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>153</v>
       </c>
@@ -18337,7 +18392,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>153</v>
       </c>
@@ -18366,7 +18421,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>153</v>
       </c>
@@ -18392,7 +18447,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>153</v>
       </c>
@@ -18421,7 +18476,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>153</v>
       </c>
@@ -18447,7 +18502,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>153</v>
       </c>
@@ -18476,7 +18531,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>153</v>
       </c>
@@ -18505,7 +18560,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>153</v>
       </c>
@@ -18531,7 +18586,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>153</v>
       </c>
@@ -18560,7 +18615,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>153</v>
       </c>
@@ -18589,7 +18644,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="30">
+    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>153</v>
       </c>
@@ -18618,7 +18673,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>153</v>
       </c>
@@ -18644,7 +18699,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>153</v>
       </c>
@@ -18673,7 +18728,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>153</v>
       </c>
@@ -18702,7 +18757,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>153</v>
       </c>
@@ -18731,7 +18786,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>153</v>
       </c>
@@ -18760,7 +18815,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>153</v>
       </c>
@@ -18789,7 +18844,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>153</v>
       </c>
@@ -18818,7 +18873,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>153</v>
       </c>
@@ -18847,7 +18902,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>153</v>
       </c>
@@ -18876,7 +18931,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>153</v>
       </c>
@@ -18905,7 +18960,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>153</v>
       </c>
@@ -18922,7 +18977,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>153</v>
       </c>
@@ -18939,7 +18994,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>153</v>
       </c>
@@ -18968,7 +19023,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>153</v>
       </c>
@@ -18997,7 +19052,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>153</v>
       </c>
@@ -19026,7 +19081,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>153</v>
       </c>
@@ -19052,7 +19107,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>153</v>
       </c>
@@ -19081,7 +19136,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>153</v>
       </c>
@@ -19110,7 +19165,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>153</v>
       </c>
@@ -19139,7 +19194,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="30">
+    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>153</v>
       </c>
@@ -19168,7 +19223,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="60">
+    <row r="414" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>153</v>
       </c>
@@ -19197,7 +19252,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>153</v>
       </c>
@@ -19223,7 +19278,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>153</v>
       </c>
@@ -19249,7 +19304,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>153</v>
       </c>
@@ -19275,7 +19330,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>153</v>
       </c>
@@ -19301,7 +19356,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="45">
+    <row r="419" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>153</v>
       </c>
@@ -19327,7 +19382,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>153</v>
       </c>
@@ -19353,7 +19408,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="60">
+    <row r="421" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>153</v>
       </c>
@@ -19379,7 +19434,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>153</v>
       </c>
@@ -19408,7 +19463,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>153</v>
       </c>
@@ -19437,7 +19492,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>153</v>
       </c>
@@ -19463,7 +19518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>153</v>
       </c>
@@ -19492,7 +19547,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>153</v>
       </c>
@@ -19521,7 +19576,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>153</v>
       </c>
@@ -19550,7 +19605,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="105">
+    <row r="428" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>153</v>
       </c>
@@ -19579,7 +19634,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>153</v>
       </c>
@@ -19605,7 +19660,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>153</v>
       </c>
@@ -19634,7 +19689,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>153</v>
       </c>
@@ -19663,7 +19718,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>153</v>
       </c>
@@ -19686,7 +19741,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>153</v>
       </c>
@@ -19715,7 +19770,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>153</v>
       </c>
@@ -19738,7 +19793,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>153</v>
       </c>
@@ -19761,7 +19816,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>153</v>
       </c>
@@ -19784,7 +19839,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>153</v>
       </c>
@@ -19807,7 +19862,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>153</v>
       </c>
@@ -19833,7 +19888,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>153</v>
       </c>
@@ -19859,7 +19914,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>153</v>
       </c>
@@ -19882,7 +19937,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>153</v>
       </c>
@@ -19905,7 +19960,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>153</v>
       </c>
@@ -19928,7 +19983,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>153</v>
       </c>
@@ -19951,7 +20006,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>153</v>
       </c>
@@ -19980,7 +20035,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>153</v>
       </c>
@@ -20009,7 +20064,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>153</v>
       </c>
@@ -20038,7 +20093,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>153</v>
       </c>
@@ -20064,7 +20119,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>153</v>
       </c>
@@ -20093,7 +20148,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>153</v>
       </c>
@@ -20122,7 +20177,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>153</v>
       </c>
@@ -20151,7 +20206,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>153</v>
       </c>
@@ -20177,7 +20232,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>153</v>
       </c>
@@ -20206,7 +20261,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>153</v>
       </c>
@@ -20235,7 +20290,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>153</v>
       </c>
@@ -20261,7 +20316,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>153</v>
       </c>
@@ -20284,7 +20339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>153</v>
       </c>
@@ -20307,7 +20362,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>153</v>
       </c>
@@ -20333,7 +20388,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>153</v>
       </c>
@@ -20362,7 +20417,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>153</v>
       </c>
@@ -20388,7 +20443,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>153</v>
       </c>
@@ -20414,7 +20469,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>153</v>
       </c>
@@ -20443,7 +20498,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>153</v>
       </c>
@@ -20472,7 +20527,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>153</v>
       </c>
@@ -20501,7 +20556,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>153</v>
       </c>
@@ -20527,7 +20582,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="30">
+    <row r="465" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>153</v>
       </c>
@@ -20550,7 +20605,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="30">
+    <row r="466" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>153</v>
       </c>
@@ -20573,7 +20628,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>153</v>
       </c>
@@ -20599,7 +20654,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>153</v>
       </c>
@@ -20628,7 +20683,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>153</v>
       </c>
@@ -20657,7 +20712,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>153</v>
       </c>
@@ -20686,7 +20741,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -20712,7 +20767,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>153</v>
       </c>
@@ -20738,7 +20793,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>153</v>
       </c>
@@ -20764,7 +20819,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>153</v>
       </c>
@@ -20793,7 +20848,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>153</v>
       </c>
@@ -20822,7 +20877,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>153</v>
       </c>
@@ -20851,7 +20906,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>153</v>
       </c>
@@ -20877,7 +20932,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>153</v>
       </c>
@@ -20903,7 +20958,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>153</v>
       </c>
@@ -20932,7 +20987,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>153</v>
       </c>
@@ -20961,7 +21016,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>153</v>
       </c>
@@ -20987,7 +21042,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>153</v>
       </c>
@@ -21013,7 +21068,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>153</v>
       </c>
@@ -21039,7 +21094,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>153</v>
       </c>
@@ -21068,7 +21123,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>153</v>
       </c>
@@ -21097,7 +21152,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>153</v>
       </c>
@@ -21123,7 +21178,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>153</v>
       </c>
@@ -21152,7 +21207,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>153</v>
       </c>
@@ -21181,7 +21236,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>153</v>
       </c>
@@ -21210,7 +21265,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>153</v>
       </c>
@@ -21236,7 +21291,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>153</v>
       </c>
@@ -21265,7 +21320,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>153</v>
       </c>
@@ -21288,7 +21343,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>153</v>
       </c>
@@ -21314,7 +21369,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>153</v>
       </c>
@@ -21340,7 +21395,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="15.75">
+    <row r="495" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>153</v>
       </c>
@@ -21369,7 +21424,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="15.75">
+    <row r="496" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>153</v>
       </c>
@@ -21392,7 +21447,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="15.75">
+    <row r="497" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>153</v>
       </c>
@@ -21415,7 +21470,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>153</v>
       </c>
@@ -21438,7 +21493,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="499" spans="1:10" ht="15.75">
+    <row r="499" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>153</v>
       </c>
@@ -21464,7 +21519,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="15.75">
+    <row r="500" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>153</v>
       </c>
@@ -21493,7 +21548,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="501" spans="1:10">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>153</v>
       </c>
@@ -21516,7 +21571,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="502" spans="1:10">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>153</v>
       </c>
@@ -21539,7 +21594,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="47.25">
+    <row r="503" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>153</v>
       </c>
@@ -21562,7 +21617,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="15.75">
+    <row r="504" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>153</v>
       </c>
@@ -21588,7 +21643,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>153</v>
       </c>
@@ -21617,7 +21672,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>153</v>
       </c>
@@ -21646,7 +21701,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="15.75">
+    <row r="507" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -21675,7 +21730,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="31.5">
+    <row r="508" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>153</v>
       </c>
@@ -21698,7 +21753,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="47.25">
+    <row r="509" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>153</v>
       </c>
@@ -21721,7 +21776,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="510" spans="1:10">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>153</v>
       </c>
@@ -21744,7 +21799,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="15.75">
+    <row r="511" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>153</v>
       </c>
@@ -21770,7 +21825,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="15.75">
+    <row r="512" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>153</v>
       </c>
@@ -21793,7 +21848,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="15.75">
+    <row r="513" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>153</v>
       </c>
@@ -21816,7 +21871,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="15.75">
+    <row r="514" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>153</v>
       </c>
@@ -21839,7 +21894,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="15.75">
+    <row r="515" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>153</v>
       </c>
@@ -21862,7 +21917,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="15.75">
+    <row r="516" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>153</v>
       </c>
@@ -21885,7 +21940,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="30">
+    <row r="517" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>153</v>
       </c>
@@ -21908,7 +21963,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="75">
+    <row r="518" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>153</v>
       </c>
@@ -21931,7 +21986,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="30">
+    <row r="519" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>153</v>
       </c>
@@ -21954,7 +22009,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="30">
+    <row r="520" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>153</v>
       </c>
@@ -21977,7 +22032,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="30">
+    <row r="521" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>153</v>
       </c>
@@ -22000,7 +22055,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="75">
+    <row r="522" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>153</v>
       </c>
@@ -22026,7 +22081,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="523" spans="1:10">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>153</v>
       </c>
@@ -22049,7 +22104,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="524" spans="1:10">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>153</v>
       </c>
@@ -22075,7 +22130,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="525" spans="1:10">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>153</v>
       </c>
@@ -22104,7 +22159,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="526" spans="1:10">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>153</v>
       </c>
@@ -22133,7 +22188,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>153</v>
       </c>
@@ -22159,7 +22214,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>153</v>
       </c>
@@ -22191,7 +22246,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>153</v>
       </c>
@@ -22220,7 +22275,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>153</v>
       </c>
@@ -22246,7 +22301,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="531" spans="1:13">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>153</v>
       </c>
@@ -22275,7 +22330,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="532" spans="1:13">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>153</v>
       </c>
@@ -22304,7 +22359,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="533" spans="1:13">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>0</v>
       </c>
@@ -22339,7 +22394,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="534" spans="1:13">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>0</v>
       </c>
@@ -22359,7 +22414,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="15.75">
+    <row r="535" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>0</v>
       </c>
@@ -22385,7 +22440,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="536" spans="1:13" ht="15.75">
+    <row r="536" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>0</v>
       </c>
@@ -22408,7 +22463,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="15.75">
+    <row r="537" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>0</v>
       </c>
@@ -22437,7 +22492,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="15.75">
+    <row r="538" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>0</v>
       </c>
@@ -22463,7 +22518,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="15.75">
+    <row r="539" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>0</v>
       </c>
@@ -22489,7 +22544,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="15.75">
+    <row r="540" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>0</v>
       </c>
@@ -22515,7 +22570,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="15.75">
+    <row r="541" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>0</v>
       </c>
@@ -22538,7 +22593,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="15.75">
+    <row r="542" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>0</v>
       </c>
@@ -22561,7 +22616,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="15.75">
+    <row r="543" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>0</v>
       </c>
@@ -22584,7 +22639,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="544" spans="1:13">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>0</v>
       </c>
@@ -22607,7 +22662,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>0</v>
       </c>
@@ -22630,7 +22685,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>0</v>
       </c>
@@ -22653,7 +22708,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>0</v>
       </c>
@@ -22676,7 +22731,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>0</v>
       </c>
@@ -22705,7 +22760,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>0</v>
       </c>
@@ -22731,7 +22786,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>0</v>
       </c>
@@ -22760,7 +22815,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>0</v>
       </c>
@@ -22789,7 +22844,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>0</v>
       </c>
@@ -22815,7 +22870,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>0</v>
       </c>
@@ -22847,7 +22902,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>0</v>
       </c>
@@ -22876,7 +22931,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>0</v>
       </c>
@@ -22902,7 +22957,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>0</v>
       </c>
@@ -22931,7 +22986,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>0</v>
       </c>
@@ -22960,7 +23015,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="558" spans="1:14" ht="15.75">
+    <row r="558" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>0</v>
       </c>
@@ -22992,7 +23047,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="559" spans="1:14">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>0</v>
       </c>
@@ -23018,7 +23073,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="560" spans="1:14">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>0</v>
       </c>
@@ -23050,7 +23105,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="561" spans="1:10">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>0</v>
       </c>
@@ -23079,7 +23134,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="562" spans="1:10">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>0</v>
       </c>
@@ -23108,7 +23163,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="563" spans="1:10">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>0</v>
       </c>
@@ -23137,7 +23192,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="564" spans="1:10">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>0</v>
       </c>
@@ -23166,7 +23221,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="565" spans="1:10">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>0</v>
       </c>
@@ -23195,7 +23250,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="566" spans="1:10">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>0</v>
       </c>
@@ -23224,7 +23279,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="567" spans="1:10">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>0</v>
       </c>
@@ -23253,7 +23308,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>0</v>
       </c>
@@ -23279,7 +23334,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="569" spans="1:10">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>0</v>
       </c>
@@ -23311,7 +23366,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="570" spans="1:10">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>0</v>
       </c>
@@ -23340,7 +23395,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="571" spans="1:10">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>0</v>
       </c>
@@ -23369,7 +23424,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="572" spans="1:10">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>0</v>
       </c>
@@ -23395,7 +23450,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="573" spans="1:10">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>0</v>
       </c>
@@ -23427,7 +23482,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="574" spans="1:10">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>0</v>
       </c>
@@ -23456,7 +23511,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="16.5" customHeight="1">
+    <row r="575" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>0</v>
       </c>
@@ -23485,7 +23540,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="576" spans="1:10">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>0</v>
       </c>
@@ -23511,7 +23566,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>0</v>
       </c>
